--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1265.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1265.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8263518223330697</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04131759111665349</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04131759111665349</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06610814578664558</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06115574960149644</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01115574960149644</v>
+        <v>0.01765743719209541</v>
       </c>
       <c r="B65" t="n">
-        <v>0.009289485657746096</v>
+        <v>0.01470349509516778</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0007908449858812783</v>
+        <v>0.001923296398627712</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.000753048732535178</v>
+        <v>0.0007947139928806954</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00163418359952118</v>
+        <v>0.004750488249602947</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007379438513754013</v>
+        <v>0.0007831053899350636</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004587635091072295</v>
+        <v>0.008449458246608976</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007385190972133879</v>
+        <v>0.0007815460177106558</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.00888452133266171</v>
+        <v>0.001923296398627712</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007027052872785527</v>
+        <v>0.0007947139928806954</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.001474719107959349</v>
+        <v>0.00436945730632933</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001506097465070356</v>
+        <v>0.001589427985761391</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003131072884968514</v>
+        <v>0.009762751710180345</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001475887702750803</v>
+        <v>0.001566210779870127</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.008808085857473724</v>
+        <v>0.01587911568891454</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001477038194426776</v>
+        <v>0.001563092035421312</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01701782495066778</v>
+        <v>0.00436945730632933</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001405410574557105</v>
+        <v>0.001589427985761391</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.002944651502431013</v>
+        <v>0.006209024690607592</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002259146197605534</v>
+        <v>0.002384141978642086</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004743988331073409</v>
+        <v>0.01508813708952375</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002213831554126204</v>
+        <v>0.002349316169805191</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01310256913036939</v>
+        <v>0.02386550027280088</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002215557291640164</v>
+        <v>0.002344638053131967</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02477018220987759</v>
+        <v>0.006209024690607592</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002108115861835658</v>
+        <v>0.002384141978642086</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006197638667498021</v>
+        <v>0.008112540518965219</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003096495219248699</v>
+        <v>0.003178855971522781</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.00642625041256728</v>
+        <v>0.01897799109542447</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002951775405501605</v>
+        <v>0.003132421559740254</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01681230174092449</v>
+        <v>0.03008513994415163</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002954076388853552</v>
+        <v>0.003126184070842623</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0314118644661503</v>
+        <v>0.008112540518965219</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002810821149114211</v>
+        <v>0.003178855971522781</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003096495219248699</v>
+        <v>0.007494374999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006197638667498021</v>
+        <v>0.015</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.004951834187371724</v>
+        <v>0.01005054675890497</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00376524366267589</v>
+        <v>0.003973569964403477</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.007731179604181557</v>
+        <v>0.02099999999999999</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003689719256877006</v>
+        <v>0.00364309895833333</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01997850052030428</v>
+        <v>0.03299999999999997</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00369259548606694</v>
+        <v>0.00354572580645161</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03899999999999998</v>
+        <v>0.01005054675890497</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003747187499999997</v>
+        <v>0.003973569964403477</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006696341581326613</v>
+        <v>0.01139358537792957</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004518292395211068</v>
+        <v>0.004768283957284172</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008999999999999994</v>
+        <v>0.0237620660252412</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004496624999999997</v>
+        <v>0.004698632339610382</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02199999999999996</v>
+        <v>0.03794378745718713</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004071018518518511</v>
+        <v>0.004689276106263934</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04094205183326721</v>
+        <v>0.01139358537792957</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004216231723671316</v>
+        <v>0.004768283957284172</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007349843530609322</v>
+        <v>0.01281219834354176</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005271341127746246</v>
+        <v>0.005562997950164867</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.009498223175323055</v>
+        <v>0.02624809629558569</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005165606959627809</v>
+        <v>0.005481737729545445</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02498363191005704</v>
+        <v>0.0416203866427759</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005169633680493715</v>
+        <v>0.00547082212397459</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04393912624594049</v>
+        <v>0.01281219834354176</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.004918937010949869</v>
+        <v>0.005562997950164867</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.007933079422386816</v>
+        <v>0.01397692762324428</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006024389860281424</v>
+        <v>0.006357711943045563</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01048771353022037</v>
+        <v>0.02832274946470539</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.00590355081100321</v>
+        <v>0.006264843119480509</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02640622076337415</v>
+        <v>0.04505283591020465</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005908152777707103</v>
+        <v>0.006252368141685246</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04728331535807739</v>
+        <v>0.01397692762324428</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005621642298228422</v>
+        <v>0.006357711943045563</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.008466788643826113</v>
+        <v>0.015</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006777438592816602</v>
+        <v>0.007494374999999999</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01099539485825857</v>
+        <v>0.03011224492095685</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006641494662378612</v>
+        <v>0.007047948509415572</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02792918224395785</v>
+        <v>0.04798457415227825</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006646671874920492</v>
+        <v>0.007033914159395902</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04898783575308363</v>
+        <v>0.015</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006324347585506974</v>
+        <v>0.007494374999999999</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.008971710582094172</v>
+        <v>0.01506491910184143</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00753048732535178</v>
+        <v>0.007947139928806954</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01163537648138727</v>
+        <v>0.03194280205269678</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007379438513754013</v>
+        <v>0.007831053899350637</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02950040156390979</v>
+        <v>0.0504590402618017</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.00738519097213388</v>
+        <v>0.007815460177106558</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05126590401436476</v>
+        <v>0.01506491910184143</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007027052872785527</v>
+        <v>0.007947139928806954</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.009468584624357991</v>
+        <v>0.01546157817332648</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008283536057886958</v>
+        <v>0.008741853921687649</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.0123217677215561</v>
+        <v>0.03364064024828176</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008117382365129414</v>
+        <v>0.008614159289285701</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03076776393533159</v>
+        <v>0.05351967313158001</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008123710069347267</v>
+        <v>0.008597006194817213</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05353073672532632</v>
+        <v>0.01546157817332648</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007729758160064079</v>
+        <v>0.008741853921687649</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01115574960149644</v>
+        <v>0.01568712757496538</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009289485657746096</v>
+        <v>0.009536567914568344</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01276867790071469</v>
+        <v>0.03543197889606839</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008855326216504816</v>
+        <v>0.009397264679220764</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03227915457032493</v>
+        <v>0.05600991165441821</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008862229166560655</v>
+        <v>0.009378552212527869</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0557955504693739</v>
+        <v>0.01568712757496538</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008432463447342631</v>
+        <v>0.009536567914568344</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01151743827099434</v>
+        <v>0.01616020219722464</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009789633522957314</v>
+        <v>0.01033128190744904</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01339021634081262</v>
+        <v>0.03654303738441331</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009593270067880218</v>
+        <v>0.01018037006915583</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03368245868099143</v>
+        <v>0.05747319472312118</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009600748263774044</v>
+        <v>0.01016009823023852</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05737356182991316</v>
+        <v>0.01616020219722464</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009135168734621184</v>
+        <v>0.01033128190744904</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01208322007655759</v>
+        <v>0.01639943693057092</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01054268225549249</v>
+        <v>0.01112599590032973</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01410049236379955</v>
+        <v>0.03867126846515573</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01033121391925562</v>
+        <v>0.01118121094149504</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03522556147943279</v>
+        <v>0.05968509973821601</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01033926736098743</v>
+        <v>0.01068823224254701</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05968509973821601</v>
+        <v>0.01639943693057092</v>
       </c>
       <c r="O79" t="n">
-        <v>0.009557746139969927</v>
+        <v>0.01112599590032973</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01267017844333167</v>
+        <v>0.01652346666547079</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01129573098802767</v>
+        <v>0.01192070989321043</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01441361529162512</v>
+        <v>0.03903473989920206</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01106915777063102</v>
+        <v>0.01174658084902595</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03625634817775056</v>
+        <v>0.06172818089147109</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01107778645820082</v>
+        <v>0.01172319026565984</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06215153579676164</v>
+        <v>0.01652346666547079</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01054057930917829</v>
+        <v>0.01192070989321043</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01127346337338521</v>
+        <v>0.01685092629239088</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01204877972056285</v>
+        <v>0.01271542388609113</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01494369444623889</v>
+        <v>0.04087437494826618</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01180710162200642</v>
+        <v>0.01252968623896102</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03867126846515573</v>
+        <v>0.06440363153419348</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01192662500426137</v>
+        <v>0.01250473628337049</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06508511404236705</v>
+        <v>0.01685092629239088</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01124328459645684</v>
+        <v>0.01271542388609113</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0118882248687868</v>
+        <v>0.01700045070179779</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01280182845309803</v>
+        <v>0.01351013787897182</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01560483914959052</v>
+        <v>0.0419181883584851</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01254504547338182</v>
+        <v>0.01331279162889608</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03997596868407541</v>
+        <v>0.06617957190131263</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0125548246526276</v>
+        <v>0.01328628230108115</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06844372881331445</v>
+        <v>0.01700045070179779</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01194598988373539</v>
+        <v>0.01351013787897182</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01250961293160505</v>
+        <v>0.01749067478415807</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0135548771856332</v>
+        <v>0.01430485187185252</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01601115872362961</v>
+        <v>0.04306424251590013</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01328298932475722</v>
+        <v>0.01409589701883114</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04182435651245664</v>
+        <v>0.06765332245971439</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01329334374984098</v>
+        <v>0.0140678283187918</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07140258290161294</v>
+        <v>0.01749067478415807</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01264869517101395</v>
+        <v>0.01430485187185252</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01413277756390856</v>
+        <v>0.01765743719209541</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01430792591816838</v>
+        <v>0.01470349509516778</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01697676249030582</v>
+        <v>0.04501059980655239</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01402093317613263</v>
+        <v>0.01487900240876621</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04403616590003237</v>
+        <v>0.07062220367628452</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01403186284705437</v>
+        <v>0.01484937433650246</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07373687909927135</v>
+        <v>0.01765743719209541</v>
       </c>
       <c r="O84" t="n">
-        <v>0.0133514004582925</v>
+        <v>0.01470349509516778</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01575286876776596</v>
+        <v>0.01822635283446669</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01506097465070356</v>
+        <v>0.01589427985761391</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01765743719209541</v>
+        <v>0.04615532261648311</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01470349509516778</v>
+        <v>0.01566210779870127</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04607929124826229</v>
+        <v>0.07168353601790878</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01477038194426776</v>
+        <v>0.01563092035421312</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07762182019829877</v>
+        <v>0.01822635283446669</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01405410574557105</v>
+        <v>0.01589427985761391</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01536503654524583</v>
+        <v>0.01865437763746287</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01581402338323874</v>
+        <v>0.0166889938504946</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01859451094779391</v>
+        <v>0.04729647333173348</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01549682087888343</v>
+        <v>0.01644521318863634</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0487216269586061</v>
+        <v>0.07403463995147297</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01550890104148115</v>
+        <v>0.01641246637192377</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08103260899070425</v>
+        <v>0.01865437763746287</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01475681103284961</v>
+        <v>0.0166889938504946</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01496443089841678</v>
+        <v>0.01901772777823393</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01656707211577392</v>
+        <v>0.0174837078433753</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01933324338396089</v>
+        <v>0.04883211433834472</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01623476473025883</v>
+        <v>0.0172283185785714</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05113106743252349</v>
+        <v>0.07587283594386307</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01624742013869453</v>
+        <v>0.01719401238963443</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08324444826849675</v>
+        <v>0.01901772777823393</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01545951632012816</v>
+        <v>0.0174837078433753</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01654620182934743</v>
+        <v>0.01961351323006005</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01732012084830909</v>
+        <v>0.01827842183625599</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0205020546340796</v>
+        <v>0.05006030802235806</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01697270858163423</v>
+        <v>0.01801142396850646</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05337550707147415</v>
+        <v>0.07889544446196473</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01698593923590792</v>
+        <v>0.01797555840734508</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08663254082368527</v>
+        <v>0.01961351323006005</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01616222160740671</v>
+        <v>0.01827842183625599</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01810549934010638</v>
+        <v>0.02003884396622137</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01807316958084427</v>
+        <v>0.01907313582913669</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02207074601823565</v>
+        <v>0.0514791167698147</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01771065243300963</v>
+        <v>0.01879452935844153</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05602284027691773</v>
+        <v>0.08009978597266376</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01772445833312131</v>
+        <v>0.01875710442505574</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09017208944827876</v>
+        <v>0.02003884396622137</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01686492689468526</v>
+        <v>0.01907313582913669</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01863747343276222</v>
+        <v>0.02069082995999807</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01882621831337945</v>
+        <v>0.01986784982201738</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02310911885651462</v>
+        <v>0.05248660296675584</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01844859628438503</v>
+        <v>0.01957763474837659</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05834096145031395</v>
+        <v>0.08188318094284613</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0184629774303347</v>
+        <v>0.01953865044276639</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09293829693428624</v>
+        <v>0.02069082995999807</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01756763218196382</v>
+        <v>0.01986784982201738</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01913727410938359</v>
+        <v>0.02096658118467033</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01957926704591463</v>
+        <v>0.02066256381489808</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02458697446900207</v>
+        <v>0.05428082899922265</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01918654013576044</v>
+        <v>0.02036074013831166</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06039776499312249</v>
+        <v>0.0843429498393975</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01920149652754809</v>
+        <v>0.02032019646047705</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09520636607371685</v>
+        <v>0.02096658118467033</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01827033746924237</v>
+        <v>0.02066256381489808</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01860005137203906</v>
+        <v>0.0216632076135183</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0203323157784498</v>
+        <v>0.02145727780777877</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02617411417578364</v>
+        <v>0.05525985725325638</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01992448398713584</v>
+        <v>0.02114384552824672</v>
       </c>
       <c r="L92" t="n">
-        <v>0.062461145306803</v>
+        <v>0.08637641312920369</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01994001562476147</v>
+        <v>0.0211017424781877</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0985514996585794</v>
+        <v>0.0216632076135183</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01897304275652092</v>
+        <v>0.02145727780777877</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02002095522279727</v>
+        <v>0.02227781921982215</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02108536451098498</v>
+        <v>0.02225199180065947</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02734033929694484</v>
+        <v>0.05632175011489823</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02066242783851124</v>
+        <v>0.02192695091818178</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0652989967928152</v>
+        <v>0.08828089127915051</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02067853472197486</v>
+        <v>0.02188328849589836</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1010489004808831</v>
+        <v>0.02227781921982215</v>
       </c>
       <c r="O93" t="n">
-        <v>0.01967574804379947</v>
+        <v>0.02225199180065947</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0193951356637268</v>
+        <v>0.02290752597686205</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02183841324352016</v>
+        <v>0.02304670579354016</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02875545115257129</v>
+        <v>0.05786456997018941</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02140037168988664</v>
+        <v>0.02271005630811684</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06727921385261881</v>
+        <v>0.09045370475612385</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02141705381918825</v>
+        <v>0.02266483451360902</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1027737713326368</v>
+        <v>0.02290752597686205</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02037845333107803</v>
+        <v>0.02304670579354016</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01871774269689627</v>
+        <v>0.02364943785791819</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02259146197605534</v>
+        <v>0.02384141978642086</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03008925106274857</v>
+        <v>0.05918637920517114</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02213831554126204</v>
+        <v>0.02349316169805191</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06876969088767348</v>
+        <v>0.09179217402700945</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02215557291640164</v>
+        <v>0.02344638053131967</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1056013150058495</v>
+        <v>0.02364943785791819</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02108115861835658</v>
+        <v>0.02384141978642086</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01998392632437428</v>
+        <v>0.0241006648362707</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02334451070859052</v>
+        <v>0.02463613377930155</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03101154034756225</v>
+        <v>0.06028524020588455</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02287625939263744</v>
+        <v>0.02427626708798697</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0703383222994389</v>
+        <v>0.09309361955869305</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02289409201361502</v>
+        <v>0.02422792654903033</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1080067342925302</v>
+        <v>0.0241006648362707</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02178386390563513</v>
+        <v>0.02463613377930155</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02018883654822946</v>
+        <v>0.02505831688519976</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0240975594411257</v>
+        <v>0.02543084777218225</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03199212032709793</v>
+        <v>0.06165921535837096</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02361420324401284</v>
+        <v>0.02505937247792204</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07145300248937472</v>
+        <v>0.09485536181806059</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02363261111082841</v>
+        <v>0.02500947256674099</v>
       </c>
       <c r="N97" t="n">
-        <v>0.109165231984688</v>
+        <v>0.02505831688519976</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02248656919291369</v>
+        <v>0.02543084777218225</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02032762337053037</v>
+        <v>0.02571950397798556</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02485060817366087</v>
+        <v>0.02622556176506294</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03280079232144117</v>
+        <v>0.0622063670486715</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02435214709538824</v>
+        <v>0.0258424778678571</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07278162585894066</v>
+        <v>0.09737472127199776</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0243711302080418</v>
+        <v>0.02579101858445164</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1113520108743318</v>
+        <v>0.02571950397798556</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02318927448019224</v>
+        <v>0.02622556176506294</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02139543679334564</v>
+        <v>0.02608133608790825</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02560365690619605</v>
+        <v>0.02702027575794364</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03330735765067759</v>
+        <v>0.0637247576628274</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02509009094676365</v>
+        <v>0.02662558325779216</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07359208680959645</v>
+        <v>0.09914901838739054</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02510964930525519</v>
+        <v>0.0265725646021623</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1115422737534707</v>
+        <v>0.02608133608790825</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02389197976747079</v>
+        <v>0.02702027575794364</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0213871150676375</v>
+        <v>0.02684092318824796</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02635670563873123</v>
+        <v>0.02781498975082433</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03378161763489272</v>
+        <v>0.06501244958687985</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02582803479813904</v>
+        <v>0.02740868864772723</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0733522797428017</v>
+        <v>0.1005755736311246</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02584816840246858</v>
+        <v>0.02735411061987295</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1130112234141137</v>
+        <v>0.02684092318824796</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02459468505474934</v>
+        <v>0.02781498975082433</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02030296343001092</v>
+        <v>0.02749537525228492</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02710975437126641</v>
+        <v>0.02860970374370503</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03379467188310883</v>
+        <v>0.06566750520687009</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02656597864951445</v>
+        <v>0.02819179403766229</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07397530909625952</v>
+        <v>0.1025517074700857</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02658668749968197</v>
+        <v>0.02813565663758361</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1138340626482697</v>
+        <v>0.02749537525228492</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0252973903420279</v>
+        <v>0.02860970374370503</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02115267503924406</v>
+        <v>0.02814180225329928</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02786280310380158</v>
+        <v>0.02940441773658573</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03407193147230704</v>
+        <v>0.06648798690883934</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02730392250088985</v>
+        <v>0.02897489942759736</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07386661969895442</v>
+        <v>0.1029747403711598</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02732520659689535</v>
+        <v>0.02891720265529427</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1140856511832279</v>
+        <v>0.02814180225329928</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02600009562930645</v>
+        <v>0.02940441773658573</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02094648354352905</v>
+        <v>0.02887731416457115</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02861585183633676</v>
+        <v>0.03019913172946642</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03391347633998541</v>
+        <v>0.06807195707882874</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02804186635226525</v>
+        <v>0.02975800481753242</v>
       </c>
       <c r="L103" t="n">
-        <v>0.07306263761618345</v>
+        <v>0.1053419928012326</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02806372569410874</v>
+        <v>0.02969874867300492</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1134211864399959</v>
+        <v>0.02887731416457115</v>
       </c>
       <c r="O103" t="n">
-        <v>0.026702800916585</v>
+        <v>0.03019913172946642</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02069462259105802</v>
+        <v>0.02929902095938081</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02936890056887195</v>
+        <v>0.03099384572234712</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03382216309538606</v>
+        <v>0.06861747810287955</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02877981020364065</v>
+        <v>0.03054111020746748</v>
       </c>
       <c r="L104" t="n">
-        <v>0.07277145371482205</v>
+        <v>0.10665078522719</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02880224479132213</v>
+        <v>0.03048029469071558</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1127609319544055</v>
+        <v>0.02929902095938081</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02740550620386355</v>
+        <v>0.03099384572234712</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.01840732583002311</v>
+        <v>0.03010403261100832</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03012194930140712</v>
+        <v>0.03178855971522782</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03350084834775115</v>
+        <v>0.06992261236703295</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02951775405501605</v>
+        <v>0.03132421559740255</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07290115886174559</v>
+        <v>0.1076984381159177</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02954076388853552</v>
+        <v>0.03126184070842623</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1114602565844076</v>
+        <v>0.03010403261100832</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02810821149114211</v>
+        <v>0.03178855971522782</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01909482690861646</v>
+        <v>0.0305894590927339</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0308749980339423</v>
+        <v>0.03258327370810851</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03335238870632279</v>
+        <v>0.0707854222573302</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03025569790639145</v>
+        <v>0.03210732098733761</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07245984392382937</v>
+        <v>0.1086822719343015</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0302792829857489</v>
+        <v>0.03204338672613689</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1101745291879533</v>
+        <v>0.0305894590927339</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02881091677842066</v>
+        <v>0.03258327370810851</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01976735947503019</v>
+        <v>0.03115241037783771</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03162804676647748</v>
+        <v>0.0333779877009892</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03317964078034312</v>
+        <v>0.07110397015981246</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03099364175776686</v>
+        <v>0.03289042637727267</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07165559976794886</v>
+        <v>0.1107996071492274</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03101780208296229</v>
+        <v>0.03282493274384755</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1089591186229937</v>
+        <v>0.03115241037783771</v>
       </c>
       <c r="O107" t="n">
-        <v>0.02951362206569921</v>
+        <v>0.0333779877009892</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01743515717745643</v>
+        <v>0.03188999643959992</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03238109549901266</v>
+        <v>0.0341727016938699</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03328546117905429</v>
+        <v>0.07237631846052087</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03173158560914226</v>
+        <v>0.03367353176720773</v>
       </c>
       <c r="L108" t="n">
-        <v>0.0710965172609794</v>
+        <v>0.111147764227581</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03175632118017568</v>
+        <v>0.0336064787615582</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1076693937474797</v>
+        <v>0.03188999643959992</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03021632735297776</v>
+        <v>0.0341727016938699</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01910845366408732</v>
+        <v>0.03229932725130069</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03313414423154783</v>
+        <v>0.0349674156867506</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03277270651169843</v>
+        <v>0.0730005295454968</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03246952946051766</v>
+        <v>0.0344566371571428</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0709906872697964</v>
+        <v>0.1119240636362483</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03249484027738907</v>
+        <v>0.03438802477926885</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1050607234193623</v>
+        <v>0.03229932725130069</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03091903264025632</v>
+        <v>0.0349674156867506</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01879748258311498</v>
+        <v>0.03257751278622019</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03388719296408301</v>
+        <v>0.03576212967963129</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03264423338751765</v>
+        <v>0.07337466580078131</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03320747331189305</v>
+        <v>0.03523974254707787</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06984620066127523</v>
+        <v>0.1134258258421149</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03323335937460246</v>
+        <v>0.03516957079697951</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1029884764965925</v>
+        <v>0.03257751278622019</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03162173792753487</v>
+        <v>0.03576212967963129</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01851247758273156</v>
+        <v>0.03302166301763858</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03464024169661819</v>
+        <v>0.03655684367251198</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03260289841575416</v>
+        <v>0.0740967896124157</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03394541716326846</v>
+        <v>0.03602284793701292</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0694711483022912</v>
+        <v>0.1139503713120668</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03397187847181584</v>
+        <v>0.03595111681469017</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1021080218371214</v>
+        <v>0.03302166301763858</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03232444321481342</v>
+        <v>0.03655684367251198</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01626367231112917</v>
+        <v>0.03352888791883601</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03539329042915337</v>
+        <v>0.03735155766539268</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03235155820565003</v>
+        <v>0.07446496336644115</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03468336101464386</v>
+        <v>0.03680595332694799</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06847362105971982</v>
+        <v>0.1154950205129895</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03471039756902923</v>
+        <v>0.03673266283240082</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09937472829889982</v>
+        <v>0.03352888791883601</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03302714850209197</v>
+        <v>0.03735155766539268</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01706130041649995</v>
+        <v>0.03399629746309271</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03614633916168854</v>
+        <v>0.03814627165827338</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03179306936644742</v>
+        <v>0.0752772494488988</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03542130486601926</v>
+        <v>0.03758905871688305</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06756170980043641</v>
+        <v>0.1165570939117693</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03544891666624262</v>
+        <v>0.03751420885011147</v>
       </c>
       <c r="N113" t="n">
-        <v>0.09764396473987896</v>
+        <v>0.03399629746309271</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03372985378937052</v>
+        <v>0.03814627165827338</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01591559554703605</v>
+        <v>0.03432100162368878</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03689938789422372</v>
+        <v>0.03894098565115407</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03183028850738846</v>
+        <v>0.07523171024582997</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03615924871739467</v>
+        <v>0.03837216410681812</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06684350539131631</v>
+        <v>0.1166339119752915</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03618743576345601</v>
+        <v>0.03829575486782213</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0967711000180097</v>
+        <v>0.03432100162368878</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03443255907664908</v>
+        <v>0.03894098565115407</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01783679135092957</v>
+        <v>0.03470011037390444</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0376524366267589</v>
+        <v>0.03973569964403476</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03146607223771529</v>
+        <v>0.07592640814327581</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03689719256877007</v>
+        <v>0.03915526949675318</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06642709869923497</v>
+        <v>0.1176227951704423</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03692595486066939</v>
+        <v>0.03907730088553279</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09501150299124295</v>
+        <v>0.03470011037390444</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03513526436392764</v>
+        <v>0.03973569964403476</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01682878607076525</v>
+        <v>0.03483073368701983</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03840548535929408</v>
+        <v>0.04053041363691546</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03100327716667006</v>
+        <v>0.07665940552727751</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03763513642014547</v>
+        <v>0.03993837488668825</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06562058059106776</v>
+        <v>0.1178210639641073</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03766447395788278</v>
+        <v>0.03985884690324344</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09362054251752994</v>
+        <v>0.03483073368701983</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03583796965120618</v>
+        <v>0.04053041363691546</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0158552830623353</v>
+        <v>0.03510998153631512</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03915853409182925</v>
+        <v>0.04132512762979616</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0307447599034949</v>
+        <v>0.07672876478387633</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03837308027152087</v>
+        <v>0.04072148027662331</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06533204193369002</v>
+        <v>0.1183260388231723</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03840299305509617</v>
+        <v>0.0406403929209541</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09345358745482141</v>
+        <v>0.03510998153631512</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03654067493848474</v>
+        <v>0.04132512762979616</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0159072487807703</v>
+        <v>0.03513496389507048</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03991158282436444</v>
+        <v>0.04211984162267685</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03059337705743191</v>
+        <v>0.0771325482991134</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03911102412289627</v>
+        <v>0.04150458566655837</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06426957359397717</v>
+        <v>0.1184350402145232</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03914151215230956</v>
+        <v>0.04142193893866476</v>
       </c>
       <c r="N118" t="n">
-        <v>0.09286600666106865</v>
+        <v>0.03513496389507048</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03724338022576329</v>
+        <v>0.04211984162267685</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01698286208115312</v>
+        <v>0.03531487438419083</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04066463155689961</v>
+        <v>0.04291455561555755</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03025198523772329</v>
+        <v>0.07696881845903003</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03984896797427168</v>
+        <v>0.04228769105649344</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06344126643880457</v>
+        <v>0.1189453886050457</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03988003124952295</v>
+        <v>0.04220348495637541</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09304719853514459</v>
+        <v>0.03531487438419083</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03794608551304184</v>
+        <v>0.04291455561555755</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0180803018185666</v>
+        <v>0.03521455987081837</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04141768028943479</v>
+        <v>0.04370926960843824</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03002344105361116</v>
+        <v>0.07734253693031146</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04058691182564707</v>
+        <v>0.0430707964464285</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06325521133504763</v>
+        <v>0.1193701994764321</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04061855034673634</v>
+        <v>0.04298503097408607</v>
       </c>
       <c r="N120" t="n">
-        <v>0.09285334030122788</v>
+        <v>0.03521455987081837</v>
       </c>
       <c r="O120" t="n">
-        <v>0.0386487908003204</v>
+        <v>0.04370926960843824</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01719774684809362</v>
+        <v>0.03521062043994391</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04217072902196996</v>
+        <v>0.04450398360131894</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02981060111433761</v>
+        <v>0.07673844360561044</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04132485567702247</v>
+        <v>0.04385390183636356</v>
       </c>
       <c r="L121" t="n">
-        <v>0.0626194991495817</v>
+        <v>0.1192678908578663</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04135706944394972</v>
+        <v>0.04376657699179672</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09255134209548593</v>
+        <v>0.03521062043994391</v>
       </c>
       <c r="O121" t="n">
-        <v>0.03935149608759895</v>
+        <v>0.04450398360131894</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01633337602481703</v>
+        <v>0.03510223695935383</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04292377775450515</v>
+        <v>0.04529869759419963</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02991632202914482</v>
+        <v>0.07721123288425133</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04206279952839788</v>
+        <v>0.04463700722629863</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06254222074928217</v>
+        <v>0.1187465103115727</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04209558854116311</v>
+        <v>0.04454812300950738</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09283640964322887</v>
+        <v>0.03510223695935383</v>
       </c>
       <c r="O122" t="n">
-        <v>0.0400542013748775</v>
+        <v>0.04529869759419963</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0174853682038197</v>
+        <v>0.03528949303343899</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04367682648704033</v>
+        <v>0.04609341158708033</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02944346040727493</v>
+        <v>0.07655915816358466</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04280074337977328</v>
+        <v>0.04542011261623369</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06173146700102444</v>
+        <v>0.1184031172493348</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04283410763837649</v>
+        <v>0.04532966902721804</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0937037486697665</v>
+        <v>0.03528949303343899</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04075690666215605</v>
+        <v>0.04609341158708033</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01665190224018447</v>
+        <v>0.03517247226659026</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0444298752195755</v>
+        <v>0.04688812557996102</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02929487285797004</v>
+        <v>0.07678298175542878</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04353868723114868</v>
+        <v>0.04620321800616876</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06159532877168389</v>
+        <v>0.1183382036012852</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04357262673558988</v>
+        <v>0.04611121504492869</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09464856490040874</v>
+        <v>0.03517247226659026</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04145961194943461</v>
+        <v>0.04688812557996102</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01883115698899422</v>
+        <v>0.03495125826319853</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04518292395211068</v>
+        <v>0.04768283957284172</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02947341599047233</v>
+        <v>0.07668346597160206</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04427663108252408</v>
+        <v>0.04698632339610381</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06134189692813591</v>
+        <v>0.1182522612975563</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04431114583280327</v>
+        <v>0.04689276106263934</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0943660640604656</v>
+        <v>0.03495125826319853</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04216231723671316</v>
+        <v>0.04768283957284172</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01702131130533179</v>
+        <v>0.03512593462765465</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04593597268464586</v>
+        <v>0.04847755356572242</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02908194641402391</v>
+        <v>0.07626137312392284</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04501457493389948</v>
+        <v>0.04776942878603888</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06107926233725583</v>
+        <v>0.1184457822682806</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04504966493001666</v>
+        <v>0.04767430708035</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09475145187524708</v>
+        <v>0.03512593462765465</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04286502252399171</v>
+        <v>0.04847755356572242</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01922054404428006</v>
+        <v>0.03519658496434952</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04668902141718104</v>
+        <v>0.04927226755860311</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02912332073786693</v>
+        <v>0.07611746552420948</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04575251878527489</v>
+        <v>0.04855253417597395</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06121551586591908</v>
+        <v>0.1189192584435907</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04578818402723005</v>
+        <v>0.04845585309806066</v>
       </c>
       <c r="N127" t="n">
-        <v>0.09639993407006292</v>
+        <v>0.03519658496434952</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04356772781127026</v>
+        <v>0.04927226755860311</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01842703406092189</v>
+        <v>0.035063292877674</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04744207014971621</v>
+        <v>0.0500669815514838</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02900039557124352</v>
+        <v>0.07655250548428033</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04649046263665028</v>
+        <v>0.04933563956590901</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06079773884072825</v>
+        <v>0.1176731817536192</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04652670312444344</v>
+        <v>0.04923739911577132</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09700671637022312</v>
+        <v>0.035063292877674</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04427043309854881</v>
+        <v>0.0500669815514838</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01863896021034012</v>
+        <v>0.03482614197201898</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04819511888225139</v>
+        <v>0.0508616955443645</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0290350985092387</v>
+        <v>0.07616725531595375</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04722840648802568</v>
+        <v>0.05011874495584407</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06137558223869533</v>
+        <v>0.1183080441284985</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04726522222165683</v>
+        <v>0.05001894513348197</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09796700450103768</v>
+        <v>0.03482614197201898</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04497313838582737</v>
+        <v>0.0508616955443645</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01785450134761762</v>
+        <v>0.03488521585177531</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04894816761478658</v>
+        <v>0.0516564095372452</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02945162716948641</v>
+        <v>0.07586247733104806</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04796635033940109</v>
+        <v>0.05090185034577913</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06162944629671857</v>
+        <v>0.1181243374983612</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04800374131887022</v>
+        <v>0.05080049115119262</v>
       </c>
       <c r="N130" t="n">
-        <v>0.09777600418781651</v>
+        <v>0.03488521585177531</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04567584367310593</v>
+        <v>0.0516564095372452</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01807183632783727</v>
+        <v>0.0349405981213339</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04970121634732175</v>
+        <v>0.05245112353012589</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02944125987906762</v>
+        <v>0.0759389338413817</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04870429419077649</v>
+        <v>0.0516849557357142</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06203910408053326</v>
+        <v>0.1175225537933398</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0487422604160836</v>
+        <v>0.05158203716890328</v>
       </c>
       <c r="N131" t="n">
-        <v>0.09922892115586956</v>
+        <v>0.0349405981213339</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04637854896038448</v>
+        <v>0.05245112353012589</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0202891440060819</v>
+        <v>0.03489237238508561</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05045426507985693</v>
+        <v>0.05324583752300658</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02959498154917733</v>
+        <v>0.0752973871587729</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04944223804215189</v>
+        <v>0.05246806112564926</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06298432865587481</v>
+        <v>0.1179031849435669</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04948077951329699</v>
+        <v>0.05236358318661394</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1000209611305067</v>
+        <v>0.03489237238508561</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04708125424766302</v>
+        <v>0.05324583752300658</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01950460323743439</v>
+        <v>0.03484062224742129</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0512073138123921</v>
+        <v>0.05404055151588728</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03020377709101046</v>
+        <v>0.07493859959504015</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05018018189352729</v>
+        <v>0.05325116651558432</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06394489308847859</v>
+        <v>0.117666722879175</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05021929861051038</v>
+        <v>0.05314512920432459</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1004473298370379</v>
+        <v>0.03484062224742129</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04778395953494158</v>
+        <v>0.05404055151588728</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02071639287697759</v>
+        <v>0.03488543131273186</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05196036254492729</v>
+        <v>0.05483526550876798</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03045863141576202</v>
+        <v>0.0752633334620017</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05091812574490269</v>
+        <v>0.0540342719055194</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06490057044407993</v>
+        <v>0.1167136595302965</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05095781770772376</v>
+        <v>0.05392667522203524</v>
       </c>
       <c r="N134" t="n">
-        <v>0.101903233000773</v>
+        <v>0.03488543131273186</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04848666482222014</v>
+        <v>0.05483526550876798</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01892269177979436</v>
+        <v>0.03472688318540816</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05271341127746246</v>
+        <v>0.05562997950164866</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03095052943462695</v>
+        <v>0.07497235107147593</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05165606959627809</v>
+        <v>0.05481737729545446</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06633113378841426</v>
+        <v>0.1168444868270641</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05169633680493715</v>
+        <v>0.05470822123974591</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1029838763470222</v>
+        <v>0.03472688318540816</v>
       </c>
       <c r="O135" t="n">
-        <v>0.04918937010949868</v>
+        <v>0.05562997950164866</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01912167880096757</v>
+        <v>0.03466506146984107</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05346646000999764</v>
+        <v>0.05642469349452937</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03117045605880023</v>
+        <v>0.07426641473528123</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05239401344765349</v>
+        <v>0.05560048268538952</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06691635618721689</v>
+        <v>0.1162596966996103</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05243485590215054</v>
+        <v>0.05548976725745656</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1037844656010951</v>
+        <v>0.03466506146984107</v>
       </c>
       <c r="O136" t="n">
-        <v>0.04989207539677724</v>
+        <v>0.05642469349452937</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01931153279558007</v>
+        <v>0.03460004977042148</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05421950874253282</v>
+        <v>0.05721940748741006</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03150939619947685</v>
+        <v>0.07434628676523594</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05313195729902889</v>
+        <v>0.05638358807532458</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06833601070622319</v>
+        <v>0.1161597810780676</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05317337499936393</v>
+        <v>0.05627131327516722</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1046002064883018</v>
+        <v>0.03460004977042148</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05059478068405579</v>
+        <v>0.05721940748741006</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02049043261871471</v>
+        <v>0.03443193169154025</v>
       </c>
       <c r="G138" t="n">
-        <v>0.054972557475068</v>
+        <v>0.05801412148029076</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03195833476785172</v>
+        <v>0.07371272947315841</v>
       </c>
       <c r="K138" t="n">
-        <v>0.0538699011504043</v>
+        <v>0.05716669346525964</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06916987041116857</v>
+        <v>0.1157452318925685</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05391189409657732</v>
+        <v>0.05705285929287787</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1059263047339523</v>
+        <v>0.03443193169154025</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05129748597133434</v>
+        <v>0.05801412148029076</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02165655712545438</v>
+        <v>0.03436079083758829</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05572560620760317</v>
+        <v>0.05880883547317146</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03260825667511985</v>
+        <v>0.07296650517086695</v>
       </c>
       <c r="K139" t="n">
-        <v>0.0546078450017797</v>
+        <v>0.05794979885519471</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07059770836778831</v>
+        <v>0.1152165410732455</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05465041319379071</v>
+        <v>0.05783440531058853</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1069579660633564</v>
+        <v>0.03436079083758829</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0520001912586129</v>
+        <v>0.05880883547317146</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01980808517088193</v>
+        <v>0.03418671081295643</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05647865494013835</v>
+        <v>0.05960354946605215</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03285014683247622</v>
+        <v>0.07260837617017996</v>
       </c>
       <c r="K140" t="n">
-        <v>0.0553457888531551</v>
+        <v>0.05873290424512977</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07159929764181786</v>
+        <v>0.1153742005502313</v>
       </c>
       <c r="M140" t="n">
-        <v>0.0553889322910041</v>
+        <v>0.05861595132829918</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1083903962018242</v>
+        <v>0.03418671081295643</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05270289654589145</v>
+        <v>0.05960354946605215</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0219431956100802</v>
+        <v>0.03420977522203555</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05723170367267353</v>
+        <v>0.06039826345893284</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03337499015111575</v>
+        <v>0.07263910478291583</v>
       </c>
       <c r="K141" t="n">
-        <v>0.0560837327045305</v>
+        <v>0.05951600963506484</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07245441129899252</v>
+        <v>0.1144187022536582</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05612745138821749</v>
+        <v>0.05939749734600984</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1090188008746653</v>
+        <v>0.03420977522203555</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05340560183317</v>
+        <v>0.06039826345893284</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02106006729813206</v>
+        <v>0.03413006766921656</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05798475240520871</v>
+        <v>0.06119297745181354</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03397377154223347</v>
+        <v>0.07235945332089283</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05682167655590591</v>
+        <v>0.0602991150249999</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07384282240504769</v>
+        <v>0.114350538113659</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05686597048543087</v>
+        <v>0.06017904336372049</v>
       </c>
       <c r="N142" t="n">
-        <v>0.11023838580719</v>
+        <v>0.03413006766921656</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05410830712044856</v>
+        <v>0.06119297745181354</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02215687909012038</v>
+        <v>0.03404767175889031</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05873780113774389</v>
+        <v>0.06198769144469423</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03403747591702429</v>
+        <v>0.07197018409592937</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0575596204072813</v>
+        <v>0.06108222041493496</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07454430402571871</v>
+        <v>0.1144702000603661</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05760448958264426</v>
+        <v>0.06096058938143115</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1104443567247081</v>
+        <v>0.03404767175889031</v>
       </c>
       <c r="O143" t="n">
-        <v>0.0548110124077271</v>
+        <v>0.06198769144469423</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02123180984112801</v>
+        <v>0.03396267109544768</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05949084987027906</v>
+        <v>0.06278240543757492</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03455708818668321</v>
+        <v>0.07137205941984376</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05829756425865671</v>
+        <v>0.06186532580487003</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07563862922674097</v>
+        <v>0.1140781800239119</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05834300867985765</v>
+        <v>0.06174213539914181</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1120319193525294</v>
+        <v>0.03396267109544768</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05551371769500566</v>
+        <v>0.06278240543757492</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02028303840623782</v>
+        <v>0.03397514928327955</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06024389860281424</v>
+        <v>0.06357711943045563</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03462359326240519</v>
+        <v>0.07126584160445446</v>
       </c>
       <c r="K145" t="n">
-        <v>0.0590355081100321</v>
+        <v>0.06264843119480509</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07620557107384981</v>
+        <v>0.112974969934429</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05908152777707104</v>
+        <v>0.06252368141685247</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1129962794159641</v>
+        <v>0.03397514928327955</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05621642298228421</v>
+        <v>0.06357711943045563</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02231149920299288</v>
+        <v>0.03368518992677677</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06099694733534942</v>
+        <v>0.06437183342333633</v>
       </c>
       <c r="J146" t="n">
-        <v>0.0349279760553852</v>
+        <v>0.07095229296157968</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05977345196140751</v>
+        <v>0.06343153658474016</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07652490263278064</v>
+        <v>0.1133610617220501</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05982004687428442</v>
+        <v>0.06330522743456311</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1139326426403218</v>
+        <v>0.03368518992677677</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05691912826956276</v>
+        <v>0.06437183342333633</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02231128393429362</v>
+        <v>0.03389287663033025</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0617499960678846</v>
+        <v>0.06516654741621702</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03516122147681819</v>
+        <v>0.06983217580303788</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06051139581278291</v>
+        <v>0.06421464197467522</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07677639696926869</v>
+        <v>0.1127369473169076</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0605585659714978</v>
+        <v>0.06408677345227377</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1148362147509128</v>
+        <v>0.03389287663033025</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05762183355684132</v>
+        <v>0.06516654741621702</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02130982484666265</v>
+        <v>0.03349829299833085</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06250304480041977</v>
+        <v>0.06596126140909771</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03531487438419083</v>
+        <v>0.07010625244064736</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06124933966415831</v>
+        <v>0.06499774736461028</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07734253693031146</v>
+        <v>0.111803118649134</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06129708506871119</v>
+        <v>0.06486831946998443</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1160022014730468</v>
+        <v>0.03349829299833085</v>
       </c>
       <c r="O148" t="n">
-        <v>0.05832453884411987</v>
+        <v>0.06596126140909771</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02030701722804325</v>
+        <v>0.03370152263516943</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06325609353295496</v>
+        <v>0.0667559754019784</v>
       </c>
       <c r="J149" t="n">
-        <v>0.0351144285869977</v>
+        <v>0.0689752851862265</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06198728351553371</v>
+        <v>0.06578085275454534</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07739209487166612</v>
+        <v>0.1113600676488619</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06203560416592458</v>
+        <v>0.06564986548769509</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1165258085320337</v>
+        <v>0.03370152263516943</v>
       </c>
       <c r="O149" t="n">
-        <v>0.05902724413139843</v>
+        <v>0.0667559754019784</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02030289541019543</v>
+        <v>0.03340264914523687</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06400914226549013</v>
+        <v>0.0675506893948591</v>
       </c>
       <c r="J150" t="n">
-        <v>0.0353128740124222</v>
+        <v>0.06924003635159365</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06272522736690911</v>
+        <v>0.06656395814448041</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07744232656645916</v>
+        <v>0.1108082862462237</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06277412326313797</v>
+        <v>0.06643141150540574</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1167022416531837</v>
+        <v>0.03340264914523687</v>
       </c>
       <c r="O150" t="n">
-        <v>0.05972994941867698</v>
+        <v>0.0675506893948591</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02129749372487912</v>
+        <v>0.03350175613292408</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06476219099802531</v>
+        <v>0.0683454033877398</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03521022708137167</v>
+        <v>0.06870126824856715</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06346317121828451</v>
+        <v>0.06734706353441547</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07709076070635948</v>
+        <v>0.1111482663713521</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06351264236035135</v>
+        <v>0.0672129575231164</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1181267065618063</v>
+        <v>0.03350175613292408</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06043265470595553</v>
+        <v>0.0683454033877398</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02229084650385432</v>
+        <v>0.03329892720262191</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06551523973056049</v>
+        <v>0.06914011738062049</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03510651130537647</v>
+        <v>0.06815974318896537</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06420111506965992</v>
+        <v>0.06813016892435053</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07683740786901802</v>
+        <v>0.1104804999543795</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06425116145756475</v>
+        <v>0.06799450354082705</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1193701994764321</v>
+        <v>0.03329892720262191</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06113535999323409</v>
+        <v>0.06914011738062049</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02128298807888097</v>
+        <v>0.03329424595872123</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06626828846309567</v>
+        <v>0.06993483137350119</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0353017501959669</v>
+        <v>0.06771622348460665</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06493905892103531</v>
+        <v>0.06891327431428561</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07748227863208565</v>
+        <v>0.1096054789254386</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06498968055477813</v>
+        <v>0.06877604955853771</v>
       </c>
       <c r="N153" t="n">
-        <v>0.119722356421589</v>
+        <v>0.03329424595872123</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06183806528051263</v>
+        <v>0.06993483137350119</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02227395278171903</v>
+        <v>0.03298779600561293</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06702133719563085</v>
+        <v>0.07072954536638189</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03509596726467329</v>
+        <v>0.06727147144730938</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06567700277241072</v>
+        <v>0.06969637970422067</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07742538357321313</v>
+        <v>0.1090236952146617</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06572819965199152</v>
+        <v>0.06955759557624837</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1200657699901505</v>
+        <v>0.03298779600561293</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06254077056779118</v>
+        <v>0.07072954536638189</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02126377494412849</v>
+        <v>0.03297966094768785</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06777438592816602</v>
+        <v>0.07152425935926258</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03508918602302594</v>
+        <v>0.06642624938889191</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06641494662378611</v>
+        <v>0.07047948509415573</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07746673327005141</v>
+        <v>0.1081356407521815</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06646671874920491</v>
+        <v>0.07033914159395903</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1205253611840562</v>
+        <v>0.03297966094768785</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06324347585506974</v>
+        <v>0.07152425935926258</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02225248889786929</v>
+        <v>0.03266992438933693</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0685274346607012</v>
+        <v>0.07231897335214327</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03508142998255517</v>
+        <v>0.06638131962117252</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06715289047516153</v>
+        <v>0.07126259048409078</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07740633830025129</v>
+        <v>0.1084418074681304</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0672052378464183</v>
+        <v>0.07112068761166968</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1215985916418335</v>
+        <v>0.03266992438933693</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06394618114234829</v>
+        <v>0.07231897335214327</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02124012897470139</v>
+        <v>0.03255866993495098</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06928048339323638</v>
+        <v>0.07311368734502396</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03507272265479135</v>
+        <v>0.06583744445596962</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06789083432653692</v>
+        <v>0.07204569587402584</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07734420924146362</v>
+        <v>0.1077426872926411</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06794375694363168</v>
+        <v>0.07190223362938034</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1219829230020103</v>
+        <v>0.03255866993495098</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06464888642962684</v>
+        <v>0.07311368734502396</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02222672950638479</v>
+        <v>0.0327459811889209</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07003353212577156</v>
+        <v>0.07390840133790466</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03526308755126473</v>
+        <v>0.0653953862051016</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06862877817791233</v>
+        <v>0.07282880126396092</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07738035667133936</v>
+        <v>0.1073387721558461</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06868227604084508</v>
+        <v>0.07268377964709098</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1220758169031139</v>
+        <v>0.0327459811889209</v>
       </c>
       <c r="O158" t="n">
-        <v>0.0653515917169054</v>
+        <v>0.07390840133790466</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02221232482467941</v>
+        <v>0.03263194175563756</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07078658085830673</v>
+        <v>0.07470311533078536</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03505254818350567</v>
+        <v>0.06525590718038674</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06936672202928772</v>
+        <v>0.07361190665389598</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07761479116752923</v>
+        <v>0.1065305539878778</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06942079513805846</v>
+        <v>0.07346532566480164</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1234747349836722</v>
+        <v>0.03263194175563756</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06605429700418394</v>
+        <v>0.07470311533078536</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02019694926134526</v>
+        <v>0.03241663523949186</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07153962959084191</v>
+        <v>0.07549782932366605</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0352411280630445</v>
+        <v>0.06411976969364344</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07010466588066312</v>
+        <v>0.07439501204383105</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07764752330768415</v>
+        <v>0.1065185247188688</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07015931423527184</v>
+        <v>0.0742468716825123</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1238771388822127</v>
+        <v>0.03241663523949186</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0667570022914625</v>
+        <v>0.07549782932366605</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02218063714814227</v>
+        <v>0.03230014524487465</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07229267832337709</v>
+        <v>0.07629254331654675</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03502885070141148</v>
+        <v>0.06418773605669006</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07084260973203853</v>
+        <v>0.07517811743376611</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07727856366945496</v>
+        <v>0.1055031762789516</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07089783333248524</v>
+        <v>0.07502841770022295</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1252804902372629</v>
+        <v>0.03230014524487465</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06745970757874105</v>
+        <v>0.07629254331654675</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02116342281683043</v>
+        <v>0.03218255537617681</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07304572705591228</v>
+        <v>0.07708725730942745</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03491573961013701</v>
+        <v>0.06384917615771021</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07158055358341393</v>
+        <v>0.07596122282370117</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07740792283049247</v>
+        <v>0.1054850005982588</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07163635242969862</v>
+        <v>0.07580996371793361</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1258822506873505</v>
+        <v>0.03218255537617681</v>
       </c>
       <c r="O162" t="n">
-        <v>0.06816241286601961</v>
+        <v>0.07708725730942745</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02114534059916968</v>
+        <v>0.03216394923778922</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07379877578844744</v>
+        <v>0.07788197130230815</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03510181830075133</v>
+        <v>0.06348038540749693</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07231849743478934</v>
+        <v>0.07674432821363623</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07793561136844765</v>
+        <v>0.1042644896069229</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07237487152691202</v>
+        <v>0.07659150973564426</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1264798818710033</v>
+        <v>0.03216394923778922</v>
       </c>
       <c r="O163" t="n">
-        <v>0.06886511815329817</v>
+        <v>0.07788197130230815</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02112642482692002</v>
+        <v>0.03174441043410277</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07455182452098262</v>
+        <v>0.07867668529518883</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03508711028478484</v>
+        <v>0.06268259096375431</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07305644128616473</v>
+        <v>0.0775274336035713</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07776163986097123</v>
+        <v>0.1040421352350763</v>
       </c>
       <c r="M164" t="n">
-        <v>0.0731133906241254</v>
+        <v>0.07737305575335492</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1268708454267485</v>
+        <v>0.03174441043410277</v>
       </c>
       <c r="O164" t="n">
-        <v>0.06956782344057671</v>
+        <v>0.07867668529518883</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02210670983184135</v>
+        <v>0.03162402256950829</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0753048732535178</v>
+        <v>0.07947139928806952</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03487163907376782</v>
+        <v>0.0619579434639676</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07379438513754014</v>
+        <v>0.07831053899350636</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07728601888571413</v>
+        <v>0.1036184294128518</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07385190972133879</v>
+        <v>0.07815460177106558</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1272526029931141</v>
+        <v>0.03162402256950829</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07027052872785527</v>
+        <v>0.07947139928806952</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02008622994569371</v>
+        <v>0.03179950920488664</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07605792198605299</v>
+        <v>0.08026611328095024</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03505542817923056</v>
+        <v>0.06180859354562218</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07453232898891553</v>
+        <v>0.07909364438344142</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07800875902032722</v>
+        <v>0.1031938640703817</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07459042881855218</v>
+        <v>0.07893614778877624</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1278226162086275</v>
+        <v>0.03179950920488664</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07097323401513382</v>
+        <v>0.08026611328095024</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02106501950023703</v>
+        <v>0.03155423412843798</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07681097071858815</v>
+        <v>0.08106082727383092</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03493850111270341</v>
+        <v>0.06113669184620327</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07527027284029093</v>
+        <v>0.0798767497733765</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07782987084246135</v>
+        <v>0.1030689311377986</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07532894791576557</v>
+        <v>0.07971769380648688</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1292783467118164</v>
+        <v>0.03155423412843798</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07167593930241237</v>
+        <v>0.08106082727383092</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02204311282723127</v>
+        <v>0.03148740041325904</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07756401945112333</v>
+        <v>0.08185554126671162</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03512088138571673</v>
+        <v>0.06034438900319625</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07600821669166634</v>
+        <v>0.08065985516331156</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0775493649297673</v>
+        <v>0.1021441225452351</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07606746701297895</v>
+        <v>0.08049923982419754</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1299172561412084</v>
+        <v>0.03148740041325904</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07237864458969093</v>
+        <v>0.08185554126671162</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02102054425843639</v>
+        <v>0.03110074547834102</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07831706818365851</v>
+        <v>0.08265025525959231</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03490259250980077</v>
+        <v>0.05953383565408643</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07674616054304174</v>
+        <v>0.08144296055324662</v>
       </c>
       <c r="L169" t="n">
-        <v>0.077967251859896</v>
+        <v>0.1009199302228237</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07680598611019235</v>
+        <v>0.08128078584190819</v>
       </c>
       <c r="N169" t="n">
-        <v>0.129536806135331</v>
+        <v>0.03110074547834102</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07308134987696947</v>
+        <v>0.08265025525959231</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02199734812561237</v>
+        <v>0.03099600674267521</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0790701169161937</v>
+        <v>0.08344496925247301</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0347836579964859</v>
+        <v>0.05890718243635901</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07748410439441714</v>
+        <v>0.08222606594318167</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0777835422104983</v>
+        <v>0.1010968461006969</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07754450520740573</v>
+        <v>0.08206233185961886</v>
       </c>
       <c r="N170" t="n">
-        <v>0.131134458332712</v>
+        <v>0.03099600674267521</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07378405516424802</v>
+        <v>0.08344496925247301</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02097355876051917</v>
+        <v>0.03067492162525291</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07982316564872888</v>
+        <v>0.08423968324535371</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03486410135730239</v>
+        <v>0.05886657998749939</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07822204824579254</v>
+        <v>0.08300917133311674</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07739824655922503</v>
+        <v>0.1007602965440595</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07828302430461913</v>
+        <v>0.08284387787732951</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1313076743718788</v>
+        <v>0.03067492162525291</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07448676045152658</v>
+        <v>0.08423968324535371</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01994921049491676</v>
+        <v>0.03053922754506536</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08057621438126404</v>
+        <v>0.0850343972382344</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03494394610378063</v>
+        <v>0.05791417894499282</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07895999209716793</v>
+        <v>0.08379227672305181</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07781137548372705</v>
+        <v>0.09949542930786515</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07902154340183251</v>
+        <v>0.08362542389504017</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1315539158913592</v>
+        <v>0.03053922754506536</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07518946573880514</v>
+        <v>0.0850343972382344</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0219243376605651</v>
+        <v>0.03029066192110381</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08132926311379922</v>
+        <v>0.0858291112311151</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03492321574745086</v>
+        <v>0.05715212994632463</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07969793594854335</v>
+        <v>0.08457538211298687</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07752293956165521</v>
+        <v>0.09980304778774735</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07976006249904589</v>
+        <v>0.08440696991275082</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1325706445296808</v>
+        <v>0.03029066192110381</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07589217102608369</v>
+        <v>0.0858291112311151</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02089897458922415</v>
+        <v>0.03003096217235959</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08208231184633441</v>
+        <v>0.0866238252239958</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03490193379984347</v>
+        <v>0.0566825836289801</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08043587979991874</v>
+        <v>0.08535848750292194</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07773294937066036</v>
+        <v>0.09838395635557118</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08049858159625929</v>
+        <v>0.08518851593046148</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1326553219253712</v>
+        <v>0.03003096217235959</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07659487631336225</v>
+        <v>0.0866238252239958</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02187315561265388</v>
+        <v>0.02956186571782392</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08283536057886959</v>
+        <v>0.08741853921687648</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03478012377248872</v>
+        <v>0.0561076906304446</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08117382365129415</v>
+        <v>0.086141592892857</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0781414154883934</v>
+        <v>0.0983389593832017</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08123710069347267</v>
+        <v>0.08597006194817214</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1332054097169578</v>
+        <v>0.02956186571782392</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07729758160064079</v>
+        <v>0.08741853921687648</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02184691506261425</v>
+        <v>0.02928510997648806</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08358840931140477</v>
+        <v>0.08821325320975718</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03465780917691698</v>
+        <v>0.05552960158820333</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08191176750266954</v>
+        <v>0.08692469828279206</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07814834849250515</v>
+        <v>0.09676886124250378</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08197561979068606</v>
+        <v>0.0867516079658828</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1336183695429685</v>
+        <v>0.02928510997648806</v>
       </c>
       <c r="O176" t="n">
-        <v>0.07800028688791935</v>
+        <v>0.08821325320975718</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02182028727086523</v>
+        <v>0.02930243236734333</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08434145804393993</v>
+        <v>0.08900796720263787</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03493501352465855</v>
+        <v>0.05435046713974168</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08264971135404495</v>
+        <v>0.08770780367272712</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07755375896064648</v>
+        <v>0.0965744663053425</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08271413888789944</v>
+        <v>0.08753315398359345</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1342916630419307</v>
+        <v>0.02930243236734333</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0787029921751979</v>
+        <v>0.08900796720263787</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0217933065691668</v>
+        <v>0.02871557030938095</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08509450677647512</v>
+        <v>0.08980268119551857</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03491176032724375</v>
+        <v>0.0535724379225449</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08338765520542035</v>
+        <v>0.08849090906266219</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07815765747046818</v>
+        <v>0.09585657894358285</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08345265798511282</v>
+        <v>0.08831470000130411</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1340227518523722</v>
+        <v>0.02871557030938095</v>
       </c>
       <c r="O178" t="n">
-        <v>0.07940569746247644</v>
+        <v>0.08980268119551857</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02076600728927889</v>
+        <v>0.02872626122159221</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0858475555090103</v>
+        <v>0.09059739518839927</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03458807309620289</v>
+        <v>0.05279766457409832</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08412559905679576</v>
+        <v>0.08927401445259725</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07746005459962119</v>
+        <v>0.09511600352908983</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08419117708232622</v>
+        <v>0.08909624601901475</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1351090976128205</v>
+        <v>0.02872626122159221</v>
       </c>
       <c r="O179" t="n">
-        <v>0.080108402749755</v>
+        <v>0.09059739518839927</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01973842376296148</v>
+        <v>0.02843624252296839</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08660060424154548</v>
+        <v>0.09139210918127996</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0348639753430663</v>
+        <v>0.0524282977318872</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08486354290817115</v>
+        <v>0.09005711984253231</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0779609609257563</v>
+        <v>0.09405354443372849</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0849296961795396</v>
+        <v>0.08987779203672541</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1350481619618032</v>
+        <v>0.02843624252296839</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08081110803703355</v>
+        <v>0.09139210918127996</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01970939529659189</v>
+        <v>0.02794725163250074</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08735365297408065</v>
+        <v>0.09218682317416066</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03483949057936429</v>
+        <v>0.05206648803339695</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08560148675954656</v>
+        <v>0.09084022523246738</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07744108322745974</v>
+        <v>0.09407000602936383</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08566821527675299</v>
+        <v>0.09065933805443607</v>
       </c>
       <c r="N181" t="n">
-        <v>0.135037406537848</v>
+        <v>0.02794725163250074</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08151381332431211</v>
+        <v>0.09218682317416066</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02067642380238246</v>
+        <v>0.02786102596918053</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08810670170661583</v>
+        <v>0.09298153716704136</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03451406316943308</v>
+        <v>0.05091438611611274</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08633943061092195</v>
+        <v>0.09162333062240245</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07737291481257383</v>
+        <v>0.09326619268786085</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08640673437396638</v>
+        <v>0.09144088407214673</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1350742929794825</v>
+        <v>0.02786102596918053</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08221651861159067</v>
+        <v>0.09298153716704136</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02063956041414896</v>
+        <v>0.02757930295199905</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08885975043915101</v>
+        <v>0.09377625115992204</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03478495959916854</v>
+        <v>0.05027414261751992</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08707737446229735</v>
+        <v>0.09240643601233751</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07745909015064023</v>
+        <v>0.09164290878108444</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08714525347117977</v>
+        <v>0.09222243008985738</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1355562829252341</v>
+        <v>0.02757930295199905</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08291922389886922</v>
+        <v>0.09377625115992204</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02059894615398653</v>
+        <v>0.02730381999994753</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08961279917168619</v>
+        <v>0.09457096515280274</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03445186392933795</v>
+        <v>0.04954790817510382</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08781531831367276</v>
+        <v>0.09318954140227258</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07770255156016395</v>
+        <v>0.09170095868089972</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08788377256839315</v>
+        <v>0.09300397610756804</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1353806897904257</v>
+        <v>0.02730381999994753</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08362192918614778</v>
+        <v>0.09457096515280274</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02055472204399022</v>
+        <v>0.02703631453201728</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09036584790422136</v>
+        <v>0.09536567914568343</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03451482092237734</v>
+        <v>0.04943783342634975</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08855326216504816</v>
+        <v>0.09397264679220763</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07720624135965015</v>
+        <v>0.0904411467591717</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08862229166560655</v>
+        <v>0.09378552212527869</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1355219315714928</v>
+        <v>0.02703631453201728</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08432463447342632</v>
+        <v>0.09536567914568343</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0195070291062552</v>
+        <v>0.02647852396719956</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09111889663675654</v>
+        <v>0.09616039313856413</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03437387534072286</v>
+        <v>0.04894606900874299</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08929120601642355</v>
+        <v>0.0947557521821427</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07707310186760394</v>
+        <v>0.08906427738776546</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08936081076281993</v>
+        <v>0.09456706814298936</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1349657571285029</v>
+        <v>0.02647852396719956</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08502733976070487</v>
+        <v>0.09616039313856413</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01945600836287657</v>
+        <v>0.02643218572448562</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09187194536929172</v>
+        <v>0.09695510713144484</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03432907194681056</v>
+        <v>0.04827476555976881</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09002914986779896</v>
+        <v>0.09553885757207776</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07640607540253033</v>
+        <v>0.0889711549385459</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09009932986003333</v>
+        <v>0.09534861416070001</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1352166856645928</v>
+        <v>0.02643218572448562</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08573004504798343</v>
+        <v>0.09695510713144484</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0214018008359494</v>
+        <v>0.02629903722286674</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0926249941018269</v>
+        <v>0.09774982112432552</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03428045550307653</v>
+        <v>0.04732607371691258</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09076709371917435</v>
+        <v>0.09632196296201283</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07670810428293454</v>
+        <v>0.08746258378337801</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09083784895724671</v>
+        <v>0.09613016017841067</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1349792363828996</v>
+        <v>0.02629903722286674</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08643275033526197</v>
+        <v>0.09774982112432552</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01934454754756886</v>
+        <v>0.0258808158813342</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09337804283436207</v>
+        <v>0.09854453511720622</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03442807077195684</v>
+        <v>0.04739661412797094</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09150503757054977</v>
+        <v>0.09710506835194789</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07588213082732156</v>
+        <v>0.08643936829412679</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09157636805446009</v>
+        <v>0.09691170619612131</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1336579284865603</v>
+        <v>0.0258808158813342</v>
       </c>
       <c r="O189" t="n">
-        <v>0.08713545562254052</v>
+        <v>0.09854453511720622</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01928438951982999</v>
+        <v>0.02587925911887926</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09413109156689725</v>
+        <v>0.09933924911008692</v>
       </c>
       <c r="J190" t="n">
-        <v>0.0342719625158876</v>
+        <v>0.04686259075111496</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09224298142192516</v>
+        <v>0.09788817374188295</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07603109735419655</v>
+        <v>0.08580231284265738</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09231488715167349</v>
+        <v>0.09769325221383197</v>
       </c>
       <c r="N190" t="n">
-        <v>0.133657281178712</v>
+        <v>0.02587925911887926</v>
       </c>
       <c r="O190" t="n">
-        <v>0.08783816090981908</v>
+        <v>0.09933924911008692</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01922146777482798</v>
+        <v>0.02559393473738356</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09488414029943243</v>
+        <v>0.1001339631029676</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03411217549730491</v>
+        <v>0.04582183765068631</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09298092527330057</v>
+        <v>0.09867127913181802</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07525794618206455</v>
+        <v>0.0846522218008347</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09305340624888687</v>
+        <v>0.09847479823154263</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1331818136624916</v>
+        <v>0.02559393473738356</v>
       </c>
       <c r="O191" t="n">
-        <v>0.08854086619709763</v>
+        <v>0.1001339631029676</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02015592333465788</v>
+        <v>0.0255149056667644</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09563718903196761</v>
+        <v>0.1009286770958483</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03404875447864482</v>
+        <v>0.04527532663989181</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09371886912467596</v>
+        <v>0.09945438452175308</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07486561962943075</v>
+        <v>0.08418989954052369</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09379192534610026</v>
+        <v>0.09925634424925329</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1322360451410363</v>
+        <v>0.0255149056667644</v>
       </c>
       <c r="O192" t="n">
-        <v>0.08924357148437619</v>
+        <v>0.1009286770958483</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02108789722141483</v>
+        <v>0.02504049160064213</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09639023776450278</v>
+        <v>0.101723391088729</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03418174422234344</v>
+        <v>0.04512402953193828</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09445681297605137</v>
+        <v>0.1002374899116881</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07445706001480021</v>
+        <v>0.08241615043358941</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09453044444331365</v>
+        <v>0.1000378902669639</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1313244948174829</v>
+        <v>0.02504049160064213</v>
       </c>
       <c r="O193" t="n">
-        <v>0.08994627677165475</v>
+        <v>0.101723391088729</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01901753045719391</v>
+        <v>0.0249704432327998</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09714328649703796</v>
+        <v>0.1025181050816097</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03391118949083685</v>
+        <v>0.04406891814003247</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09519475682742677</v>
+        <v>0.1010205953016232</v>
       </c>
       <c r="L194" t="n">
-        <v>0.074135209656678</v>
+        <v>0.08213177885189687</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09526896354052704</v>
+        <v>0.1008194362846746</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1314516818949686</v>
+        <v>0.0249704432327998</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09064898205893329</v>
+        <v>0.1025181050816097</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01994496406409028</v>
+        <v>0.02500451125702061</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09789633522957315</v>
+        <v>0.1033128190744904</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03413713504656116</v>
+        <v>0.04401096427738116</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09593270067880218</v>
+        <v>0.1018037006915583</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07410301087356924</v>
+        <v>0.08133758916731121</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09600748263774044</v>
+        <v>0.1016009823023852</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1301221255766303</v>
+        <v>0.02500451125702061</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09135168734621185</v>
+        <v>0.1033128190744904</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01887033906419901</v>
+        <v>0.0248424463670876</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09864938396210832</v>
+        <v>0.1041075330673711</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03405962565195242</v>
+        <v>0.04345113975719114</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09667064453017758</v>
+        <v>0.1025868060814933</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07346340598397902</v>
+        <v>0.08003438575169719</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09674600173495382</v>
+        <v>0.1023825283200959</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1291403450656051</v>
+        <v>0.0248424463670876</v>
       </c>
       <c r="O196" t="n">
-        <v>0.0920543926334904</v>
+        <v>0.1041075330673711</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02079379647961523</v>
+        <v>0.0243839992567839</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09940243269464349</v>
+        <v>0.1049022470602518</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03387870606944676</v>
+        <v>0.04269041639266929</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09740858838155297</v>
+        <v>0.1033699114714284</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07251933730641244</v>
+        <v>0.07942297297691997</v>
       </c>
       <c r="M197" t="n">
-        <v>0.0974845208321672</v>
+        <v>0.1031640743378066</v>
       </c>
       <c r="N197" t="n">
-        <v>0.12821085956503</v>
+        <v>0.0243839992567839</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09275709792076896</v>
+        <v>0.1049022470602518</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02071547733243405</v>
+        <v>0.02432892061989261</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1001554814271787</v>
+        <v>0.1056969610531325</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03389442106148022</v>
+        <v>0.0422297659970223</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09814653223292838</v>
+        <v>0.1041530168613635</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07217374715937463</v>
+        <v>0.07760415521484448</v>
       </c>
       <c r="M198" t="n">
-        <v>0.0982230399293806</v>
+        <v>0.1039456203555172</v>
       </c>
       <c r="N198" t="n">
-        <v>0.127038188278042</v>
+        <v>0.02432892061989261</v>
       </c>
       <c r="O198" t="n">
-        <v>0.0934598032080475</v>
+        <v>0.1056969610531325</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02063552264475055</v>
+        <v>0.02407696115019686</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1009085301597139</v>
+        <v>0.1064916750460132</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03350681539048894</v>
+        <v>0.04137016038345701</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09888447608430377</v>
+        <v>0.1049361222512985</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07192957786137064</v>
+        <v>0.07697873683733575</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09896155902659398</v>
+        <v>0.1047271663732279</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1261268504077782</v>
+        <v>0.02407696115019686</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09416250849532605</v>
+        <v>0.1064916750460132</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02055407343865988</v>
+        <v>0.02392787154147977</v>
       </c>
       <c r="G200" t="n">
-        <v>0.101661578892249</v>
+        <v>0.1072863890388939</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03361593381890896</v>
+        <v>0.04091257136518014</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09962241993567918</v>
+        <v>0.1057192276412336</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07158977173090558</v>
+        <v>0.07614752221625887</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09970007812380736</v>
+        <v>0.1055087123909385</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1255813651573755</v>
+        <v>0.02392787154147977</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09486521378260461</v>
+        <v>0.1072863890388939</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01947127073625714</v>
+        <v>0.02388140248752439</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1024146276247842</v>
+        <v>0.1080811030317746</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03352182110917638</v>
+        <v>0.04075797075539864</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1003603637870546</v>
+        <v>0.1065023330311686</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07115727108648459</v>
+        <v>0.0745113157234788</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1004385972210208</v>
+        <v>0.1062902584086492</v>
       </c>
       <c r="N201" t="n">
-        <v>0.124706251729971</v>
+        <v>0.02388140248752439</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09556791906988316</v>
+        <v>0.1080811030317746</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01838725555963742</v>
+        <v>0.0239373046821139</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1031676763573194</v>
+        <v>0.1088758170246552</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03322452202372732</v>
+        <v>0.04000733036731921</v>
       </c>
       <c r="K202" t="n">
-        <v>0.10109830763843</v>
+        <v>0.1072854384211037</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07043501824661272</v>
+        <v>0.07362937402154984</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1011771163182341</v>
+        <v>0.1070718044263598</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1234060293287017</v>
+        <v>0.0239373046821139</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09627062435716172</v>
+        <v>0.1088758170246552</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01830216893089587</v>
+        <v>0.02359532881903134</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1039207250898546</v>
+        <v>0.109670531017536</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03322408132499781</v>
+        <v>0.03896162201414857</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1018362514898054</v>
+        <v>0.1080685438110388</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07042595552979508</v>
+        <v>0.07199655169726882</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1019156354154475</v>
+        <v>0.1078533504440705</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1221852171567046</v>
+        <v>0.02359532881903134</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09697332964444028</v>
+        <v>0.109670531017536</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02021615187212756</v>
+        <v>0.02345522559205988</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1046737738223898</v>
+        <v>0.1104652450104166</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03312054377542398</v>
+        <v>0.03872181750909365</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1025741953411808</v>
+        <v>0.1088516492009739</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06973302525453678</v>
+        <v>0.07102863072817878</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1026541545126609</v>
+        <v>0.1086348964617811</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1212483344171167</v>
+        <v>0.02345522559205988</v>
       </c>
       <c r="O204" t="n">
-        <v>0.09767603493171882</v>
+        <v>0.1104652450104166</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01812934540542762</v>
+        <v>0.02351674569498263</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1054268225549249</v>
+        <v>0.1112599590032973</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03311395413744191</v>
+        <v>0.03798888866536118</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1033121391925562</v>
+        <v>0.1096347545909089</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06985916973934292</v>
+        <v>0.06974871489394829</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1033926736098743</v>
+        <v>0.1094164424794918</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1193999003130752</v>
+        <v>0.02351674569498263</v>
       </c>
       <c r="O205" t="n">
-        <v>0.09837874021899737</v>
+        <v>0.1112599590032973</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01804189055289118</v>
+        <v>0.02307963982158263</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1061798712874601</v>
+        <v>0.112054672996178</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0331043571734877</v>
+        <v>0.0376638072961579</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1040500830439316</v>
+        <v>0.110417859980844</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06940733130271859</v>
+        <v>0.0675799079742459</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1041311927070877</v>
+        <v>0.1101979884972025</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1187444340477168</v>
+        <v>0.02307963982158263</v>
       </c>
       <c r="O206" t="n">
-        <v>0.09908144550627593</v>
+        <v>0.112054672996178</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.0189539283366133</v>
+        <v>0.02294365866564306</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1069329200199953</v>
+        <v>0.1128493869890587</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03289179764599739</v>
+        <v>0.0370475452146907</v>
       </c>
       <c r="K207" t="n">
-        <v>0.104788026895307</v>
+        <v>0.111200965370779</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06868045226316888</v>
+        <v>0.06624531374874038</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1048697118043011</v>
+        <v>0.1109795345149131</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1170864548241788</v>
+        <v>0.02294365866564306</v>
       </c>
       <c r="O207" t="n">
-        <v>0.09978415079355447</v>
+        <v>0.1128493869890587</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01786559977868913</v>
+        <v>0.022908552920947</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1076859687525305</v>
+        <v>0.1136441009819394</v>
       </c>
       <c r="J208" t="n">
-        <v>0.0327763203174071</v>
+        <v>0.03634107423416633</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1055259707466824</v>
+        <v>0.1119840707607141</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06828147493919887</v>
+        <v>0.0644680359971001</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1056082309015145</v>
+        <v>0.1117610805326238</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1166304818455982</v>
+        <v>0.022908552920947</v>
       </c>
       <c r="O208" t="n">
-        <v>0.100486856080833</v>
+        <v>0.1136441009819394</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01877704590121377</v>
+        <v>0.02267407328127757</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1084390174850656</v>
+        <v>0.1144388149748201</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03245796995015295</v>
+        <v>0.03594536616779156</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1062639145980578</v>
+        <v>0.1127671761506492</v>
       </c>
       <c r="L209" t="n">
-        <v>0.0682133416493137</v>
+        <v>0.0635711784989938</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1063467499987279</v>
+        <v>0.1125426265503344</v>
       </c>
       <c r="N209" t="n">
-        <v>0.114481034315112</v>
+        <v>0.02267407328127757</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1011895613681116</v>
+        <v>0.1144388149748201</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01868840772628233</v>
+        <v>0.02263997044041788</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1091920662176008</v>
+        <v>0.1152335289677008</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03243679130667095</v>
+        <v>0.03546139282877322</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1070018584494332</v>
+        <v>0.1135502815405842</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06827899471201851</v>
+        <v>0.06097784503409004</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1070852690959413</v>
+        <v>0.1133241725680451</v>
       </c>
       <c r="N210" t="n">
-        <v>0.113542631435857</v>
+        <v>0.02263997044041788</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1018922666553901</v>
+        <v>0.1152335289677008</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01959955674890566</v>
+        <v>0.02270599509215102</v>
       </c>
       <c r="G211" t="n">
-        <v>0.109945114950136</v>
+        <v>0.1160282429605815</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03231282914939723</v>
+        <v>0.03499012603031809</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1077398023008086</v>
+        <v>0.1143333869305193</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06798137644581825</v>
+        <v>0.05951113938205743</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1078237881931546</v>
+        <v>0.1141057185857557</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1123197924109704</v>
+        <v>0.02270599509215102</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1025949719426687</v>
+        <v>0.1160282429605815</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01850906019956383</v>
+        <v>0.02257189793026011</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1106981636826712</v>
+        <v>0.1168229569534622</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03208612824076792</v>
+        <v>0.03513253758563292</v>
       </c>
       <c r="K212" t="n">
-        <v>0.108477746152184</v>
+        <v>0.1151164923204544</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06732342916921819</v>
+        <v>0.05759416532256445</v>
       </c>
       <c r="M212" t="n">
-        <v>0.108562307290368</v>
+        <v>0.1148872646034664</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1120170364435893</v>
+        <v>0.02257189793026011</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1032976772299472</v>
+        <v>0.1168229569534622</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01741669316326343</v>
+        <v>0.02233742964852825</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1114512124152063</v>
+        <v>0.1176176709463429</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03195673334321904</v>
+        <v>0.03418959930792459</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1092156900035594</v>
+        <v>0.1158995977103894</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06780809520072334</v>
+        <v>0.05595002663527976</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1093008263875814</v>
+        <v>0.1156688106211771</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1105388827368506</v>
+        <v>0.02233742964852825</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1040003825172258</v>
+        <v>0.1176176709463429</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01732246435651058</v>
+        <v>0.02230234094073859</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1122042611477415</v>
+        <v>0.1184123849392236</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03202468921918669</v>
+        <v>0.03426228301039982</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1099536338549348</v>
+        <v>0.1166827031003245</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06713831685883878</v>
+        <v>0.05530182709987197</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1100393454847948</v>
+        <v>0.1164503566388877</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1092898504938913</v>
+        <v>0.02230234094073859</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1047030878045044</v>
+        <v>0.1184123849392236</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01822638249581134</v>
+        <v>0.0219663825006742</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1129573098802767</v>
+        <v>0.1192070989321043</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03199004063110697</v>
+        <v>0.03325156050626546</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1106915777063102</v>
+        <v>0.1174658084902595</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06761689649543257</v>
+        <v>0.05407267049600972</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1107778645820082</v>
+        <v>0.1172319026565984</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1090744589178487</v>
+        <v>0.0219663825006742</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1054057930917829</v>
+        <v>0.1192070989321043</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0171284562976718</v>
+        <v>0.0220293050221182</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1137103586128119</v>
+        <v>0.120001812924985</v>
       </c>
       <c r="J216" t="n">
-        <v>0.031652832341416</v>
+        <v>0.03345840360872823</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1114295215576856</v>
+        <v>0.1182489138801946</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06761925375957886</v>
+        <v>0.05218566060336149</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1115163836792216</v>
+        <v>0.118013448674309</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1075972272118594</v>
+        <v>0.0220293050221182</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1061084983790614</v>
+        <v>0.120001812924985</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01702869447859803</v>
+        <v>0.02179085919885369</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1144634073453471</v>
+        <v>0.1207965269178657</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03141285974624082</v>
+        <v>0.03248378413099506</v>
       </c>
       <c r="K217" t="n">
-        <v>0.112167465409061</v>
+        <v>0.1190320192701297</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06772586462143415</v>
+        <v>0.05186390120159595</v>
       </c>
       <c r="M217" t="n">
-        <v>0.112254902776435</v>
+        <v>0.1187949946920197</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1065626745790607</v>
+        <v>0.02179085919885369</v>
       </c>
       <c r="O217" t="n">
-        <v>0.10681120366634</v>
+        <v>0.1207965269178657</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01792710575509611</v>
+        <v>0.02175079572466382</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1152164560778822</v>
+        <v>0.1215912409107464</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03146138334712351</v>
+        <v>0.03202867388627254</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1129054092604364</v>
+        <v>0.1198151246600647</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06733696339312226</v>
+        <v>0.05103049607038163</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1129934218736484</v>
+        <v>0.1195765407097303</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1059753202225894</v>
+        <v>0.02175079572466382</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1075139089536186</v>
+        <v>0.1215912409107464</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01782369884367213</v>
+        <v>0.02130886529333163</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1159695048104174</v>
+        <v>0.1223859549036271</v>
       </c>
       <c r="J219" t="n">
-        <v>0.0312942330556875</v>
+        <v>0.03199404468776762</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1136433531118118</v>
+        <v>0.1205982300499998</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06765278438676717</v>
+        <v>0.04980854898938725</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1137319409708617</v>
+        <v>0.120358086727441</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1046396833455827</v>
+        <v>0.02130886529333163</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1082166142408971</v>
+        <v>0.1223859549036271</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01871848246083217</v>
+        <v>0.02126481859864029</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1167225535429526</v>
+        <v>0.1231806688965078</v>
       </c>
       <c r="J220" t="n">
-        <v>0.0309116559930137</v>
+        <v>0.03158086834868704</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1143812969631872</v>
+        <v>0.1213813354399349</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06727356191449285</v>
+        <v>0.04972116373828123</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1144704600680751</v>
+        <v>0.1211396327451516</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1038602831511777</v>
+        <v>0.02126481859864029</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1089193195281757</v>
+        <v>0.1231806688965078</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01761146532308229</v>
+        <v>0.02101943853436934</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1174756022754878</v>
+        <v>0.1239753828893885</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03071389928018295</v>
+        <v>0.03109011668223757</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1151192408145626</v>
+        <v>0.1221644408298699</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0678995302884231</v>
+        <v>0.04976729595295853</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1152089791652885</v>
+        <v>0.1219211787628623</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1032416388425113</v>
+        <v>0.02101943853436934</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1096220248154542</v>
+        <v>0.1239753828893885</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01850265614692861</v>
+        <v>0.02097409707693725</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1182286510080229</v>
+        <v>0.1247700968822692</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03070121003827608</v>
+        <v>0.03152276150162606</v>
       </c>
       <c r="K222" t="n">
-        <v>0.115857184665938</v>
+        <v>0.122947546219805</v>
       </c>
       <c r="L222" t="n">
-        <v>0.067930923820682</v>
+        <v>0.04906056759832045</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1159474982625019</v>
+        <v>0.122702724780573</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1021609961424314</v>
+        <v>0.02097409707693725</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1103247301027328</v>
+        <v>0.1247700968822692</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01839206364887717</v>
+        <v>0.02092880538654437</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1189816997405581</v>
+        <v>0.1255648108751498</v>
       </c>
       <c r="J223" t="n">
-        <v>0.030273835388374</v>
+        <v>0.03097977462005927</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1165951285173134</v>
+        <v>0.1237306516097401</v>
       </c>
       <c r="L223" t="n">
-        <v>0.0676679768233934</v>
+        <v>0.04955696161959788</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1166860173597153</v>
+        <v>0.1234842707982836</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1023844826962214</v>
+        <v>0.02092880538654437</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1110274353900113</v>
+        <v>0.1255648108751498</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01727969654543408</v>
+        <v>0.02058356396137695</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1197347484730933</v>
+        <v>0.1263595248680306</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03033202245155758</v>
+        <v>0.030562127850744</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1173330723686888</v>
+        <v>0.1245137569996751</v>
       </c>
       <c r="L224" t="n">
-        <v>0.0674109236086812</v>
+        <v>0.04955644856380842</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1174245364569287</v>
+        <v>0.1242658168159943</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1010120743102201</v>
+        <v>0.02058356396137695</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1117301406772899</v>
+        <v>0.1263595248680306</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0161655635531054</v>
+        <v>0.0206383732996212</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1204877972056285</v>
+        <v>0.1271542388609113</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02997601834890765</v>
+        <v>0.03047079300688704</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1180710162200642</v>
+        <v>0.1252968623896102</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06745999848866938</v>
+        <v>0.04935899897796925</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1181630555541421</v>
+        <v>0.1250473628337049</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1003438986586346</v>
+        <v>0.0206383732996212</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1124328459645684</v>
+        <v>0.1271542388609113</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01604967338839722</v>
+        <v>0.02039323389946336</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1212408459381637</v>
+        <v>0.1279489528537919</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02970607020150509</v>
+        <v>0.0304036433500714</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1188089600714396</v>
+        <v>0.1260799677795452</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06771543577548178</v>
+        <v>0.04866458340909796</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1189015746513554</v>
+        <v>0.1258289088514156</v>
       </c>
       <c r="N226" t="n">
-        <v>0.100080083415671</v>
+        <v>0.02039323389946336</v>
       </c>
       <c r="O226" t="n">
-        <v>0.113135551251847</v>
+        <v>0.1279489528537919</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01593203476781562</v>
+        <v>0.02014814625908966</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1219938946706988</v>
+        <v>0.1287436668466727</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02942242513043077</v>
+        <v>0.02994156638808407</v>
       </c>
       <c r="K227" t="n">
-        <v>0.119546903922815</v>
+        <v>0.1268630731694803</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06787746978124248</v>
+        <v>0.04877317240421214</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1196400937485688</v>
+        <v>0.1266104548691262</v>
       </c>
       <c r="N227" t="n">
-        <v>0.0996207562555359</v>
+        <v>0.02014814625908966</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1138382565391255</v>
+        <v>0.1287436668466727</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01681265640786669</v>
+        <v>0.0201031108766863</v>
       </c>
       <c r="G228" t="n">
-        <v>0.122746943403234</v>
+        <v>0.1295383808395533</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02922533025676555</v>
+        <v>0.02988123721272848</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1202848477741904</v>
+        <v>0.1276461785594154</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06774633481807527</v>
+        <v>0.04828473651032916</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1203786128457822</v>
+        <v>0.1273920008868369</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09906604485243597</v>
+        <v>0.0201031108766863</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1145409618264041</v>
+        <v>0.1295383808395533</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01769154702505649</v>
+        <v>0.02005812825043955</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1234999921357692</v>
+        <v>0.130333094832434</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0287150327015903</v>
+        <v>0.03012279688824718</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1210227916255658</v>
+        <v>0.1284292839493504</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0679222651981041</v>
+        <v>0.04829924627446636</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1211171319429956</v>
+        <v>0.1281735469045475</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09821607688057749</v>
+        <v>0.02005812825043955</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1152436671136826</v>
+        <v>0.130333094832434</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01656871533589111</v>
+        <v>0.01981319887853562</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1242530408683044</v>
+        <v>0.1311278088253147</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02839177958598588</v>
+        <v>0.0298663864788826</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1217607354769412</v>
+        <v>0.1292123893392855</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06830549523345297</v>
+        <v>0.04891667224364138</v>
       </c>
       <c r="M230" t="n">
-        <v>0.121855651040209</v>
+        <v>0.1289550929222582</v>
       </c>
       <c r="N230" t="n">
-        <v>0.09747098001416726</v>
+        <v>0.01981319887853562</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1159463724009612</v>
+        <v>0.1311278088253147</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01644417005687664</v>
+        <v>0.01966832325916074</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1250060896008395</v>
+        <v>0.1319225228181954</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02815581803103315</v>
+        <v>0.02921214704887731</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1224986793283166</v>
+        <v>0.1299954947292206</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06809625923624571</v>
+        <v>0.04873698496487155</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1225941701374224</v>
+        <v>0.1297366389399689</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09723088192741169</v>
+        <v>0.01966832325916074</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1166490776882397</v>
+        <v>0.1319225228181954</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01731791990451915</v>
+        <v>0.01942350189050114</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1257591383333747</v>
+        <v>0.1327172368110761</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02790739515781297</v>
+        <v>0.02966021966247392</v>
       </c>
       <c r="K232" t="n">
-        <v>0.123236623179692</v>
+        <v>0.1307786001191556</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06809479151860631</v>
+        <v>0.04906015498517435</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1233326892346358</v>
+        <v>0.1305181849576795</v>
       </c>
       <c r="N232" t="n">
-        <v>0.0960959102945172</v>
+        <v>0.01942350189050114</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1173517829755183</v>
+        <v>0.1327172368110761</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01618997359532472</v>
+        <v>0.01937873527074302</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1265121870659099</v>
+        <v>0.1335119508039568</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02754675808740624</v>
+        <v>0.02931074538391482</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1239745670310674</v>
+        <v>0.1315617055090907</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06850132639265866</v>
+        <v>0.04788615285156733</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1240712083318492</v>
+        <v>0.1312997309753902</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09516619278969041</v>
+        <v>0.01937873527074302</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1180544882627969</v>
+        <v>0.1335119508039568</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01706033984579943</v>
+        <v>0.01923402389807267</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1272652357984451</v>
+        <v>0.1343066647968375</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02717415394089377</v>
+        <v>0.02886386527744253</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1247125108824428</v>
+        <v>0.1323448108990257</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06831609817052672</v>
+        <v>0.04821494911106783</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1248097274290625</v>
+        <v>0.1320812769931008</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09544185708713793</v>
+        <v>0.01923402389807267</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1187571935500754</v>
+        <v>0.1343066647968375</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01492902737244937</v>
+        <v>0.01918936827067627</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1280182845309803</v>
+        <v>0.1351013787897182</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02648982983935648</v>
+        <v>0.02901972040729961</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1254504547338182</v>
+        <v>0.1331279162889608</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06873934116433442</v>
+        <v>0.04854651431069334</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1255482465262759</v>
+        <v>0.1328628230108115</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09462303086106616</v>
+        <v>0.01918936827067627</v>
       </c>
       <c r="O235" t="n">
-        <v>0.119459898837354</v>
+        <v>0.1351013787897182</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01479604489178061</v>
+        <v>0.01914476888674008</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1287713332635154</v>
+        <v>0.1358960927825989</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02639403290387521</v>
+        <v>0.0284784518377286</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1261883985851936</v>
+        <v>0.1339110216788959</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06897128968620561</v>
+        <v>0.04778081899746134</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1262867656234893</v>
+        <v>0.1336443690285221</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09340984178568168</v>
+        <v>0.01914476888674008</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1201626041246325</v>
+        <v>0.1358960927825989</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01666140112029923</v>
+        <v>0.01900022624445029</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1295243819960506</v>
+        <v>0.1366908067754796</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02568701025553081</v>
+        <v>0.02904020063297202</v>
       </c>
       <c r="K237" t="n">
-        <v>0.126926342436569</v>
+        <v>0.1346941270688309</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06861217804826431</v>
+        <v>0.04841783371838926</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1270252847207027</v>
+        <v>0.1344259150462328</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09260241753519105</v>
+        <v>0.01900022624445029</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1208653094119111</v>
+        <v>0.1366908067754796</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01552510477451132</v>
+        <v>0.01865574084199316</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1302774307285858</v>
+        <v>0.1374855207683603</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02526900901540416</v>
+        <v>0.02880510785727233</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1276642862879444</v>
+        <v>0.135477232458766</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06906224056263441</v>
+        <v>0.04805752902049465</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1277638038179161</v>
+        <v>0.1352074610639434</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09290088578380074</v>
+        <v>0.01865574084199316</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1215680146991896</v>
+        <v>0.1374855207683603</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01538716457092296</v>
+        <v>0.01841131317755491</v>
       </c>
       <c r="G239" t="n">
-        <v>0.131030479461121</v>
+        <v>0.138280234761241</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02514027630457613</v>
+        <v>0.02827331457487212</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1284022301393198</v>
+        <v>0.1362603378487011</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06932171154143982</v>
+        <v>0.0480998754507948</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1285023229151295</v>
+        <v>0.1359890070816541</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09240537420571726</v>
+        <v>0.01841131317755491</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1222707199864682</v>
+        <v>0.138280234761241</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01524758922604023</v>
+        <v>0.01856694374932175</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1317835281936562</v>
+        <v>0.1390749487541217</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02470105924412756</v>
+        <v>0.02794496185001383</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1291401739906952</v>
+        <v>0.1370434432386361</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06969082529680445</v>
+        <v>0.04834484355630736</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1292408420123429</v>
+        <v>0.1367705530993648</v>
       </c>
       <c r="N240" t="n">
-        <v>0.0918160104751472</v>
+        <v>0.01856694374932175</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1229734252737467</v>
+        <v>0.1390749487541217</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01510638745636921</v>
+        <v>0.01842263305547993</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1325365769261913</v>
+        <v>0.1398696627470024</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02425160495513938</v>
+        <v>0.02852019074694004</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1298781178420706</v>
+        <v>0.1378265486285712</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0696698161408523</v>
+        <v>0.04739240388404958</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1299793611095563</v>
+        <v>0.1375520991170754</v>
       </c>
       <c r="N241" t="n">
-        <v>0.0906329222662971</v>
+        <v>0.01842263305547993</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1236761305610253</v>
+        <v>0.1398696627470024</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01596356797841596</v>
+        <v>0.01797838159421569</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1332896256587265</v>
+        <v>0.1406643767398831</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02379216055869238</v>
+        <v>0.02799914232989323</v>
       </c>
       <c r="K242" t="n">
-        <v>0.130616061693446</v>
+        <v>0.1386096540185063</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06945891838570725</v>
+        <v>0.04764252698103905</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1307178802067697</v>
+        <v>0.1383336451347861</v>
       </c>
       <c r="N242" t="n">
-        <v>0.09025623725337339</v>
+        <v>0.01797838159421569</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1243788358483038</v>
+        <v>0.1406643767398831</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01481913950868658</v>
+        <v>0.01803418986371523</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1340426743912617</v>
+        <v>0.1414590907327638</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02302297317586745</v>
+        <v>0.02788195766311599</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1313540055448214</v>
+        <v>0.1393927594084413</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06975836634349322</v>
+        <v>0.04749518339429326</v>
       </c>
       <c r="M243" t="n">
-        <v>0.131456399303983</v>
+        <v>0.1391151911524967</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08998608311058265</v>
+        <v>0.01803418986371523</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1250815411355824</v>
+        <v>0.1414590907327638</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01467311076368716</v>
+        <v>0.0179900583621648</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1347957231237969</v>
+        <v>0.1422538047256444</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02264428992774543</v>
+        <v>0.02756877781085079</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1320919493961968</v>
+        <v>0.1401758647983764</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07046839432633412</v>
+        <v>0.04755034367082961</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1321949184011964</v>
+        <v>0.1398967371702074</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08942258751213145</v>
+        <v>0.0179900583621648</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1257842464228609</v>
+        <v>0.1422538047256444</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01352549045992376</v>
+        <v>0.01764598758775061</v>
       </c>
       <c r="G245" t="n">
-        <v>0.135548771856332</v>
+        <v>0.1430485187185252</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02205635793540728</v>
+        <v>0.02745974383734015</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1328298932475722</v>
+        <v>0.1409589701883115</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07038923664635391</v>
+        <v>0.04740797835766553</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1329334374984098</v>
+        <v>0.1406782831879181</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08856587813222622</v>
+        <v>0.01764598758775061</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1264869517101395</v>
+        <v>0.1430485187185252</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01337628731390247</v>
+        <v>0.01760197803865891</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1363018205888672</v>
+        <v>0.1438432327114059</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02185942431993375</v>
+        <v>0.02725499680682655</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1335678370989476</v>
+        <v>0.1417420755782465</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07082112761567655</v>
+        <v>0.04776805800181855</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1336719565956232</v>
+        <v>0.1414598292056287</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08811608264507359</v>
+        <v>0.01760197803865891</v>
       </c>
       <c r="O246" t="n">
-        <v>0.127189656997418</v>
+        <v>0.1438432327114059</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01422551004212937</v>
+        <v>0.0174580302130759</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1370548693214024</v>
+        <v>0.1446379467042865</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02105373620240576</v>
+        <v>0.02755467778355256</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1343057809503231</v>
+        <v>0.1425251809681816</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07076430154642585</v>
+        <v>0.04733055315030599</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1344104756928366</v>
+        <v>0.1422413752233394</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08777332872488003</v>
+        <v>0.0174580302130759</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1278923622846966</v>
+        <v>0.1446379467042865</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01307316736111054</v>
+        <v>0.01741414460918785</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1378079180539376</v>
+        <v>0.1454326606971673</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02063954070390418</v>
+        <v>0.02705892783176073</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1350437248016985</v>
+        <v>0.1433082863581166</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07101899275072587</v>
+        <v>0.04799543435014553</v>
       </c>
       <c r="M248" t="n">
-        <v>0.13514899479005</v>
+        <v>0.14302292124105</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08623774404585216</v>
+        <v>0.01741414460918785</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1285950675719751</v>
+        <v>0.1454326606971673</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01491926798735208</v>
+        <v>0.01717032172518096</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1385609667864728</v>
+        <v>0.1462273746900479</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02031708494550986</v>
+        <v>0.02716788801569348</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1357816686530738</v>
+        <v>0.1440913917480517</v>
       </c>
       <c r="L249" t="n">
-        <v>0.07148543554070044</v>
+        <v>0.04816267214835435</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1358875138872634</v>
+        <v>0.1438044672587607</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08630945628219627</v>
+        <v>0.01717032172518096</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1292977728592537</v>
+        <v>0.1462273746900479</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01276382063736003</v>
+        <v>0.01702656205924147</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1393140155190079</v>
+        <v>0.1470220886829286</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01968661604830367</v>
+        <v>0.02698169939959341</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1365196125044492</v>
+        <v>0.1448744971379868</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07156386422847352</v>
+        <v>0.04713223709195019</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1366260329844768</v>
+        <v>0.1445860132764713</v>
       </c>
       <c r="N250" t="n">
-        <v>0.0861885931081191</v>
+        <v>0.01702656205924147</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1300004781465323</v>
+        <v>0.1470220886829286</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01360683402764049</v>
+        <v>0.0169828661095556</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1400670642515431</v>
+        <v>0.1478168026758093</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01924838113336647</v>
+        <v>0.02730050304770298</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1372575563558247</v>
+        <v>0.1456576025279218</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07155451312616906</v>
+        <v>0.04710409972795027</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1373645520816902</v>
+        <v>0.145367559294182</v>
       </c>
       <c r="N251" t="n">
-        <v>0.0848752821978272</v>
+        <v>0.0169828661095556</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1307031834338108</v>
+        <v>0.1478168026758093</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01244831687469956</v>
+        <v>0.01683923437430956</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1408201129840783</v>
+        <v>0.14861151666869</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01840262732177912</v>
+        <v>0.0267244400242648</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1379955002072001</v>
+        <v>0.1464407079178569</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07225761654591098</v>
+        <v>0.04747823060337214</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1381030711789035</v>
+        <v>0.1461491053118926</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08496965122552691</v>
+        <v>0.01683923437430956</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1314058887210894</v>
+        <v>0.14861151666869</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01428827789504329</v>
+        <v>0.01639566735168962</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1415731617166135</v>
+        <v>0.1494062306615707</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01794960173462251</v>
+        <v>0.02685365139352128</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1387334440585754</v>
+        <v>0.147223813307792</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07237340879982318</v>
+        <v>0.04715460026523333</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1388415902761169</v>
+        <v>0.1469306513296033</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0839718278654249</v>
+        <v>0.01639566735168962</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1321085940083679</v>
+        <v>0.1494062306615707</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01212672580517777</v>
+        <v>0.01655216553988197</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1423262104491486</v>
+        <v>0.1502009446544514</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01748955149297747</v>
+        <v>0.02678827821971505</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1394713879099508</v>
+        <v>0.148006918697727</v>
       </c>
       <c r="L254" t="n">
-        <v>0.07310212420002959</v>
+        <v>0.04783317926055125</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1395801093733303</v>
+        <v>0.1477121973473139</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08358193979172773</v>
+        <v>0.01655216553988197</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1328112992956464</v>
+        <v>0.1502009446544514</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.0139636693216091</v>
+        <v>0.01630872943707286</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1430792591816838</v>
+        <v>0.1509956586473321</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01682272371792488</v>
+        <v>0.02652846156708855</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1402093317613262</v>
+        <v>0.1487900240876621</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07294399705865415</v>
+        <v>0.04801393813634336</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1403186284705437</v>
+        <v>0.1484937433650246</v>
       </c>
       <c r="N255" t="n">
-        <v>0.08330011467864179</v>
+        <v>0.01630872943707286</v>
       </c>
       <c r="O255" t="n">
-        <v>0.133514004582925</v>
+        <v>0.1509956586473321</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01279911716084333</v>
+        <v>0.01616535954144853</v>
       </c>
       <c r="G256" t="n">
-        <v>0.143832307914219</v>
+        <v>0.1517903726402128</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01624936553054561</v>
+        <v>0.02667434249988432</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1409472756127017</v>
+        <v>0.1495731294775972</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07369926168782076</v>
+        <v>0.04689684743962697</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1410571475677571</v>
+        <v>0.1492752893827353</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08252648020037368</v>
+        <v>0.01616535954144853</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1342167098702036</v>
+        <v>0.1517903726402128</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01363307803938656</v>
+        <v>0.0159220563511952</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1445853566467542</v>
+        <v>0.1525850866330935</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01586972405192054</v>
+        <v>0.02712606208234486</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1416852194640771</v>
+        <v>0.1503562348675322</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07426815239965334</v>
+        <v>0.04798187771741974</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1417956666649705</v>
+        <v>0.1500568354004459</v>
       </c>
       <c r="N257" t="n">
-        <v>0.08206116403112995</v>
+        <v>0.0159220563511952</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1349194151574821</v>
+        <v>0.1525850866330935</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01346556067374487</v>
+        <v>0.01597882036449907</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1453384053792894</v>
+        <v>0.1533798006259742</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01518404640313051</v>
+        <v>0.0266837613787127</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1424231633154525</v>
+        <v>0.1511393402574673</v>
       </c>
       <c r="L258" t="n">
-        <v>0.07405090350627591</v>
+        <v>0.04686899951673912</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1425341857621839</v>
+        <v>0.1508383814181566</v>
       </c>
       <c r="N258" t="n">
-        <v>0.08150429384511709</v>
+        <v>0.01597882036449907</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1356221204447607</v>
+        <v>0.1533798006259742</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01229657378042433</v>
+        <v>0.01553565207954642</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1460914541118246</v>
+        <v>0.1541745146188549</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01449257970525637</v>
+        <v>0.02684758145323041</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1431611071668279</v>
+        <v>0.1519224456474023</v>
       </c>
       <c r="L259" t="n">
-        <v>0.07454774931981228</v>
+        <v>0.04765818338460243</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1432727048593972</v>
+        <v>0.1516199274358672</v>
       </c>
       <c r="N259" t="n">
-        <v>0.08125599731654171</v>
+        <v>0.01553565207954642</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1363248257320392</v>
+        <v>0.1541745146188549</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01312612607593103</v>
+        <v>0.01569255199452343</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1468445028443597</v>
+        <v>0.1549692286117356</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01409557107937903</v>
+        <v>0.02671766337014045</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1438990510182033</v>
+        <v>0.1527055510373374</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07495892415238645</v>
+        <v>0.04684939986802722</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1440112239566106</v>
+        <v>0.1524014734535779</v>
       </c>
       <c r="N260" t="n">
-        <v>0.08131640211961011</v>
+        <v>0.01569255199452343</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1370275310193178</v>
+        <v>0.1549692286117356</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01195422627677105</v>
+        <v>0.01554952060761634</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1475975515768949</v>
+        <v>0.1557639426046163</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01339326764657933</v>
+        <v>0.02699414819368534</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1446369948695787</v>
+        <v>0.1534886564272725</v>
       </c>
       <c r="L261" t="n">
-        <v>0.07578466231612233</v>
+        <v>0.04724261951403097</v>
       </c>
       <c r="M261" t="n">
-        <v>0.144749743053824</v>
+        <v>0.1531830194712885</v>
       </c>
       <c r="N261" t="n">
-        <v>0.08098563592852903</v>
+        <v>0.01554952060761634</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1377302363065963</v>
+        <v>0.1557639426046163</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01178088309945046</v>
+        <v>0.0151065584170114</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1483506003094301</v>
+        <v>0.156558656597497</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01258591652793815</v>
+        <v>0.02667717698810762</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1453749387209541</v>
+        <v>0.1542717618172075</v>
       </c>
       <c r="L262" t="n">
-        <v>0.07562519812314378</v>
+        <v>0.04743781286963095</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1454882621510374</v>
+        <v>0.1539645654889992</v>
       </c>
       <c r="N262" t="n">
-        <v>0.07996382641750494</v>
+        <v>0.0151065584170114</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1384329415938749</v>
+        <v>0.156558656597497</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01260610526047535</v>
+        <v>0.01496366592089483</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1491036490419652</v>
+        <v>0.1573533705903777</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01227376484453631</v>
+        <v>0.02636689081764984</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1461128825723295</v>
+        <v>0.1550548672071426</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07678076588557484</v>
+        <v>0.04763495048184485</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1462267812482508</v>
+        <v>0.1547461115067098</v>
       </c>
       <c r="N263" t="n">
-        <v>0.08025110126074436</v>
+        <v>0.01496366592089483</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1391356468811534</v>
+        <v>0.1573533705903777</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.0124299014763518</v>
+        <v>0.01512084361745288</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1498566977745004</v>
+        <v>0.1581480845832584</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01155705971745471</v>
+        <v>0.02676343074655443</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1468508264237049</v>
+        <v>0.1558379725970777</v>
       </c>
       <c r="L264" t="n">
-        <v>0.07725159991553934</v>
+        <v>0.0476340028976901</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1469653003454642</v>
+        <v>0.1555276575244205</v>
       </c>
       <c r="N264" t="n">
-        <v>0.07904758813245383</v>
+        <v>0.01512084361745288</v>
       </c>
       <c r="O264" t="n">
-        <v>0.139838352168432</v>
+        <v>0.1581480845832584</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1265.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1265.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8263518223330697</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04131759111665349</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04131759111665349</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06610814578664558</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.0817905546699921</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01765743719209541</v>
+        <v>0.0317905546699921</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01470349509516778</v>
+        <v>0.01615060906416234</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001923296398627712</v>
+        <v>0.001404691470563713</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007947139928806954</v>
+        <v>0.0006678091824662862</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004750488249602947</v>
+        <v>0.001856527305711266</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007831053899350636</v>
+        <v>0.0007947139928806954</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.008449458246608976</v>
+        <v>0.00486544794696056</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007815460177106558</v>
+        <v>0.0007820098458553428</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001923296398627712</v>
+        <v>0.009040523100043274</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007947139928806954</v>
+        <v>0.0007794832036505467</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.00436945730632933</v>
+        <v>0.002800161634180731</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001589427985761391</v>
+        <v>0.001335618364932572</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.009762751710180345</v>
+        <v>0.003857574289672941</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001566210779870127</v>
+        <v>0.001589427985761391</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01587911568891454</v>
+        <v>0.009539670566697273</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001563092035421312</v>
+        <v>0.001564019691710686</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.00436945730632933</v>
+        <v>0.01794365869120185</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001589427985761391</v>
+        <v>0.001558966407301093</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.006209024690607592</v>
+        <v>0.004186675682449167</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002384141978642086</v>
+        <v>0.002003427547398859</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01508813708952375</v>
+        <v>0.005461499574547543</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002349316169805191</v>
+        <v>0.002384141978642086</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02386550027280088</v>
+        <v>0.01599999999999999</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002344638053131967</v>
+        <v>0.002691582491582489</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.006209024690607592</v>
+        <v>0.02634751002180757</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002384141978642086</v>
+        <v>0.00233844961095164</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.008112540518965219</v>
+        <v>0.005564498806967126</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003178855971522781</v>
+        <v>0.002671236729865145</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01897799109542447</v>
+        <v>0.007126661782997583</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003132421559740254</v>
+        <v>0.003178855971522781</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03008513994415163</v>
+        <v>0.01752565696619948</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003126184070842623</v>
+        <v>0.003128039383421371</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.008112540518965219</v>
+        <v>0.03359018034019179</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003178855971522781</v>
+        <v>0.003117932814602187</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.007494374999999999</v>
+        <v>0.0123859808769948</v>
       </c>
       <c r="B70" t="n">
-        <v>0.015</v>
+        <v>0.02479055466999209</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01005054675890497</v>
+        <v>0.006933896199332705</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003973569964403477</v>
+        <v>0.003339045912331431</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02099999999999999</v>
+        <v>0.008611419537685579</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00364309895833333</v>
+        <v>0.003973569964403477</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03299999999999997</v>
+        <v>0.02034474430659175</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00354572580645161</v>
+        <v>0.003910049229276714</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.01005054675890497</v>
+        <v>0.04099999999999998</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003973569964403477</v>
+        <v>0.004138308080808078</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01139358537792957</v>
+        <v>0.008295133051144016</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004768283957284172</v>
+        <v>0.004006855094797718</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.0237620660252412</v>
+        <v>0.009874131461274034</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004698632339610382</v>
+        <v>0.004768283957284172</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03794378745718713</v>
+        <v>0.02305238671437501</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004689276106263934</v>
+        <v>0.004692059075132056</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.01139358537792957</v>
+        <v>0.04332989140338683</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004768283957284172</v>
+        <v>0.00467689922190328</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01281219834354176</v>
+        <v>0.009648474553999163</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005562997950164867</v>
+        <v>0.004674664277264004</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02624809629558569</v>
+        <v>0.011</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005481737729545445</v>
+        <v>0.005495874999999997</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.0416203866427759</v>
+        <v>0.02556075230564309</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.00547082212397459</v>
+        <v>0.005474068920987399</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.01281219834354176</v>
+        <v>0.04615461733777532</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005562997950164867</v>
+        <v>0.005456382425553827</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01397692762324428</v>
+        <v>0.01099418589949624</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006357711943045563</v>
+        <v>0.00534247345973029</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02832274946470539</v>
+        <v>0.01179787111722363</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006264843119480509</v>
+        <v>0.006357711943045563</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04505283591020465</v>
+        <v>0.02798200919648985</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006252368141685246</v>
+        <v>0.006256078766842742</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01397692762324428</v>
+        <v>0.04844041589182363</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006357711943045563</v>
+        <v>0.006235865629204374</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.015</v>
+        <v>0.01233253227923338</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007494374999999999</v>
+        <v>0.006010282642196577</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03011224492095685</v>
+        <v>0.01253637600766</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007047948509415572</v>
+        <v>0.007152425935926258</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04798457415227825</v>
+        <v>0.03012832550300923</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007033914159395902</v>
+        <v>0.007038088612698085</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.015</v>
+        <v>0.05107377222604315</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007494374999999999</v>
+        <v>0.00701534883285492</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01506491910184143</v>
+        <v>0.01366377888480866</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007947139928806954</v>
+        <v>0.006678091824662863</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03194280205269678</v>
+        <v>0.01330126289331211</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007831053899350637</v>
+        <v>0.007947139928806954</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.0504590402618017</v>
+        <v>0.03211186934129506</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007815460177106558</v>
+        <v>0.007820098458553427</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01506491910184143</v>
+        <v>0.05364117150094494</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007947139928806954</v>
+        <v>0.007794832036505467</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01546157817332648</v>
+        <v>0.01498819090782021</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008741853921687649</v>
+        <v>0.007345901007129149</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03364064024828176</v>
+        <v>0.01360439269130724</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008614159289285701</v>
+        <v>0.008741853921687649</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05351967313158001</v>
+        <v>0.03364480882744131</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008597006194817213</v>
+        <v>0.00860210830440877</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01546157817332648</v>
+        <v>0.05552909887704038</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008741853921687649</v>
+        <v>0.008574315240156014</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01568712757496538</v>
+        <v>0.01630603353986611</v>
       </c>
       <c r="G77" t="n">
+        <v>0.008013710189595435</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01435762631877265</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009536567914568344</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.03543197889606839</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009397264679220764</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.05600991165441821</v>
+        <v>0.0355393120775418</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009378552212527869</v>
+        <v>0.009384118150264112</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01568712757496538</v>
+        <v>0.05762403951484057</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009536567914568344</v>
+        <v>0.009353798443806559</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01616020219722464</v>
+        <v>0.01761757197254448</v>
       </c>
       <c r="G78" t="n">
+        <v>0.00868151937206172</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01467282469283561</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01033128190744904</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.03654303738441331</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01018037006915583</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.05747319472312118</v>
+        <v>0.0367075472076904</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01016009823023852</v>
+        <v>0.01016612799611946</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01616020219722464</v>
+        <v>0.05968509973821601</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01033128190744904</v>
+        <v>0.01004046059148356</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01639943693057092</v>
+        <v>0.01892307139745344</v>
       </c>
       <c r="G79" t="n">
+        <v>0.009349328554528007</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01526184873062333</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01112599590032973</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>0.03867126846515573</v>
       </c>
-      <c r="K79" t="n">
-        <v>0.01118121094149504</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0.05968509973821601</v>
-      </c>
       <c r="M79" t="n">
-        <v>0.01068823224254701</v>
+        <v>0.01084238636751034</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01639943693057092</v>
+        <v>0.06152726857737584</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01112599590032973</v>
+        <v>0.01091276485110765</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01652346666547079</v>
+        <v>0.02022279700619108</v>
       </c>
       <c r="G80" t="n">
+        <v>0.01001713773699429</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.0156365593492632</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01192070989321043</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.03903473989920206</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01174658084902595</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.06172818089147109</v>
+        <v>0.03967590589621417</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01172319026565984</v>
+        <v>0.01173014768783014</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01652346666547079</v>
+        <v>0.06365659281296082</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01192070989321043</v>
+        <v>0.0116922480547582</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01685092629239088</v>
+        <v>0.02151701399035549</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01068494691946058</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01610881746588237</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01271542388609113</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.04087437494826618</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01252968623896102</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.06440363153419348</v>
+        <v>0.04118532707983202</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01250473628337049</v>
+        <v>0.01251215753368548</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01685092629239088</v>
+        <v>0.06569716514019786</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01271542388609113</v>
+        <v>0.01247173125840875</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01700045070179779</v>
+        <v>0.02280598754154477</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01135275610192687</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01689048399760813</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01351013787897182</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.0419181883584851</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01331279162889608</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.06617957190131263</v>
+        <v>0.04278933935629833</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01328628230108115</v>
+        <v>0.01329416737954082</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01700045070179779</v>
+        <v>0.06694609546869495</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01351013787897182</v>
+        <v>0.01325121446205929</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01749067478415807</v>
+        <v>0.02408998285135708</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01202056528439315</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01739341986156778</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01430485187185252</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.04306424251590013</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01409589701883114</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.06765332245971439</v>
+        <v>0.0441864143875948</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0140678283187918</v>
+        <v>0.01407617722539617</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01749067478415807</v>
+        <v>0.0691004937080601</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01430485187185252</v>
+        <v>0.01403069766570984</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
+        <v>0.02479055466999209</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0123859808769948</v>
+      </c>
+      <c r="J84" t="n">
         <v>0.01765743719209541</v>
       </c>
-      <c r="G84" t="n">
+      <c r="K84" t="n">
         <v>0.01470349509516778</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.04501059980655239</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01487900240876621</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.07062220367628452</v>
+        <v>0.04587502383570319</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01484937433650246</v>
+        <v>0.01485818707125151</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01765743719209541</v>
+        <v>0.07135746976790142</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01470349509516778</v>
+        <v>0.01481018086936039</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01822635283446669</v>
+        <v>0.02677176231717759</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01335618364932573</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01838343384301404</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01589427985761391</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.04615532261648311</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01566210779870127</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.07168353601790878</v>
+        <v>0.04695363936260522</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01563092035421312</v>
+        <v>0.01564019691710685</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01822635283446669</v>
+        <v>0.07271413355782669</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01589427985761391</v>
+        <v>0.01558966407301093</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01865437763746287</v>
+        <v>0.0281850880306933</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01402399283179201</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01875863104810148</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.0166889938504946</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.04729647333173348</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01644521318863634</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.07403463995147297</v>
+        <v>0.04862073263028266</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01641246637192377</v>
+        <v>0.0164222067629622</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01865437763746287</v>
+        <v>0.07436759498744416</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0166889938504946</v>
+        <v>0.01636914727666148</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01901772777823393</v>
+        <v>0.02953179511610703</v>
       </c>
       <c r="G87" t="n">
+        <v>0.0146918020142583</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01955062201878732</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.0174837078433753</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.04883211433834472</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.0172283185785714</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.07587283594386307</v>
+        <v>0.04927477530071722</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01719401238963443</v>
+        <v>0.01720421660881754</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01901772777823393</v>
+        <v>0.07691496396636172</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0174837078433753</v>
+        <v>0.01714863048031203</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01961351323006005</v>
+        <v>0.03071884616957896</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01535961119672458</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.02025737522989393</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01827842183625599</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.05006030802235806</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01801142396850646</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.07889544446196473</v>
+        <v>0.05061423903589071</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01797555840734508</v>
+        <v>0.01798622645467288</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01961351323006005</v>
+        <v>0.07885335040418739</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01827842183625599</v>
+        <v>0.01792811368396257</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02003884396622137</v>
+        <v>0.0317905546699921</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01615060906416234</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.02067685915624362</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01907313582913669</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.0514791167698147</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01879452935844153</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.08009978597266376</v>
+        <v>0.05203759549778483</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01875710442505574</v>
+        <v>0.01876823630052822</v>
       </c>
       <c r="N89" t="n">
-        <v>0.02003884396622137</v>
+        <v>0.08017986421052914</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01907313582913669</v>
+        <v>0.01870759688761312</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02069082995999807</v>
+        <v>0.03236121881514119</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01669522956165715</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.02140704227265876</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01986784982201738</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.05248660296675584</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01957763474837659</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.08188318094284613</v>
+        <v>0.0535433163483813</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01953865044276639</v>
+        <v>0.01955024614638357</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02069082995999807</v>
+        <v>0.08229161529499501</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01986784982201738</v>
+        <v>0.01948708009126367</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02096658118467033</v>
+        <v>0.03303479196897858</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01736303874412344</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02204589305396164</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02066256381489808</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.05428082899922265</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02036074013831166</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.0843429498393975</v>
+        <v>0.05492987324966189</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02032019646047705</v>
+        <v>0.02033225599223891</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02096658118467033</v>
+        <v>0.08478571356719306</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02066256381489808</v>
+        <v>0.02026656329491421</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.0216632076135183</v>
+        <v>0.03368006861298267</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01803084792658973</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02269137997497464</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02145727780777877</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.05525985725325638</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02114384552824672</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.08637641312920369</v>
+        <v>0.05599573786360837</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0211017424781877</v>
+        <v>0.02111426583809425</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0216632076135183</v>
+        <v>0.08655926893673122</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02145727780777877</v>
+        <v>0.02104604649856476</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02227781921982215</v>
+        <v>0.0342976167510902</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01869865710905601</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02314147151052005</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02225199180065947</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.05632175011489823</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02192695091818178</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.08828089127915051</v>
+        <v>0.05773938185220243</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02188328849589836</v>
+        <v>0.02189627568394959</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02227781921982215</v>
+        <v>0.08850939131321756</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02225199180065947</v>
+        <v>0.02182552970221531</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02290752597686205</v>
+        <v>0.03488800438723783</v>
       </c>
       <c r="G94" t="n">
+        <v>0.0193664662915223</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02379413613542024</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02304670579354016</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.05786456997018941</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02271005630811684</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.09045370475612385</v>
+        <v>0.05825927687742588</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02266483451360902</v>
+        <v>0.02267828552980494</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02290752597686205</v>
+        <v>0.09063319060626002</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02304670579354016</v>
+        <v>0.02260501290586585</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02364943785791819</v>
+        <v>0.03545179952536231</v>
       </c>
       <c r="G95" t="n">
+        <v>0.02003427547398859</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.0245473423244975</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02384141978642086</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.05918637920517114</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02349316169805191</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.09179217402700945</v>
+        <v>0.05975389460126038</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02344638053131967</v>
+        <v>0.02346029537566028</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02364943785791819</v>
+        <v>0.09132777672546666</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02384141978642086</v>
+        <v>0.0233844961095164</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0241006648362707</v>
+        <v>0.03598957016940033</v>
       </c>
       <c r="G96" t="n">
+        <v>0.02070208465645487</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02539905855257424</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02463613377930155</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.06028524020588455</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02427626708798697</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.09309361955869305</v>
+        <v>0.06112170668568775</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02422792654903033</v>
+        <v>0.02424230522151562</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0241006648362707</v>
+        <v>0.09319025958044547</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02463613377930155</v>
+        <v>0.02416397931316695</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02505831688519976</v>
+        <v>0.03650188432328861</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02136989383892116</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02604725329447274</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02543084777218225</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.06165921535837096</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02505937247792204</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.09485536181806059</v>
+        <v>0.06186118479268968</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02500947256674099</v>
+        <v>0.02502431506737097</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02505831688519976</v>
+        <v>0.09511774908080434</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02543084777218225</v>
+        <v>0.02494346251681749</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02571950397798556</v>
+        <v>0.03698930999096383</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02203770302138745</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02668989502501533</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02622556176506294</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.0622063670486715</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.0258424778678571</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.09737472127199776</v>
+        <v>0.06347080058424798</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02579101858445164</v>
+        <v>0.02580632491322631</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02571950397798556</v>
+        <v>0.09700735513615155</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02622556176506294</v>
+        <v>0.02572294572046804</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02608133608790825</v>
+        <v>0.03745241517636274</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02270551220385373</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02732495221902438</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02702027575794364</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.0637247576628274</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02662558325779216</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.09914901838739054</v>
+        <v>0.06414902572234429</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0265725646021623</v>
+        <v>0.02658833475908165</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02608133608790825</v>
+        <v>0.09885618765609483</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02702027575794364</v>
+        <v>0.02650242892411859</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02684092318824796</v>
+        <v>0.03789176788342203</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02337332138632002</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02765039335132219</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02781498975082433</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.06501244958687985</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02740868864772723</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1005755736311246</v>
+        <v>0.06509433186896044</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02735411061987295</v>
+        <v>0.02737034460493699</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02684092318824796</v>
+        <v>0.1003613565502424</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02781498975082433</v>
+        <v>0.02728191212776913</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02749537525228492</v>
+        <v>0.03830793611607839</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02404113056878631</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02836418689673112</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02860970374370503</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.06566750520687009</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02819179403766229</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1025517074700857</v>
+        <v>0.06610519068607817</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02813565663758361</v>
+        <v>0.02815235445079234</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02749537525228492</v>
+        <v>0.1022199717282021</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02860970374370503</v>
+        <v>0.02806139533141968</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02814180225329928</v>
+        <v>0.03870148787826857</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02470893975125259</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02916430133007349</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02940441773658573</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.06648798690883934</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02897489942759736</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1029747403711598</v>
+        <v>0.06768007383567914</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02891720265529427</v>
+        <v>0.02893436429664768</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02814180225329928</v>
+        <v>0.1032291430995819</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02940441773658573</v>
+        <v>0.02884087853507022</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02887731416457115</v>
+        <v>0.03907299117392924</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02537674893371888</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02974870512617166</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.03019913172946642</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.06807195707882874</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02975800481753242</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1053419928012326</v>
+        <v>0.06791745297974525</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02969874867300492</v>
+        <v>0.02971637414250303</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02887731416457115</v>
+        <v>0.1043859805739901</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03019913172946642</v>
+        <v>0.02962036173872078</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02929902095938081</v>
+        <v>0.03942301400699714</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02604455811618516</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.03011536675984793</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03099384572234712</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.06861747810287955</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03054111020746748</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.10665078522719</v>
+        <v>0.0692157997802581</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03048029469071558</v>
+        <v>0.03049838398835837</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02929902095938081</v>
+        <v>0.1059875940610344</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03099384572234712</v>
+        <v>0.03039984494237132</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03010403261100832</v>
+        <v>0.03975212438140895</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02671236729865145</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.03086225470592467</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03178855971522782</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.06992261236703295</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03132421559740255</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.1076984381159177</v>
+        <v>0.07017358589919948</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03126184070842623</v>
+        <v>0.03128039383421371</v>
       </c>
       <c r="N105" t="n">
-        <v>0.03010403261100832</v>
+        <v>0.1070310934703229</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03178855971522782</v>
+        <v>0.03117932814602187</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0305894590927339</v>
+        <v>0.04006089030110139</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02738017648111774</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.03118733743922418</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03258327370810851</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.0707854222573302</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03210732098733761</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1086822719343015</v>
+        <v>0.07118928299855112</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03204338672613689</v>
+        <v>0.03206240368006905</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0305894590927339</v>
+        <v>0.1084135887114637</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03258327370810851</v>
+        <v>0.03195881134967241</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03115241037783771</v>
+        <v>0.04034987977001118</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02804798566358403</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.03188858343456884</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.0333779877009892</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.07110397015981246</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03289042637727267</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1107996071492274</v>
+        <v>0.07146136274029483</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03282493274384755</v>
+        <v>0.0328444135259244</v>
       </c>
       <c r="N107" t="n">
-        <v>0.03115241037783771</v>
+        <v>0.1098321896940646</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0333779877009892</v>
+        <v>0.03273829455332296</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03188999643959992</v>
+        <v>0.04061966079207503</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02871579484605031</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.03206396116678092</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.0341727016938699</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.07237631846052087</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03367353176720773</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.111147764227581</v>
+        <v>0.07208829678641226</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0336064787615582</v>
+        <v>0.03362642337177973</v>
       </c>
       <c r="N108" t="n">
-        <v>0.03188999643959992</v>
+        <v>0.1110840063277339</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0341727016938699</v>
+        <v>0.0335177777569735</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03229932725130069</v>
+        <v>0.04087080137122959</v>
       </c>
       <c r="G109" t="n">
+        <v>0.0293836040285166</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.03261143911068282</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.0349674156867506</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.0730005295454968</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.0344566371571428</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1119240636362483</v>
+        <v>0.07326855679888522</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03438802477926885</v>
+        <v>0.03440843321763508</v>
       </c>
       <c r="N109" t="n">
-        <v>0.03229932725130069</v>
+        <v>0.1128661485220794</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0349674156867506</v>
+        <v>0.03429726096062406</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03257751278622019</v>
+        <v>0.04110386951141166</v>
       </c>
       <c r="G110" t="n">
+        <v>0.03005141321098288</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.03312898574109684</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03576212967963129</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.07337466580078131</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03523974254707787</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1134258258421149</v>
+        <v>0.0736006144396954</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03516957079697951</v>
+        <v>0.03519044306349042</v>
       </c>
       <c r="N110" t="n">
-        <v>0.03257751278622019</v>
+        <v>0.1127757261867092</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03576212967963129</v>
+        <v>0.0350767441642746</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03302166301763858</v>
+        <v>0.04131943321655791</v>
       </c>
       <c r="G111" t="n">
+        <v>0.03071922239344917</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.03351456953284533</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03655684367251198</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.0740967896124157</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03602284793701292</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1139503713120668</v>
+        <v>0.07408294137082463</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03595111681469017</v>
+        <v>0.03597245290934577</v>
       </c>
       <c r="N111" t="n">
-        <v>0.03302166301763858</v>
+        <v>0.1142098492312312</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03655684367251198</v>
+        <v>0.03585622736792515</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03352888791883601</v>
+        <v>0.0415228767272209</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03138703157591546</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.03386615896075061</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03735155766539268</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.07446496336644115</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03680595332694799</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1154950205129895</v>
+        <v>0.07471400925425456</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03673266283240082</v>
+        <v>0.0367544627552011</v>
       </c>
       <c r="N112" t="n">
-        <v>0.03352888791883601</v>
+        <v>0.1149656275652534</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03735155766539268</v>
+        <v>0.03663571057157569</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03399629746309271</v>
+        <v>0.04172415541395922</v>
       </c>
       <c r="G113" t="n">
+        <v>0.03205484075838174</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.03418172249963504</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03814627165827338</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.0752772494488988</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03758905871688305</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1165570939117693</v>
+        <v>0.07529228975196703</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03751420885011147</v>
+        <v>0.03753647260105645</v>
       </c>
       <c r="N113" t="n">
-        <v>0.03399629746309271</v>
+        <v>0.1164401710983839</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03814627165827338</v>
+        <v>0.03741519377522624</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03432100162368878</v>
+        <v>0.04192347575132981</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03272264994084802</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.03435922862432092</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03894098565115407</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.07523171024582997</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03837216410681812</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1166339119752915</v>
+        <v>0.07601625452594366</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03829575486782213</v>
+        <v>0.03831848244691179</v>
       </c>
       <c r="N114" t="n">
-        <v>0.03432100162368878</v>
+        <v>0.1161305897402308</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03894098565115407</v>
+        <v>0.03819467697887678</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03470011037390444</v>
+        <v>0.04212076051013939</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03339045912331431</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.03449664580963062</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03973569964403476</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.07592640814327581</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03915526949675318</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1176227951704423</v>
+        <v>0.07608437523816627</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03907730088553279</v>
+        <v>0.03910049229276714</v>
       </c>
       <c r="N115" t="n">
-        <v>0.03470011037390444</v>
+        <v>0.1166339934004019</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03973569964403476</v>
+        <v>0.03897416018252733</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03483073368701983</v>
+        <v>0.0423159324611947</v>
       </c>
       <c r="G116" t="n">
+        <v>0.0340582683057806</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.03469194253038645</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04053041363691546</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.07665940552727751</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03993837488668825</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1178210639641073</v>
+        <v>0.07649512355061661</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03985884690324344</v>
+        <v>0.03988250213862248</v>
       </c>
       <c r="N116" t="n">
-        <v>0.03483073368701983</v>
+        <v>0.1181474919885053</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04053041363691546</v>
+        <v>0.03975364338617788</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03510998153631512</v>
+        <v>0.0425089143753025</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03472607748824688</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.03484308726141076</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04132512762979616</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.07672876478387633</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04072148027662331</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1183260388231723</v>
+        <v>0.07644697112527643</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0406403929209541</v>
+        <v>0.04066451198447783</v>
       </c>
       <c r="N117" t="n">
-        <v>0.03510998153631512</v>
+        <v>0.118168195414149</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04132512762979616</v>
+        <v>0.04053312658982842</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03513496389507048</v>
+        <v>0.04269962902326952</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03539388667071317</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.03524804847752588</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04211984162267685</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.0771325482991134</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04150458566655837</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1184350402145232</v>
+        <v>0.07673838962412741</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04142193893866476</v>
+        <v>0.04144652183033317</v>
       </c>
       <c r="N118" t="n">
-        <v>0.03513496389507048</v>
+        <v>0.118293213586941</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04211984162267685</v>
+        <v>0.04131260979347897</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
+        <v>0.04288799917590252</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.03606169585317946</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.03531487438419083</v>
       </c>
-      <c r="G119" t="n">
+      <c r="K119" t="n">
         <v>0.04291455561555755</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.07696881845903003</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04228769105649344</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.1189453886050457</v>
+        <v>0.07656785070915137</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04220348495637541</v>
+        <v>0.04222853167618851</v>
       </c>
       <c r="N119" t="n">
-        <v>0.03531487438419083</v>
+        <v>0.1188196564164893</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04291455561555755</v>
+        <v>0.04209209299712952</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03521455987081837</v>
+        <v>0.04307394760400823</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03672950503564574</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.03511395166458441</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04370926960843824</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.07734253693031146</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.0430707964464285</v>
-      </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
+        <v>0.04301054152204385</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.1193701994764321</v>
       </c>
-      <c r="M120" t="n">
-        <v>0.04298503097408607</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.03521455987081837</v>
-      </c>
       <c r="O120" t="n">
-        <v>0.04370926960843824</v>
+        <v>0.04287157620078006</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03521062043994391</v>
+        <v>0.04325739707839336</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03739731421811203</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.035002484176377</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04450398360131894</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.07673844360561044</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04385390183636356</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1192678908578663</v>
+        <v>0.07673860604259775</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04376657699179672</v>
+        <v>0.04379255136789919</v>
       </c>
       <c r="N121" t="n">
-        <v>0.03521062043994391</v>
+        <v>0.1193682521338346</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04450398360131894</v>
+        <v>0.04365105940443061</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03510223695935383</v>
+        <v>0.0434382703698647</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03806512340057831</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.03507833685381113</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04529869759419963</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.07721123288425133</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04463700722629863</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1187465103115727</v>
+        <v>0.07720610660613922</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04454812300950738</v>
+        <v>0.04457456121375453</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03510223695935383</v>
+        <v>0.119234871204403</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04529869759419963</v>
+        <v>0.04443054260808116</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03528949303343899</v>
+        <v>0.04361649024922897</v>
       </c>
       <c r="G123" t="n">
+        <v>0.0387329325830446</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.03504204195067535</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04609341158708033</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.07655915816358466</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04542011261623369</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1184031172493348</v>
+        <v>0.07674183727028419</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04532966902721804</v>
+        <v>0.04535657105960988</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03528949303343899</v>
+        <v>0.1181612464846758</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04609341158708033</v>
+        <v>0.0452100258117317</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03517247226659026</v>
+        <v>0.04379197948729293</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03940074176551089</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.03489413172075813</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04688812557996102</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.07678298175542878</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04620321800616876</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1183382036012852</v>
+        <v>0.0770471075075034</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04611121504492869</v>
+        <v>0.04613858090546522</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03517247226659026</v>
+        <v>0.1188488483329534</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04688812557996102</v>
+        <v>0.04598950901538226</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03495125826319853</v>
+        <v>0.0439646608548633</v>
       </c>
       <c r="G125" t="n">
+        <v>0.04006855094797718</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.0350351384178479</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04768283957284172</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.07668346597160206</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04698632339610381</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1182522612975563</v>
+        <v>0.07682322679026751</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04689276106263934</v>
+        <v>0.04692059075132057</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03495125826319853</v>
+        <v>0.1178991471075368</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04768283957284172</v>
+        <v>0.0467689922190328</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03512593462765465</v>
+        <v>0.04413445712274685</v>
       </c>
       <c r="G126" t="n">
+        <v>0.04073636013044346</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.03496559429573322</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04847755356572242</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.07626137312392284</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04776942878603888</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1184457822682806</v>
+        <v>0.07637150459104716</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04767430708035</v>
+        <v>0.0477026005971759</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03512593462765465</v>
+        <v>0.1181136131667264</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04847755356572242</v>
+        <v>0.04754847542268335</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03519658496434952</v>
+        <v>0.04430129106175029</v>
       </c>
       <c r="G127" t="n">
+        <v>0.04140416931290974</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.03498603160820252</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04927226755860311</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.07611746552420948</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04855253417597395</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1189192584435907</v>
+        <v>0.07599325038231305</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04845585309806066</v>
+        <v>0.04848461044303125</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03519658496434952</v>
+        <v>0.117993716868823</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04927226755860311</v>
+        <v>0.0483279586263339</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.035063292877674</v>
+        <v>0.04446508544268037</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04207197849537603</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.0346969826090443</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.0500669815514838</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.07655250548428033</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04933563956590901</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1176731817536192</v>
+        <v>0.07598977363653586</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04923739911577132</v>
+        <v>0.04926662028888659</v>
       </c>
       <c r="N128" t="n">
-        <v>0.035063292877674</v>
+        <v>0.1181409285721271</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0500669815514838</v>
+        <v>0.04910744182998444</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03482614197201898</v>
+        <v>0.04462576303634384</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04273978767784232</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.03469897955204707</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.0508616955443645</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.07616725531595375</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.05011874495584407</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1183080441284985</v>
+        <v>0.07556238382618624</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05001894513348197</v>
+        <v>0.05004863013474194</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03482614197201898</v>
+        <v>0.1170567186349396</v>
       </c>
       <c r="O129" t="n">
-        <v>0.0508616955443645</v>
+        <v>0.04988692503363499</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03488521585177531</v>
+        <v>0.04478324661354745</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04340759686030861</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.03469255469099927</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.0516564095372452</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.07586247733104806</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05090185034577913</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1181243374983612</v>
+        <v>0.07531239042373486</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05080049115119262</v>
+        <v>0.05083063998059728</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03488521585177531</v>
+        <v>0.1175425574155611</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0516564095372452</v>
+        <v>0.05066640823728553</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0349405981213339</v>
+        <v>0.04493745894509794</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04407540604277489</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.03447824027968943</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05245112353012589</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.0759389338413817</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.0516849557357142</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1175225537933398</v>
+        <v>0.07554110290165242</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05158203716890328</v>
+        <v>0.05161264982645262</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0349405981213339</v>
+        <v>0.1163999152722923</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05245112353012589</v>
+        <v>0.05144589144093608</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03489237238508561</v>
+        <v>0.04508832280180203</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04474321522524118</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.034356568571906</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05324583752300658</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.0752973871587729</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05246806112564926</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1179031849435669</v>
+        <v>0.07534983073240958</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05236358318661394</v>
+        <v>0.05239465967230796</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03489237238508561</v>
+        <v>0.1170302625634338</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05324583752300658</v>
+        <v>0.05222537464458663</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03484062224742129</v>
+        <v>0.04523576095446648</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04541102440770747</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.03412807182143748</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05404055151588728</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.07493859959504015</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05325116651558432</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.117666722879175</v>
+        <v>0.07493988338847701</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05314512920432459</v>
+        <v>0.0531766695181633</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03484062224742129</v>
+        <v>0.1157350696472863</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05404055151588728</v>
+        <v>0.05300485784823718</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03488543131273186</v>
+        <v>0.04537969617389803</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04607883359017375</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.03409328228207235</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05483526550876798</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.0752633334620017</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.0540342719055194</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1167136595302965</v>
+        <v>0.07481257034232539</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05392667522203524</v>
+        <v>0.05395867936401865</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03488543131273186</v>
+        <v>0.1162158068821506</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05483526550876798</v>
+        <v>0.05378434105188772</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03472688318540816</v>
+        <v>0.04552005123090343</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04674664277264004</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.03385273220759911</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05562997950164866</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.07497235107147593</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05481737729545446</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1168444868270641</v>
+        <v>0.07406920106642539</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05470822123974591</v>
+        <v>0.05474068920987399</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03472688318540816</v>
+        <v>0.1156739446263272</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05562997950164866</v>
+        <v>0.05456382425553827</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03466506146984107</v>
+        <v>0.04565674889628941</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04741445195510632</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.03380695385180622</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05642469349452937</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.07426641473528123</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05560048268538952</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1162596966996103</v>
+        <v>0.07401108503324771</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05548976725745656</v>
+        <v>0.05552269905572934</v>
       </c>
       <c r="N136" t="n">
-        <v>0.03466506146984107</v>
+        <v>0.1151109532381169</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05642469349452937</v>
+        <v>0.05534330745918881</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03460004977042148</v>
+        <v>0.04578971194086271</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04808226113757261</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.03345647946848221</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05721940748741006</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.07434628676523594</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05638358807532458</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1161597810780676</v>
+        <v>0.07353953171526295</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05627131327516722</v>
+        <v>0.05630470890158468</v>
       </c>
       <c r="N137" t="n">
-        <v>0.03460004977042148</v>
+        <v>0.1143283030758203</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05721940748741006</v>
+        <v>0.05612279066283936</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03443193169154025</v>
+        <v>0.04591886313543009</v>
       </c>
       <c r="G138" t="n">
+        <v>0.0487500703200389</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.03340184131141548</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05801412148029076</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.07371272947315841</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05716669346525964</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1157452318925685</v>
+        <v>0.07315585058494184</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05705285929287787</v>
+        <v>0.05708671874744001</v>
       </c>
       <c r="N138" t="n">
-        <v>0.03443193169154025</v>
+        <v>0.1138274644977381</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05801412148029076</v>
+        <v>0.0569022738664899</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03436079083758829</v>
+        <v>0.0460441252507983</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04941787950250518</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.03324357163439459</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05880883547317146</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.07296650517086695</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05794979885519471</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1152165410732455</v>
+        <v>0.07226135111475504</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05783440531058853</v>
+        <v>0.05786872859329537</v>
       </c>
       <c r="N139" t="n">
-        <v>0.03436079083758829</v>
+        <v>0.1127099078621709</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05880883547317146</v>
+        <v>0.05768175707014045</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03418671081295643</v>
+        <v>0.04616542105777404</v>
       </c>
       <c r="G140" t="n">
+        <v>0.05008568868497147</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.033282202691208</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05960354946605215</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.07260837617017996</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05873290424512977</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1153742005502313</v>
+        <v>0.07185734277717323</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05861595132829918</v>
+        <v>0.0586507384391507</v>
       </c>
       <c r="N140" t="n">
-        <v>0.03418671081295643</v>
+        <v>0.1125771035274196</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05960354946605215</v>
+        <v>0.05846124027379099</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03420977522203555</v>
+        <v>0.04628267332716408</v>
       </c>
       <c r="G141" t="n">
+        <v>0.05075349786743776</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.0329182667356442</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.06039826345893284</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.07263910478291583</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05951600963506484</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1144187022536582</v>
+        <v>0.0716451350446671</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05939749734600984</v>
+        <v>0.05943274828500605</v>
       </c>
       <c r="N141" t="n">
-        <v>0.03420977522203555</v>
+        <v>0.1124305218517846</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06039826345893284</v>
+        <v>0.05924072347744155</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03413006766921656</v>
+        <v>0.04639580482977517</v>
       </c>
       <c r="G142" t="n">
+        <v>0.05142130704990405</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.03275229602149167</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06119297745181354</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.07235945332089283</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.0602991150249999</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.114350538113659</v>
+        <v>0.07152603738970731</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06017904336372049</v>
+        <v>0.06021475813086139</v>
       </c>
       <c r="N142" t="n">
-        <v>0.03413006766921656</v>
+        <v>0.1110716331935669</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06119297745181354</v>
+        <v>0.0600202066810921</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03404767175889031</v>
+        <v>0.04650473833641402</v>
       </c>
       <c r="G143" t="n">
+        <v>0.05208911623237033</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.03248482280253892</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06198769144469423</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.07197018409592937</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06108222041493496</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1144702000603661</v>
+        <v>0.07130135928476447</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06096058938143115</v>
+        <v>0.06099676797671674</v>
       </c>
       <c r="N143" t="n">
-        <v>0.03404767175889031</v>
+        <v>0.1110019079110669</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06198769144469423</v>
+        <v>0.06079968988474264</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03396267109544768</v>
+        <v>0.0466093966178874</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05275692541483661</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.03241637933257437</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06278240543757492</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.07137205941984376</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06186532580487003</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1140781800239119</v>
+        <v>0.07047241020230935</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06174213539914181</v>
+        <v>0.06177877782257207</v>
       </c>
       <c r="N144" t="n">
-        <v>0.03396267109544768</v>
+        <v>0.1109228163625854</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06278240543757492</v>
+        <v>0.06157917308839319</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03397514928327955</v>
+        <v>0.04670970244500205</v>
       </c>
       <c r="G145" t="n">
+        <v>0.0534247345973029</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.03234749786538656</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06357711943045563</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.07126584160445446</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06264843119480509</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.112974969934429</v>
+        <v>0.07034049961481259</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06252368141685247</v>
+        <v>0.06256078766842742</v>
       </c>
       <c r="N145" t="n">
-        <v>0.03397514928327955</v>
+        <v>0.109935828906423</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06357711943045563</v>
+        <v>0.06235865629204373</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03368518992677677</v>
+        <v>0.0468055785885647</v>
       </c>
       <c r="G146" t="n">
+        <v>0.05409254377976919</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.03217871065476396</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06437183342333633</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.07095229296157968</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06343153658474016</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1133610617220501</v>
+        <v>0.06930693699474483</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06330522743456311</v>
+        <v>0.06334279751428276</v>
       </c>
       <c r="N146" t="n">
-        <v>0.03368518992677677</v>
+        <v>0.1089424159008804</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06437183342333633</v>
+        <v>0.06313813949569429</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03389287663033025</v>
+        <v>0.04689694781938212</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05476035296223548</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.03211054995449507</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06516654741621702</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.06983217580303788</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06421464197467522</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1127369473169076</v>
+        <v>0.06917303181457679</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06408677345227377</v>
+        <v>0.06412480736013811</v>
       </c>
       <c r="N147" t="n">
-        <v>0.03389287663033025</v>
+        <v>0.1081440477042584</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06516654741621702</v>
+        <v>0.06391762269934483</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03349829299833085</v>
+        <v>0.04698373290826102</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05542816214470175</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.03194354801836834</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06596126140909771</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.07010625244064736</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06499774736461028</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.111803118649134</v>
+        <v>0.06904009354677912</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06486831946998443</v>
+        <v>0.06490681720599345</v>
       </c>
       <c r="N148" t="n">
-        <v>0.03349829299833085</v>
+        <v>0.1077421946748575</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06596126140909771</v>
+        <v>0.06469710590299538</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03370152263516943</v>
+        <v>0.04706585662600816</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05609597132716805</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.03147823710017228</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.0667559754019784</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.0689752851862265</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06578085275454534</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1113600676488619</v>
+        <v>0.06800943166382248</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06564986548769509</v>
+        <v>0.06568882705184879</v>
       </c>
       <c r="N149" t="n">
-        <v>0.03370152263516943</v>
+        <v>0.1070383271709785</v>
       </c>
       <c r="O149" t="n">
-        <v>0.0667559754019784</v>
+        <v>0.06547658910664592</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03340264914523687</v>
+        <v>0.04714324174343027</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05676378050963433</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.03131514945369537</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.0675506893948591</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.06924003635159365</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06656395814448041</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1108082862462237</v>
+        <v>0.06828235563817758</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06643141150540574</v>
+        <v>0.06647083689770414</v>
       </c>
       <c r="N150" t="n">
-        <v>0.03340264914523687</v>
+        <v>0.107033915550922</v>
       </c>
       <c r="O150" t="n">
-        <v>0.0675506893948591</v>
+        <v>0.06625607231029647</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03350175613292408</v>
+        <v>0.04721581103133411</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05743158969210062</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.0311548173327261</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.0683454033877398</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.06870126824856715</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06734706353441547</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1111482663713521</v>
+        <v>0.06786017494231505</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0672129575231164</v>
+        <v>0.06725284674355947</v>
       </c>
       <c r="N151" t="n">
-        <v>0.03350175613292408</v>
+        <v>0.1068304301729887</v>
       </c>
       <c r="O151" t="n">
-        <v>0.0683454033877398</v>
+        <v>0.06703555551394701</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03329892720262191</v>
+        <v>0.0472834872605264</v>
       </c>
       <c r="G152" t="n">
+        <v>0.0580993988745669</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.03119777299105292</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06914011738062049</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.06815974318896537</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06813016892435053</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1104804999543795</v>
+        <v>0.06684419904870562</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06799450354082705</v>
+        <v>0.06803485658941481</v>
       </c>
       <c r="N152" t="n">
-        <v>0.03329892720262191</v>
+        <v>0.1057293413954793</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06914011738062049</v>
+        <v>0.06781503871759756</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03329424595872123</v>
+        <v>0.0473461932018139</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05876720805703319</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.03094454868246437</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06993483137350119</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.06771622348460665</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06891327431428561</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1096054789254386</v>
+        <v>0.06683573742981988</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06877604955853771</v>
+        <v>0.06881686643527016</v>
       </c>
       <c r="N153" t="n">
-        <v>0.03329424595872123</v>
+        <v>0.1055321195766944</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06993483137350119</v>
+        <v>0.06859452192124811</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03298779600561293</v>
+        <v>0.04740385162600334</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05943501723949948</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.03079567666074889</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07072954536638189</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.06727147144730938</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06969637970422067</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1090236952146617</v>
+        <v>0.06643609955812857</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06955759557624837</v>
+        <v>0.0695988762811255</v>
       </c>
       <c r="N154" t="n">
-        <v>0.03298779600561293</v>
+        <v>0.1050402350749349</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07072954536638189</v>
+        <v>0.06937400512489866</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03297966094768785</v>
+        <v>0.04745638530390147</v>
       </c>
       <c r="G155" t="n">
+        <v>0.06010282642196577</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.03055168917969502</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07152425935926258</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.06642624938889191</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07047948509415573</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1081356407521815</v>
+        <v>0.06554659490610237</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07033914159395903</v>
+        <v>0.07038088612698085</v>
       </c>
       <c r="N155" t="n">
-        <v>0.03297966094768785</v>
+        <v>0.1034551582485012</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07152425935926258</v>
+        <v>0.0701534883285492</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03266992438933693</v>
+        <v>0.04750371700631503</v>
       </c>
       <c r="G156" t="n">
+        <v>0.06077063560443205</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.03061311849309117</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07231897335214327</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.06638131962117252</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07126259048409078</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1084418074681304</v>
+        <v>0.06556853294621193</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07112068761166968</v>
+        <v>0.07116289597283619</v>
       </c>
       <c r="N156" t="n">
-        <v>0.03266992438933693</v>
+        <v>0.1028783594556941</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07231897335214327</v>
+        <v>0.07093297153219975</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03255866993495098</v>
+        <v>0.04754576950405077</v>
       </c>
       <c r="G157" t="n">
+        <v>0.06143844478689834</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.03048049685472587</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07311368734502396</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.06583744445596962</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07204569587402584</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1077426872926411</v>
+        <v>0.0651032231509279</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07190223362938034</v>
+        <v>0.07194490581869153</v>
       </c>
       <c r="N157" t="n">
-        <v>0.03255866993495098</v>
+        <v>0.1029113090548143</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07311368734502396</v>
+        <v>0.07171245473585029</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0327459811889209</v>
+        <v>0.04758246556791543</v>
       </c>
       <c r="G158" t="n">
+        <v>0.06210625396936462</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.03025272180091478</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07390840133790466</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.0653953862051016</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07282880126396092</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1073387721558461</v>
+        <v>0.06474609283932661</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07268377964709098</v>
+        <v>0.07272691566454688</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0327459811889209</v>
+        <v>0.1024436157513599</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07390840133790466</v>
+        <v>0.07249193793950084</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03263194175563756</v>
+        <v>0.04761372796871573</v>
       </c>
       <c r="G159" t="n">
+        <v>0.06277406315183091</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.03012718112825109</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07470311533078536</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.06525590718038674</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07361190665389598</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1065305539878778</v>
+        <v>0.06438772464320719</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07346532566480164</v>
+        <v>0.07350892551040221</v>
       </c>
       <c r="N159" t="n">
-        <v>0.03263194175563756</v>
+        <v>0.1015559763232652</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07470311533078536</v>
+        <v>0.07327142114315138</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03241663523949186</v>
+        <v>0.04763947947725846</v>
       </c>
       <c r="G160" t="n">
+        <v>0.0634418723342972</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.02990362222269169</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07549782932366605</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.06411976969364344</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07439501204383105</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1065185247188688</v>
+        <v>0.06442788932495833</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0742468716825123</v>
+        <v>0.07429093535625757</v>
       </c>
       <c r="N160" t="n">
-        <v>0.03241663523949186</v>
+        <v>0.1005488715005995</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07549782932366605</v>
+        <v>0.07405090434680194</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03230014524487465</v>
+        <v>0.04765964286435029</v>
       </c>
       <c r="G161" t="n">
+        <v>0.06410968151676348</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.02988183125406393</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07629254331654675</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.06418773605669006</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07517811743376611</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1055031762789516</v>
+        <v>0.06396651365846298</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07502841770022295</v>
+        <v>0.0750729452021129</v>
       </c>
       <c r="N161" t="n">
-        <v>0.03230014524487465</v>
+        <v>0.1000231334027813</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07629254331654675</v>
+        <v>0.07483038755045247</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03218255537617681</v>
+        <v>0.04767414090079804</v>
       </c>
       <c r="G162" t="n">
+        <v>0.06477749069922976</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.02966159439219533</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07708725730942745</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.06384917615771021</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07596122282370117</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1054850005982588</v>
+        <v>0.06340352441760438</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07580996371793361</v>
+        <v>0.07585495504796824</v>
       </c>
       <c r="N162" t="n">
-        <v>0.03218255537617681</v>
+        <v>0.09967959414922889</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07708725730942745</v>
+        <v>0.07560987075410303</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03216394923778922</v>
+        <v>0.04768289635740842</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06544529988169605</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.02964269780691327</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07788197130230815</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.06348038540749693</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07674432821363623</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1042644896069229</v>
+        <v>0.0628388483762656</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07659150973564426</v>
+        <v>0.07663696489382359</v>
       </c>
       <c r="N163" t="n">
-        <v>0.03216394923778922</v>
+        <v>0.09911908585936074</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07788197130230815</v>
+        <v>0.07638935395775356</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03174441043410277</v>
+        <v>0.04768583200498813</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06611310906416235</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.02962492766804527</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07867668529518883</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.06268259096375431</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.0775274336035713</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1040421352350763</v>
+        <v>0.06257241230832983</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07737305575335492</v>
+        <v>0.07741897473967893</v>
       </c>
       <c r="N164" t="n">
-        <v>0.03174441043410277</v>
+        <v>0.09784244065259534</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07867668529518883</v>
+        <v>0.07716883716140413</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03162402256950829</v>
+        <v>0.04768583200498814</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06611310906416235</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.02960807014541872</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07947139928806952</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.0619579434639676</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07831053899350636</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1036184294128518</v>
+        <v>0.0625041429876802</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07815460177106558</v>
+        <v>0.07820098458553428</v>
       </c>
       <c r="N165" t="n">
-        <v>0.03162402256950829</v>
+        <v>0.09825049064835095</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07947139928806952</v>
+        <v>0.07794832036505467</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03179950920488664</v>
+        <v>0.04686159200007701</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06611284053569833</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.02939191140886109</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.08026611328095024</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.06180859354562218</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07909364438344142</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1031938640703817</v>
+        <v>0.06203396718819976</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07893614778877624</v>
+        <v>0.07898299443138961</v>
       </c>
       <c r="N166" t="n">
-        <v>0.03179950920488664</v>
+        <v>0.09674406796604612</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08026611328095024</v>
+        <v>0.07872780356870522</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03155423412843798</v>
+        <v>0.04604670747405721</v>
       </c>
       <c r="G167" t="n">
+        <v>0.0661125720072343</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.02927623762819982</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08106082727383092</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.06113669184620327</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.0798767497733765</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1030689311377986</v>
+        <v>0.06176181168377173</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07971769380648688</v>
+        <v>0.07976500427724496</v>
       </c>
       <c r="N167" t="n">
-        <v>0.03155423412843798</v>
+        <v>0.09572400472509929</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08106082727383092</v>
+        <v>0.07950728677235576</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03148740041325904</v>
+        <v>0.04524164743387146</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06611230347877028</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.02896083497326235</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08185554126671162</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.06034438900319625</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08065985516331156</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.1021441225452351</v>
+        <v>0.06108760324827919</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08049923982419754</v>
+        <v>0.08054701412310029</v>
       </c>
       <c r="N168" t="n">
-        <v>0.03148740041325904</v>
+        <v>0.09569113304492882</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08185554126671162</v>
+        <v>0.08028676997600631</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03110074547834102</v>
+        <v>0.04444688088656728</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06611203495030626</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.02884548961387612</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08265025525959231</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.05953383565408643</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08144296055324662</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1009199302228237</v>
+        <v>0.06081126865560529</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08128078584190819</v>
+        <v>0.08132902396895565</v>
       </c>
       <c r="N169" t="n">
-        <v>0.03110074547834102</v>
+        <v>0.0945462850449531</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08265025525959231</v>
+        <v>0.08106625317965685</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03099600674267521</v>
+        <v>0.04366287683908694</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06611176642184226</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.0289299877198686</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08344496925247301</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.05890718243635901</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08222606594318167</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1010968461006969</v>
+        <v>0.0604327346796332</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08206233185961886</v>
+        <v>0.08211103381481098</v>
       </c>
       <c r="N170" t="n">
-        <v>0.03099600674267521</v>
+        <v>0.09349029284459071</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08344496925247301</v>
+        <v>0.0818457363833074</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03067492162525291</v>
+        <v>0.0428901042984079</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06611149789337824</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.02861411546106721</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08423968324535371</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.05886657998749939</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08300917133311674</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1007602965440595</v>
+        <v>0.06015192809424594</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08284387787732951</v>
+        <v>0.08289304366066634</v>
       </c>
       <c r="N171" t="n">
-        <v>0.03067492162525291</v>
+        <v>0.09312398856325987</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08423968324535371</v>
+        <v>0.08262521958695794</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03053922754506536</v>
+        <v>0.04212903227147478</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06611122936491422</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.02849765900729942</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.0850343972382344</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.05791417894499282</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08379227672305181</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.09949542930786515</v>
+        <v>0.05966877567332676</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08362542389504017</v>
+        <v>0.08367505350652167</v>
       </c>
       <c r="N172" t="n">
-        <v>0.03053922754506536</v>
+        <v>0.09214820432037912</v>
       </c>
       <c r="O172" t="n">
-        <v>0.0850343972382344</v>
+        <v>0.08340470279060849</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03029066192110381</v>
+        <v>0.04138012976533133</v>
       </c>
       <c r="G173" t="n">
+        <v>0.0661109608364502</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.02848040452839264</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.0858291112311151</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.05715212994632463</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08457538211298687</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.09980304778774735</v>
+        <v>0.0591832041907587</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08440696991275082</v>
+        <v>0.08445706335237702</v>
       </c>
       <c r="N173" t="n">
-        <v>0.03029066192110381</v>
+        <v>0.09116377223536687</v>
       </c>
       <c r="O173" t="n">
-        <v>0.0858291112311151</v>
+        <v>0.08418418599425903</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03003096217235959</v>
+        <v>0.04064386578692167</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06611069230798619</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.02836213819417437</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.0866238252239958</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.0566825836289801</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08535848750292194</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.09838395635557118</v>
+        <v>0.05889514042042499</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08518851593046148</v>
+        <v>0.08523907319823236</v>
       </c>
       <c r="N174" t="n">
-        <v>0.03003096217235959</v>
+        <v>0.09077152442764158</v>
       </c>
       <c r="O174" t="n">
-        <v>0.0866238252239958</v>
+        <v>0.08496366919790958</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02956186571782392</v>
+        <v>0.03992070934322323</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06611042377952217</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.02834264617447201</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08741853921687648</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.0561076906304446</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.086141592892857</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.0983389593832017</v>
+        <v>0.05830451113620866</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08597006194817214</v>
+        <v>0.08602108304408769</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02956186571782392</v>
+        <v>0.09067229301662155</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08741853921687648</v>
+        <v>0.08574315240156012</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02928510997648806</v>
+        <v>0.03921112944118297</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06611015525105815</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.02822171463911299</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08821325320975718</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.05552960158820333</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08692469828279206</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.09676886124250378</v>
+        <v>0.05811124311199295</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0867516079658828</v>
+        <v>0.08680309288994305</v>
       </c>
       <c r="N176" t="n">
-        <v>0.02928510997648806</v>
+        <v>0.08966691012172529</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08821325320975718</v>
+        <v>0.08652263560521069</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02930243236734333</v>
+        <v>0.03851559508784013</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06610988672259413</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.02789912975792483</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08900796720263787</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.05435046713974168</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08770780367272712</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.0965744663053425</v>
+        <v>0.05801526312166083</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08753315398359345</v>
+        <v>0.08758510273579838</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02930243236734333</v>
+        <v>0.08895620786237118</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08900796720263787</v>
+        <v>0.08730211880886123</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02871557030938095</v>
+        <v>0.037834575290141</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06610961819413012</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.02807467770073492</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08980268119551857</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.0535724379225449</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08849090906266219</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.09585657894358285</v>
+        <v>0.05751649793909563</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08831470000130411</v>
+        <v>0.08836711258165374</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02871557030938095</v>
+        <v>0.08784101835797775</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08980268119551857</v>
+        <v>0.08808160201251178</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02872626122159221</v>
+        <v>0.03716853905506306</v>
       </c>
       <c r="G179" t="n">
+        <v>0.0661093496656661</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.02774814463737071</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.09059739518839927</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.05279766457409832</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08927401445259725</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.09511600352908983</v>
+        <v>0.05721487433818032</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08909624601901475</v>
+        <v>0.08914912242750907</v>
       </c>
       <c r="N179" t="n">
-        <v>0.02872626122159221</v>
+        <v>0.0873221737279633</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09059739518839927</v>
+        <v>0.08886108521616232</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02843624252296839</v>
+        <v>0.03651795538955584</v>
       </c>
       <c r="G180" t="n">
+        <v>0.06610908113720208</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.02771931673765965</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09139210918127996</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.0524282977318872</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.09005711984253231</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.09405354443372849</v>
+        <v>0.05651031909279813</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08987779203672541</v>
+        <v>0.08993113227336441</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02843624252296839</v>
+        <v>0.08620050609174623</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09139210918127996</v>
+        <v>0.08964056841981287</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02794725163250074</v>
+        <v>0.03588329330065345</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06610881260873806</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.02768798017142919</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09218682317416066</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.05206648803339695</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09084022523246738</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.09407000602936383</v>
+        <v>0.05620275897683208</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09065933805443607</v>
+        <v>0.09071314211921976</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02794725163250074</v>
+        <v>0.0857768475687451</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09218682317416066</v>
+        <v>0.09042005162346341</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02786102596918053</v>
+        <v>0.03526502179530474</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06610854408027404</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.02735392110850678</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09298153716704136</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.05091438611611274</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09162333062240245</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.09326619268786085</v>
+        <v>0.05559212076416545</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09144088407214673</v>
+        <v>0.0914951519650751</v>
       </c>
       <c r="N182" t="n">
-        <v>0.02786102596918053</v>
+        <v>0.08485203027837823</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09298153716704136</v>
+        <v>0.09119953482711396</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02757930295199905</v>
+        <v>0.03466360988048717</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06610827555181004</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.02731692571871985</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09377625115992204</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.05027414261751992</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09240643601233751</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.09164290878108444</v>
+        <v>0.05537833122868127</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09222243008985738</v>
+        <v>0.09227716181093044</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02757930295199905</v>
+        <v>0.08372688634006403</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09377625115992204</v>
+        <v>0.09197901803076451</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02730381999994753</v>
+        <v>0.0340795265631532</v>
       </c>
       <c r="G184" t="n">
+        <v>0.066108007023346</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.02707678017189585</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09457096515280274</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.04954790817510382</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09318954140227258</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.09170095868089972</v>
+        <v>0.05506131714426271</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09300397610756804</v>
+        <v>0.09305917165678579</v>
       </c>
       <c r="N184" t="n">
-        <v>0.02730381999994753</v>
+        <v>0.08250224787322097</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09457096515280274</v>
+        <v>0.09275850123441505</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02703631453201728</v>
+        <v>0.03351324085033116</v>
       </c>
       <c r="G185" t="n">
+        <v>0.066107738494882</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.02693327063786226</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09536567914568343</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.04943783342634975</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09397264679220763</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.0904411467591717</v>
+        <v>0.05434100528479285</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09378552212527869</v>
+        <v>0.09384118150264113</v>
       </c>
       <c r="N185" t="n">
-        <v>0.02703631453201728</v>
+        <v>0.08207894699726748</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09536567914568343</v>
+        <v>0.0935379844380656</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02647852396719956</v>
+        <v>0.03296522174897274</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06610746996641798</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.02668618328644649</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09616039313856413</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.04894606900874299</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.0947557521821427</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.08906427738776546</v>
+        <v>0.05391732242415487</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09456706814298936</v>
+        <v>0.09462319134849646</v>
       </c>
       <c r="N186" t="n">
-        <v>0.02647852396719956</v>
+        <v>0.08135781583162199</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09616039313856413</v>
+        <v>0.09431746764171614</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02643218572448562</v>
+        <v>0.0324359382660554</v>
       </c>
       <c r="G187" t="n">
+        <v>0.06610720143795397</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.02673530428747597</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09695510713144484</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.04827476555976881</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09553885757207776</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.0889711549385459</v>
+        <v>0.05379019533623194</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09534861416070001</v>
+        <v>0.09540520119435181</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02643218572448562</v>
+        <v>0.08043968649570288</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09695510713144484</v>
+        <v>0.09509695084536669</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02629903722286674</v>
+        <v>0.03192585940853488</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06610693290948993</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.02668041981077819</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09774982112432552</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.04732607371691258</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09632196296201283</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.08746258378337801</v>
+        <v>0.05285955079490709</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09613016017841067</v>
+        <v>0.09618721104020715</v>
       </c>
       <c r="N188" t="n">
-        <v>0.02629903722286674</v>
+        <v>0.0789253911089286</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09774982112432552</v>
+        <v>0.09587643404901725</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0258808158813342</v>
+        <v>0.03143545418343306</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06610666438102593</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.02632131602618056</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09854453511720622</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.04739661412797094</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09710506835194789</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.08643936829412679</v>
+        <v>0.05232531557406356</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09691170619612131</v>
+        <v>0.0969692208860625</v>
       </c>
       <c r="N189" t="n">
-        <v>0.0258808158813342</v>
+        <v>0.07901576179071756</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09854453511720622</v>
+        <v>0.0966559172526678</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02587925911887926</v>
+        <v>0.03096327648587988</v>
       </c>
       <c r="G190" t="n">
+        <v>0.06610639585256191</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.02635777910351055</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09933924911008692</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.04686259075111496</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09788817374188295</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.08580231284265738</v>
+        <v>0.05188741644758435</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09769325221383197</v>
+        <v>0.09775123073191784</v>
       </c>
       <c r="N190" t="n">
-        <v>0.02587925911887926</v>
+        <v>0.07841163066048812</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09933924911008692</v>
+        <v>0.09743540045631834</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02559393473738356</v>
+        <v>0.03049830465190446</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06610612732409789</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.02618959521259558</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.1001339631029676</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.04582183765068631</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09867127913181802</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.0846522218008347</v>
+        <v>0.0514457801893527</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09847479823154263</v>
+        <v>0.09853324057777318</v>
       </c>
       <c r="N191" t="n">
-        <v>0.02559393473738356</v>
+        <v>0.07671382983765884</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1001339631029676</v>
+        <v>0.09821488365996889</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0255149056667644</v>
+        <v>0.03003909257663982</v>
       </c>
       <c r="G192" t="n">
+        <v>0.06610585879563387</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.02581655052326312</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.1009286770958483</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.04527532663989181</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09945438452175308</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.08418989954052369</v>
+        <v>0.05120033357325171</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09925634424925329</v>
+        <v>0.09931525042362853</v>
       </c>
       <c r="N192" t="n">
-        <v>0.0255149056667644</v>
+        <v>0.07652319144164799</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1009286770958483</v>
+        <v>0.09899436686361943</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02504049160064213</v>
+        <v>0.02958610926710343</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06610559026716985</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.02572987791124144</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.101723391088729</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.04512402953193828</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.1002374899116881</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.08241615043358941</v>
+        <v>0.05124726072489577</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1000378902669639</v>
+        <v>0.1000972602694839</v>
       </c>
       <c r="N193" t="n">
-        <v>0.02504049160064213</v>
+        <v>0.07582141793382524</v>
       </c>
       <c r="O193" t="n">
-        <v>0.101723391088729</v>
+        <v>0.09977385006726998</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0249704432327998</v>
+        <v>0.02913982373025269</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06610532173870584</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.02541993578489871</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1025181050816097</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.04406891814003247</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1010205953016232</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.08213177885189687</v>
+        <v>0.05048233824902268</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1008194362846746</v>
+        <v>0.1008792701153392</v>
       </c>
       <c r="N194" t="n">
-        <v>0.0249704432327998</v>
+        <v>0.07498705635690445</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1025181050816097</v>
+        <v>0.1005533332709205</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02500451125702061</v>
+        <v>0.02870070497306505</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06610505321024182</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.02518824958954496</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1033128190744904</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.04401096427738116</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1018037006915583</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.08133758916731121</v>
+        <v>0.04990624527081597</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1016009823023852</v>
+        <v>0.1016612799611946</v>
       </c>
       <c r="N195" t="n">
-        <v>0.02500451125702061</v>
+        <v>0.07382270188554485</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1033128190744904</v>
+        <v>0.1013328164745711</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0248424463670876</v>
+        <v>0.02826922200249937</v>
       </c>
       <c r="G196" t="n">
+        <v>0.0661047846817778</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.02503637376909587</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1041075330673711</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.04345113975719114</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1025868060814933</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.08003438575169719</v>
+        <v>0.04961967415641197</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1023825283200959</v>
+        <v>0.1024432898070499</v>
       </c>
       <c r="N196" t="n">
-        <v>0.0248424463670876</v>
+        <v>0.07323100950977574</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1041075330673711</v>
+        <v>0.1021122996782216</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0243839992567839</v>
+        <v>0.02784584382557075</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06610451615331378</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.02476586276746709</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1049022470602518</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.04269041639266929</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1033699114714284</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.07942297297691997</v>
+        <v>0.04912331727194683</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1031640743378066</v>
+        <v>0.1032252996529052</v>
       </c>
       <c r="N197" t="n">
-        <v>0.0243839992567839</v>
+        <v>0.07231463421962619</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1049022470602518</v>
+        <v>0.1028917828818722</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02432892061989261</v>
+        <v>0.02743103944923769</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06610424762484977</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.02427827102857427</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1056969610531325</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.0422297659970223</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1041530168613635</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.07760415521484448</v>
+        <v>0.04831786698355675</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1039456203555172</v>
+        <v>0.1040073094987606</v>
       </c>
       <c r="N198" t="n">
-        <v>0.02432892061989261</v>
+        <v>0.0705762310051255</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1056969610531325</v>
+        <v>0.1036712660855227</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02407696115019686</v>
+        <v>0.02702527788047768</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06610397909638575</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.02407515299633309</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1064916750460132</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.04137016038345701</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1049361222512985</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.07697873683733575</v>
+        <v>0.04770401565737803</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1047271663732279</v>
+        <v>0.1047893193446159</v>
       </c>
       <c r="N199" t="n">
-        <v>0.02407696115019686</v>
+        <v>0.07051845485630259</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1064916750460132</v>
+        <v>0.1044507492891733</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02392787154147977</v>
+        <v>0.02662902812625117</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06610371056792173</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.02385806311465924</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1072863890388939</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.04091257136518014</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1057192276412336</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.07614752221625887</v>
+        <v>0.04768245565954676</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1055087123909385</v>
+        <v>0.1055713291904713</v>
       </c>
       <c r="N200" t="n">
-        <v>0.02392787154147977</v>
+        <v>0.06854396076318697</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1072863890388939</v>
+        <v>0.1052302324928238</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02388140248752439</v>
+        <v>0.02624275919357014</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06610344203945771</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.02342855582746836</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1080811030317746</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.04075797075539864</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1065023330311686</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.0745113157234788</v>
+        <v>0.0466538793561993</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1062902584086492</v>
+        <v>0.1063533390363266</v>
       </c>
       <c r="N201" t="n">
-        <v>0.02388140248752439</v>
+        <v>0.06815540371580753</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1080811030317746</v>
+        <v>0.1060097156964744</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0239373046821139</v>
+        <v>0.02586694008939461</v>
       </c>
       <c r="G202" t="n">
+        <v>0.06610317351099371</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.02308818557867613</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1088758170246552</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.04000733036731921</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1072854384211037</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.07362937402154984</v>
+        <v>0.04631897911347169</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1070718044263598</v>
+        <v>0.107135348882182</v>
       </c>
       <c r="N202" t="n">
-        <v>0.0239373046821139</v>
+        <v>0.06705543870419356</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1088758170246552</v>
+        <v>0.1067891989001249</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02359532881903134</v>
+        <v>0.0255020398207021</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06610290498252969</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.02293850681219821</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.109670531017536</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.03896162201414857</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1080685438110388</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.07199655169726882</v>
+        <v>0.04577844729750022</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1078533504440705</v>
+        <v>0.1079173587280373</v>
       </c>
       <c r="N203" t="n">
-        <v>0.02359532881903134</v>
+        <v>0.06614672071837413</v>
       </c>
       <c r="O203" t="n">
-        <v>0.109670531017536</v>
+        <v>0.1075686821037754</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02345522559205988</v>
+        <v>0.02514852739445491</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06610263645406567</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.02248107397195026</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1104652450104166</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.03872181750909365</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1088516492009739</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.07102863072817878</v>
+        <v>0.04523297627442116</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1086348964617811</v>
+        <v>0.1086993685738926</v>
       </c>
       <c r="N204" t="n">
-        <v>0.02345522559205988</v>
+        <v>0.06503190474837856</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1104652450104166</v>
+        <v>0.108348165307426</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02351674569498263</v>
+        <v>0.02480687181766131</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06610236792560165</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.02221744150184797</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1112599590032973</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.03798888866536118</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1096347545909089</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.06974871489394829</v>
+        <v>0.04478325841037067</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1094164424794918</v>
+        <v>0.109481378419748</v>
       </c>
       <c r="N205" t="n">
-        <v>0.02351674569498263</v>
+        <v>0.06401364578423591</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1112599590032973</v>
+        <v>0.1091276485110765</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02307963982158263</v>
+        <v>0.02447754209728318</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06610209939713763</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.02174916384580697</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.112054672996178</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.0376638072961579</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.110417859980844</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.0675799079742459</v>
+        <v>0.04382998607148494</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1101979884972025</v>
+        <v>0.1102633882656033</v>
       </c>
       <c r="N206" t="n">
-        <v>0.02307963982158263</v>
+        <v>0.0634945988159753</v>
       </c>
       <c r="O206" t="n">
-        <v>0.112054672996178</v>
+        <v>0.1099071317147271</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02294365866564306</v>
+        <v>0.02416100724029797</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06610183086867362</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.02117779544774297</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1128493869890587</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.0370475452146907</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.111200965370779</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.06624531374874038</v>
+        <v>0.04377385162390021</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1109795345149131</v>
+        <v>0.1110453981114587</v>
       </c>
       <c r="N207" t="n">
-        <v>0.02294365866564306</v>
+        <v>0.06257741883362594</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1128493869890587</v>
+        <v>0.1106866149183776</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.022908552920947</v>
+        <v>0.02385773625367029</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06610156234020959</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.02100489075157159</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1136441009819394</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.03634107423416633</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1119840707607141</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.0644680359971001</v>
+        <v>0.04301554743375272</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1117610805326238</v>
+        <v>0.111827407957314</v>
       </c>
       <c r="N208" t="n">
-        <v>0.022908552920947</v>
+        <v>0.06136476082721709</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1136441009819394</v>
+        <v>0.1114660981220282</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02267407328127757</v>
+        <v>0.02356819814440401</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06610129381174558</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.02043200420120854</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1144388149748201</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.03594536616779156</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1127671761506492</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.0635711784989938</v>
+        <v>0.04235576586717862</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1125426265503344</v>
+        <v>0.1126094178031694</v>
       </c>
       <c r="N209" t="n">
-        <v>0.02267407328127757</v>
+        <v>0.06005927978677778</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1144388149748201</v>
+        <v>0.1122455813256787</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02263997044041788</v>
+        <v>0.02329286191946309</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06610102528328156</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.02026069024056945</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1152335289677008</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.03546139282877322</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1135502815405842</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.06097784503409004</v>
+        <v>0.0419951992903142</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1133241725680451</v>
+        <v>0.1133914276490247</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02263997044041788</v>
+        <v>0.0587636307023372</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1152335289677008</v>
+        <v>0.1130250645293293</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02270599509215102</v>
+        <v>0.02303219658582507</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06610075675481755</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01969250331357002</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1160282429605815</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.03499012603031809</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1143333869305193</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.05951113938205743</v>
+        <v>0.04163454006929562</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1141057185857557</v>
+        <v>0.11417343749488</v>
       </c>
       <c r="N211" t="n">
-        <v>0.02270599509215102</v>
+        <v>0.05798046856392458</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1160282429605815</v>
+        <v>0.1138045477329798</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02257189793026011</v>
+        <v>0.02278667115045705</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06610048822635352</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01932899786412588</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1168229569534622</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.03513253758563292</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1151164923204544</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.05759416532256445</v>
+        <v>0.04117448057025905</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1148872646034664</v>
+        <v>0.1149554473407354</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02257189793026011</v>
+        <v>0.05721244836156902</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1168229569534622</v>
+        <v>0.1145840309366304</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02233742964852825</v>
+        <v>0.0225567546203579</v>
       </c>
       <c r="G213" t="n">
+        <v>0.06610021969788951</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.0192717283361527</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1176176709463429</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.03418959930792459</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1158995977103894</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.05595002663527976</v>
+        <v>0.04041571315934081</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1156688106211771</v>
+        <v>0.1157374571865907</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02233742964852825</v>
+        <v>0.05656222508529979</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1176176709463429</v>
+        <v>0.1153635141402809</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02230234094073859</v>
+        <v>0.02234291600249407</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06609995116942549</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.0188222491735662</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1184123849392236</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.03426228301039982</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1166827031003245</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.05530182709987197</v>
+        <v>0.03985893020267703</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1164503566388877</v>
+        <v>0.1165194670324461</v>
       </c>
       <c r="N214" t="n">
-        <v>0.02230234094073859</v>
+        <v>0.05553245372514592</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1184123849392236</v>
+        <v>0.1161429973439315</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0219663825006742</v>
+        <v>0.02234291600249407</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06609995116942549</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01858211482028201</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1192070989321043</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.03325156050626546</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1174658084902595</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.05407267049600972</v>
+        <v>0.03880482406640395</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1172319026565984</v>
+        <v>0.1173014768783014</v>
       </c>
       <c r="N215" t="n">
-        <v>0.0219663825006742</v>
+        <v>0.05452578927113666</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1192070989321043</v>
+        <v>0.116922480547582</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0220293050221182</v>
+        <v>0.02176772129470151</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06600978424927686</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.01795287972021577</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.120001812924985</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.03345840360872823</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1182489138801946</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.05218566060336149</v>
+        <v>0.03855408711665778</v>
       </c>
       <c r="M216" t="n">
-        <v>0.118013448674309</v>
+        <v>0.1180834867241567</v>
       </c>
       <c r="N216" t="n">
-        <v>0.0220293050221182</v>
+        <v>0.05294488671330111</v>
       </c>
       <c r="O216" t="n">
-        <v>0.120001812924985</v>
+        <v>0.1177019637512325</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02179085919885369</v>
+        <v>0.02119913860740063</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06591961732912824</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01783609831728317</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1207965269178657</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.03248378413099506</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1190320192701297</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.05186390120159595</v>
+        <v>0.03800741171957475</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1187949946920197</v>
+        <v>0.1188654965700121</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02179085919885369</v>
+        <v>0.05299240104166852</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1207965269178657</v>
+        <v>0.1184814469548831</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02175079572466382</v>
+        <v>0.02063752361555892</v>
       </c>
       <c r="G218" t="n">
+        <v>0.06582945040897961</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.0176333250553999</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1215912409107464</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.03202867388627254</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1198151246600647</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.05103049607038163</v>
+        <v>0.03726549024129105</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1195765407097303</v>
+        <v>0.1196475064158674</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02175079572466382</v>
+        <v>0.051270987246268</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1215912409107464</v>
+        <v>0.1192609301585336</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02130886529333163</v>
+        <v>0.02008323199414409</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06573928348883099</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01704611437848161</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1223859549036271</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.03199404468776762</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1205982300499998</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.04980854898938725</v>
+        <v>0.03682901504794289</v>
       </c>
       <c r="M219" t="n">
-        <v>0.120358086727441</v>
+        <v>0.1204295162617228</v>
       </c>
       <c r="N219" t="n">
-        <v>0.02130886529333163</v>
+        <v>0.0512833003171288</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1223859549036271</v>
+        <v>0.1200404133621842</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02126481859864029</v>
+        <v>0.01953661941812364</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06564911656868236</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.01707602073044394</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1231806688965078</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.03158086834868704</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1213813354399349</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.04972116373828123</v>
+        <v>0.0363986785056665</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1211396327451516</v>
+        <v>0.1212115261075781</v>
       </c>
       <c r="N220" t="n">
-        <v>0.02126481859864029</v>
+        <v>0.04993199524427988</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1231806688965078</v>
+        <v>0.1208198965658347</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02101943853436934</v>
+        <v>0.01899804156246523</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06555894964853372</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01682459855520259</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1239753828893885</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.03109011668223757</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1221644408298699</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.04976729595295853</v>
+        <v>0.0357751729805981</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1219211787628623</v>
+        <v>0.1219935359534335</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02101943853436934</v>
+        <v>0.04911972701775058</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1239753828893885</v>
+        <v>0.1215993797694853</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02097409707693725</v>
+        <v>0.01846785410213655</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06546878272838511</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01629340229667321</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1247700968822692</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.03152276150162606</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.122947546219805</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.04906056759832045</v>
+        <v>0.03565919083887389</v>
       </c>
       <c r="M222" t="n">
-        <v>0.122702724780573</v>
+        <v>0.1227755457992888</v>
       </c>
       <c r="N222" t="n">
-        <v>0.02097409707693725</v>
+        <v>0.04924915062757007</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1247700968822692</v>
+        <v>0.1223788629731358</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02092880538654437</v>
+        <v>0.01794641271210506</v>
       </c>
       <c r="G223" t="n">
+        <v>0.06537861580823646</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.01618398639877146</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1255648108751498</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.03097977462005927</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1237306516097401</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.04955696161959788</v>
+        <v>0.03525142444663004</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1234842707982836</v>
+        <v>0.1235575556451441</v>
       </c>
       <c r="N223" t="n">
-        <v>0.02092880538654437</v>
+        <v>0.04812292106376742</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1255648108751498</v>
+        <v>0.1231583461767864</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02058356396137695</v>
+        <v>0.0174340730673385</v>
       </c>
       <c r="G224" t="n">
+        <v>0.06528844888808785</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.01589790530541305</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1263595248680306</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.030562127850744</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1245137569996751</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.04955644856380842</v>
+        <v>0.03425256617000283</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1242658168159943</v>
+        <v>0.1243395654909995</v>
       </c>
       <c r="N224" t="n">
-        <v>0.02058356396137695</v>
+        <v>0.04794369331637188</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1263595248680306</v>
+        <v>0.1239378293804369</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0206383732996212</v>
+        <v>0.01693119084280437</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06519828196793921</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.01583671346051357</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1271542388609113</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.03047079300688704</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1252968623896102</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.04935899897796925</v>
+        <v>0.03386330837512841</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1250473628337049</v>
+        <v>0.1251215753368548</v>
       </c>
       <c r="N225" t="n">
-        <v>0.0206383732996212</v>
+        <v>0.04701412237541253</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1271542388609113</v>
+        <v>0.1247173125840875</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02039323389946336</v>
+        <v>0.01643812171347031</v>
       </c>
       <c r="G226" t="n">
+        <v>0.06510811504779059</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.01580196530798877</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1279489528537919</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.0304036433500714</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1260799677795452</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.04866458340909796</v>
+        <v>0.03378434342814307</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1258289088514156</v>
+        <v>0.1259035851827102</v>
       </c>
       <c r="N226" t="n">
-        <v>0.02039323389946336</v>
+        <v>0.0470368632309186</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1279489528537919</v>
+        <v>0.125496795787738</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02014814625908966</v>
+        <v>0.01595522135430403</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06501794812764196</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.01569521529175426</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1287436668466727</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.02994156638808407</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1268630731694803</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.04877317240421214</v>
+        <v>0.03271636369518297</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1266104548691262</v>
+        <v>0.1266855950285655</v>
       </c>
       <c r="N227" t="n">
-        <v>0.02014814625908966</v>
+        <v>0.04671457087291925</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1287436668466727</v>
+        <v>0.1262762789913886</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0201031108766863</v>
+        <v>0.01548284544027298</v>
       </c>
       <c r="G228" t="n">
+        <v>0.06492778120749333</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.01561801785572572</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1295383808395533</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.02988123721272848</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1276461785594154</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.04828473651032916</v>
+        <v>0.03216006154238432</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1273920008868369</v>
+        <v>0.1274676048744209</v>
       </c>
       <c r="N228" t="n">
-        <v>0.0201031108766863</v>
+        <v>0.04594990029144358</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1295383808395533</v>
+        <v>0.1270557621950391</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02005812825043955</v>
+        <v>0.01502134964634484</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06483761428734469</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.01537192744381884</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.130333094832434</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.03012279688824718</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1284292839493504</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.04829924627446636</v>
+        <v>0.03181612933588338</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1281735469045475</v>
+        <v>0.1282496147202762</v>
       </c>
       <c r="N229" t="n">
-        <v>0.02005812825043955</v>
+        <v>0.04554550647652089</v>
       </c>
       <c r="O229" t="n">
-        <v>0.130333094832434</v>
+        <v>0.1278352453986897</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01981319887853562</v>
+        <v>0.01457108964748729</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06474744736719608</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01555832733472598</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1311278088253147</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.0298663864788826</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1292123893392855</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.04891667224364138</v>
+        <v>0.03158519170085528</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1289550929222582</v>
+        <v>0.1290316245661315</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01981319887853562</v>
+        <v>0.04530363054361247</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1311278088253147</v>
+        <v>0.1286147286023402</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01966832325916074</v>
+        <v>0.0141324211186678</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06465728044704744</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.01545833878662629</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1319225228181954</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.02921214704887731</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1299954947292206</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.04873698496487155</v>
+        <v>0.031161416307285</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1297366389399689</v>
+        <v>0.1298136344119869</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01966832325916074</v>
+        <v>0.0453889397777123</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1319225228181954</v>
+        <v>0.1293942118059908</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01942350189050114</v>
+        <v>0.01370569973485411</v>
       </c>
       <c r="G232" t="n">
+        <v>0.06456711352689883</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.0155584070491567</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1327172368110761</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.02966021966247392</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1307786001191556</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.04906015498517435</v>
+        <v>0.03074075011593003</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1305181849576795</v>
+        <v>0.1305956442578422</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01942350189050114</v>
+        <v>0.04437758362058347</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1327172368110761</v>
+        <v>0.1301736950096413</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01937873527074302</v>
+        <v>0.01329128117101371</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06447694660675019</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.01545858375991091</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1335119508039568</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.02931074538391482</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1315617055090907</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.04788615285156733</v>
+        <v>0.03052325072113335</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1312997309753902</v>
+        <v>0.1313776541036976</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01937873527074302</v>
+        <v>0.04506975126029455</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1335119508039568</v>
+        <v>0.1309531782132918</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01923402389807267</v>
+        <v>0.01288952110211427</v>
       </c>
       <c r="G234" t="n">
+        <v>0.06438677968660156</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.01535892055648266</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1343066647968375</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.02886386527744253</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1323448108990257</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.04821494911106783</v>
+        <v>0.030108975717238</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1320812769931008</v>
+        <v>0.1321596639495529</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01923402389807267</v>
+        <v>0.04426563188491439</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1343066647968375</v>
+        <v>0.1317326614169424</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01918936827067627</v>
+        <v>0.01250077520312343</v>
       </c>
       <c r="G235" t="n">
+        <v>0.06429661276645293</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.01555946907646563</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1351013787897182</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.02901972040729961</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1331279162889608</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.04854651431069334</v>
+        <v>0.02989798269858712</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1328628230108115</v>
+        <v>0.1329416737954083</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01918936827067627</v>
+        <v>0.04466541468251173</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1351013787897182</v>
+        <v>0.1325121446205929</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01914476888674008</v>
+        <v>0.01212539914900872</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06420644584630431</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.01536028095745358</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1358960927825989</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.0284784518377286</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1339110216788959</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.04778081899746134</v>
+        <v>0.02889032925952376</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1336443690285221</v>
+        <v>0.1337236836412636</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01914476888674008</v>
+        <v>0.04416928884115501</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1358960927825989</v>
+        <v>0.1332916278242435</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01900022624445029</v>
+        <v>0.01176374861473783</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06411627892615568</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.01546140783704017</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1366908067754796</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.02904020063297202</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1346941270688309</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.04841783371838926</v>
+        <v>0.02878607299439093</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1344259150462328</v>
+        <v>0.1345056934871189</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01900022624445029</v>
+        <v>0.04347744354891314</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1366908067754796</v>
+        <v>0.134071111027894</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01865574084199316</v>
+        <v>0.01141617927527828</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06402611200600705</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.01566290135281917</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1374855207683603</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.02880510785727233</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.135477232458766</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.04805752902049465</v>
+        <v>0.02828527149753166</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1352074610639434</v>
+        <v>0.1352877033329743</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01865574084199316</v>
+        <v>0.04319006799385477</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1374855207683603</v>
+        <v>0.1348505942315446</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01841131317755491</v>
+        <v>0.01108304680559774</v>
       </c>
       <c r="G239" t="n">
+        <v>0.06393594508585843</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.01546481314238425</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.138280234761241</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.02827331457487212</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1362603378487011</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.0480998754507948</v>
+        <v>0.0280879823632891</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1359890070816541</v>
+        <v>0.1360697131788296</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01841131317755491</v>
+        <v>0.04400735136404865</v>
       </c>
       <c r="O239" t="n">
-        <v>0.138280234761241</v>
+        <v>0.1356300774351951</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01856694374932175</v>
+        <v>0.01076325454121276</v>
       </c>
       <c r="G240" t="n">
+        <v>0.0638457781657098</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.01566719484332915</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1390749487541217</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.02794496185001383</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1370434432386361</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.04834484355630736</v>
+        <v>0.02719426318600632</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1367705530993648</v>
+        <v>0.136851723024685</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01856694374932175</v>
+        <v>0.04342948284756337</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1390749487541217</v>
+        <v>0.1364095606388457</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01842263305547993</v>
+        <v>0.0104484441203845</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06375561124556117</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01557009809324758</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1398696627470024</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.02852019074694004</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1378265486285712</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.04739240388404958</v>
+        <v>0.02720417156002627</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1375520991170754</v>
+        <v>0.1376337328705403</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01842263305547993</v>
+        <v>0.04355665163246769</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1398696627470024</v>
+        <v>0.1371890438424962</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01797838159421569</v>
+        <v>0.01013751887862951</v>
       </c>
       <c r="G242" t="n">
+        <v>0.06366544432541253</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.01557357452973325</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1406643767398831</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.02799914232989323</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1386096540185063</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.04764252698103905</v>
+        <v>0.02661776507969207</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1383336451347861</v>
+        <v>0.1384157427163957</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01797838159421569</v>
+        <v>0.04338904690683038</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1406643767398831</v>
+        <v>0.1379685270461468</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01803418986371523</v>
+        <v>0.009830834490915451</v>
       </c>
       <c r="G243" t="n">
+        <v>0.06357527740526392</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.01537767579037989</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1414590907327638</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.02788195766311599</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1393927594084413</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.04749518339429326</v>
+        <v>0.02673510133934678</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1391151911524967</v>
+        <v>0.139197752562251</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01803418986371523</v>
+        <v>0.0425268578587199</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1414590907327638</v>
+        <v>0.1387480102497973</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.0179900583621648</v>
+        <v>0.009528746632209852</v>
       </c>
       <c r="G244" t="n">
+        <v>0.06348511048511528</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.01538245351278121</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1422538047256444</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.02756877781085079</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1401758647983764</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.04755034367082961</v>
+        <v>0.02615623793333349</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1398967371702074</v>
+        <v>0.1399797624081064</v>
       </c>
       <c r="N244" t="n">
-        <v>0.0179900583621648</v>
+        <v>0.04237027367620522</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1422538047256444</v>
+        <v>0.1395274934534478</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01764598758775061</v>
+        <v>0.009231610977480403</v>
       </c>
       <c r="G245" t="n">
+        <v>0.06339494356496667</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.0154879593345309</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1430485187185252</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.02745974383734015</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1409589701883115</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.04740797835766553</v>
+        <v>0.0257812324559952</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1406782831879181</v>
+        <v>0.1407617722539617</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01764598758775061</v>
+        <v>0.04271948354735489</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1430485187185252</v>
+        <v>0.1403069766570984</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01760197803865891</v>
+        <v>0.00893978320169464</v>
       </c>
       <c r="G246" t="n">
+        <v>0.06330477664481803</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.01549424489322269</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1438432327114059</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.02725499680682655</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1417420755782465</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.04776805800181855</v>
+        <v>0.02551014250167502</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1414598292056287</v>
+        <v>0.141543782099817</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01760197803865891</v>
+        <v>0.04177467666023771</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1438432327114059</v>
+        <v>0.1410864598607489</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.0174580302130759</v>
+        <v>0.008653618979820192</v>
       </c>
       <c r="G247" t="n">
+        <v>0.0632146097246694</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.01540136182645033</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1446379467042865</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.02755467778355256</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1425251809681816</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.04733055315030599</v>
+        <v>0.02464302566471596</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1422413752233394</v>
+        <v>0.1423257919456724</v>
       </c>
       <c r="N247" t="n">
-        <v>0.0174580302130759</v>
+        <v>0.04243604220292219</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1446379467042865</v>
+        <v>0.1418659430643995</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01741414460918785</v>
+        <v>0.008373473986824712</v>
       </c>
       <c r="G248" t="n">
+        <v>0.06312444280452077</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.01540936177180748</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1454326606971673</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.02705892783176073</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1433082863581166</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.04799543435014553</v>
+        <v>0.0246799395394611</v>
       </c>
       <c r="M248" t="n">
-        <v>0.14302292124105</v>
+        <v>0.1431078017915277</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01741414460918785</v>
+        <v>0.04180376936347724</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1454326606971673</v>
+        <v>0.14264542626805</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01717032172518096</v>
+        <v>0.008099703897675746</v>
       </c>
       <c r="G249" t="n">
+        <v>0.06303427588437215</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.01551829636688787</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1462273746900479</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.02716788801569348</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1440913917480517</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.04816267214835435</v>
+        <v>0.0241209417202535</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1438044672587607</v>
+        <v>0.1438898116373831</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01717032172518096</v>
+        <v>0.04167804732997143</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1462273746900479</v>
+        <v>0.1434249094717006</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01702656205924147</v>
+        <v>0.007832664387340961</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06294410896422352</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.01552821724928524</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1470220886829286</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.02698169939959341</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1448744971379868</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.04713223709195019</v>
+        <v>0.02376608980143624</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1445860132764713</v>
+        <v>0.1446718214832384</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01702656205924147</v>
+        <v>0.04165906529047353</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1470220886829286</v>
+        <v>0.1442043926753511</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.0169828661095556</v>
+        <v>0.007572711130787911</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06285394204407489</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.01563917605659329</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1478168026758093</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.02730050304770298</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1456576025279218</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.04710409972795027</v>
+        <v>0.02351544137735234</v>
       </c>
       <c r="M251" t="n">
-        <v>0.145367559294182</v>
+        <v>0.1454538313290938</v>
       </c>
       <c r="N251" t="n">
-        <v>0.0169828661095556</v>
+        <v>0.04214701243305213</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1478168026758093</v>
+        <v>0.1449838758790017</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01683923437430956</v>
+        <v>0.007320199802984206</v>
       </c>
       <c r="G252" t="n">
+        <v>0.06276377512392625</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.01575122442640574</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.14861151666869</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.0267244400242648</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1464407079178569</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.04747823060337214</v>
+        <v>0.02326905404234489</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1461491053118926</v>
+        <v>0.1462358411749491</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01683923437430956</v>
+        <v>0.041242077945776</v>
       </c>
       <c r="O252" t="n">
-        <v>0.14861151666869</v>
+        <v>0.1457633590826522</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01639566735168962</v>
+        <v>0.007075486078897519</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06267360820377764</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.01556441399631628</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1494062306615707</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.02685365139352128</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.147223813307792</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.04715460026523333</v>
+        <v>0.02292698539075697</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1469306513296033</v>
+        <v>0.1470178510208044</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01639566735168962</v>
+        <v>0.04174445101671392</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1494062306615707</v>
+        <v>0.1465428422863028</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01655216553988197</v>
+        <v>0.006838925633495384</v>
       </c>
       <c r="G254" t="n">
+        <v>0.062583441283629</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.01577879640391866</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1502009446544514</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.02678827821971505</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.148006918697727</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.04783317926055125</v>
+        <v>0.02248929301693159</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1477121973473139</v>
+        <v>0.1477998608666598</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01655216553988197</v>
+        <v>0.0411543208339345</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1502009446544514</v>
+        <v>0.1473223254899533</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01630872943707286</v>
+        <v>0.006610874141745465</v>
       </c>
       <c r="G255" t="n">
+        <v>0.06249327436348038</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.01569442328680658</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1509956586473321</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.02652846156708855</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1487900240876621</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.04801393813634336</v>
+        <v>0.0222560345152118</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1484937433650246</v>
+        <v>0.1485818707125151</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01630872943707286</v>
+        <v>0.0418718765855064</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1509956586473321</v>
+        <v>0.1481018086936039</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01616535954144853</v>
+        <v>0.006391687278615325</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06240310744333175</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.01571134628257374</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1517903726402128</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.02667434249988432</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1495731294775972</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.04689684743962697</v>
+        <v>0.02202726747994069</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1492752893827353</v>
+        <v>0.1493638805583705</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01616535954144853</v>
+        <v>0.04089730745949838</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1517903726402128</v>
+        <v>0.1488812918972544</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.0159220563511952</v>
+        <v>0.006181720719072581</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06231294052318312</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.01572961702881388</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1525850866330935</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.02712606208234486</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1503562348675322</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.04798187771741974</v>
+        <v>0.02180304950546136</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1500568354004459</v>
+        <v>0.1501458904042258</v>
       </c>
       <c r="N257" t="n">
-        <v>0.0159220563511952</v>
+        <v>0.04173080264397916</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1525850866330935</v>
+        <v>0.1496607751009049</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01597882036449907</v>
+        <v>0.005981330138084884</v>
       </c>
       <c r="G258" t="n">
+        <v>0.0622227736030345</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.0156492871631207</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1533798006259742</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.0266837613787127</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1511393402574673</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.04686899951673912</v>
+        <v>0.02098343818611678</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1508383814181566</v>
+        <v>0.1509279002500812</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01597882036449907</v>
+        <v>0.04107255132701726</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1533798006259742</v>
+        <v>0.1504402583045555</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01553565207954642</v>
+        <v>0.005790871210619795</v>
       </c>
       <c r="G259" t="n">
+        <v>0.06213260668288587</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.01567040832308791</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1541745146188549</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.02684758145323041</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1519224456474023</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.04765818338460243</v>
+        <v>0.02056849111625006</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1516199274358672</v>
+        <v>0.1517099100959365</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01553565207954642</v>
+        <v>0.04122274269668158</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1541745146188549</v>
+        <v>0.1512197415082061</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01569255199452343</v>
+        <v>0.005610699611644926</v>
       </c>
       <c r="G260" t="n">
+        <v>0.06204243976273723</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.01589303214630926</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1549692286117356</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.02671766337014045</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1527055510373374</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.04684939986802722</v>
+        <v>0.02055826589020429</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1524014734535779</v>
+        <v>0.1524919199417918</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01569255199452343</v>
+        <v>0.04128156594104088</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1549692286117356</v>
+        <v>0.1519992247118566</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01554952060761634</v>
+        <v>0.005441171016127927</v>
       </c>
       <c r="G261" t="n">
+        <v>0.06195227284258861</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.01571721027037841</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1557639426046163</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.02699414819368534</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1534886564272725</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.04724261951403097</v>
+        <v>0.01995282010232247</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1531830194712885</v>
+        <v>0.1532739297876472</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01554952060761634</v>
+        <v>0.0405492102481636</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1557639426046163</v>
+        <v>0.1527787079155071</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.0151065584170114</v>
+        <v>0.005282641099036346</v>
       </c>
       <c r="G262" t="n">
+        <v>0.06186210592243998</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.01594299433288912</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.156558656597497</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.02667717698810762</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1542717618172075</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.04743781286963095</v>
+        <v>0.02005221134694765</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1539645654889992</v>
+        <v>0.1540559396335025</v>
       </c>
       <c r="N262" t="n">
-        <v>0.0151065584170114</v>
+        <v>0.04132586480611866</v>
       </c>
       <c r="O262" t="n">
-        <v>0.156558656597497</v>
+        <v>0.1535581911191577</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01496366592089483</v>
+        <v>0.005135465535337849</v>
       </c>
       <c r="G263" t="n">
+        <v>0.06177193900229136</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.01577043597143508</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1573533705903777</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.02636689081764984</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1550548672071426</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.04763495048184485</v>
+        <v>0.01925649721842296</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1547461115067098</v>
+        <v>0.1548379494793579</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01496366592089483</v>
+        <v>0.04091171880297462</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1573533705903777</v>
+        <v>0.1543376743228083</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01512084361745288</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.06168177208214273</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.01569958682361003</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1581480845832584</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.02676343074655443</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1558379725970777</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.0476340028976901</v>
+        <v>0.01966573531109142</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1555276575244205</v>
+        <v>0.1556199593252132</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01512084361745288</v>
+        <v>0.04140696142680023</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1581480845832584</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1551171575264588</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06166861418740588</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.00561172106408233</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06166888271586989</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006219832341241419</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06166915124433391</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006824289015905968</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06166941977279793</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.00742504627242585</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06166968830126195</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008022059295229908</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06166995682972596</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008615283268720637</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06167022535818998</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009204673377326063</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.061670493886654</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.009790184805397374</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06167076241511802</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01037177273736277</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06167103094358203</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01094939235762472</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06167129947204605</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.0115229988506106</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06167156800051007</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01209254740067293</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06167183652897409</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01265799319223925</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.0616721050574381</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01321929140971204</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06167237358590211</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01377639723751791</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06167264211436614</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01432926586001087</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06167291064283015</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01487785246161773</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06167317917129417</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01542211222674094</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06167344769975819</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.0159620003398064</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06167371622822221</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01649747198516958</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06167398475668623</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01702848234725656</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06167425328515024</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.0175549866104698</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06167452181361426</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.0180769399592344</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06167479034207828</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01859429757790741</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.0616750588705423</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01910719764793732</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06167532739900631</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01961669333586596</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06167559592747032</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02012292282314102</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06167586445593435</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02062584129412089</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06167613298439836</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02112540393323017</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06167640151286238</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02162156592487132</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.0616766700413264</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02211428245346821</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06167693856979042</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.0226035087033804</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06167720709825444</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02308919985903187</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06167747562671845</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02357131110482513</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06167774415518246</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02404979762518337</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06167801268364649</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02452461460446746</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.0616782812121105</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02499571722710075</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06167854974057452</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.0254630606774857</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06167881826903853</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02592660014004492</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06167908679750256</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02638629079914049</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06167935532596657</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02684208783919518</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06167962385443058</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02729394644461144</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.0616798923828946</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.02774182179981115</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06168016091135863</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.02818566908915784</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06168042943982264</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.0286254434970735</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06168069796828666</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.02906110020796065</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06168096649675067</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.02949259440624046</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0616812350252147</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.02991988127627782</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06168150355367871</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03034291600249407</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06168177208214273</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03034291600249408</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06166861418740588</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03080462136681682</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06175931816448254</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03126191900460693</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.0618500221415592</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03171468163383962</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06194072611863586</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03216278197249007</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06203143009571253</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03260609273853356</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06212213407278919</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03304448664994516</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06221283804986586</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03347783642470011</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06230354202694252</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03390601478077366</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06239424600401918</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03432889443614095</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06248494998109584</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.0347463481087772</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06257565395817251</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03515824851665763</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06266635793524916</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.0355644683777574</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06275706191232583</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03596488041005175</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06284776588940248</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03635935733151583</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06293846986647915</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03674777186012495</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06302917384355582</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.03712999671385416</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06311987782063248</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.03750590461067873</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06321058179770915</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.03787536826857384</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.0633012857747858</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.03823826040551469</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06339198975186247</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.03859445373947652</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06348269372893912</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.03894382098843447</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06357339770601579</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.03928623487036378</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06366410168309244</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.03962156810323964</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06375480566016911</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.03994969340503724</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06384550963724578</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04027100322866643</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06393621361432245</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04058848870170997</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06402691759139911</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04090254227707767</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06411762156847577</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04121303667274478</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06420832554555243</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04151984460668646</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06429902952262909</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04182283879687792</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06438973349970575</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04212189196129434</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06448043747678241</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04241687681791095</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06457114145385907</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04270766608470295</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06466184543093574</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04299413247964552</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06475254940801239</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04327614872071388</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06484325338508908</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.0435535875258832</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06493395736216573</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.0438263216131287</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.0650246613392424</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04409422370042553</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06511536531631905</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04435716650574897</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06520606929339572</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04461502274707416</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06529677327047238</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.04486766514237629</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06538747724754904</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04511496640963061</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.0654781812246257</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.04535679926681229</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06556888520170236</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04559303643189653</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06565958917877902</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.04582355062285855</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06575029315585569</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.04604821455767352</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06584099713293236</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.04626690095431663</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06593170111000901</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.04647948253076311</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06602240508708568</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.04668583200498814</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06611310906416235</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.0387905546699921</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06611310906416235</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.04679524935806791</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06793843522715581</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.04689637919320511</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06976376139014927</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.04698954789073407</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.07158908755314274</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.04707508183098916</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07341441371613619</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.04715330739430474</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07523973987912966</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.0472245509610152</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07706506604212311</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.04728913891145487</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07889039220511658</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.04734739762595814</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.08071571836811003</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.04739965348485935</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.0825410445311035</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.0474462328684929</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08436637069409696</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.04748746215719313</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08619169685709042</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.0475236677312944</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08801702302008389</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.04755517597113108</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08984234918307736</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.04758231325703754</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09166767534607081</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.04760540596934814</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09349300150906428</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.04762478048839725</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09531832767205775</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.04764076319451922</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09714365383505121</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.04765368046804843</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09896897999804466</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.04766385868931924</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1007943061610381</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.04767162423866602</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1026196323240316</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.04767730349642312</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.104444958487025</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.0476812228429249</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1062702846500185</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.04768370865850576</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.108095610813012</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.04768508732350003</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1099209369760054</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.04768568521824208</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1117462631389989</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.04768582872306628</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1135715893019924</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.04767232052720705</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1153969154649858</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.04759350980625836</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1172222416279793</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.04744880820061797</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1190475677909728</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.04724338297267874</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1208728939539662</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.04698240138483357</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1226982201169597</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.04667103069947535</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1245235462799531</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.04631443817899692</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1263488724429466</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.04591779108579121</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1281741986059401</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.04548625668225107</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1299995247689335</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.04502500223076939</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.131824850931927</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04453919499373905</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1336501770949205</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.04403400223355295</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1354755032579139</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.04351459121260395</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1373008294209074</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04298612919328492</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1391261555839008</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04245378343798877</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1409514817468943</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04192272120910837</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1427768079098878</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04139810976903658</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1446021340728812</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04088511638016634</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1464274602358747</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04038890830489045</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1482527863988682</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.03991465280560185</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.03946751714469341</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1519034387248551</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.039052668584558</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1537287648878485</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.03867527438758852</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.155554091050842</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03834050181617784</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1573794172138355</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.03803579921369107</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1592047433768289</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.03773600550612529</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1610300695398224</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.03744081332234945</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1628553957028159</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.03715020487177947</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1646807218658093</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.03686416236383128</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1665060480288028</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03658266800792078</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1683313741917962</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03630570401346393</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1701567003547897</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.0360332525898766</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1719820265177832</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.03576529594657474</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1738073526807767</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03550181629297427</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1756326788437701</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.0352427958384911</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1774580050067636</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03498821679254115</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.179283331169757</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03473806136454034</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1811086573327505</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.0344923117639046</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1829339834957439</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03425095020004982</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1847593096587374</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03401395888239196</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1865846358217309</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03378132002034692</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1884099619847243</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03355301582333061</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1902352881477178</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03332902850075897</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1920606143107113</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03310934026204792</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1938859404737047</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03289393331661334</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1957112666366982</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03268278987387121</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1975365927996916</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03247589214323741</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1993619189626851</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03227322233412788</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2011872451256786</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03207476265595851</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.203012571288672</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03188046534185394</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2048378974516655</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03168909261409041</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.206663223614659</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03150007005827563</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2084885497776524</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03131349089741723</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2103138759406459</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03112944835452289</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2121392021036393</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03094803565260031</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2139645282666328</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03076934601465712</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2157898544296263</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03059347266370106</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2176151805926198</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03042050882273974</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2194405067556132</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03025054771478086</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2212658329186067</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03008368256283209</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2230911590816001</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02992000658990109</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2249164852445936</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02975961301899555</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.226741811407587</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02960259507312316</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2285671375705805</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02944904597529156</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.230392463733574</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02929905894850843</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2322177898965674</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02915272721578146</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2340431160595609</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02901014400011832</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2358684422225543</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02887140252452667</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2376937683855478</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02873659601201418</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2395190945485413</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02860581768558856</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2413444207115348</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02847916076825743</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2431697468745282</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.0283567184830285</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2449950730375217</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02823858405290946</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2468203992005151</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1265.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1265.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.0817905546699921</v>
+        <v>0.06115574960149644</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0317905546699921</v>
+        <v>0.01115574960149644</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01615060906416234</v>
+        <v>0.009289485657746096</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001404691470563713</v>
+        <v>0.002731862286736171</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006678091824662862</v>
+        <v>0.001628902985804003</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001856527305711266</v>
+        <v>0.003532746957418155</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007947139928806954</v>
+        <v>0.001638712417172113</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.00486544794696056</v>
+        <v>0.0105467579054831</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007820098458553428</v>
+        <v>0.001642318178692481</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.009040523100043274</v>
+        <v>0.01767961002554974</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007794832036505467</v>
+        <v>0.001642964372513335</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002800161634180731</v>
+        <v>0.006197638667498021</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001335618364932572</v>
+        <v>0.003096495219248699</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003857574289672941</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001589427985761391</v>
+        <v>0.003747187499999996</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.009539670566697273</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001564019691710686</v>
+        <v>0.003986369680851062</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01794365869120185</v>
+        <v>0.0328268048560188</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001558966407301093</v>
+        <v>0.003527116640040514</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004186675682449167</v>
+        <v>0.006073867711370348</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002003427547398859</v>
+        <v>0.004886708957412008</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005461499574547543</v>
+        <v>0.009095235029833088</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002384141978642086</v>
+        <v>0.004916137251516339</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01599999999999999</v>
+        <v>0.02455715979946485</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002691582491582489</v>
+        <v>0.004926954536077442</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02634751002180757</v>
+        <v>0.03877957860394732</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00233844961095164</v>
+        <v>0.004928893117540006</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005564498806967126</v>
+        <v>0.007395228842586671</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002671236729865145</v>
+        <v>0.006515611943216012</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.007126661782997583</v>
+        <v>0.01170519129570289</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003178855971522781</v>
+        <v>0.006554849668688452</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01752565696619948</v>
+        <v>0.02913081503840781</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003128039383421371</v>
+        <v>0.006569272714769922</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03359018034019179</v>
+        <v>0.04511134841507031</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003117932814602187</v>
+        <v>0.00657185749005334</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0123859808769948</v>
+        <v>0.003096495219248699</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02479055466999209</v>
+        <v>0.006197638667498021</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006933896199332705</v>
+        <v>0.009475205452846754</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003339045912331431</v>
+        <v>0.008144514929020014</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.008611419537685579</v>
+        <v>0.01409210329699723</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003973569964403477</v>
+        <v>0.008193562085860565</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02034474430659175</v>
+        <v>0.03183048835033647</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003910049229276714</v>
+        <v>0.008211590893462403</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04099999999999998</v>
+        <v>0.04960404644286093</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004138308080808078</v>
+        <v>0.008214821862566675</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008295133051144016</v>
+        <v>0.01115574960149644</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004006855094797718</v>
+        <v>0.009289485657746096</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.009874131461274034</v>
+        <v>0.01619897244522532</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004768283957284172</v>
+        <v>0.009832274503032678</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02305238671437501</v>
+        <v>0.03500003968401236</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004692059075132056</v>
+        <v>0.009853909072154884</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04332989140338683</v>
+        <v>0.05387805435603343</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00467689922190328</v>
+        <v>0.009857786235080011</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009648474553999163</v>
+        <v>0.0113648869432016</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004674664277264004</v>
+        <v>0.01140232090062802</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.011</v>
+        <v>0.01765743719209541</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005495874999999997</v>
+        <v>0.01124156249999999</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02556075230564309</v>
+        <v>0.03867126846515573</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005474068920987399</v>
+        <v>0.01195910904255318</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04615461733777532</v>
+        <v>0.05968509973821601</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005456382425553827</v>
+        <v>0.01208770161290322</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01099418589949624</v>
+        <v>0.01326742651304824</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.00534247345973029</v>
+        <v>0.01303122388643202</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01179787111722363</v>
+        <v>0.01928117730697779</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006357711943045563</v>
+        <v>0.0131096993373769</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02798200919648985</v>
+        <v>0.04052906422677843</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006256078766842742</v>
+        <v>0.01313854542953984</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04844041589182363</v>
+        <v>0.06172499783353846</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006235865629204374</v>
+        <v>0.01314371498010668</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01233253227923338</v>
+        <v>0.01213856700373408</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006010282642196577</v>
+        <v>0.01466012687223602</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01253637600766</v>
+        <v>0.0207411306868554</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007152425935926258</v>
+        <v>0.01474841175454902</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03012832550300923</v>
+        <v>0.04343546250839145</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007038088612698085</v>
+        <v>0.01478086360823233</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05107377222604315</v>
+        <v>0.06680673953772709</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.00701534883285492</v>
+        <v>0.01478667935262002</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01366377888480866</v>
+        <v>0.0129732294061359</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006678091824662863</v>
+        <v>0.01628902985804003</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01330126289331211</v>
+        <v>0.02224496954812247</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007947139928806954</v>
+        <v>0.01638712417172113</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03211186934129506</v>
+        <v>0.04655776507139561</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007820098458553427</v>
+        <v>0.01642318178692481</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05364117150094494</v>
+        <v>0.07131775243426791</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007794832036505467</v>
+        <v>0.01642964372513335</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01498819090782021</v>
+        <v>0.01376633471113049</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007345901007129149</v>
+        <v>0.01791793284384403</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01360439269130724</v>
+        <v>0.0235855979021813</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008741853921687649</v>
+        <v>0.01802583658889324</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03364480882744131</v>
+        <v>0.04946085139250928</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.00860210830440877</v>
+        <v>0.01806549996561729</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05552909887704038</v>
+        <v>0.07490367332707687</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008574315240156014</v>
+        <v>0.01807260809764669</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01630603353986611</v>
+        <v>0.01451280390959465</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008013710189595435</v>
+        <v>0.01954683582964803</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01435762631877265</v>
+        <v>0.02485591976043428</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009536567914568344</v>
+        <v>0.01966454900606536</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0355393120775418</v>
+        <v>0.05200960094845089</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009384118150264112</v>
+        <v>0.01970781814430977</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05762403951484057</v>
+        <v>0.08011013902006975</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009353798443806559</v>
+        <v>0.01971557247016002</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01761757197254448</v>
+        <v>0.01520755799240513</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00868151937206172</v>
+        <v>0.02117573881545204</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01467282469283561</v>
+        <v>0.02594883913428378</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01033128190744904</v>
+        <v>0.02130326142323747</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0367075472076904</v>
+        <v>0.05486889321593877</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01016612799611946</v>
+        <v>0.02135013632300225</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05968509973821601</v>
+        <v>0.08438278631716267</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01004046059148356</v>
+        <v>0.02135853684267336</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01892307139745344</v>
+        <v>0.01784551795043875</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009349328554528007</v>
+        <v>0.02280464180125604</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01526184873062333</v>
+        <v>0.02685726003513214</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01112599590032973</v>
+        <v>0.02294197384040958</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03867126846515573</v>
+        <v>0.05720360767169136</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01084238636751034</v>
+        <v>0.02299245450169473</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06152726857737584</v>
+        <v>0.0885672520222715</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01091276485110765</v>
+        <v>0.02300150121518669</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02022279700619108</v>
+        <v>0.01842160477457228</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01001713773699429</v>
+        <v>0.02443354478706004</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0156365593492632</v>
+        <v>0.02817408647438174</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01192070989321043</v>
+        <v>0.02458068625758169</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03967590589621417</v>
+        <v>0.05947862379242705</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01173014768783014</v>
+        <v>0.02463477268038721</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06365659281296082</v>
+        <v>0.09170917293931213</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0116922480547582</v>
+        <v>0.02464446558770003</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02151701399035549</v>
+        <v>0.01793073945568251</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01068494691946058</v>
+        <v>0.02606244777286405</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01610881746588237</v>
+        <v>0.02879222246343495</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01271542388609113</v>
+        <v>0.02621939867475381</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04118532707983202</v>
+        <v>0.06175882105486416</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01251215753368548</v>
+        <v>0.02627709085907969</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06569716514019786</v>
+        <v>0.0958541858722004</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01247173125840875</v>
+        <v>0.02628742996021336</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02280598754154477</v>
+        <v>0.01736784298464621</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01135275610192687</v>
+        <v>0.02769135075866805</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01689048399760813</v>
+        <v>0.02970457201369411</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01351013787897182</v>
+        <v>0.02785811109192592</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04278933935629833</v>
+        <v>0.06400907893572119</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01329416737954082</v>
+        <v>0.02791940903777217</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06694609546869495</v>
+        <v>0.09874792762485224</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01325121446205929</v>
+        <v>0.0279303943327267</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02408998285135708</v>
+        <v>0.01972783635234018</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01202056528439315</v>
+        <v>0.02932025374447205</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01739341986156778</v>
+        <v>0.03050403913656162</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01430485187185252</v>
+        <v>0.02949682350909803</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0441864143875948</v>
+        <v>0.06579427691171641</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01407617722539617</v>
+        <v>0.02956172721646465</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0691004937080601</v>
+        <v>0.1018360350011836</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01403069766570984</v>
+        <v>0.02957335870524003</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02479055466999209</v>
+        <v>0.01901158398589184</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0123859808769948</v>
+        <v>0.03094915673027605</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01765743719209541</v>
+        <v>0.03108352784343982</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01470349509516778</v>
+        <v>0.03113553592627015</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04587502383570319</v>
+        <v>0.06717929445956833</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01485818707125151</v>
+        <v>0.03120404539515713</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07135746976790142</v>
+        <v>0.1033641448051104</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01481018086936039</v>
+        <v>0.03121632307775337</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02677176231717759</v>
+        <v>0.01827396473027269</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01335618364932573</v>
+        <v>0.03257805971608006</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01838343384301404</v>
+        <v>0.03164170124922829</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01589427985761391</v>
+        <v>0.03277424834344226</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04695363936260522</v>
+        <v>0.06892901105599519</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01564019691710685</v>
+        <v>0.03284636357384961</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07271413355782669</v>
+        <v>0.1051778938405485</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01558966407301093</v>
+        <v>0.0328592874502667</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0281850880306933</v>
+        <v>0.01952812366466589</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01402399283179201</v>
+        <v>0.03420696270188406</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01875863104810148</v>
+        <v>0.03196037073685007</v>
       </c>
       <c r="K86" t="n">
-        <v>0.0166889938504946</v>
+        <v>0.03441296076061438</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04862073263028266</v>
+        <v>0.06945882468982292</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0164222067629622</v>
+        <v>0.0344886817525421</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07436759498744416</v>
+        <v>0.1070207080734641</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01636914727666148</v>
+        <v>0.03450225182278004</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02953179511610703</v>
+        <v>0.01877234130335077</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0146918020142583</v>
+        <v>0.03583586568768806</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01955062201878732</v>
+        <v>0.03216606759338043</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0174837078433753</v>
+        <v>0.03605167317778649</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04927477530071722</v>
+        <v>0.0700611334222678</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01720421660881754</v>
+        <v>0.03613099993123457</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07691496396636172</v>
+        <v>0.109117001924796</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01714863048031203</v>
+        <v>0.03614521619529337</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03071884616957896</v>
+        <v>0.02100489816060667</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01535961119672458</v>
+        <v>0.03746476867349206</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02025737522989393</v>
+        <v>0.03285602073245325</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01827842183625599</v>
+        <v>0.0376903855949586</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05061423903589071</v>
+        <v>0.0715311842255372</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01798622645467288</v>
+        <v>0.03777331810992705</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07885335040418739</v>
+        <v>0.1096641269773306</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01792811368396257</v>
+        <v>0.03778818056780671</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.0317905546699921</v>
+        <v>0.01922407475071294</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01615060906416234</v>
+        <v>0.03909367165929607</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02067685915624362</v>
+        <v>0.03322745906770244</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01907313582913669</v>
+        <v>0.03932909801213071</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05203759549778483</v>
+        <v>0.07236286803843248</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01876823630052822</v>
+        <v>0.03941563628861953</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08017986421052914</v>
+        <v>0.1112526433935416</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01870759688761312</v>
+        <v>0.03943114494032005</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03236121881514119</v>
+        <v>0.02042815158794888</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01669522956165715</v>
+        <v>0.04072257464510008</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02140704227265876</v>
+        <v>0.03337761151276183</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01986784982201738</v>
+        <v>0.04096781042930282</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0535433163483813</v>
+        <v>0.07255007579975498</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01955024614638357</v>
+        <v>0.04105795446731202</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08229161529499501</v>
+        <v>0.1120731113359024</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01948708009126367</v>
+        <v>0.04107410931283337</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03303479196897858</v>
+        <v>0.02061540918659387</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01736303874412344</v>
+        <v>0.04235147763090407</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02204589305396164</v>
+        <v>0.03370370698126536</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02066256381489808</v>
+        <v>0.04260652284647494</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05492987324966189</v>
+        <v>0.07388669844830609</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02033225599223891</v>
+        <v>0.0427002726460045</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08478571356719306</v>
+        <v>0.1141160909668866</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02026656329491421</v>
+        <v>0.04271707368534671</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03368006861298267</v>
+        <v>0.02078412806092721</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01803084792658973</v>
+        <v>0.04398038061670808</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02269137997497464</v>
+        <v>0.03420297438684686</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02145727780777877</v>
+        <v>0.04424523526364705</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05599573786360837</v>
+        <v>0.07446662692288711</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02111426583809425</v>
+        <v>0.04434259082469698</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08655926893673122</v>
+        <v>0.1149721424489675</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02104604649856476</v>
+        <v>0.04436003805786005</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.0342976167510902</v>
+        <v>0.01993258872522825</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01869865710905601</v>
+        <v>0.04560928360251208</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02314147151052005</v>
+        <v>0.03437264264314024</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02225199180065947</v>
+        <v>0.04588394768081917</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05773938185220243</v>
+        <v>0.07498375216229947</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02189627568394959</v>
+        <v>0.04598490900338945</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08850939131321756</v>
+        <v>0.1155318259446189</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02182552970221531</v>
+        <v>0.04600300243037338</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03488800438723783</v>
+        <v>0.02205907169377632</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0193664662915223</v>
+        <v>0.04723818658831608</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02379413613542024</v>
+        <v>0.03450994066377934</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02304670579354016</v>
+        <v>0.04752266009799128</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05825927687742588</v>
+        <v>0.07533196510534437</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02267828552980494</v>
+        <v>0.04762722718208194</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09063319060626002</v>
+        <v>0.1169857016163142</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02260501290586585</v>
+        <v>0.04764596680288672</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03545179952536231</v>
+        <v>0.02116185748085076</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02003427547398859</v>
+        <v>0.04886708957412009</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0245473423244975</v>
+        <v>0.03491209736239807</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02384141978642086</v>
+        <v>0.04916137251516339</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05975389460126038</v>
+        <v>0.07610515669082335</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02346029537566028</v>
+        <v>0.04926954536077442</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09132777672546666</v>
+        <v>0.1172243296265268</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0233844961095164</v>
+        <v>0.04928893117540006</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03598957016940033</v>
+        <v>0.0202392266007309</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02070208465645487</v>
+        <v>0.05049599255992408</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02539905855257424</v>
+        <v>0.03487634165263033</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02463613377930155</v>
+        <v>0.0508000849323355</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06112170668568775</v>
+        <v>0.07609721785753762</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02424230522151562</v>
+        <v>0.0509118635394669</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09319025958044547</v>
+        <v>0.1179382701377304</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02416397931316695</v>
+        <v>0.05093189554791339</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03650188432328861</v>
+        <v>0.02231149920299288</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02136989383892116</v>
+        <v>0.05212489554572809</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02604725329447274</v>
+        <v>0.03519990244810994</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02543084777218225</v>
+        <v>0.05243879734950761</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06186118479268968</v>
+        <v>0.07670203954428859</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02502431506737097</v>
+        <v>0.05255418171815938</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09511774908080434</v>
+        <v>0.1184180833123985</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02494346251681749</v>
+        <v>0.05257485992042672</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03698930999096383</v>
+        <v>0.02231083689602565</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02203770302138745</v>
+        <v>0.05375379853153209</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02668989502501533</v>
+        <v>0.03531487438419083</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02622556176506294</v>
+        <v>0.05407750976667972</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06347080058424798</v>
+        <v>0.07671351268987753</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02580632491322631</v>
+        <v>0.05419649989685186</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09700735513615155</v>
+        <v>0.1183543293130046</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02572294572046804</v>
+        <v>0.05421782429294007</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03745241517636274</v>
+        <v>0.0213068116261251</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02270551220385373</v>
+        <v>0.0553827015173361</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02732495221902438</v>
+        <v>0.03531388920934687</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02702027575794364</v>
+        <v>0.05571622218385184</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06414902572234429</v>
+        <v>0.07734253693031146</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02658833475908165</v>
+        <v>0.05583881807554434</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09885618765609483</v>
+        <v>0.1193701994764321</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02650242892411859</v>
+        <v>0.0558607886654534</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03789176788342203</v>
+        <v>0.0222880089949888</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02337332138632002</v>
+        <v>0.0570116045031401</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02765039335132219</v>
+        <v>0.03500722329677833</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02781498975082433</v>
+        <v>0.05735493460102395</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06509433186896044</v>
+        <v>0.0772374484803445</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02737034460493699</v>
+        <v>0.05748113625423683</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1003613565502424</v>
+        <v>0.118664480311627</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02728191212776913</v>
+        <v>0.05750375303796673</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03830793611607839</v>
+        <v>0.02225567031189891</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02404113056878631</v>
+        <v>0.05864050748894409</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02836418689673112</v>
+        <v>0.03517694125564082</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02860970374370503</v>
+        <v>0.05899364701819607</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06610519068607817</v>
+        <v>0.07688886823930771</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02815235445079234</v>
+        <v>0.0591234544329293</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1022199717282021</v>
+        <v>0.118394489008139</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02806139533141968</v>
+        <v>0.05914671741048007</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03870148787826857</v>
+        <v>0.0222107017954174</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02470893975125259</v>
+        <v>0.06026941047474811</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02916430133007349</v>
+        <v>0.03512500209122894</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02940441773658573</v>
+        <v>0.06063235943536818</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06768007383567914</v>
+        <v>0.07679149589975076</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02893436429664768</v>
+        <v>0.06076577261162178</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1032291430995819</v>
+        <v>0.1187488139306904</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02884087853507022</v>
+        <v>0.0607896817829934</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03907299117392924</v>
+        <v>0.02015400966410629</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02537674893371888</v>
+        <v>0.06189831346055211</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02974870512617166</v>
+        <v>0.0350528662459714</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03019913172946642</v>
+        <v>0.06227107185254029</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06791745297974525</v>
+        <v>0.07674855111310086</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02971637414250303</v>
+        <v>0.06240809079031426</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1043859805739901</v>
+        <v>0.1178324301458875</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02962036173872078</v>
+        <v>0.06243264615550673</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03942301400699714</v>
+        <v>0.02108650013652761</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02604455811618516</v>
+        <v>0.0635272164463561</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03011536675984793</v>
+        <v>0.03496199416229681</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03099384572234712</v>
+        <v>0.0639097842697124</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0692157997802581</v>
+        <v>0.07616325353078524</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03049838398835837</v>
+        <v>0.06405040896900674</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1059875940610344</v>
+        <v>0.1175503127203363</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03039984494237132</v>
+        <v>0.06407561052802006</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03975212438140895</v>
+        <v>0.02200907943124334</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02671236729865145</v>
+        <v>0.06515611943216011</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03086225470592467</v>
+        <v>0.03475384628263382</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03178855971522782</v>
+        <v>0.06554849668688452</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07017358589919948</v>
+        <v>0.07603882280423116</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03128039383421371</v>
+        <v>0.06569272714769922</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1070310934703229</v>
+        <v>0.1173074367206434</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03117932814602187</v>
+        <v>0.0657185749005334</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04006089030110139</v>
+        <v>0.01992265376681549</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02738017648111774</v>
+        <v>0.06678502241796412</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03118733743922418</v>
+        <v>0.03462988304941109</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03258327370810851</v>
+        <v>0.06718720910405664</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07118928299855112</v>
+        <v>0.07587847858486585</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03206240368006905</v>
+        <v>0.06733504532639172</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1084135887114637</v>
+        <v>0.1168087772134149</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03195881134967241</v>
+        <v>0.06736153927304674</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04034987977001118</v>
+        <v>0.02082812936180609</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02804798566358403</v>
+        <v>0.06841392540376812</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03188858343456884</v>
+        <v>0.03469156490505726</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0333779877009892</v>
+        <v>0.06882592152122875</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07146136274029483</v>
+        <v>0.07608544052411659</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0328444135259244</v>
+        <v>0.0689773635050842</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1098321896940646</v>
+        <v>0.1170593092652571</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03273829455332296</v>
+        <v>0.06900450364556007</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04061966079207503</v>
+        <v>0.01972641243477712</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02871579484605031</v>
+        <v>0.07004282838957211</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03206396116678092</v>
+        <v>0.03424035229200094</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0341727016938699</v>
+        <v>0.07046463393840086</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07208829678641226</v>
+        <v>0.0753629282734106</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03362642337177973</v>
+        <v>0.07061968168377666</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1110840063277339</v>
+        <v>0.1160640079427763</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0335177777569735</v>
+        <v>0.07064746801807341</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04087080137122959</v>
+        <v>0.02161840920429062</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0293836040285166</v>
+        <v>0.07167173137537612</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03261143911068282</v>
+        <v>0.03437770565267081</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0349674156867506</v>
+        <v>0.07210334635557297</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07326855679888522</v>
+        <v>0.07531416148417514</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03440843321763508</v>
+        <v>0.07226199986246915</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1128661485220794</v>
+        <v>0.1162278483125788</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03429726096062406</v>
+        <v>0.07229043239058675</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04110386951141166</v>
+        <v>0.01950502588890857</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03005141321098288</v>
+        <v>0.07330063436118013</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03312898574109684</v>
+        <v>0.03420508542949552</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03576212967963129</v>
+        <v>0.07374205877274508</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0736006144396954</v>
+        <v>0.07444235980783742</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03519044306349042</v>
+        <v>0.07390431804116164</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1127757261867092</v>
+        <v>0.1151558054412707</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0350767441642746</v>
+        <v>0.07393339676310008</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04131943321655791</v>
+        <v>0.02038716870719303</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03071922239344917</v>
+        <v>0.07492953734698413</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03351456953284533</v>
+        <v>0.0340239520649037</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03655684367251198</v>
+        <v>0.07538077118991719</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07408294137082463</v>
+        <v>0.07435074289582472</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03597245290934577</v>
+        <v>0.07554663621985411</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1142098492312312</v>
+        <v>0.1150528543954586</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03585622736792515</v>
+        <v>0.07557636113561342</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.0415228767272209</v>
+        <v>0.01926574387770594</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03138703157591546</v>
+        <v>0.07655844033278814</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03386615896075061</v>
+        <v>0.03353576600132402</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03735155766539268</v>
+        <v>0.07701948360708931</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07471400925425456</v>
+        <v>0.07414253039956428</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0367544627552011</v>
+        <v>0.07718895439854659</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1149656275652534</v>
+        <v>0.1146239702417485</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03663571057157569</v>
+        <v>0.07721932550812675</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04172415541395922</v>
+        <v>0.02014165761900936</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03205484075838174</v>
+        <v>0.07818734331859213</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03418172249963504</v>
+        <v>0.0333419876811851</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03814627165827338</v>
+        <v>0.07865819602426143</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07529228975196703</v>
+        <v>0.07332094197048336</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03753647260105645</v>
+        <v>0.07883127257723907</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1164401710983839</v>
+        <v>0.1131741280467467</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03741519377522624</v>
+        <v>0.07886228988064009</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04192347575132981</v>
+        <v>0.02101581614966528</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03272264994084802</v>
+        <v>0.07981624630439614</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03435922862432092</v>
+        <v>0.03334407754691558</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03894098565115407</v>
+        <v>0.08029690844143353</v>
       </c>
       <c r="L114" t="n">
-        <v>0.07601625452594366</v>
+        <v>0.0730891972600092</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03831848244691179</v>
+        <v>0.08047359075593155</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1161305897402308</v>
+        <v>0.1125083028770597</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03819467697887678</v>
+        <v>0.08050525425315343</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04212076051013939</v>
+        <v>0.02088912568823571</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03339045912331431</v>
+        <v>0.08144514929020015</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03449664580963062</v>
+        <v>0.03304349604094411</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03973569964403476</v>
+        <v>0.08193562085860565</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07608437523816627</v>
+        <v>0.07275051591956902</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03910049229276714</v>
+        <v>0.08211590893462403</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1166339934004019</v>
+        <v>0.1118314697992935</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03897416018252733</v>
+        <v>0.08214821862566675</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0423159324611947</v>
+        <v>0.02076249245328265</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0340582683057806</v>
+        <v>0.08307405227600415</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03469194253038645</v>
+        <v>0.03294170360569937</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04053041363691546</v>
+        <v>0.08357433327577776</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07649512355061661</v>
+        <v>0.07200811760059009</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03988250213862248</v>
+        <v>0.08375822711331651</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1181474919885053</v>
+        <v>0.1119486038800545</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03975364338617788</v>
+        <v>0.08379118299818009</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0425089143753025</v>
+        <v>0.01863682266336812</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03472607748824688</v>
+        <v>0.08470295526180814</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03484308726141076</v>
+        <v>0.03264016068360998</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04132512762979616</v>
+        <v>0.08521304569294988</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07644697112527643</v>
+        <v>0.07146522195449964</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04066451198447783</v>
+        <v>0.08540054529200899</v>
       </c>
       <c r="N117" t="n">
-        <v>0.118168195414149</v>
+        <v>0.1101646801859489</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04053312658982842</v>
+        <v>0.08543414737069342</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04269962902326952</v>
+        <v>0.02051044780927175</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03539388667071317</v>
+        <v>0.08633185824761215</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03524804847752588</v>
+        <v>0.03244032771710458</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04211984162267685</v>
+        <v>0.08685175811012198</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07673838962412741</v>
+        <v>0.07132504863272493</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04144652183033317</v>
+        <v>0.08704286347070148</v>
       </c>
       <c r="N118" t="n">
-        <v>0.118293213586941</v>
+        <v>0.1099846737835832</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04131260979347897</v>
+        <v>0.08707711174320676</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04288799917590252</v>
+        <v>0.02036771721280533</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03606169585317946</v>
+        <v>0.08796076123341616</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03531487438419083</v>
+        <v>0.03243713254618033</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04291455561555755</v>
+        <v>0.0884904705272941</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07656785070915137</v>
+        <v>0.07088770464576555</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04222853167618851</v>
+        <v>0.08868518164939396</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1188196564164893</v>
+        <v>0.1095105323093646</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04209209299712952</v>
+        <v>0.0887200761157201</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04307394760400823</v>
+        <v>0.01920827417191718</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03672950503564574</v>
+        <v>0.08958966421922016</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03511395166458441</v>
+        <v>0.03200613904417406</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04370926960843824</v>
+        <v>0.09012918294446622</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07734253693031146</v>
+        <v>0.07060113175606664</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04301054152204385</v>
+        <v>0.09032749982808644</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1193701994764321</v>
+        <v>0.1087650887366412</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04287157620078006</v>
+        <v>0.09036304048823343</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04325739707839336</v>
+        <v>0.01803507125500737</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03739731421811203</v>
+        <v>0.09121856720502416</v>
       </c>
       <c r="J121" t="n">
-        <v>0.035002484176377</v>
+        <v>0.03184900154588949</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04450398360131894</v>
+        <v>0.09176789536163833</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07673860604259775</v>
+        <v>0.07015373258457425</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04379255136789919</v>
+        <v>0.09196981800677891</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1193682521338346</v>
+        <v>0.1083247741607656</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04365105940443061</v>
+        <v>0.09200600486074677</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.0434382703698647</v>
+        <v>0.01785106103047596</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03806512340057831</v>
+        <v>0.09284747019082816</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03507833685381113</v>
+        <v>0.0316704783473335</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04529869759419963</v>
+        <v>0.09340660777881045</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07720610660613922</v>
+        <v>0.0695559971405002</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04457456121375453</v>
+        <v>0.0936121361854714</v>
       </c>
       <c r="N122" t="n">
-        <v>0.119234871204403</v>
+        <v>0.1066057979434368</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04443054260808116</v>
+        <v>0.09364896923326009</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04361649024922897</v>
+        <v>0.01765919606672302</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0387329325830446</v>
+        <v>0.09447637317663216</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03504204195067535</v>
+        <v>0.03107532774451291</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04609341158708033</v>
+        <v>0.09504532019598255</v>
       </c>
       <c r="L123" t="n">
-        <v>0.07674183727028419</v>
+        <v>0.06871841543305615</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04535657105960988</v>
+        <v>0.09525445436416388</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1181612464846758</v>
+        <v>0.1057243694463537</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0452100258117317</v>
+        <v>0.09529193360577344</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04379197948729293</v>
+        <v>0.0174624289321486</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03940074176551089</v>
+        <v>0.09610527616243617</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03489413172075813</v>
+        <v>0.03086830803343456</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04688812557996102</v>
+        <v>0.09668403261315466</v>
       </c>
       <c r="L124" t="n">
-        <v>0.0770471075075034</v>
+        <v>0.06755147747145385</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04613858090546522</v>
+        <v>0.09689677254285635</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1188488483329534</v>
+        <v>0.1049966980312151</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04598950901538226</v>
+        <v>0.09693489797828678</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0439646608548633</v>
+        <v>0.01726371219515278</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04006855094797718</v>
+        <v>0.09773417914824017</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0350351384178479</v>
+        <v>0.03055417751010528</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04768283957284172</v>
+        <v>0.09832274503032677</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07682322679026751</v>
+        <v>0.06736567326490497</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04692059075132057</v>
+        <v>0.09853909072154883</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1178991471075368</v>
+        <v>0.1034389930597201</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0467689922190328</v>
+        <v>0.09857786235080011</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04413445712274685</v>
+        <v>0.01806599842413562</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04073636013044346</v>
+        <v>0.09936308213404417</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03496559429573322</v>
+        <v>0.03033769447053196</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04847755356572242</v>
+        <v>0.09996145744749889</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07637150459104716</v>
+        <v>0.06617149282262133</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0477026005971759</v>
+        <v>0.1001814089002413</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1181136131667264</v>
+        <v>0.1029674638935676</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04754847542268335</v>
+        <v>0.1002208267233134</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04430129106175029</v>
+        <v>0.01687224018749719</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04140416931290974</v>
+        <v>0.1009919851198482</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03498603160820252</v>
+        <v>0.0298236172107214</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04927226755860311</v>
+        <v>0.101600169864671</v>
       </c>
       <c r="L127" t="n">
-        <v>0.07599325038231305</v>
+        <v>0.06547942615381452</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04848461044303125</v>
+        <v>0.1018237270789338</v>
       </c>
       <c r="N127" t="n">
-        <v>0.117993716868823</v>
+        <v>0.1019983198944567</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0483279586263339</v>
+        <v>0.1018637910958268</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04446508544268037</v>
+        <v>0.01668539005363754</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04207197849537603</v>
+        <v>0.1026208881056522</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0346969826090443</v>
+        <v>0.02951670402668045</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0500669815514838</v>
+        <v>0.1032388822818431</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07598977363653586</v>
+        <v>0.06489996326769643</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04926662028888659</v>
+        <v>0.1034660452576263</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1181409285721271</v>
+        <v>0.1002477704240862</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04910744182998444</v>
+        <v>0.1035067554683401</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04462576303634384</v>
+        <v>0.01750635023058515</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04273978767784232</v>
+        <v>0.1042497910914562</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03469897955204707</v>
+        <v>0.02952171321441593</v>
       </c>
       <c r="K129" t="n">
-        <v>0.0508616955443645</v>
+        <v>0.1048775946990152</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07556238382618624</v>
+        <v>0.06474359417347864</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05004863013474194</v>
+        <v>0.1051083634363188</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1170567186349396</v>
+        <v>0.09963202484415501</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04988692503363499</v>
+        <v>0.1051497198408534</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04478324661354745</v>
+        <v>0.01731470263058828</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04340759686030861</v>
+        <v>0.1058786940772602</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03469255469099927</v>
+        <v>0.02923568322798921</v>
       </c>
       <c r="K130" t="n">
-        <v>0.0516564095372452</v>
+        <v>0.1065163071161873</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07531239042373486</v>
+        <v>0.0636172419199387</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05083063998059728</v>
+        <v>0.1067506816150112</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1175425574155611</v>
+        <v>0.09806386920207549</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05066640823728553</v>
+        <v>0.1067926842133668</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04493745894509794</v>
+        <v>0.01710779775431564</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04407540604277489</v>
+        <v>0.1075075970630642</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03447824027968943</v>
+        <v>0.02882522468765504</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05245112353012589</v>
+        <v>0.1081550195333594</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07554110290165242</v>
+        <v>0.06315354862226208</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05161264982645262</v>
+        <v>0.1083929997937037</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1163999152722923</v>
+        <v>0.09784424151525117</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05144589144093608</v>
+        <v>0.1084356485858801</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04508832280180203</v>
+        <v>0.01788986220429687</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04474321522524118</v>
+        <v>0.1091365000488682</v>
       </c>
       <c r="J132" t="n">
-        <v>0.034356568571906</v>
+        <v>0.02849167281238446</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05324583752300658</v>
+        <v>0.1097937319505316</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07534983073240958</v>
+        <v>0.06213467127720004</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05239465967230796</v>
+        <v>0.1100353179723962</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1170302625634338</v>
+        <v>0.09683816213691354</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05222537464458663</v>
+        <v>0.1100786129583935</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04523576095446648</v>
+        <v>0.01766512258306163</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04541102440770747</v>
+        <v>0.1107654030346722</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03412807182143748</v>
+        <v>0.02794183910430525</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05404055151588728</v>
+        <v>0.1114324443677037</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07493988338847701</v>
+        <v>0.0614756263360122</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0531766695181633</v>
+        <v>0.1116776361510887</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1157350696472863</v>
+        <v>0.0957688347730829</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05300485784823718</v>
+        <v>0.1117215773309068</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04537969617389803</v>
+        <v>0.01743780549313956</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04607883359017375</v>
+        <v>0.1123943060204762</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03409328228207235</v>
+        <v>0.0275825350655451</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05483526550876798</v>
+        <v>0.1130711567848758</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07481257034232539</v>
+        <v>0.06099143024995815</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05395867936401865</v>
+        <v>0.1133199543297812</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1162158068821506</v>
+        <v>0.09395946312977999</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05378434105188772</v>
+        <v>0.1133645417034201</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04552005123090343</v>
+        <v>0.01521213753706031</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04674664277264004</v>
+        <v>0.1140232090062802</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03385273220759911</v>
+        <v>0.02732057219823178</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05562997950164866</v>
+        <v>0.1147098692020479</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07406920106642539</v>
+        <v>0.05989709947029762</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05474068920987399</v>
+        <v>0.1149622725084737</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1156739446263272</v>
+        <v>0.09343325091302529</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05456382425553827</v>
+        <v>0.1150075060759335</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04565674889628941</v>
+        <v>0.01499234531735354</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04741445195510632</v>
+        <v>0.1156521119920842</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03380695385180622</v>
+        <v>0.02696276200449302</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05642469349452937</v>
+        <v>0.11634858161922</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07401108503324771</v>
+        <v>0.05910765044829019</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05552269905572934</v>
+        <v>0.1166045906871661</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1151109532381169</v>
+        <v>0.0919134018288395</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05534330745918881</v>
+        <v>0.1166504704484468</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04578971194086271</v>
+        <v>0.01578265543654891</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04808226113757261</v>
+        <v>0.1172810149778882</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03345647946848221</v>
+        <v>0.02671591598645658</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05721940748741006</v>
+        <v>0.1179872940363921</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07353953171526295</v>
+        <v>0.05843809963519553</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05630470890158468</v>
+        <v>0.1182469088658586</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1143283030758203</v>
+        <v>0.09042311958324328</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05612279066283936</v>
+        <v>0.1182934348209601</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04591886313543009</v>
+        <v>0.01458729449717605</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0487500703200389</v>
+        <v>0.1189099179636922</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03340184131141548</v>
+        <v>0.0262868456462502</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05801412148029076</v>
+        <v>0.1196260064535642</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07315585058494184</v>
+        <v>0.05780346348227322</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05708671874744001</v>
+        <v>0.1198892270445511</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1138274644977381</v>
+        <v>0.08958560788225717</v>
       </c>
       <c r="O138" t="n">
-        <v>0.0569022738664899</v>
+        <v>0.1199363991934735</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.0460441252507983</v>
+        <v>0.01441048910176464</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04941787950250518</v>
+        <v>0.1205388209494962</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03324357163439459</v>
+        <v>0.0260823624860016</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05880883547317146</v>
+        <v>0.1212647188707364</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07226135111475504</v>
+        <v>0.05721875844078303</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05786872859329537</v>
+        <v>0.1215315452232436</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1127099078621709</v>
+        <v>0.08772407043190172</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05768175707014045</v>
+        <v>0.1215793635659868</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04616542105777404</v>
+        <v>0.01425646585284428</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05008568868497147</v>
+        <v>0.1221677239353002</v>
       </c>
       <c r="J140" t="n">
-        <v>0.033282202691208</v>
+        <v>0.02590927800783856</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05960354946605215</v>
+        <v>0.1229034312879085</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07185734277717323</v>
+        <v>0.0568990009619845</v>
       </c>
       <c r="M140" t="n">
-        <v>0.0586507384391507</v>
+        <v>0.123173863401936</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1125771035274196</v>
+        <v>0.08676171093819757</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05846124027379099</v>
+        <v>0.1232223279385001</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04628267332716408</v>
+        <v>0.01512945135294468</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05075349786743776</v>
+        <v>0.1237966269211042</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0329182667356442</v>
+        <v>0.02567440371388877</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06039826345893284</v>
+        <v>0.1245421437050806</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0716451350446671</v>
+        <v>0.05575920749713728</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05943274828500605</v>
+        <v>0.1248161815806285</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1124305218517846</v>
+        <v>0.08702173310716532</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05924072347744155</v>
+        <v>0.1248652923110135</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04639580482977517</v>
+        <v>0.01503367220459547</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05142130704990405</v>
+        <v>0.1254255299069082</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03275229602149167</v>
+        <v>0.02518455110628</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06119297745181354</v>
+        <v>0.1261808561222527</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07152603738970731</v>
+        <v>0.05521439449750101</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06021475813086139</v>
+        <v>0.126458499759321</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1110716331935669</v>
+        <v>0.08562734064482552</v>
       </c>
       <c r="O142" t="n">
-        <v>0.0600202066810921</v>
+        <v>0.1265082566835268</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04650473833641402</v>
+        <v>0.01397335501032629</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05208911623237033</v>
+        <v>0.1270544328927122</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03248482280253892</v>
+        <v>0.02514653168714</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06198769144469423</v>
+        <v>0.1278195685394248</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07130135928476447</v>
+        <v>0.05507957841433542</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06099676797671674</v>
+        <v>0.1281008179380135</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1110019079110669</v>
+        <v>0.08580173725719881</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06079968988474264</v>
+        <v>0.1281512210560401</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.0466093966178874</v>
+        <v>0.01395272257750143</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05275692541483661</v>
+        <v>0.1286833358785162</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03241637933257437</v>
+        <v>0.0251671569585965</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06278240543757492</v>
+        <v>0.1294582809565969</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07047241020230935</v>
+        <v>0.05506977569890004</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06177877782257207</v>
+        <v>0.129743136116706</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1109228163625854</v>
+        <v>0.08446812665030584</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06157917308839319</v>
+        <v>0.1297941854285535</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04670970244500205</v>
+        <v>0.01395595703404105</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0534247345973029</v>
+        <v>0.1303122388643202</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03234749786538656</v>
+        <v>0.02525058125238218</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06357711943045563</v>
+        <v>0.131096993373769</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07034049961481259</v>
+        <v>0.05469992684674016</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06256078766842742</v>
+        <v>0.1313854542953984</v>
       </c>
       <c r="N145" t="n">
-        <v>0.109935828906423</v>
+        <v>0.08524971253016717</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06235865629204373</v>
+        <v>0.1314371498010668</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0468055785885647</v>
+        <v>0.01596527141438241</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05409254377976919</v>
+        <v>0.1319411418501242</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03217871065476396</v>
+        <v>0.02525855443563033</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06437183342333633</v>
+        <v>0.1327357057909412</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06930693699474483</v>
+        <v>0.05521175480113302</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06334279751428276</v>
+        <v>0.1330277724740909</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1089424159008804</v>
+        <v>0.08516637617742379</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06313813949569429</v>
+        <v>0.1330801141735801</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04689694781938212</v>
+        <v>0.01598035514931124</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05476035296223548</v>
+        <v>0.1335700448359282</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03211054995449507</v>
+        <v>0.0251761232656493</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06516654741621702</v>
+        <v>0.1343744182081133</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06917303181457679</v>
+        <v>0.05524497647269516</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06412480736013811</v>
+        <v>0.1346700906527834</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1081440477042584</v>
+        <v>0.08431618093142013</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06391762269934483</v>
+        <v>0.1347230785460935</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04698373290826102</v>
+        <v>0.01600089766961329</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05542816214470175</v>
+        <v>0.1351989478217322</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03194354801836834</v>
+        <v>0.02520278723574397</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06596126140909771</v>
+        <v>0.1360131306252854</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06904009354677912</v>
+        <v>0.05469848845805805</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06490681720599345</v>
+        <v>0.1363124088314759</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1077421946748575</v>
+        <v>0.08519740479206517</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06469710590299538</v>
+        <v>0.1363660429186068</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04706585662600816</v>
+        <v>0.01602658840607429</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05609597132716805</v>
+        <v>0.1368278508075362</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03147823710017228</v>
+        <v>0.02523804583921921</v>
       </c>
       <c r="K149" t="n">
-        <v>0.0667559754019784</v>
+        <v>0.1376518430424575</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06800943166382248</v>
+        <v>0.05517118735385315</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06568882705184879</v>
+        <v>0.1379547270101684</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1070383271709785</v>
+        <v>0.08520834275949291</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06547658910664592</v>
+        <v>0.1380090072911201</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04714324174343027</v>
+        <v>0.01605711678947999</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05676378050963433</v>
+        <v>0.1384567537933402</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03131514945369537</v>
+        <v>0.0250813985693799</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0675506893948591</v>
+        <v>0.1392905554596296</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06828235563817758</v>
+        <v>0.05496196975671191</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06647083689770414</v>
+        <v>0.1395970451888608</v>
       </c>
       <c r="N150" t="n">
-        <v>0.107033915550922</v>
+        <v>0.08574728983383717</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06625607231029647</v>
+        <v>0.1396519716636335</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04721581103133411</v>
+        <v>0.0150921722506161</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05743158969210062</v>
+        <v>0.1400856567791442</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0311548173327261</v>
+        <v>0.02533234491953085</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0683454033877398</v>
+        <v>0.1409292678768017</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06786017494231505</v>
+        <v>0.05546973226326574</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06725284674355947</v>
+        <v>0.1412393633675533</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1068304301729887</v>
+        <v>0.08591254101523199</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06703555551394701</v>
+        <v>0.1412949360361468</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0472834872605264</v>
+        <v>0.01413144422026839</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0580993988745669</v>
+        <v>0.1417145597649483</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03119777299105292</v>
+        <v>0.02549038438297697</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06914011738062049</v>
+        <v>0.1425679802939738</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06684419904870562</v>
+        <v>0.05559337147014615</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06803485658941481</v>
+        <v>0.1428816815462458</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1057293413954793</v>
+        <v>0.08560239130381142</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06781503871759756</v>
+        <v>0.1429379004086602</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0473461932018139</v>
+        <v>0.01617462212922258</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05876720805703319</v>
+        <v>0.1433434627507522</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03094454868246437</v>
+        <v>0.02535501645302313</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06993483137350119</v>
+        <v>0.1442066927111459</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06683573742981988</v>
+        <v>0.05543178397398457</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06881686643527016</v>
+        <v>0.1445239997249383</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1055321195766944</v>
+        <v>0.08601513569970937</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06859452192124811</v>
+        <v>0.1445808647811735</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04740385162600334</v>
+        <v>0.01422139540826439</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05943501723949948</v>
+        <v>0.1449723657365563</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03079567666074889</v>
+        <v>0.02552574062297419</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07072954536638189</v>
+        <v>0.1458454051283181</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06643609955812857</v>
+        <v>0.05568386637141248</v>
       </c>
       <c r="M154" t="n">
-        <v>0.0695988762811255</v>
+        <v>0.1461663179036308</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1050402350749349</v>
+        <v>0.0862490692030598</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06937400512489866</v>
+        <v>0.1462238291536868</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04745638530390147</v>
+        <v>0.0162714534881796</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06010282642196577</v>
+        <v>0.1466012687223603</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03055168917969502</v>
+        <v>0.02540205638613501</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07152425935926258</v>
+        <v>0.1474841175454902</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06554659490610237</v>
+        <v>0.05554851525906132</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07038088612698085</v>
+        <v>0.1478086360823233</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1034551582485012</v>
+        <v>0.0865024868139968</v>
       </c>
       <c r="O155" t="n">
-        <v>0.0701534883285492</v>
+        <v>0.1478667935262002</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04750371700631503</v>
+        <v>0.01432448579975392</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06077063560443205</v>
+        <v>0.1482301717081642</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03061311849309117</v>
+        <v>0.02568346323581044</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07231897335214327</v>
+        <v>0.1491228299626623</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06556853294621193</v>
+        <v>0.05642462723356254</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07116289597283619</v>
+        <v>0.1494509542610157</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1028783594556941</v>
+        <v>0.08707368353265416</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07093297153219975</v>
+        <v>0.1495097578987135</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04754576950405077</v>
+        <v>0.01640369879716094</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06143844478689834</v>
+        <v>0.1498590746939683</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03048049685472587</v>
+        <v>0.02587334327722716</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07311368734502396</v>
+        <v>0.1507615423798344</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0651032231509279</v>
+        <v>0.05601147391655426</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07194490581869153</v>
+        <v>0.1510932724397082</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1029113090548143</v>
+        <v>0.08666101387868214</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07171245473585029</v>
+        <v>0.1511527222712268</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04758246556791543</v>
+        <v>0.01453229001867693</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06210625396936462</v>
+        <v>0.1514879776797723</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03025272180091478</v>
+        <v>0.0258292956776553</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07390840133790466</v>
+        <v>0.1524002547970065</v>
       </c>
       <c r="L158" t="n">
-        <v>0.06474609283932661</v>
+        <v>0.05661100730229468</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07272691566454688</v>
+        <v>0.1527355906184007</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1024436157513599</v>
+        <v>0.08761136367850264</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07249193793950084</v>
+        <v>0.1527956866437402</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04761372796871573</v>
+        <v>0.01670097270983854</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06277406315183091</v>
+        <v>0.1531168806655763</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03012718112825109</v>
+        <v>0.02605905892475115</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07470311533078536</v>
+        <v>0.1540389672141786</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06438772464320719</v>
+        <v>0.05718065670333783</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07350892551040221</v>
+        <v>0.1543779087970932</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1015559763232652</v>
+        <v>0.08782662241180067</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07327142114315138</v>
+        <v>0.1544386510162535</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04763947947725846</v>
+        <v>0.01490037153565266</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0634418723342972</v>
+        <v>0.1547457836513803</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02990362222269169</v>
+        <v>0.02624752392940463</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07549782932366605</v>
+        <v>0.1556776796313507</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06442788932495833</v>
+        <v>0.05738711303514629</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07429093535625757</v>
+        <v>0.1560202269757857</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1005488715005995</v>
+        <v>0.08855532024778479</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07405090434680194</v>
+        <v>0.1560816153887668</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04765964286435029</v>
+        <v>0.01612111116112626</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06410968151676348</v>
+        <v>0.1563746866371843</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02988183125406393</v>
+        <v>0.02657958160250561</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07629254331654675</v>
+        <v>0.1573163920485229</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06396651365846298</v>
+        <v>0.05799706721318268</v>
       </c>
       <c r="M161" t="n">
-        <v>0.0750729452021129</v>
+        <v>0.1576625451544781</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1000231334027813</v>
+        <v>0.08994598735566373</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07483038755045247</v>
+        <v>0.1577245797612802</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04767414090079804</v>
+        <v>0.01735381625126629</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06477749069922976</v>
+        <v>0.1580035896229883</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02966159439219533</v>
+        <v>0.02704012285494398</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07708725730942745</v>
+        <v>0.158955104465695</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06340352441760438</v>
+        <v>0.05907721015290965</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07585495504796824</v>
+        <v>0.1593048633331706</v>
       </c>
       <c r="N162" t="n">
-        <v>0.09967959414922889</v>
+        <v>0.09064715390464601</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07560987075410303</v>
+        <v>0.1593675441337935</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.04768289635740842</v>
+        <v>0.01558911147107966</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06544529988169605</v>
+        <v>0.1596324926087923</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02964269780691327</v>
+        <v>0.02751403859760965</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07788197130230815</v>
+        <v>0.1605938168828671</v>
       </c>
       <c r="L163" t="n">
-        <v>0.0628388483762656</v>
+        <v>0.0601942327697898</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07663696489382359</v>
+        <v>0.1609471815118631</v>
       </c>
       <c r="N163" t="n">
-        <v>0.09911908585936074</v>
+        <v>0.09220735006394015</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07638935395775356</v>
+        <v>0.1610105085063069</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04768583200498813</v>
+        <v>0.01681762148557334</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06611310906416235</v>
+        <v>0.1612613955945963</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02962492766804527</v>
+        <v>0.02798621974139252</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07867668529518883</v>
+        <v>0.1622325293000392</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06257241230832983</v>
+        <v>0.06111482597928572</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07741897473967893</v>
+        <v>0.1625894996905556</v>
       </c>
       <c r="N164" t="n">
-        <v>0.09784244065259534</v>
+        <v>0.09417510600275503</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07716883716140413</v>
+        <v>0.1626534728788202</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04768583200498814</v>
+        <v>0.01802997095975428</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06611310906416235</v>
+        <v>0.1628902985804003</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02960807014541872</v>
+        <v>0.02834155719718247</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07947139928806952</v>
+        <v>0.1638712417172113</v>
       </c>
       <c r="L165" t="n">
-        <v>0.0625041429876802</v>
+        <v>0.06150568069686008</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07820098458553428</v>
+        <v>0.1642318178692481</v>
       </c>
       <c r="N165" t="n">
-        <v>0.09825049064835095</v>
+        <v>0.09449895189029917</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07794832036505467</v>
+        <v>0.1642964372513335</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04686159200007701</v>
+        <v>0.01821678455862939</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06611284053569833</v>
+        <v>0.1645192015662043</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02939191140886109</v>
+        <v>0.0283649418758694</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08026611328095024</v>
+        <v>0.1655099541343834</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06203396718819976</v>
+        <v>0.06213348783797545</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07898299443138961</v>
+        <v>0.1658741360479405</v>
       </c>
       <c r="N166" t="n">
-        <v>0.09674406796604612</v>
+        <v>0.09612741789578111</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07872780356870522</v>
+        <v>0.1659394016238468</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04604670747405721</v>
+        <v>0.01638235136056345</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0661125720072343</v>
+        <v>0.1661481045520083</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02927623762819982</v>
+        <v>0.02874369063510387</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08106082727383092</v>
+        <v>0.1671486665515555</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06176181168377173</v>
+        <v>0.06286540784383512</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07976500427724496</v>
+        <v>0.167516454226633</v>
       </c>
       <c r="N167" t="n">
-        <v>0.09572400472509929</v>
+        <v>0.0971092793770395</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07950728677235576</v>
+        <v>0.1675823659963602</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04524164743387146</v>
+        <v>0.01754360933478858</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06611230347877028</v>
+        <v>0.1677770075378123</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02896083497326235</v>
+        <v>0.02920422721935385</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08185554126671162</v>
+        <v>0.1687873789687276</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06108760324827919</v>
+        <v>0.06324038109889099</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08054701412310029</v>
+        <v>0.1691587724053255</v>
       </c>
       <c r="N168" t="n">
-        <v>0.09569113304492882</v>
+        <v>0.09809791150501301</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08028676997600631</v>
+        <v>0.1692253303688735</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04444688088656728</v>
+        <v>0.01670104084244892</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06611203495030626</v>
+        <v>0.1694059105236163</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02884548961387612</v>
+        <v>0.02935835862725818</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08265025525959231</v>
+        <v>0.1704260913858998</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06081126865560529</v>
+        <v>0.06420104196552867</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08132902396895565</v>
+        <v>0.170801090584018</v>
       </c>
       <c r="N169" t="n">
-        <v>0.0945462850449531</v>
+        <v>0.09846437490661442</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08106625317965685</v>
+        <v>0.1708682947413868</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04366287683908694</v>
+        <v>0.01685494329738815</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06611176642184226</v>
+        <v>0.1710348135094203</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0289299877198686</v>
+        <v>0.02970656416459855</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08344496925247301</v>
+        <v>0.1720648038030718</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0604327346796332</v>
+        <v>0.06484844710816293</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08211103381481098</v>
+        <v>0.1724434087627105</v>
       </c>
       <c r="N170" t="n">
-        <v>0.09349029284459071</v>
+        <v>0.09971030235978962</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0818457363833074</v>
+        <v>0.1725112591139002</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0428901042984079</v>
+        <v>0.01700561411345004</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06611149789337824</v>
+        <v>0.1726637164952243</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02861411546106721</v>
+        <v>0.02984932313715656</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08423968324535371</v>
+        <v>0.173703516220244</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06015192809424594</v>
+        <v>0.06538365319120831</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08289304366066634</v>
+        <v>0.174085726941403</v>
       </c>
       <c r="N171" t="n">
-        <v>0.09312398856325987</v>
+        <v>0.1001373266424841</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08262521958695794</v>
+        <v>0.1741542234864135</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04212903227147478</v>
+        <v>0.01715335070447824</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06611122936491422</v>
+        <v>0.1742926194810283</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02849765900729942</v>
+        <v>0.03018711485071396</v>
       </c>
       <c r="K172" t="n">
-        <v>0.0850343972382344</v>
+        <v>0.1753422286374161</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05966877567332676</v>
+        <v>0.06550771687907955</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08367505350652167</v>
+        <v>0.1757280451200954</v>
       </c>
       <c r="N172" t="n">
-        <v>0.09214820432037912</v>
+        <v>0.1008470805326439</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08340470279060849</v>
+        <v>0.1757971878589269</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04138012976533133</v>
+        <v>0.01729845048431648</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0661109608364502</v>
+        <v>0.1759215224668323</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02848040452839264</v>
+        <v>0.03022041861105235</v>
       </c>
       <c r="K173" t="n">
-        <v>0.0858291112311151</v>
+        <v>0.1769809410545882</v>
       </c>
       <c r="L173" t="n">
-        <v>0.0591832041907587</v>
+        <v>0.06622169483619131</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08445706335237702</v>
+        <v>0.1773703632987879</v>
       </c>
       <c r="N173" t="n">
-        <v>0.09116377223536687</v>
+        <v>0.1020411968082144</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08418418599425903</v>
+        <v>0.1774401522314402</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04064386578692167</v>
+        <v>0.01744121086680847</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06611069230798619</v>
+        <v>0.1775504254526363</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02836213819417437</v>
+        <v>0.03054971372395343</v>
       </c>
       <c r="K174" t="n">
-        <v>0.0866238252239958</v>
+        <v>0.1786196534717603</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05889514042042499</v>
+        <v>0.0669266437269582</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08523907319823236</v>
+        <v>0.1790126814774804</v>
       </c>
       <c r="N174" t="n">
-        <v>0.09077152442764158</v>
+        <v>0.1029213082471417</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08496366919790958</v>
+        <v>0.1790831166039535</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03992070934322323</v>
+        <v>0.01758192926579794</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06611042377952217</v>
+        <v>0.1791793284384403</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02834264617447201</v>
+        <v>0.03077547949519883</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08741853921687648</v>
+        <v>0.1802583658889324</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05830451113620866</v>
+        <v>0.06752362021579494</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08602108304408769</v>
+        <v>0.1806549996561729</v>
       </c>
       <c r="N175" t="n">
-        <v>0.09067229301662155</v>
+        <v>0.1030890476273715</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08574315240156012</v>
+        <v>0.1807260809764669</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03921112944118297</v>
+        <v>0.01772090309512857</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06611015525105815</v>
+        <v>0.1808082314242443</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02822171463911299</v>
+        <v>0.03099819523057021</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08821325320975718</v>
+        <v>0.1818970783061045</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05811124311199295</v>
+        <v>0.0679136809671162</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08680309288994305</v>
+        <v>0.1822973178348654</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08966691012172529</v>
+        <v>0.1040460477268494</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08652263560521069</v>
+        <v>0.1823690453489802</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03851559508784013</v>
+        <v>0.01985842976864408</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06610988672259413</v>
+        <v>0.1824371344100483</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02789912975792483</v>
+        <v>0.03131834023584927</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08900796720263787</v>
+        <v>0.1835357907232767</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05801526312166083</v>
+        <v>0.06789788264533658</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08758510273579838</v>
+        <v>0.1839396360135578</v>
       </c>
       <c r="N177" t="n">
-        <v>0.08895620786237118</v>
+        <v>0.1047939413235213</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08730211880886123</v>
+        <v>0.1840120097214935</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.037834575290141</v>
+        <v>0.01999679483892601</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06610961819413012</v>
+        <v>0.1840660373958523</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02807467770073492</v>
+        <v>0.03143642010164889</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08980268119551857</v>
+        <v>0.1851745031404488</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05751649793909563</v>
+        <v>0.06857728191487078</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08836711258165374</v>
+        <v>0.1855819541922503</v>
       </c>
       <c r="N178" t="n">
-        <v>0.08784101835797775</v>
+        <v>0.1060343611953329</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08808160201251178</v>
+        <v>0.1856549740940069</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03716853905506306</v>
+        <v>0.02014326884041175</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0661093496656661</v>
+        <v>0.1856949403816563</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02774814463737071</v>
+        <v>0.03176293919811927</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09059739518839927</v>
+        <v>0.1868132155576209</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05721487433818032</v>
+        <v>0.0693683238864824</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08914912242750907</v>
+        <v>0.1872242723709428</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0873221737279633</v>
+        <v>0.1066909940698471</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08886108521616232</v>
+        <v>0.1872979384665202</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03651795538955584</v>
+        <v>0.01829406147034583</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06610908113720208</v>
+        <v>0.1873238433674603</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02771931673765965</v>
+        <v>0.03180056583633631</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09139210918127996</v>
+        <v>0.188451927974793</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05651031909279813</v>
+        <v>0.06928672266493782</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08993113227336441</v>
+        <v>0.1888665905496353</v>
       </c>
       <c r="N180" t="n">
-        <v>0.08620050609174623</v>
+        <v>0.1069904250392302</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08964056841981287</v>
+        <v>0.1889409028390335</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03588329330065345</v>
+        <v>0.01844406368345054</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06610881260873806</v>
+        <v>0.1889527463532643</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02768798017142919</v>
+        <v>0.0319410663883362</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09218682317416066</v>
+        <v>0.1900906403919651</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05620275897683208</v>
+        <v>0.07021479089308535</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09071314211921976</v>
+        <v>0.1905089087283278</v>
       </c>
       <c r="N181" t="n">
-        <v>0.0857768475687451</v>
+        <v>0.1078057182078745</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09042005162346341</v>
+        <v>0.1905838672115469</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03526502179530474</v>
+        <v>0.01858816643444815</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06610854408027404</v>
+        <v>0.1905816493390683</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02735392110850678</v>
+        <v>0.03217620722615515</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09298153716704136</v>
+        <v>0.1917293528091372</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05559212076416545</v>
+        <v>0.07033437693994996</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0914951519650751</v>
+        <v>0.1921512269070202</v>
       </c>
       <c r="N182" t="n">
-        <v>0.08485203027837823</v>
+        <v>0.1089088253304487</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09119953482711396</v>
+        <v>0.1922268315840602</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03466360988048717</v>
+        <v>0.02072126067806095</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06610827555181004</v>
+        <v>0.1922105523248723</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02731692571871985</v>
+        <v>0.03259775472182938</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09377625115992204</v>
+        <v>0.1933680652263093</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05537833122868127</v>
+        <v>0.07132732917455673</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09227716181093044</v>
+        <v>0.1937935450857127</v>
       </c>
       <c r="N183" t="n">
-        <v>0.08372688634006403</v>
+        <v>0.1096716981616213</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09197901803076451</v>
+        <v>0.1938697959565736</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0340795265631532</v>
+        <v>0.01883823736901122</v>
       </c>
       <c r="G184" t="n">
-        <v>0.066108007023346</v>
+        <v>0.1938394553106763</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02707678017189585</v>
+        <v>0.03289747524739514</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09457096515280274</v>
+        <v>0.1950067776434815</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05506131714426271</v>
+        <v>0.07167549596593062</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09305917165678579</v>
+        <v>0.1954358632644052</v>
       </c>
       <c r="N184" t="n">
-        <v>0.08250224787322097</v>
+        <v>0.1105662884560608</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09275850123441505</v>
+        <v>0.1955127603290869</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03351324085033116</v>
+        <v>0.02093398746202122</v>
       </c>
       <c r="G185" t="n">
-        <v>0.066107738494882</v>
+        <v>0.1954683582964803</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02693327063786226</v>
+        <v>0.03306713517488863</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09536567914568343</v>
+        <v>0.1966454900606535</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05434100528479285</v>
+        <v>0.07186072568309662</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09384118150264113</v>
+        <v>0.1970781814430977</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08207894699726748</v>
+        <v>0.1114645479684358</v>
       </c>
       <c r="O185" t="n">
-        <v>0.0935379844380656</v>
+        <v>0.1971557247016002</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03296522174897274</v>
+        <v>0.02100341448873214</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06610746996641798</v>
+        <v>0.1970972612822843</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02668618328644649</v>
+        <v>0.03319850087634606</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09616039313856413</v>
+        <v>0.1982842024778257</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05391732242415487</v>
+        <v>0.07216486669507977</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09462319134849646</v>
+        <v>0.1987204996217902</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08135781583162199</v>
+        <v>0.1111384284534148</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09431746764171614</v>
+        <v>0.1987986890741135</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0324359382660554</v>
+        <v>0.02105824418547048</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06610720143795397</v>
+        <v>0.1987261642680883</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02673530428747597</v>
+        <v>0.03299119810187594</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09695510713144484</v>
+        <v>0.1999229148949978</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05379019533623194</v>
+        <v>0.07287808523940706</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09540520119435181</v>
+        <v>0.2003628178004827</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08043968649570288</v>
+        <v>0.1124707909646325</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09509695084536669</v>
+        <v>0.2004416534466269</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03192585940853488</v>
+        <v>0.02111188949197681</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06610693290948993</v>
+        <v>0.2003550672538923</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02668041981077819</v>
+        <v>0.03317749234089704</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09774982112432552</v>
+        <v>0.2015616273121699</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05285955079490709</v>
+        <v>0.07246819318056683</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09618721104020715</v>
+        <v>0.2020051359791751</v>
       </c>
       <c r="N188" t="n">
-        <v>0.0789253911089286</v>
+        <v>0.1126645118543024</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09587643404901725</v>
+        <v>0.2020846178191402</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03143545418343306</v>
+        <v>0.02116433160627317</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06610666438102593</v>
+        <v>0.2019839702396963</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02632131602618056</v>
+        <v>0.03316187293341431</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09854453511720622</v>
+        <v>0.203200339729342</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05232531557406356</v>
+        <v>0.07305410275779323</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0969692208860625</v>
+        <v>0.2036474541578676</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07901576179071756</v>
+        <v>0.1125517509891904</v>
       </c>
       <c r="O189" t="n">
-        <v>0.0966559172526678</v>
+        <v>0.2037275821916535</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03096327648587988</v>
+        <v>0.01921555172638158</v>
       </c>
       <c r="G190" t="n">
-        <v>0.06610639585256191</v>
+        <v>0.2036128732255004</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02635777910351055</v>
+        <v>0.03354430957856272</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09933924911008692</v>
+        <v>0.2048390521465141</v>
       </c>
       <c r="L190" t="n">
-        <v>0.05188741644758435</v>
+        <v>0.07323574717062811</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09775123073191784</v>
+        <v>0.2052897723365601</v>
       </c>
       <c r="N190" t="n">
-        <v>0.07841163066048812</v>
+        <v>0.112332405147958</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09743540045631834</v>
+        <v>0.2053705465641669</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03049830465190446</v>
+        <v>0.02126553105032412</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06610612732409789</v>
+        <v>0.2052417762113043</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02618959521259558</v>
+        <v>0.03332477197547722</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1001339631029676</v>
+        <v>0.2064777645636862</v>
       </c>
       <c r="L191" t="n">
-        <v>0.0514457801893527</v>
+        <v>0.07351305961861326</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09853324057777318</v>
+        <v>0.2069320905152525</v>
       </c>
       <c r="N191" t="n">
-        <v>0.07671382983765884</v>
+        <v>0.1129063711092671</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09821488365996889</v>
+        <v>0.2070135109366802</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03003909257663982</v>
+        <v>0.01931425077612278</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06610585879563387</v>
+        <v>0.2068706791971084</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02581655052326312</v>
+        <v>0.0336032298232927</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1009286770958483</v>
+        <v>0.2081164769808584</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05120033357325171</v>
+        <v>0.07318597330129048</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09931525042362853</v>
+        <v>0.208574408693945</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07652319144164799</v>
+        <v>0.1127735456517795</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09899436686361943</v>
+        <v>0.2086564753091935</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02958610926710343</v>
+        <v>0.0193616921017996</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06610559026716985</v>
+        <v>0.2084995821829124</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02572987791124144</v>
+        <v>0.03347965282114415</v>
       </c>
       <c r="K193" t="n">
-        <v>0.101723391088729</v>
+        <v>0.2097551893980305</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05124726072489577</v>
+        <v>0.07325442141820149</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1000972602694839</v>
+        <v>0.2102167268726375</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07582141793382524</v>
+        <v>0.1141338255541568</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09977385006726998</v>
+        <v>0.2102994396817069</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02913982373025269</v>
+        <v>0.01940783622537667</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06610532173870584</v>
+        <v>0.2101284851687164</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02541993578489871</v>
+        <v>0.0337540106681665</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1025181050816097</v>
+        <v>0.2113939018152026</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05048233824902268</v>
+        <v>0.07411833716888816</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1008792701153392</v>
+        <v>0.21185904505133</v>
       </c>
       <c r="N194" t="n">
-        <v>0.07498705635690445</v>
+        <v>0.1133871075950609</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1005533332709205</v>
+        <v>0.2119424040542202</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02870070497306505</v>
+        <v>0.02145266434487598</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06610505321024182</v>
+        <v>0.2117573881545204</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02518824958954496</v>
+        <v>0.03382627306349469</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1033128190744904</v>
+        <v>0.2130326142323747</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04990624527081597</v>
+        <v>0.07427765375289222</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1016612799611946</v>
+        <v>0.2135013632300225</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07382270188554485</v>
+        <v>0.1139332885531537</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1013328164745711</v>
+        <v>0.2135853684267336</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02826922200249937</v>
+        <v>0.02149615765831956</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0661047846817778</v>
+        <v>0.2133862911403244</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02503637376909587</v>
+        <v>0.03389640970626367</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1041075330673711</v>
+        <v>0.2146713266495468</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04961967415641197</v>
+        <v>0.07393230436975551</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1024432898070499</v>
+        <v>0.215143681408715</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07323100950977574</v>
+        <v>0.1148722652070967</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1021122996782216</v>
+        <v>0.2152283327992469</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02784584382557075</v>
+        <v>0.02153829736372947</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06610451615331378</v>
+        <v>0.2150151941261284</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02476586276746709</v>
+        <v>0.03376439029560839</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1049022470602518</v>
+        <v>0.2163100390667189</v>
       </c>
       <c r="L197" t="n">
-        <v>0.04912331727194683</v>
+        <v>0.07428222221901976</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1032252996529052</v>
+        <v>0.2167859995874074</v>
       </c>
       <c r="N197" t="n">
-        <v>0.07231463421962619</v>
+        <v>0.114403934335552</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1028917828818722</v>
+        <v>0.2168712971717603</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02743103944923769</v>
+        <v>0.02057906465912775</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06610424762484977</v>
+        <v>0.2166440971119324</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02427827102857427</v>
+        <v>0.03393018453066377</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1056969610531325</v>
+        <v>0.217948751483891</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04831786698355675</v>
+        <v>0.07472734050022675</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1040073094987606</v>
+        <v>0.2184283177660999</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0705762310051255</v>
+        <v>0.114628192717181</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1036712660855227</v>
+        <v>0.2185142615442736</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02702527788047768</v>
+        <v>0.01961844074253643</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06610397909638575</v>
+        <v>0.2182730000977363</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02407515299633309</v>
+        <v>0.03419376211056478</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1064916750460132</v>
+        <v>0.2195874639010632</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04770401565737803</v>
+        <v>0.07416759241291832</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1047893193446159</v>
+        <v>0.2200706359447924</v>
       </c>
       <c r="N199" t="n">
-        <v>0.07051845485630259</v>
+        <v>0.1149449371306458</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1044507492891733</v>
+        <v>0.2201572259167869</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02662902812625117</v>
+        <v>0.02165640681197752</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06610371056792173</v>
+        <v>0.2199019030835404</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02385806311465924</v>
+        <v>0.03425509273444635</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1072863890388939</v>
+        <v>0.2212261763182353</v>
       </c>
       <c r="L200" t="n">
-        <v>0.04768245565954676</v>
+        <v>0.07470291115663624</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1055713291904713</v>
+        <v>0.2217129541234849</v>
       </c>
       <c r="N200" t="n">
-        <v>0.06854396076318697</v>
+        <v>0.115654064354608</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1052302324928238</v>
+        <v>0.2218001902893002</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02624275919357014</v>
+        <v>0.01969294406547312</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06610344203945771</v>
+        <v>0.2215308060693444</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02342855582746836</v>
+        <v>0.03401414610144342</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1080811030317746</v>
+        <v>0.2228648887354074</v>
       </c>
       <c r="L201" t="n">
-        <v>0.0466538793561993</v>
+        <v>0.07453322993092232</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1063533390363266</v>
+        <v>0.2233552723021774</v>
       </c>
       <c r="N201" t="n">
-        <v>0.06815540371580753</v>
+        <v>0.1149554711677294</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1060097156964744</v>
+        <v>0.2234431546618136</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02586694008939461</v>
+        <v>0.02172803370104521</v>
       </c>
       <c r="G202" t="n">
-        <v>0.06610317351099371</v>
+        <v>0.2231597090551484</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02308818557867613</v>
+        <v>0.03417089191069092</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1088758170246552</v>
+        <v>0.2245036011525795</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04631897911347169</v>
+        <v>0.07515848193531832</v>
       </c>
       <c r="M202" t="n">
-        <v>0.107135348882182</v>
+        <v>0.2249975904808698</v>
       </c>
       <c r="N202" t="n">
-        <v>0.06705543870419356</v>
+        <v>0.1160490543486718</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1067891989001249</v>
+        <v>0.2250861190343269</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0255020398207021</v>
+        <v>0.02176165691671587</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06610290498252969</v>
+        <v>0.2247886120409524</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02293850681219821</v>
+        <v>0.03442529986132384</v>
       </c>
       <c r="K203" t="n">
-        <v>0.109670531017536</v>
+        <v>0.2261423135697516</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04577844729750022</v>
+        <v>0.07497860036936599</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1079173587280373</v>
+        <v>0.2266399086595624</v>
       </c>
       <c r="N203" t="n">
-        <v>0.06614672071837413</v>
+        <v>0.115334710676097</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1075686821037754</v>
+        <v>0.2267290834068402</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02514852739445491</v>
+        <v>0.02079379491050707</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06610263645406567</v>
+        <v>0.2264175150267564</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02248107397195026</v>
+        <v>0.03417733965247707</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1104652450104166</v>
+        <v>0.2277810259869237</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04523297627442116</v>
+        <v>0.07509351843260714</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1086993685738926</v>
+        <v>0.2282822268382548</v>
       </c>
       <c r="N204" t="n">
-        <v>0.06503190474837856</v>
+        <v>0.1154123369286667</v>
       </c>
       <c r="O204" t="n">
-        <v>0.108348165307426</v>
+        <v>0.2283720477793536</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02480687181766131</v>
+        <v>0.02082442888044093</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06610236792560165</v>
+        <v>0.2280464180125604</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02221744150184797</v>
+        <v>0.03442698098328557</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1112599590032973</v>
+        <v>0.2294197384040958</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04478325841037067</v>
+        <v>0.07500316932458365</v>
       </c>
       <c r="M205" t="n">
-        <v>0.109481378419748</v>
+        <v>0.2299245450169473</v>
       </c>
       <c r="N205" t="n">
-        <v>0.06401364578423591</v>
+        <v>0.1157818298850427</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1091276485110765</v>
+        <v>0.2300150121518669</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02447754209728318</v>
+        <v>0.02185354002453942</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06610209939713763</v>
+        <v>0.2296753209983644</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02174916384580697</v>
+        <v>0.03457419355288432</v>
       </c>
       <c r="K206" t="n">
-        <v>0.112054672996178</v>
+        <v>0.2310584508212679</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04382998607148494</v>
+        <v>0.07540748624483717</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1102633882656033</v>
+        <v>0.2315668631956398</v>
       </c>
       <c r="N206" t="n">
-        <v>0.0634945988159753</v>
+        <v>0.115843086323887</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1099071317147271</v>
+        <v>0.2316579765243803</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02416100724029797</v>
+        <v>0.02088110954082465</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06610183086867362</v>
+        <v>0.2313042239841684</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02117779544774297</v>
+        <v>0.03431894706040822</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1128493869890587</v>
+        <v>0.2326971632384401</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04377385162390021</v>
+        <v>0.07550640239290954</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1110453981114587</v>
+        <v>0.2332091813743322</v>
       </c>
       <c r="N207" t="n">
-        <v>0.06257741883362594</v>
+        <v>0.1161960030238609</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1106866149183776</v>
+        <v>0.2333009408968936</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02385773625367029</v>
+        <v>0.01990711862731858</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06610156234020959</v>
+        <v>0.2329331269699724</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02100489075157159</v>
+        <v>0.03436121120499222</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1136441009819394</v>
+        <v>0.2343358756556121</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04301554743375272</v>
+        <v>0.0755998509683426</v>
       </c>
       <c r="M208" t="n">
-        <v>0.111827407957314</v>
+        <v>0.2348514995530247</v>
       </c>
       <c r="N208" t="n">
-        <v>0.06136476082721709</v>
+        <v>0.1169404767636266</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1114660981220282</v>
+        <v>0.2349439052694069</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02356819814440401</v>
+        <v>0.0219315484820433</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06610129381174558</v>
+        <v>0.2345620299557764</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02043200420120854</v>
+        <v>0.03440095568577128</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1144388149748201</v>
+        <v>0.2359745880727843</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04235576586717862</v>
+        <v>0.07558776517067803</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1126094178031694</v>
+        <v>0.2364938177317172</v>
       </c>
       <c r="N209" t="n">
-        <v>0.06005927978677778</v>
+        <v>0.1168764043218458</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1122455813256787</v>
+        <v>0.2365868696419203</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02329286191946309</v>
+        <v>0.0199543803030208</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06610102528328156</v>
+        <v>0.2361909329415804</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02026069024056945</v>
+        <v>0.03463815020188031</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1152335289677008</v>
+        <v>0.2376133004899564</v>
       </c>
       <c r="L210" t="n">
-        <v>0.0419951992903142</v>
+        <v>0.07547007819945775</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1133914276490247</v>
+        <v>0.2381361359104097</v>
       </c>
       <c r="N210" t="n">
-        <v>0.0587636307023372</v>
+        <v>0.11740368247718</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1130250645293293</v>
+        <v>0.2382298340144336</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02303219658582507</v>
+        <v>0.02097559528827318</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06610075675481755</v>
+        <v>0.2378198359273844</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01969250331357002</v>
+        <v>0.03467276445245429</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1160282429605815</v>
+        <v>0.2392520129071285</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04163454006929562</v>
+        <v>0.07614672325422345</v>
       </c>
       <c r="M211" t="n">
-        <v>0.11417343749488</v>
+        <v>0.2397784540891022</v>
       </c>
       <c r="N211" t="n">
-        <v>0.05798046856392458</v>
+        <v>0.1169222080082913</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1138045477329798</v>
+        <v>0.2398727983869469</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02278667115045705</v>
+        <v>0.02199517463582242</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06610048822635352</v>
+        <v>0.2394487389131884</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01932899786412588</v>
+        <v>0.03480476813662815</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1168229569534622</v>
+        <v>0.2408907253243006</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04117448057025905</v>
+        <v>0.07601763353451696</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1149554473407354</v>
+        <v>0.2414207722677947</v>
       </c>
       <c r="N212" t="n">
-        <v>0.05721244836156902</v>
+        <v>0.1170318776938413</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1145840309366304</v>
+        <v>0.2415157627594603</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.0225567546203579</v>
+        <v>0.02101309954369058</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06610021969788951</v>
+        <v>0.2410776418989924</v>
       </c>
       <c r="J213" t="n">
-        <v>0.0192717283361527</v>
+        <v>0.03463413095353683</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1176176709463429</v>
+        <v>0.2425294377414727</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04041571315934081</v>
+        <v>0.07568274223988003</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1157374571865907</v>
+        <v>0.2430630904464871</v>
       </c>
       <c r="N213" t="n">
-        <v>0.05656222508529979</v>
+        <v>0.1177325883124919</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1153635141402809</v>
+        <v>0.2431587271319736</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02234291600249407</v>
+        <v>0.02002935120989969</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06609995116942549</v>
+        <v>0.2427065448847964</v>
       </c>
       <c r="J214" t="n">
-        <v>0.0188222491735662</v>
+        <v>0.03486082260231528</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1184123849392236</v>
+        <v>0.2441681501586448</v>
       </c>
       <c r="L214" t="n">
-        <v>0.03985893020267703</v>
+        <v>0.07604198256985445</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1165194670324461</v>
+        <v>0.2447054086251796</v>
       </c>
       <c r="N214" t="n">
-        <v>0.05553245372514592</v>
+        <v>0.1171242366429047</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1161429973439315</v>
+        <v>0.2448016915044869</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02234291600249407</v>
+        <v>0.02204391083247182</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06609995116942549</v>
+        <v>0.2443354478706004</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01858211482028201</v>
+        <v>0.03488481278209844</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1192070989321043</v>
+        <v>0.245806862575817</v>
       </c>
       <c r="L215" t="n">
-        <v>0.03880482406640395</v>
+        <v>0.07639528772398207</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1173014768783014</v>
+        <v>0.2463477268038721</v>
       </c>
       <c r="N215" t="n">
-        <v>0.05452578927113666</v>
+        <v>0.1172067194637416</v>
       </c>
       <c r="O215" t="n">
-        <v>0.116922480547582</v>
+        <v>0.2464446558770002</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02176772129470151</v>
+        <v>0.02205675960942897</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06600978424927686</v>
+        <v>0.2459643508564044</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01795287972021577</v>
+        <v>0.03460607119202126</v>
       </c>
       <c r="K216" t="n">
-        <v>0.120001812924985</v>
+        <v>0.2474455749929891</v>
       </c>
       <c r="L216" t="n">
-        <v>0.03855408711665778</v>
+        <v>0.07604259090180457</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1180834867241567</v>
+        <v>0.2479900449825646</v>
       </c>
       <c r="N216" t="n">
-        <v>0.05294488671330111</v>
+        <v>0.1179799335536644</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1177019637512325</v>
+        <v>0.2480876202495136</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02119913860740063</v>
+        <v>0.02006787873879317</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06591961732912824</v>
+        <v>0.2475932538422084</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01783609831728317</v>
+        <v>0.03492456753121864</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1207965269178657</v>
+        <v>0.2490842874101612</v>
       </c>
       <c r="L217" t="n">
-        <v>0.03800741171957475</v>
+        <v>0.07608382530286387</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1188654965700121</v>
+        <v>0.2496323631612571</v>
       </c>
       <c r="N217" t="n">
-        <v>0.05299240104166852</v>
+        <v>0.1170437756913348</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1184814469548831</v>
+        <v>0.2497305846220269</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02063752361555892</v>
+        <v>0.0210772494185865</v>
       </c>
       <c r="G218" t="n">
-        <v>0.06582945040897961</v>
+        <v>0.2492221568280124</v>
       </c>
       <c r="J218" t="n">
-        <v>0.0176333250553999</v>
+        <v>0.0348402714988256</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1215912409107464</v>
+        <v>0.2507229998273333</v>
       </c>
       <c r="L218" t="n">
-        <v>0.03726549024129105</v>
+        <v>0.07601892412670166</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1196475064158674</v>
+        <v>0.2512746813399495</v>
       </c>
       <c r="N218" t="n">
-        <v>0.051270987246268</v>
+        <v>0.1178981426554145</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1192609301585336</v>
+        <v>0.2513735489945403</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02008323199414409</v>
+        <v>0.02108485284683096</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06573928348883099</v>
+        <v>0.2508510598138164</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01704611437848161</v>
+        <v>0.03475315279397702</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1223859549036271</v>
+        <v>0.2523617122445054</v>
       </c>
       <c r="L219" t="n">
-        <v>0.03682901504794289</v>
+        <v>0.07584782057285974</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1204295162617228</v>
+        <v>0.252916999518642</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0512833003171288</v>
+        <v>0.1175429312245655</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1200404133621842</v>
+        <v>0.2530165133670536</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01953661941812364</v>
+        <v>0.02109067022154861</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06564911656868236</v>
+        <v>0.2524799627996204</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01707602073044394</v>
+        <v>0.03466318111580786</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1231806688965078</v>
+        <v>0.2540004246616775</v>
       </c>
       <c r="L220" t="n">
-        <v>0.0363986785056665</v>
+        <v>0.07607044784087996</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1212115261075781</v>
+        <v>0.2545593176973345</v>
       </c>
       <c r="N220" t="n">
-        <v>0.04993199524427988</v>
+        <v>0.1178780381774494</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1208198965658347</v>
+        <v>0.2546594777395669</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01899804156246523</v>
+        <v>0.02209468274076146</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06555894964853372</v>
+        <v>0.2541088657854244</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01682459855520259</v>
+        <v>0.03497032616345309</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1239753828893885</v>
+        <v>0.2556391370788496</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0357751729805981</v>
+        <v>0.07648673913030404</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1219935359534335</v>
+        <v>0.256201635876027</v>
       </c>
       <c r="N221" t="n">
-        <v>0.04911972701775058</v>
+        <v>0.1175033602927281</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1215993797694853</v>
+        <v>0.2563024421120803</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01846785410213655</v>
+        <v>0.02109687160249157</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06546878272838511</v>
+        <v>0.2557377687712284</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01629340229667321</v>
+        <v>0.03467455763604763</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1247700968822692</v>
+        <v>0.2572778494960217</v>
       </c>
       <c r="L222" t="n">
-        <v>0.03565919083887389</v>
+        <v>0.07609662764067374</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1227755457992888</v>
+        <v>0.2578439540547195</v>
       </c>
       <c r="N222" t="n">
-        <v>0.04924915062757007</v>
+        <v>0.1172187943490632</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1223788629731358</v>
+        <v>0.2579454064845936</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01794641271210506</v>
+        <v>0.02009446818514362</v>
       </c>
       <c r="G223" t="n">
-        <v>0.06537861580823646</v>
+        <v>0.2573666717570324</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01618398639877146</v>
+        <v>0.03497565089774915</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1255648108751498</v>
+        <v>0.2589165619131938</v>
       </c>
       <c r="L223" t="n">
-        <v>0.03525142444663004</v>
+        <v>0.07620004657153093</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1235575556451441</v>
+        <v>0.2594862722334119</v>
       </c>
       <c r="N223" t="n">
-        <v>0.04812292106376742</v>
+        <v>0.1174242371251166</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1231583461767864</v>
+        <v>0.259588370857107</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0174340730673385</v>
+        <v>0.0210489320530487</v>
       </c>
       <c r="G224" t="n">
-        <v>0.06528844888808785</v>
+        <v>0.2589955747428365</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01589790530541305</v>
+        <v>0.03482437618176869</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1263595248680306</v>
+        <v>0.260555274330366</v>
       </c>
       <c r="L224" t="n">
-        <v>0.03425256617000283</v>
+        <v>0.07590488039231405</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1243395654909995</v>
+        <v>0.2611285904121045</v>
       </c>
       <c r="N224" t="n">
-        <v>0.04794369331637188</v>
+        <v>0.1177819882779663</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1239378293804369</v>
+        <v>0.2612313352296203</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01693119084280437</v>
+        <v>0.02195237711104443</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06519828196793921</v>
+        <v>0.2606244777286404</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01583671346051357</v>
+        <v>0.03478911102748221</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1271542388609113</v>
+        <v>0.2621939867475381</v>
       </c>
       <c r="L225" t="n">
-        <v>0.03386330837512841</v>
+        <v>0.07602319035659297</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1251215753368548</v>
+        <v>0.2627709085907969</v>
       </c>
       <c r="N225" t="n">
-        <v>0.04701412237541253</v>
+        <v>0.1173512903088161</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1247173125840875</v>
+        <v>0.2628742996021336</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01643812171347031</v>
+        <v>0.01981066475133875</v>
       </c>
       <c r="G226" t="n">
-        <v>0.06510811504779059</v>
+        <v>0.2622533807144444</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01580196530798877</v>
+        <v>0.03437930152905538</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1279489528537919</v>
+        <v>0.2638326991647102</v>
       </c>
       <c r="L226" t="n">
-        <v>0.03378434342814307</v>
+        <v>0.07577573958744735</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1259035851827102</v>
+        <v>0.2644132267694894</v>
       </c>
       <c r="N226" t="n">
-        <v>0.0470368632309186</v>
+        <v>0.1163640628539127</v>
       </c>
       <c r="O226" t="n">
-        <v>0.125496795787738</v>
+        <v>0.264517263974647</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01595522135430403</v>
+        <v>0.02062965636613964</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06501794812764196</v>
+        <v>0.2638822837002485</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01569521529175426</v>
+        <v>0.03420439378065396</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1287436668466727</v>
+        <v>0.2654714115818823</v>
       </c>
       <c r="L227" t="n">
-        <v>0.03271636369518297</v>
+        <v>0.07458335268567337</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1266855950285655</v>
+        <v>0.2660555449481818</v>
       </c>
       <c r="N227" t="n">
-        <v>0.04671457087291925</v>
+        <v>0.115752484482381</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1262762789913886</v>
+        <v>0.2661602283471603</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01548284544027298</v>
+        <v>0.02141521334765504</v>
       </c>
       <c r="G228" t="n">
-        <v>0.06492778120749333</v>
+        <v>0.2655111866860524</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01561801785572572</v>
+        <v>0.03377383387644355</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1295383808395533</v>
+        <v>0.2671101239990544</v>
       </c>
       <c r="L228" t="n">
-        <v>0.03216006154238432</v>
+        <v>0.07436685425206735</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1274676048744209</v>
+        <v>0.2676978631268743</v>
       </c>
       <c r="N228" t="n">
-        <v>0.04594990029144358</v>
+        <v>0.1145487337633464</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1270557621950391</v>
+        <v>0.2678031927196736</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01502134964634484</v>
+        <v>0.02117319708809292</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06483761428734469</v>
+        <v>0.2671400896718565</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01537192744381884</v>
+        <v>0.03359706791058989</v>
       </c>
       <c r="K229" t="n">
-        <v>0.130333094832434</v>
+        <v>0.2687488364162265</v>
       </c>
       <c r="L229" t="n">
-        <v>0.03181612933588338</v>
+        <v>0.07364706888742548</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1282496147202762</v>
+        <v>0.2693401813055669</v>
       </c>
       <c r="N229" t="n">
-        <v>0.04554550647652089</v>
+        <v>0.1128849892659338</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1278352453986897</v>
+        <v>0.2694461570921869</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01457108964748729</v>
+        <v>0.01890946897966121</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06474744736719608</v>
+        <v>0.2687689926576605</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01555832733472598</v>
+        <v>0.03308354197725864</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1311278088253147</v>
+        <v>0.2703875488333987</v>
       </c>
       <c r="L230" t="n">
-        <v>0.03158519170085528</v>
+        <v>0.07244482119254408</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1290316245661315</v>
+        <v>0.2709824994842593</v>
       </c>
       <c r="N230" t="n">
-        <v>0.04530363054361247</v>
+        <v>0.1115934295592685</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1286147286023402</v>
+        <v>0.2710891214647003</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.0141324211186678</v>
+        <v>0.01962989041456789</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06465728044704744</v>
+        <v>0.2703978956434644</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01545833878662629</v>
+        <v>0.03274270217061552</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1319225228181954</v>
+        <v>0.2720262612505707</v>
       </c>
       <c r="L231" t="n">
-        <v>0.031161416307285</v>
+        <v>0.07128093576821931</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1298136344119869</v>
+        <v>0.2726248176629518</v>
       </c>
       <c r="N231" t="n">
-        <v>0.0453889397777123</v>
+        <v>0.1105062332124755</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1293942118059908</v>
+        <v>0.2727320858372136</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01370569973485411</v>
+        <v>0.01834032278502092</v>
       </c>
       <c r="G232" t="n">
-        <v>0.06456711352689883</v>
+        <v>0.2720267986292685</v>
       </c>
       <c r="J232" t="n">
-        <v>0.0155584070491567</v>
+        <v>0.03208399458482619</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1327172368110761</v>
+        <v>0.2736649736677428</v>
       </c>
       <c r="L232" t="n">
-        <v>0.03074075011593003</v>
+        <v>0.07047623721524748</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1305956442578422</v>
+        <v>0.2742671358416442</v>
       </c>
       <c r="N232" t="n">
-        <v>0.04437758362058347</v>
+        <v>0.10825557879468</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1301736950096413</v>
+        <v>0.274375050209727</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01329128117101371</v>
+        <v>0.02004662748322823</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06447694660675019</v>
+        <v>0.2736557016150725</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01545858375991091</v>
+        <v>0.03171686531405633</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1335119508039568</v>
+        <v>0.275303686084915</v>
       </c>
       <c r="L233" t="n">
-        <v>0.03052325072113335</v>
+        <v>0.06965155013442484</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1313776541036976</v>
+        <v>0.2759094540203368</v>
       </c>
       <c r="N233" t="n">
-        <v>0.04506975126029455</v>
+        <v>0.1075736448750071</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1309531782132918</v>
+        <v>0.2760180145822403</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01288952110211427</v>
+        <v>0.01975466590139778</v>
       </c>
       <c r="G234" t="n">
-        <v>0.06438677968660156</v>
+        <v>0.2752846046008765</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01535892055648266</v>
+        <v>0.03135076045247168</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1343066647968375</v>
+        <v>0.2769423985020871</v>
       </c>
       <c r="L234" t="n">
-        <v>0.030108975717238</v>
+        <v>0.06812769912654765</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1321596639495529</v>
+        <v>0.2775517721990292</v>
       </c>
       <c r="N234" t="n">
-        <v>0.04426563188491439</v>
+        <v>0.1057926100225819</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1317326614169424</v>
+        <v>0.2776609789547536</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01250077520312343</v>
+        <v>0.01747029943173755</v>
       </c>
       <c r="G235" t="n">
-        <v>0.06429661276645293</v>
+        <v>0.2769135075866805</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01555946907646563</v>
+        <v>0.03059512609423787</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1351013787897182</v>
+        <v>0.2785811109192592</v>
       </c>
       <c r="L235" t="n">
-        <v>0.02989798269858712</v>
+        <v>0.0674255087924121</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1329416737954083</v>
+        <v>0.2791940903777217</v>
       </c>
       <c r="N235" t="n">
-        <v>0.04466541468251173</v>
+        <v>0.1037446528065296</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1325121446205929</v>
+        <v>0.279303943327267</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01212539914900872</v>
+        <v>0.01919938946645547</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06420644584630431</v>
+        <v>0.2785424105724845</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01536028095745358</v>
+        <v>0.03045940833352059</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1358960927825989</v>
+        <v>0.2802198233364313</v>
       </c>
       <c r="L236" t="n">
-        <v>0.02889032925952376</v>
+        <v>0.06666580373281447</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1337236836412636</v>
+        <v>0.2808364085564142</v>
       </c>
       <c r="N236" t="n">
-        <v>0.04416928884115501</v>
+        <v>0.1021619517959752</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1332916278242435</v>
+        <v>0.2809469076997803</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01176374861473783</v>
+        <v>0.01694779739775951</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06411627892615568</v>
+        <v>0.2801713135582884</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01546140783704017</v>
+        <v>0.03005305326448555</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1366908067754796</v>
+        <v>0.2818585357536034</v>
       </c>
       <c r="L237" t="n">
-        <v>0.02878607299439093</v>
+        <v>0.06516940854855105</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1345056934871189</v>
+        <v>0.2824787267351067</v>
       </c>
       <c r="N237" t="n">
-        <v>0.04347744354891314</v>
+        <v>0.1016766855600441</v>
       </c>
       <c r="O237" t="n">
-        <v>0.134071111027894</v>
+        <v>0.2825898720722936</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01141617927527828</v>
+        <v>0.01671560981939007</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06402611200600705</v>
+        <v>0.2818002165440925</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01566290135281917</v>
+        <v>0.02938041940539673</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1374855207683603</v>
+        <v>0.2834972481707755</v>
       </c>
       <c r="L238" t="n">
-        <v>0.02828527149753166</v>
+        <v>0.06474860232075247</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1352877033329743</v>
+        <v>0.2841210449137992</v>
       </c>
       <c r="N238" t="n">
-        <v>0.04319006799385477</v>
+        <v>0.09930850421462117</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1348505942315446</v>
+        <v>0.284232836444807</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01108304680559774</v>
+        <v>0.01648447958022557</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06393594508585843</v>
+        <v>0.2834291195298965</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01546481314238425</v>
+        <v>0.029012593410512</v>
       </c>
       <c r="K239" t="n">
-        <v>0.138280234761241</v>
+        <v>0.2851359605879477</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0280879823632891</v>
+        <v>0.06364143112621967</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1360697131788296</v>
+        <v>0.2857633630924916</v>
       </c>
       <c r="N239" t="n">
-        <v>0.04400735136404865</v>
+        <v>0.09916227618702461</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1356300774351951</v>
+        <v>0.2858758008173203</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01076325454121276</v>
+        <v>0.01625247239592498</v>
       </c>
       <c r="G240" t="n">
-        <v>0.0638457781657098</v>
+        <v>0.2850580225157005</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01566719484332915</v>
+        <v>0.02884336595844401</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1390749487541217</v>
+        <v>0.2867746730051198</v>
       </c>
       <c r="L240" t="n">
-        <v>0.02719426318600632</v>
+        <v>0.06323117980873633</v>
       </c>
       <c r="M240" t="n">
-        <v>0.136851723024685</v>
+        <v>0.2874056812711842</v>
       </c>
       <c r="N240" t="n">
-        <v>0.04342948284756337</v>
+        <v>0.0974112913163927</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1364095606388457</v>
+        <v>0.2875187651898337</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0104484441203845</v>
+        <v>0.01801957438063281</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06375561124556117</v>
+        <v>0.2866869255015045</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01557009809324758</v>
+        <v>0.0282727146710454</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1398696627470024</v>
+        <v>0.2884133854222919</v>
       </c>
       <c r="L241" t="n">
-        <v>0.02720417156002627</v>
+        <v>0.06251779903405108</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1376337328705403</v>
+        <v>0.2890479994498766</v>
       </c>
       <c r="N241" t="n">
-        <v>0.04355665163246769</v>
+        <v>0.09615547337050179</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1371890438424962</v>
+        <v>0.289161729562347</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01013751887862951</v>
+        <v>0.01778577164849356</v>
       </c>
       <c r="G242" t="n">
-        <v>0.06366544432541253</v>
+        <v>0.2883158284873085</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01557357452973325</v>
+        <v>0.02800061717016877</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1406643767398831</v>
+        <v>0.290052097839464</v>
       </c>
       <c r="L242" t="n">
-        <v>0.02661776507969207</v>
+        <v>0.06160123946791232</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1384157427163957</v>
+        <v>0.2906903176285691</v>
       </c>
       <c r="N242" t="n">
-        <v>0.04338904690683038</v>
+        <v>0.0942947461171284</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1379685270461468</v>
+        <v>0.2908046939348603</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.009830834490915451</v>
+        <v>0.01555105031365171</v>
       </c>
       <c r="G243" t="n">
-        <v>0.06357527740526392</v>
+        <v>0.2899447314731125</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01537767579037989</v>
+        <v>0.02772705107766675</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1414590907327638</v>
+        <v>0.2916908102566361</v>
       </c>
       <c r="L243" t="n">
-        <v>0.02673510133934678</v>
+        <v>0.0607814517760685</v>
       </c>
       <c r="M243" t="n">
-        <v>0.139197752562251</v>
+        <v>0.2923326358072615</v>
       </c>
       <c r="N243" t="n">
-        <v>0.0425268578587199</v>
+        <v>0.09372903332404886</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1387480102497973</v>
+        <v>0.2924476583073736</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.009528746632209852</v>
+        <v>0.01731539649025177</v>
       </c>
       <c r="G244" t="n">
-        <v>0.06348511048511528</v>
+        <v>0.2915736344589165</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01538245351278121</v>
+        <v>0.02725199401539198</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1422538047256444</v>
+        <v>0.2933295226738082</v>
       </c>
       <c r="L244" t="n">
-        <v>0.02615623793333349</v>
+        <v>0.06005838662426816</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1399797624081064</v>
+        <v>0.293974953985954</v>
       </c>
       <c r="N244" t="n">
-        <v>0.04237027367620522</v>
+        <v>0.09285825875903975</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1395274934534478</v>
+        <v>0.294090622679887</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.009231610977480403</v>
+        <v>0.01707879629243823</v>
       </c>
       <c r="G245" t="n">
-        <v>0.06339494356496667</v>
+        <v>0.2932025374447205</v>
       </c>
       <c r="J245" t="n">
-        <v>0.0154879593345309</v>
+        <v>0.02677542360519709</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1430485187185252</v>
+        <v>0.2949682350909803</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0257812324559952</v>
+        <v>0.05913199467825964</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1407617722539617</v>
+        <v>0.2956172721646466</v>
       </c>
       <c r="N245" t="n">
-        <v>0.04271948354735489</v>
+        <v>0.09138234618987739</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1403069766570984</v>
+        <v>0.2957335870524003</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.00893978320169464</v>
+        <v>0.0148412358343556</v>
       </c>
       <c r="G246" t="n">
-        <v>0.06330477664481803</v>
+        <v>0.2948314404305245</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01549424489322269</v>
+        <v>0.02659731746893469</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1438432327114059</v>
+        <v>0.2966069475081524</v>
       </c>
       <c r="L246" t="n">
-        <v>0.02551014250167502</v>
+        <v>0.05820222660379154</v>
       </c>
       <c r="M246" t="n">
-        <v>0.141543782099817</v>
+        <v>0.297259590343339</v>
       </c>
       <c r="N246" t="n">
-        <v>0.04177467666023771</v>
+        <v>0.08980121938433844</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1410864598607489</v>
+        <v>0.2973765514249136</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.008653618979820192</v>
+        <v>0.01660270123014838</v>
       </c>
       <c r="G247" t="n">
-        <v>0.0632146097246694</v>
+        <v>0.2964603434163285</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01540136182645033</v>
+        <v>0.02601765322845744</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1446379467042865</v>
+        <v>0.2982456599253245</v>
       </c>
       <c r="L247" t="n">
-        <v>0.02464302566471596</v>
+        <v>0.05696903306661219</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1423257919456724</v>
+        <v>0.2989019085220315</v>
       </c>
       <c r="N247" t="n">
-        <v>0.04243604220292219</v>
+        <v>0.08891480211019909</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1418659430643995</v>
+        <v>0.299019515797427</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.008373473986824712</v>
+        <v>0.01436317859396105</v>
       </c>
       <c r="G248" t="n">
-        <v>0.06312444280452077</v>
+        <v>0.2980892464021325</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01540936177180748</v>
+        <v>0.02563640850561791</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1454326606971673</v>
+        <v>0.2998843723424967</v>
       </c>
       <c r="L248" t="n">
-        <v>0.0246799395394611</v>
+        <v>0.05613236473247016</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1431078017915277</v>
+        <v>0.3005442267007239</v>
       </c>
       <c r="N248" t="n">
-        <v>0.04180376936347724</v>
+        <v>0.08762301813523599</v>
       </c>
       <c r="O248" t="n">
-        <v>0.14264542626805</v>
+        <v>0.3006624801699403</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008099703897675746</v>
+        <v>0.01512265403993813</v>
       </c>
       <c r="G249" t="n">
-        <v>0.06303427588437215</v>
+        <v>0.2997181493879365</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01551829636688787</v>
+        <v>0.02545356092226879</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1462273746900479</v>
+        <v>0.3015230847596688</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0241209417202535</v>
+        <v>0.0556921722671139</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1438898116373831</v>
+        <v>0.3021865448794164</v>
       </c>
       <c r="N249" t="n">
-        <v>0.04167804732997143</v>
+        <v>0.08632579122722539</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1434249094717006</v>
+        <v>0.3023054445424537</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.007832664387340961</v>
+        <v>0.01388111368222411</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06294410896422352</v>
+        <v>0.3013470523737405</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01552821724928524</v>
+        <v>0.02506908810026266</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1470220886829286</v>
+        <v>0.3031617971768409</v>
       </c>
       <c r="L250" t="n">
-        <v>0.02376608980143624</v>
+        <v>0.05464840633629181</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1446718214832384</v>
+        <v>0.3038288630581089</v>
       </c>
       <c r="N250" t="n">
-        <v>0.04165906529047353</v>
+        <v>0.08492304515394394</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1442043926753511</v>
+        <v>0.303948408914967</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.007572711130787911</v>
+        <v>0.01363854363496347</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06285394204407489</v>
+        <v>0.3029759553595445</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01563917605659329</v>
+        <v>0.02458296766145217</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1478168026758093</v>
+        <v>0.304800509594013</v>
       </c>
       <c r="L251" t="n">
-        <v>0.02351544137735234</v>
+        <v>0.05390101760575244</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1454538313290938</v>
+        <v>0.3054711812368014</v>
       </c>
       <c r="N251" t="n">
-        <v>0.04214701243305213</v>
+        <v>0.08301470368316805</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1449838758790017</v>
+        <v>0.3055913732874803</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007320199802984206</v>
+        <v>0.01339493001230075</v>
       </c>
       <c r="G252" t="n">
-        <v>0.06276377512392625</v>
+        <v>0.3046048583453485</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01575122442640574</v>
+        <v>0.02439517722768995</v>
       </c>
       <c r="K252" t="n">
-        <v>0.14861151666869</v>
+        <v>0.3064392220111851</v>
       </c>
       <c r="L252" t="n">
-        <v>0.02326905404234489</v>
+        <v>0.05324995674124422</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1462358411749491</v>
+        <v>0.3071134994154939</v>
       </c>
       <c r="N252" t="n">
-        <v>0.041242077945776</v>
+        <v>0.08190069058267413</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1457633590826522</v>
+        <v>0.3072343376599937</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007075486078897519</v>
+        <v>0.01415025892838041</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06267360820377764</v>
+        <v>0.3062337613311525</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01556441399631628</v>
+        <v>0.02390569442082863</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1494062306615707</v>
+        <v>0.3080779344283572</v>
       </c>
       <c r="L253" t="n">
-        <v>0.02292698539075697</v>
+        <v>0.05229517440851558</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1470178510208044</v>
+        <v>0.3087558175941864</v>
       </c>
       <c r="N253" t="n">
-        <v>0.04174445101671392</v>
+        <v>0.08108092962023855</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1465428422863028</v>
+        <v>0.308877302032507</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.006838925633495384</v>
+        <v>0.01290451649734697</v>
       </c>
       <c r="G254" t="n">
-        <v>0.062583441283629</v>
+        <v>0.3078626643169565</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01577879640391866</v>
+        <v>0.02341449686272082</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1502009446544514</v>
+        <v>0.3097166468455294</v>
       </c>
       <c r="L254" t="n">
-        <v>0.02248929301693159</v>
+        <v>0.05163662127331506</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1477998608666598</v>
+        <v>0.3103981357728788</v>
       </c>
       <c r="N254" t="n">
-        <v>0.0411543208339345</v>
+        <v>0.07895534456363779</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1473223254899533</v>
+        <v>0.3105202664050203</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006610874141745465</v>
+        <v>0.01465768883334492</v>
       </c>
       <c r="G255" t="n">
-        <v>0.06249327436348038</v>
+        <v>0.3094915673027606</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01569442328680658</v>
+        <v>0.02312156217521916</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1509956586473321</v>
+        <v>0.3113553592627015</v>
       </c>
       <c r="L255" t="n">
-        <v>0.0222560345152118</v>
+        <v>0.05087424800139101</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1485818707125151</v>
+        <v>0.3120404539515713</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0418718765855064</v>
+        <v>0.07852385918064853</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1481018086936039</v>
+        <v>0.3121632307775337</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006391687278615325</v>
+        <v>0.01240976205051876</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06240310744333175</v>
+        <v>0.3111204702885645</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01571134628257374</v>
+        <v>0.02262686798017625</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1517903726402128</v>
+        <v>0.3129940716798736</v>
       </c>
       <c r="L256" t="n">
-        <v>0.02202726747994069</v>
+        <v>0.04930800525849202</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1493638805583705</v>
+        <v>0.3136827721302638</v>
       </c>
       <c r="N256" t="n">
-        <v>0.04089730745949838</v>
+        <v>0.07698639723904688</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1488812918972544</v>
+        <v>0.313806195150047</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006181720719072581</v>
+        <v>0.01416072226301299</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06231294052318312</v>
+        <v>0.3127493732743685</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01572961702881388</v>
+        <v>0.02213039189944478</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1525850866330935</v>
+        <v>0.3146327840970457</v>
       </c>
       <c r="L257" t="n">
-        <v>0.02180304950546136</v>
+        <v>0.04903784371036649</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1501458904042258</v>
+        <v>0.3153250903089563</v>
       </c>
       <c r="N257" t="n">
-        <v>0.04173080264397916</v>
+        <v>0.07524288250660949</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1496607751009049</v>
+        <v>0.3154491595225604</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.005981330138084884</v>
+        <v>0.0119105555849721</v>
       </c>
       <c r="G258" t="n">
-        <v>0.0622227736030345</v>
+        <v>0.3143782762601726</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0156492871631207</v>
+        <v>0.02193211155487731</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1533798006259742</v>
+        <v>0.3162714965142178</v>
       </c>
       <c r="L258" t="n">
-        <v>0.02098343818611678</v>
+        <v>0.04766371402276287</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1509279002500812</v>
+        <v>0.3169674084876488</v>
       </c>
       <c r="N258" t="n">
-        <v>0.04107255132701726</v>
+        <v>0.07439323875111276</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1504402583045555</v>
+        <v>0.3170921238950737</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.005790871210619795</v>
+        <v>0.01165924813054061</v>
       </c>
       <c r="G259" t="n">
-        <v>0.06213260668288587</v>
+        <v>0.3160071792459765</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01567040832308791</v>
+        <v>0.02133200456832653</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1541745146188549</v>
+        <v>0.3179102089313899</v>
       </c>
       <c r="L259" t="n">
-        <v>0.02056849111625006</v>
+        <v>0.04728556686142965</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1517099100959365</v>
+        <v>0.3186097266663412</v>
       </c>
       <c r="N259" t="n">
-        <v>0.04122274269668158</v>
+        <v>0.07243738974033315</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1512197415082061</v>
+        <v>0.318735088267587</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005610699611644926</v>
+        <v>0.011406786013863</v>
       </c>
       <c r="G260" t="n">
-        <v>0.06204243976273723</v>
+        <v>0.3176360822317806</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01589303214630926</v>
+        <v>0.021030048561645</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1549692286117356</v>
+        <v>0.319548921348562</v>
       </c>
       <c r="L260" t="n">
-        <v>0.02055826589020429</v>
+        <v>0.0465033528921153</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1524919199417918</v>
+        <v>0.3202520448450337</v>
       </c>
       <c r="N260" t="n">
-        <v>0.04128156594104088</v>
+        <v>0.07077525924204703</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1519992247118566</v>
+        <v>0.3203780526401003</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005441171016127927</v>
+        <v>0.01115315534908376</v>
       </c>
       <c r="G261" t="n">
-        <v>0.06195227284258861</v>
+        <v>0.3192649852175846</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01571721027037841</v>
+        <v>0.0206262211566854</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1557639426046163</v>
+        <v>0.3211876337657341</v>
       </c>
       <c r="L261" t="n">
-        <v>0.01995282010232247</v>
+        <v>0.0452170227805683</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1532739297876472</v>
+        <v>0.3218943630237262</v>
       </c>
       <c r="N261" t="n">
-        <v>0.0405492102481636</v>
+        <v>0.06980677102403104</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1527787079155071</v>
+        <v>0.3220210170126137</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005282641099036346</v>
+        <v>0.01289834225034741</v>
       </c>
       <c r="G262" t="n">
-        <v>0.06186210592243998</v>
+        <v>0.3208938882033885</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01594299433288912</v>
+        <v>0.02012049997530033</v>
       </c>
       <c r="K262" t="n">
-        <v>0.156558656597497</v>
+        <v>0.3228263461829062</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02005221134694765</v>
+        <v>0.0446265271925371</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1540559396335025</v>
+        <v>0.3235366812024187</v>
       </c>
       <c r="N262" t="n">
-        <v>0.04132586480611866</v>
+        <v>0.06833184885406141</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1535581911191577</v>
+        <v>0.323663981385127</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005135465535337849</v>
+        <v>0.01264233283179845</v>
       </c>
       <c r="G263" t="n">
-        <v>0.06177193900229136</v>
+        <v>0.3225227911891925</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01577043597143508</v>
+        <v>0.01991286263934242</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1573533705903777</v>
+        <v>0.3244650586000784</v>
       </c>
       <c r="L263" t="n">
-        <v>0.01925649721842296</v>
+        <v>0.04383181679377013</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1548379494793579</v>
+        <v>0.3251789993811112</v>
       </c>
       <c r="N263" t="n">
-        <v>0.04091171880297462</v>
+        <v>0.06695041649991473</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1543376743228083</v>
+        <v>0.3253069457576404</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01238511320758135</v>
       </c>
       <c r="G264" t="n">
-        <v>0.06168177208214273</v>
+        <v>0.3241516941749966</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01569958682361003</v>
+        <v>0.01950328677066432</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1581480845832584</v>
+        <v>0.3261037710172505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.01966573531109142</v>
+        <v>0.04223284225001586</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1556199593252132</v>
+        <v>0.3268213175598036</v>
       </c>
       <c r="N264" t="n">
-        <v>0.04140696142680023</v>
+        <v>0.06576239772936743</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1551171575264588</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.06166861418740588</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.00561172106408233</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.06166888271586989</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006219832341241419</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.06166915124433391</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006824289015905968</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.06166941977279793</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.00742504627242585</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.06166968830126195</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008022059295229908</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.06166995682972596</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.008615283268720637</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.06167022535818998</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009204673377326063</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.061670493886654</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.009790184805397374</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.06167076241511802</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01037177273736277</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.06167103094358203</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01094939235762472</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.06167129947204605</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.0115229988506106</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.06167156800051007</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01209254740067293</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.06167183652897409</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01265799319223925</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.0616721050574381</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01321929140971204</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.06167237358590211</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01377639723751791</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.06167264211436614</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01432926586001087</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.06167291064283015</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01487785246161773</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.06167317917129417</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01542211222674094</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.06167344769975819</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.0159620003398064</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.06167371622822221</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01649747198516958</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.06167398475668623</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01702848234725656</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.06167425328515024</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.0175549866104698</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.06167452181361426</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.0180769399592344</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.06167479034207828</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01859429757790741</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.0616750588705423</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.01910719764793732</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.06167532739900631</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.01961669333586596</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.06167559592747032</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02012292282314102</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.06167586445593435</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02062584129412089</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.06167613298439836</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02112540393323017</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06167640151286238</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02162156592487132</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.0616766700413264</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02211428245346821</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.06167693856979042</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.0226035087033804</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.06167720709825444</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02308919985903187</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.06167747562671845</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02357131110482513</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.06167774415518246</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02404979762518337</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06167801268364649</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02452461460446746</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.0616782812121105</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02499571722710075</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.06167854974057452</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.0254630606774857</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.06167881826903853</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02592660014004492</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.06167908679750256</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02638629079914049</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06167935532596657</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02684208783919518</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.06167962385443058</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02729394644461144</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.0616798923828946</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.02774182179981115</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.06168016091135863</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.02818566908915784</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.06168042943982264</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.0286254434970735</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.06168069796828666</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.02906110020796065</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06168096649675067</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.02949259440624046</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.0616812350252147</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.02991988127627782</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.06168150355367871</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03034291600249407</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.06168177208214273</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03034291600249408</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.06166861418740588</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03080462136681682</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.06175931816448254</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03126191900460693</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.0618500221415592</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03171468163383962</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.06194072611863586</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03216278197249007</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.06203143009571253</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03260609273853356</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.06212213407278919</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03304448664994516</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.06221283804986586</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03347783642470011</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06230354202694252</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03390601478077366</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06239424600401918</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03432889443614095</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06248494998109584</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.0347463481087772</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.06257565395817251</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03515824851665763</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.06266635793524916</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.0355644683777574</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.06275706191232583</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03596488041005175</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.06284776588940248</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03635935733151583</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06293846986647915</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.03674777186012495</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.06302917384355582</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.03712999671385416</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.06311987782063248</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.03750590461067873</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.06321058179770915</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.03787536826857384</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.0633012857747858</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.03823826040551469</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.06339198975186247</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.03859445373947652</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06348269372893912</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.03894382098843447</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.06357339770601579</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.03928623487036378</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.06366410168309244</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.03962156810323964</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.06375480566016911</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.03994969340503724</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.06384550963724578</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04027100322866643</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.06393621361432245</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04058848870170997</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.06402691759139911</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04090254227707767</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06411762156847577</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04121303667274478</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06420832554555243</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04151984460668646</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06429902952262909</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04182283879687792</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.06438973349970575</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04212189196129434</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06448043747678241</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04241687681791095</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06457114145385907</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04270766608470295</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.06466184543093574</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04299413247964552</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06475254940801239</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04327614872071388</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06484325338508908</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.0435535875258832</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06493395736216573</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.0438263216131287</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.0650246613392424</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.04409422370042553</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.06511536531631905</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04435716650574897</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06520606929339572</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04461502274707416</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06529677327047238</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.04486766514237629</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.06538747724754904</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04511496640963061</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.0654781812246257</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.04535679926681229</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06556888520170236</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04559303643189653</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06565958917877902</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.04582355062285855</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06575029315585569</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.04604821455767352</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06584099713293236</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.04626690095431663</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06593170111000901</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.04647948253076311</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06602240508708568</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.04668583200498814</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06611310906416235</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.0387905546699921</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06611310906416235</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.04679524935806791</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06793843522715581</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.04689637919320511</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.06976376139014927</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.04698954789073407</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.07158908755314274</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.04707508183098916</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.07341441371613619</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.04715330739430474</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.07523973987912966</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.0472245509610152</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.07706506604212311</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.04728913891145487</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.07889039220511658</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.04734739762595814</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.08071571836811003</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.04739965348485935</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.0825410445311035</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.0474462328684929</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.08436637069409696</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.04748746215719313</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.08619169685709042</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.0475236677312944</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.08801702302008389</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.04755517597113108</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.08984234918307736</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.04758231325703754</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.09166767534607081</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.04760540596934814</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.09349300150906428</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.04762478048839725</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.09531832767205775</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.04764076319451922</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.09714365383505121</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.04765368046804843</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.09896897999804466</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.04766385868931924</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.1007943061610381</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.04767162423866602</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.1026196323240316</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.04767730349642312</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.104444958487025</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.0476812228429249</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1062702846500185</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.04768370865850576</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.108095610813012</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.04768508732350003</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1099209369760054</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.04768568521824208</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1117462631389989</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.04768582872306628</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1135715893019924</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.04767232052720705</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1153969154649858</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.04759350980625836</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1172222416279793</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.04744880820061797</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1190475677909728</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.04724338297267874</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1208728939539662</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.04698240138483357</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1226982201169597</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.04667103069947535</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1245235462799531</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.04631443817899692</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1263488724429466</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.04591779108579121</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1281741986059401</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.04548625668225107</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1299995247689335</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.04502500223076939</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.131824850931927</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.04453919499373905</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1336501770949205</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.04403400223355295</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1354755032579139</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.04351459121260395</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1373008294209074</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04298612919328492</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1391261555839008</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04245378343798877</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1409514817468943</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04192272120910837</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1427768079098878</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04139810976903658</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1446021340728812</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04088511638016634</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1464274602358747</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04038890830489045</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1482527863988682</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.03991465280560185</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.03946751714469341</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1519034387248551</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.039052668584558</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1537287648878485</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.03867527438758852</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.155554091050842</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.03834050181617784</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1573794172138355</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.03803579921369107</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1592047433768289</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.03773600550612529</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1610300695398224</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.03744081332234945</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1628553957028159</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.03715020487177947</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1646807218658093</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.03686416236383128</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1665060480288028</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.03658266800792078</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1683313741917962</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.03630570401346393</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1701567003547897</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.0360332525898766</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1719820265177832</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.03576529594657474</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1738073526807767</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.03550181629297427</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1756326788437701</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.0352427958384911</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1774580050067636</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03498821679254115</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.179283331169757</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03473806136454034</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1811086573327505</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.0344923117639046</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1829339834957439</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03425095020004982</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1847593096587374</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03401395888239196</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1865846358217309</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03378132002034692</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1884099619847243</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03355301582333061</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1902352881477178</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03332902850075897</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1920606143107113</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03310934026204792</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1938859404737047</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03289393331661334</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1957112666366982</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03268278987387121</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1975365927996916</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03247589214323741</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1993619189626851</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03227322233412788</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.2011872451256786</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03207476265595851</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.203012571288672</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03188046534185394</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.2048378974516655</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03168909261409041</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.206663223614659</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03150007005827563</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.2084885497776524</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03131349089741723</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2103138759406459</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03112944835452289</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2121392021036393</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03094803565260031</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2139645282666328</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03076934601465712</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2157898544296263</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03059347266370106</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2176151805926198</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03042050882273974</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2194405067556132</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03025054771478086</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2212658329186067</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03008368256283209</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2230911590816001</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.02992000658990109</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2249164852445936</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.02975961301899555</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.226741811407587</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.02960259507312316</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2285671375705805</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.02944904597529156</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.230392463733574</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.02929905894850843</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2322177898965674</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.02915272721578146</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2340431160595609</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.02901014400011832</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2358684422225543</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.02887140252452667</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2376937683855478</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.02873659601201418</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2395190945485413</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.02860581768558856</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2413444207115348</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.02847916076825743</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2431697468745282</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.0283567184830285</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2449950730375217</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.02823858405290946</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2468203992005151</v>
-      </c>
-    </row>
+        <v>0.3269499101301537</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1265.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1265.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.002731862286736171</v>
+        <v>0.001189922737127508</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001628902985804003</v>
+        <v>0.0004975705621994555</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003532746957418155</v>
+        <v>0.001962916384002616</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001638712417172113</v>
+        <v>0.0008610834206919107</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.0105467579054831</v>
+        <v>0.005410850436740583</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001642318178692481</v>
+        <v>0.0008471292996320794</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01767961002554974</v>
+        <v>0.008620906801030948</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001642964372513335</v>
+        <v>0.0008414900216205448</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006197638667498021</v>
+        <v>0.002348988005929586</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003096495219248699</v>
+        <v>0.000995141124398911</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.003664140638485733</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003747187499999996</v>
+        <v>0.001722166841383821</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02249999999999999</v>
+        <v>0.01006941677364445</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003986369680851062</v>
+        <v>0.001694258599264159</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.0328268048560188</v>
+        <v>0.01682548416450053</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003527116640040514</v>
+        <v>0.00168298004324109</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.006073867711370348</v>
+        <v>0.003446338338080807</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004886708957412008</v>
+        <v>0.001492711686598367</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.009095235029833088</v>
+        <v>0.005500096073914162</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004916137251516339</v>
+        <v>0.002583250262075732</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02455715979946485</v>
+        <v>0.01504483183522387</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004926954536077442</v>
+        <v>0.002541387898896238</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03877957860394732</v>
+        <v>0.02480351230464845</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004928893117540006</v>
+        <v>0.002524470064861634</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007395228842586671</v>
+        <v>0.004451116265255739</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006515611943216012</v>
+        <v>0.001990282248797822</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01170519129570289</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006554849668688452</v>
+        <v>0.003747187499999996</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02913081503840781</v>
+        <v>0.01910622844599105</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006569272714769922</v>
+        <v>0.003388517198528318</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.04511134841507031</v>
+        <v>0.029842549869108</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00657185749005334</v>
+        <v>0.003241322603989802</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006197638667498021</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.009475205452846754</v>
+        <v>0.005332464319128948</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008144514929020014</v>
+        <v>0.002487852810997278</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01409210329699723</v>
+        <v>0.008130298499080327</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008193562085860565</v>
+        <v>0.004305417103459553</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03183048835033647</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008211590893462403</v>
+        <v>0.004163541666666664</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04960404644286093</v>
+        <v>0.03410376013524608</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008214821862566675</v>
+        <v>0.004207450108102724</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01115574960149644</v>
+        <v>0.006197638667498021</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009289485657746096</v>
+        <v>0.003096495219248699</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01619897244522532</v>
+        <v>0.009075163770952785</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009832274503032678</v>
+        <v>0.005166500524151465</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03500003968401236</v>
+        <v>0.02488599373052655</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009853909072154884</v>
+        <v>0.005082775797792476</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.05387805435603343</v>
+        <v>0.03803667875471278</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009857786235080011</v>
+        <v>0.005048940129723269</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.0113648869432016</v>
+        <v>0.006654694884009035</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01140232090062802</v>
+        <v>0.003482993935396189</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01765743719209541</v>
+        <v>0.01013165841169131</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01124156249999999</v>
+        <v>0.006027583944843375</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03867126846515573</v>
+        <v>0.02733598405083532</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01195910904255318</v>
+        <v>0.005929905097424556</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05968509973821601</v>
+        <v>0.04194523890623969</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01208770161290322</v>
+        <v>0.005890430151343814</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01326742651304824</v>
+        <v>0.007221070436022471</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01303122388643202</v>
+        <v>0.003980564497595644</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01928117730697779</v>
+        <v>0.01091189023120157</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.0131096993373769</v>
+        <v>0.006888667365535285</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04052906422677843</v>
+        <v>0.02893325805490049</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01313854542953984</v>
+        <v>0.006777034397056635</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.06172499783353846</v>
+        <v>0.04551263902977082</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01314371498010668</v>
+        <v>0.006731920172964359</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01213856700373408</v>
+        <v>0.007760625687507107</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01466012687223602</v>
+        <v>0.004478135059795101</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.0207411306868554</v>
+        <v>0.01162796703938917</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01474841175454902</v>
+        <v>0.007749750786227196</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04343546250839145</v>
+        <v>0.03073549698003428</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01478086360823233</v>
+        <v>0.007624163696688715</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.06680673953772709</v>
+        <v>0.04802207756525001</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01478667935262002</v>
+        <v>0.007573410194584904</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.0129732294061359</v>
+        <v>0.008271174673832128</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01628902985804003</v>
+        <v>0.004975705621994556</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02224496954812247</v>
+        <v>0.01249199664615978</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01638712417172113</v>
+        <v>0.008610834206919106</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04655776507139561</v>
+        <v>0.03250038206354894</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01642318178692481</v>
+        <v>0.008471292996320793</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07131775243426791</v>
+        <v>0.05075675295262128</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01642964372513335</v>
+        <v>0.008414900216205449</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01376633471113049</v>
+        <v>0.008750531430366755</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01791793284384403</v>
+        <v>0.005473276184194012</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.0235855979021813</v>
+        <v>0.01331608686141901</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01802583658889324</v>
+        <v>0.009471917627611017</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04946085139250928</v>
+        <v>0.03328559454275651</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01806549996561729</v>
+        <v>0.009318422295952873</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07490367332707687</v>
+        <v>0.05399986363182846</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01807260809764669</v>
+        <v>0.009256390237825993</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01451280390959465</v>
+        <v>0.009196509992480215</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01954683582964803</v>
+        <v>0.005970846746393466</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02485591976043428</v>
+        <v>0.01381234549507251</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01966454900606536</v>
+        <v>0.01033300104830293</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05200960094845089</v>
+        <v>0.03484881565496936</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01970781814430977</v>
+        <v>0.01016555159558495</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08011013902006975</v>
+        <v>0.05733460804281548</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01971557247016002</v>
+        <v>0.01009788025944654</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01520755799240513</v>
+        <v>0.009606924395541699</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02117573881545204</v>
+        <v>0.006468417308592922</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02594883913428378</v>
+        <v>0.01449288035702594</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02130326142323747</v>
+        <v>0.01119408446899484</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05486889321593877</v>
+        <v>0.03694772663749959</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02135013632300225</v>
+        <v>0.01101268089521703</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08438278631716267</v>
+        <v>0.05968509973821601</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02135853684267336</v>
+        <v>0.010804408679966</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01784551795043875</v>
+        <v>0.009979588674920443</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02280464180125604</v>
+        <v>0.006965987870792378</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02685726003513214</v>
+        <v>0.01526979925718489</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02294197384040958</v>
+        <v>0.01205516788968675</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05720360767169136</v>
+        <v>0.03867126846515573</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02299245450169473</v>
+        <v>0.01192662500426137</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0885672520222715</v>
+        <v>0.06226649429149134</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02300150121518669</v>
+        <v>0.01178086030268763</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01842160477457228</v>
+        <v>0.01031231686598564</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02443354478706004</v>
+        <v>0.007463558432991835</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02817408647438174</v>
+        <v>0.01585521000545505</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02458068625758169</v>
+        <v>0.01291625131037866</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05947862379242705</v>
+        <v>0.03995341316450873</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02463477268038721</v>
+        <v>0.01270693949448119</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09170917293931213</v>
+        <v>0.06598454459656455</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02464446558770003</v>
+        <v>0.01262235032430817</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01793073945568251</v>
+        <v>0.01060292300410652</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02606244777286405</v>
+        <v>0.007961128995191288</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02879222246343495</v>
+        <v>0.01676122041174202</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02621939867475381</v>
+        <v>0.01377733473107057</v>
       </c>
       <c r="L81" t="n">
-        <v>0.06175882105486416</v>
+        <v>0.04206110655133954</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02627709085907969</v>
+        <v>0.01355406879411327</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0958541858722004</v>
+        <v>0.06847945404730499</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02628742996021336</v>
+        <v>0.01346384034592872</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01736784298464621</v>
+        <v>0.01084922112465227</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02769135075866805</v>
+        <v>0.008458699557390745</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02970457201369411</v>
+        <v>0.01765743719209541</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02785811109192592</v>
+        <v>0.01470349509516778</v>
       </c>
       <c r="L82" t="n">
-        <v>0.06400907893572119</v>
+        <v>0.04394890901440851</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02791940903777217</v>
+        <v>0.01440119809374535</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09874792762485224</v>
+        <v>0.07153277071065778</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0279303943327267</v>
+        <v>0.01430533036754926</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01972783635234018</v>
+        <v>0.01104902526299212</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02932025374447205</v>
+        <v>0.008956270119590201</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03050403913656162</v>
+        <v>0.01808390573102249</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02949682350909803</v>
+        <v>0.01549950157245439</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06579427691171641</v>
+        <v>0.04570278576331982</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02956172721646465</v>
+        <v>0.01524832739337743</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1018360350011836</v>
+        <v>0.07502604265356827</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02957335870524003</v>
+        <v>0.01514682038916981</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01901158398589184</v>
+        <v>0.01115574960149644</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03094915673027605</v>
+        <v>0.009289485657746096</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03108352784343982</v>
+        <v>0.01891410354823635</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03113553592627015</v>
+        <v>0.0163605849931463</v>
       </c>
       <c r="L84" t="n">
-        <v>0.06717929445956833</v>
+        <v>0.04730870200767767</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03120404539515713</v>
+        <v>0.01609545669300951</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1033641448051104</v>
+        <v>0.07774081794298154</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03121632307775337</v>
+        <v>0.01598831041079035</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01827396473027269</v>
+        <v>0.01134393760187138</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03257805971608006</v>
+        <v>0.009951411243989112</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03164170124922829</v>
+        <v>0.01978369491011918</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03277424834344226</v>
+        <v>0.01722166841383821</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06892901105599519</v>
+        <v>0.0498526229570862</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03284636357384961</v>
+        <v>0.01694258599264159</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1051778938405485</v>
+        <v>0.08155864464584278</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0328592874502667</v>
+        <v>0.0168298004324109</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01952812366466589</v>
+        <v>0.01148316542318629</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03420696270188406</v>
+        <v>0.01044898180618857</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03196037073685007</v>
+        <v>0.02078582203225206</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03441296076061438</v>
+        <v>0.01808275183453012</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06945882468982292</v>
+        <v>0.05132051382114972</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0344886817525421</v>
+        <v>0.01778971529227367</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1070207080734641</v>
+        <v>0.08496107082909721</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03450225182278004</v>
+        <v>0.01767129045403144</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01877234130335077</v>
+        <v>0.01162048040162906</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03583586568768806</v>
+        <v>0.01094655236838802</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03216606759338043</v>
+        <v>0.02181362713021609</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03605167317778649</v>
+        <v>0.01894383525522203</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0700611334222678</v>
+        <v>0.05339833980947237</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03613099993123457</v>
+        <v>0.01863684459190575</v>
       </c>
       <c r="N87" t="n">
-        <v>0.109117001924796</v>
+        <v>0.08832964455968989</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03614521619529337</v>
+        <v>0.01851278047565199</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02100489816060667</v>
+        <v>0.01175588613054058</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03746476867349206</v>
+        <v>0.01144412293058748</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03285602073245325</v>
+        <v>0.02286025241959234</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0376903855949586</v>
+        <v>0.01980491867591394</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0715311842255372</v>
+        <v>0.0561720661316584</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03777331810992705</v>
+        <v>0.01948397389153782</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1096641269773306</v>
+        <v>0.0903459139045662</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03778818056780671</v>
+        <v>0.01935427049727253</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01922407475071294</v>
+        <v>0.01188938620326178</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03909367165929607</v>
+        <v>0.01194169349278693</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03322745906770244</v>
+        <v>0.02371884011596188</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03932909801213071</v>
+        <v>0.02066600209660586</v>
       </c>
       <c r="L89" t="n">
-        <v>0.07236286803843248</v>
+        <v>0.058227657997312</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03941563628861953</v>
+        <v>0.02033110319116991</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1112526433935416</v>
+        <v>0.09369142693067117</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03943114494032005</v>
+        <v>0.02019576051889307</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02042815158794888</v>
+        <v>0.01202098421313356</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04072257464510008</v>
+        <v>0.01243926405498639</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03337761151276183</v>
+        <v>0.02478253243490582</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04096781042930282</v>
+        <v>0.02152708551729777</v>
       </c>
       <c r="L90" t="n">
-        <v>0.07255007579975498</v>
+        <v>0.06015108061603738</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04105795446731202</v>
+        <v>0.02117823249080198</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1120731113359024</v>
+        <v>0.09644773170494997</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04107410931283337</v>
+        <v>0.02103725054051362</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02061540918659387</v>
+        <v>0.01215068375349683</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04235147763090407</v>
+        <v>0.01293683461718584</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03370370698126536</v>
+        <v>0.02574447159200519</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04260652284647494</v>
+        <v>0.02238816893798968</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07388669844830609</v>
+        <v>0.06152829919743874</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0427002726460045</v>
+        <v>0.02202536179043406</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1141160909668866</v>
+        <v>0.09969637629434797</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04271707368534671</v>
+        <v>0.02187874056213417</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02078412806092721</v>
+        <v>0.01227848841769247</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04398038061670808</v>
+        <v>0.0134344051793853</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03420297438684686</v>
+        <v>0.02669779980284109</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04424523526364705</v>
+        <v>0.02324925235868159</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07446662692288711</v>
+        <v>0.06414527895112029</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04434259082469698</v>
+        <v>0.02287249109006614</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1149721424489675</v>
+        <v>0.1026189087658101</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04436003805786005</v>
+        <v>0.02272023058375471</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01993258872522825</v>
+        <v>0.01240440179906142</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04560928360251208</v>
+        <v>0.01393197574158476</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03437264264314024</v>
+        <v>0.02743565928299461</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04588394768081917</v>
+        <v>0.0241103357793735</v>
       </c>
       <c r="L93" t="n">
-        <v>0.07498375216229947</v>
+        <v>0.06528798508668626</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04598490900338945</v>
+        <v>0.02371962038969823</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1155318259446189</v>
+        <v>0.1051968771862817</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04600300243037338</v>
+        <v>0.02356172060537525</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02205907169377632</v>
+        <v>0.01252842749094458</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04723818658831608</v>
+        <v>0.01442954630378421</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03450994066377934</v>
+        <v>0.02835119224804683</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04752266009799128</v>
+        <v>0.02497141920006541</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07533196510534437</v>
+        <v>0.06724238281374081</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04762722718208194</v>
+        <v>0.0245667496893303</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1169857016163142</v>
+        <v>0.107911829622708</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04764596680288672</v>
+        <v>0.0244032106269958</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02116185748085076</v>
+        <v>0.01265056908668285</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04886708957412009</v>
+        <v>0.01492711686598367</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03491209736239807</v>
+        <v>0.02943754091357882</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04916137251516339</v>
+        <v>0.02583250262075732</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07610515669082335</v>
+        <v>0.06909443734188819</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04926954536077442</v>
+        <v>0.02541387898896238</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1172243296265268</v>
+        <v>0.109845314142034</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04928893117540006</v>
+        <v>0.02524470064861635</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0202392266007309</v>
+        <v>0.01277083017961713</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05049599255992408</v>
+        <v>0.01542468742818312</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03487634165263033</v>
+        <v>0.02998784749517162</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0508000849323355</v>
+        <v>0.02669358604144923</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07609721785753762</v>
+        <v>0.07023011388073255</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0509118635394669</v>
+        <v>0.02626100828859446</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1179382701377304</v>
+        <v>0.1114788788112049</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05093189554791339</v>
+        <v>0.02608619067023689</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02231149920299288</v>
+        <v>0.01288921436308835</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05212489554572809</v>
+        <v>0.01592225799038258</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03519990244810994</v>
+        <v>0.03109525420840638</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05243879734950761</v>
+        <v>0.02755466946214114</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07670203954428859</v>
+        <v>0.07233537763987818</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05255418171815938</v>
+        <v>0.02710813758822654</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1184180833123985</v>
+        <v>0.1135940716971661</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05257485992042672</v>
+        <v>0.02692768069185743</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02231083689602565</v>
+        <v>0.01300572523043738</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05375379853153209</v>
+        <v>0.01641982855258203</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03531487438419083</v>
+        <v>0.03185290326886416</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05407750976667972</v>
+        <v>0.02841575288283305</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07671351268987753</v>
+        <v>0.07359619382892924</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05419649989685186</v>
+        <v>0.02795526688785862</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1183543293130046</v>
+        <v>0.1152724408668625</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05421782429294007</v>
+        <v>0.02776917071347798</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0213068116261251</v>
+        <v>0.01312036637500515</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0553827015173361</v>
+        <v>0.01691739911478149</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03531388920934687</v>
+        <v>0.032553936892126</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05571622218385184</v>
+        <v>0.02927683630352496</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07734253693031146</v>
+        <v>0.07469852765748991</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05583881807554434</v>
+        <v>0.0288023961874907</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1193701994764321</v>
+        <v>0.1158955343872396</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0558607886654534</v>
+        <v>0.02861066073509852</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0222880089949888</v>
+        <v>0.01323314139013258</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0570116045031401</v>
+        <v>0.01741496967698095</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03500722329677833</v>
+        <v>0.03299149729377301</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05735493460102395</v>
+        <v>0.03013791972421687</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0772374484803445</v>
+        <v>0.07562834433516447</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05748113625423683</v>
+        <v>0.02964952548712278</v>
       </c>
       <c r="N100" t="n">
-        <v>0.118664480311627</v>
+        <v>0.1171449003252422</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05750375303796673</v>
+        <v>0.02945215075671907</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02225567031189891</v>
+        <v>0.01334405386916055</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05864050748894409</v>
+        <v>0.0179125402391804</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03517694125564082</v>
+        <v>0.03355872668938624</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05899364701819607</v>
+        <v>0.03099900314490878</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07688886823930771</v>
+        <v>0.07627160907155703</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0591234544329293</v>
+        <v>0.03049665478675486</v>
       </c>
       <c r="N101" t="n">
-        <v>0.118394489008139</v>
+        <v>0.1181020867478158</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05914671741048007</v>
+        <v>0.03029364077833962</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0222107017954174</v>
+        <v>0.01345310740542999</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06026941047474811</v>
+        <v>0.01841011080137986</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03512500209122894</v>
+        <v>0.03424876729454683</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06063235943536818</v>
+        <v>0.03186008656560069</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07679149589975076</v>
+        <v>0.07671428707627184</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06076577261162178</v>
+        <v>0.03134378408638694</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1187488139306904</v>
+        <v>0.1193701994764321</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0607896817829934</v>
+        <v>0.03113513079996015</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02015400966410629</v>
+        <v>0.01356030559228178</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06189831346055211</v>
+        <v>0.01890768136357931</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0350528662459714</v>
+        <v>0.0346547613248358</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06227107185254029</v>
+        <v>0.0327211699862926</v>
       </c>
       <c r="L103" t="n">
-        <v>0.07674855111310086</v>
+        <v>0.07734253693031146</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06240809079031426</v>
+        <v>0.03219091338601902</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1178324301458875</v>
+        <v>0.1187701994764321</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06243264615550673</v>
+        <v>0.0319766208215807</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02108650013652761</v>
+        <v>0.01366565202305686</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0635272164463561</v>
+        <v>0.01940525192577877</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03496199416229681</v>
+        <v>0.03466985099583426</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0639097842697124</v>
+        <v>0.03358225340698451</v>
       </c>
       <c r="L104" t="n">
-        <v>0.07616325353078524</v>
+        <v>0.07664253693031145</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06405040896900674</v>
+        <v>0.0330380426856511</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1175503127203363</v>
+        <v>0.118570199476432</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06407561052802006</v>
+        <v>0.03281811084320125</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02200907943124334</v>
+        <v>0.0137691502910961</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06515611943216011</v>
+        <v>0.01990282248797822</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03475384628263382</v>
+        <v>0.03498717852312326</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06554849668688452</v>
+        <v>0.03444333682767643</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07603882280423116</v>
+        <v>0.07714253693031145</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06569272714769922</v>
+        <v>0.03388517198528317</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1173074367206434</v>
+        <v>0.1193701994764321</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0657185749005334</v>
+        <v>0.0336596008648218</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01992265376681549</v>
+        <v>0.01387080398974044</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06678502241796412</v>
+        <v>0.02040039305017768</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03462988304941109</v>
+        <v>0.03531487438419083</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06718720910405664</v>
+        <v>0.03530442024836834</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07587847858486585</v>
+        <v>0.07684253693031146</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06733504532639172</v>
+        <v>0.03473230128491525</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1168087772134149</v>
+        <v>0.1188701994764321</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06736153927304674</v>
+        <v>0.03450109088644233</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02082812936180609</v>
+        <v>0.01397061671233077</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06841392540376812</v>
+        <v>0.02089796361237713</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03469156490505726</v>
+        <v>0.03511487438419082</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06882592152122875</v>
+        <v>0.03616550366906025</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07608544052411659</v>
+        <v>0.07684253693031146</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0689773635050842</v>
+        <v>0.03557943058454734</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1170593092652571</v>
+        <v>0.1183701994764321</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06900450364556007</v>
+        <v>0.03534258090806288</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01972641243477712</v>
+        <v>0.01406859205220799</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07004282838957211</v>
+        <v>0.02139553417457659</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03424035229200094</v>
+        <v>0.03521487438419083</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07046463393840086</v>
+        <v>0.03702658708975216</v>
       </c>
       <c r="L108" t="n">
-        <v>0.0753629282734106</v>
+        <v>0.07684253693031146</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07061968168377666</v>
+        <v>0.03642655988417941</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1160640079427763</v>
+        <v>0.118570199476432</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07064746801807341</v>
+        <v>0.03618407092968343</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02161840920429062</v>
+        <v>0.01416473360271303</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07167173137537612</v>
+        <v>0.02189310473677605</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03437770565267081</v>
+        <v>0.03521487438419083</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07210334635557297</v>
+        <v>0.03788767051044407</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07531416148417514</v>
+        <v>0.07664253693031145</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07226199986246915</v>
+        <v>0.03727368918381149</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1162278483125788</v>
+        <v>0.1193701994764321</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07229043239058675</v>
+        <v>0.03702556095130397</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01950502588890857</v>
+        <v>0.01425904495718678</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07330063436118013</v>
+        <v>0.0223906752989755</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03420508542949552</v>
+        <v>0.03501487438419083</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07374205877274508</v>
+        <v>0.03874875393113598</v>
       </c>
       <c r="L110" t="n">
-        <v>0.07444235980783742</v>
+        <v>0.07684253693031146</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07390431804116164</v>
+        <v>0.03812081848344357</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1151558054412707</v>
+        <v>0.1191701994764321</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07393339676310008</v>
+        <v>0.03786705097292451</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02038716870719303</v>
+        <v>0.01435152970897014</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07492953734698413</v>
+        <v>0.02288824586117496</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0340239520649037</v>
+        <v>0.03511487438419082</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07538077118991719</v>
+        <v>0.03960983735182789</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07435074289582472</v>
+        <v>0.07714253693031145</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07554663621985411</v>
+        <v>0.03896794778307565</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1150528543954586</v>
+        <v>0.119070199476432</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07557636113561342</v>
+        <v>0.03870854099454506</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01926574387770594</v>
+        <v>0.01444219145140404</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07655844033278814</v>
+        <v>0.02338581642337441</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03353576600132402</v>
+        <v>0.03531487438419083</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07701948360708931</v>
+        <v>0.0404709207725198</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07414253039956428</v>
+        <v>0.07724253693031147</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07718895439854659</v>
+        <v>0.03981507708270773</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1146239702417485</v>
+        <v>0.1192701994764321</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07721932550812675</v>
+        <v>0.03955003101616561</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02014165761900936</v>
+        <v>0.01453103377782936</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07818734331859213</v>
+        <v>0.02388338698557387</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0333419876811851</v>
+        <v>0.03531487438419083</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07865819602426143</v>
+        <v>0.04133200419321172</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07332094197048336</v>
+        <v>0.07714253693031145</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07883127257723907</v>
+        <v>0.04066220638233981</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1131741280467467</v>
+        <v>0.1182701994764321</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07886228988064009</v>
+        <v>0.04039152103778615</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02101581614966528</v>
+        <v>0.01461806028158703</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07981624630439614</v>
+        <v>0.02438095754777332</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03334407754691558</v>
+        <v>0.03511487438419082</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08029690844143353</v>
+        <v>0.04219308761390363</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0730891972600092</v>
+        <v>0.07684253693031146</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08047359075593155</v>
+        <v>0.04150933568197189</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1125083028770597</v>
+        <v>0.1188701994764321</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08050525425315343</v>
+        <v>0.04123301105940669</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02088912568823571</v>
+        <v>0.01470327455601794</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08144514929020015</v>
+        <v>0.02487852810997278</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03304349604094411</v>
+        <v>0.03521487438419083</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08193562085860565</v>
+        <v>0.04305417103459554</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07275051591956902</v>
+        <v>0.07674253693031147</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08211590893462403</v>
+        <v>0.04235646498160397</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1118314697992935</v>
+        <v>0.1184701994764321</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08214821862566675</v>
+        <v>0.04207450108102724</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02076249245328265</v>
+        <v>0.01478668019446302</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08307405227600415</v>
+        <v>0.02537609867217223</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03294170360569937</v>
+        <v>0.03531487438419083</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08357433327577776</v>
+        <v>0.04391525445528745</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07200811760059009</v>
+        <v>0.07724253693031147</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08375822711331651</v>
+        <v>0.04320359428123605</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1119486038800545</v>
+        <v>0.118570199476432</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08379118299818009</v>
+        <v>0.04291599110264779</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01863682266336812</v>
+        <v>0.01486828079026314</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08470295526180814</v>
+        <v>0.02587366923437169</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03264016068360998</v>
+        <v>0.03511487438419082</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08521304569294988</v>
+        <v>0.04477633787597936</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07146522195449964</v>
+        <v>0.07734253693031146</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08540054529200899</v>
+        <v>0.04405072358086812</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1101646801859489</v>
+        <v>0.119070199476432</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08543414737069342</v>
+        <v>0.04375748112426833</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02051044780927175</v>
+        <v>0.01494807993675925</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08633185824761215</v>
+        <v>0.02637123979657115</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03244032771710458</v>
+        <v>0.03531487438419083</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08685175811012198</v>
+        <v>0.04563742129667127</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07132504863272493</v>
+        <v>0.07664253693031145</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08704286347070148</v>
+        <v>0.04489785288050021</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1099846737835832</v>
+        <v>0.1193701994764321</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08707711174320676</v>
+        <v>0.04459897114588887</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02036771721280533</v>
+        <v>0.01502608122729221</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08796076123341616</v>
+        <v>0.0268688103587706</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03243713254618033</v>
+        <v>0.03521487438419083</v>
       </c>
       <c r="K119" t="n">
-        <v>0.0884904705272941</v>
+        <v>0.04649850471736318</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07088770464576555</v>
+        <v>0.07704253693031146</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08868518164939396</v>
+        <v>0.04574498218013229</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1095105323093646</v>
+        <v>0.1184701994764321</v>
       </c>
       <c r="O119" t="n">
-        <v>0.0887200761157201</v>
+        <v>0.04544046116750942</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01920827417191718</v>
+        <v>0.01510228825520296</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08958966421922016</v>
+        <v>0.02736638092097006</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03200613904417406</v>
+        <v>0.03511487438419082</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09012918294446622</v>
+        <v>0.04735958813805509</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07060113175606664</v>
+        <v>0.07684253693031146</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09032749982808644</v>
+        <v>0.04659211147976437</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1087650887366412</v>
+        <v>0.1187701994764321</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09036304048823343</v>
+        <v>0.04628195118912997</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01803507125500737</v>
+        <v>0.01517670461383241</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09121856720502416</v>
+        <v>0.02786395148316951</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03184900154588949</v>
+        <v>0.03521487438419083</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09176789536163833</v>
+        <v>0.048220671558747</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07015373258457425</v>
+        <v>0.07664253693031145</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09196981800677891</v>
+        <v>0.04743924077939645</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1083247741607656</v>
+        <v>0.1183701994764321</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09200600486074677</v>
+        <v>0.04712344121075051</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01785106103047596</v>
+        <v>0.01524933389652144</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09284747019082816</v>
+        <v>0.02836152204536897</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0316704783473335</v>
+        <v>0.03511487438419082</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09340660777881045</v>
+        <v>0.04908175497943891</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0695559971405002</v>
+        <v>0.07694253693031144</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0936121361854714</v>
+        <v>0.04828637007902853</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1066057979434368</v>
+        <v>0.1192701994764321</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09364896923326009</v>
+        <v>0.04796493123237106</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01765919606672302</v>
+        <v>0.01532017969661098</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09447637317663216</v>
+        <v>0.02885909260756843</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03107532774451291</v>
+        <v>0.03511487438419082</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09504532019598255</v>
+        <v>0.04994283840013082</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06871841543305615</v>
+        <v>0.07674253693031147</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09525445436416388</v>
+        <v>0.04913349937866061</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1057243694463537</v>
+        <v>0.1186701994764321</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09529193360577344</v>
+        <v>0.0488064212539916</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.0174624289321486</v>
+        <v>0.01538924560744192</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09610527616243617</v>
+        <v>0.02935666316976788</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03086830803343456</v>
+        <v>0.03531487438419083</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09668403261315466</v>
+        <v>0.05080392182082273</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06755147747145385</v>
+        <v>0.07704253693031146</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09689677254285635</v>
+        <v>0.04998062867829269</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1049966980312151</v>
+        <v>0.1193701994764321</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09693489797828678</v>
+        <v>0.04964791127561215</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01726371219515278</v>
+        <v>0.01545653522235518</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09773417914824017</v>
+        <v>0.02985423373196734</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03055417751010528</v>
+        <v>0.03531487438419083</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09832274503032677</v>
+        <v>0.05166500524151464</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06736567326490497</v>
+        <v>0.07664253693031145</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09853909072154883</v>
+        <v>0.05082775797792476</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1034389930597201</v>
+        <v>0.1188701994764321</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09857786235080011</v>
+        <v>0.05048940129723269</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01806599842413562</v>
+        <v>0.01552205213469166</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09936308213404417</v>
+        <v>0.03035180429416679</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03033769447053196</v>
+        <v>0.03531487438419083</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09996145744749889</v>
+        <v>0.05252608866220655</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06617149282262133</v>
+        <v>0.07694253693031144</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1001814089002413</v>
+        <v>0.05167488727755685</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1029674638935676</v>
+        <v>0.1192701994764321</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1002208267233134</v>
+        <v>0.05133089131885323</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01687224018749719</v>
+        <v>0.01558579993779227</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1009919851198482</v>
+        <v>0.03084937485636624</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0298236172107214</v>
+        <v>0.03511487438419082</v>
       </c>
       <c r="K127" t="n">
-        <v>0.101600169864671</v>
+        <v>0.05338717208289846</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06547942615381452</v>
+        <v>0.07734253693031146</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1018237270789338</v>
+        <v>0.05252201657718893</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1019983198944567</v>
+        <v>0.118570199476432</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1018637910958268</v>
+        <v>0.05217238134047378</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01668539005363754</v>
+        <v>0.01564778222499792</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1026208881056522</v>
+        <v>0.0313469454185657</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02951670402668045</v>
+        <v>0.03501487438419083</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1032388822818431</v>
+        <v>0.05424825550359037</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06489996326769643</v>
+        <v>0.07724253693031147</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1034660452576263</v>
+        <v>0.053369145876821</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1002477704240862</v>
+        <v>0.118570199476432</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1035067554683401</v>
+        <v>0.05301387136209432</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01750635023058515</v>
+        <v>0.0157080025896495</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1042497910914562</v>
+        <v>0.03184451598076515</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02952171321441593</v>
+        <v>0.03501487438419083</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1048775946990152</v>
+        <v>0.05510933892428228</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06474359417347864</v>
+        <v>0.07704253693031146</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1051083634363188</v>
+        <v>0.05421627517645308</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09963202484415501</v>
+        <v>0.1189701994764321</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1051497198408534</v>
+        <v>0.05385536138371487</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01731470263058828</v>
+        <v>0.01576646462508794</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1058786940772602</v>
+        <v>0.03234208654296461</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02923568322798921</v>
+        <v>0.03501487438419083</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1065163071161873</v>
+        <v>0.05597042234497419</v>
       </c>
       <c r="L130" t="n">
-        <v>0.0636172419199387</v>
+        <v>0.07694253693031144</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1067506816150112</v>
+        <v>0.05506340447608517</v>
       </c>
       <c r="N130" t="n">
-        <v>0.09806386920207549</v>
+        <v>0.1182701994764321</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1067926842133668</v>
+        <v>0.05469685140533541</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01710779775431564</v>
+        <v>0.01582317192465413</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1075075970630642</v>
+        <v>0.03283965710516407</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02882522468765504</v>
+        <v>0.03501487438419083</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1081550195333594</v>
+        <v>0.0568315057656661</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06315354862226208</v>
+        <v>0.07664253693031145</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1083929997937037</v>
+        <v>0.05591053377571724</v>
       </c>
       <c r="N131" t="n">
-        <v>0.09784424151525117</v>
+        <v>0.1189701994764321</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1084356485858801</v>
+        <v>0.05553834142695595</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01788986220429687</v>
+        <v>0.01587812808168899</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1091365000488682</v>
+        <v>0.03333722766736352</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02849167281238446</v>
+        <v>0.03521487438419083</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1097937319505316</v>
+        <v>0.05769258918635801</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06213467127720004</v>
+        <v>0.07674253693031147</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1100353179723962</v>
+        <v>0.05675766307534932</v>
       </c>
       <c r="N132" t="n">
-        <v>0.09683816213691354</v>
+        <v>0.1193701994764321</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1100786129583935</v>
+        <v>0.05637983144857651</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01766512258306163</v>
+        <v>0.01593133668953342</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1107654030346722</v>
+        <v>0.03383479822956298</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02794183910430525</v>
+        <v>0.03531487438419083</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1114324443677037</v>
+        <v>0.05855367260704993</v>
       </c>
       <c r="L133" t="n">
-        <v>0.0614756263360122</v>
+        <v>0.07664253693031145</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1116776361510887</v>
+        <v>0.0576047923749814</v>
       </c>
       <c r="N133" t="n">
-        <v>0.0957688347730829</v>
+        <v>0.118570199476432</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1117215773309068</v>
+        <v>0.05722132147019705</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01743780549313956</v>
+        <v>0.01598280134152832</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1123943060204762</v>
+        <v>0.03433236879176244</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0275825350655451</v>
+        <v>0.03501487438419083</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1130711567848758</v>
+        <v>0.05941475602774184</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06099143024995815</v>
+        <v>0.07664253693031145</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1133199543297812</v>
+        <v>0.05845192167461348</v>
       </c>
       <c r="N134" t="n">
-        <v>0.09395946312977999</v>
+        <v>0.118570199476432</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1133645417034201</v>
+        <v>0.05806281149181759</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01521213753706031</v>
+        <v>0.01603252563101461</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1140232090062802</v>
+        <v>0.03482993935396189</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02732057219823178</v>
+        <v>0.03511487438419082</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1147098692020479</v>
+        <v>0.06027583944843375</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05989709947029762</v>
+        <v>0.07704253693031146</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1149622725084737</v>
+        <v>0.05929905097424555</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09343325091302529</v>
+        <v>0.118570199476432</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1150075060759335</v>
+        <v>0.05890430151343815</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01499234531735354</v>
+        <v>0.01608051315133318</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1156521119920842</v>
+        <v>0.03532750991616135</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02696276200449302</v>
+        <v>0.03511487438419082</v>
       </c>
       <c r="K136" t="n">
-        <v>0.11634858161922</v>
+        <v>0.06113692286912566</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05910765044829019</v>
+        <v>0.07664253693031145</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1166045906871661</v>
+        <v>0.06014618027387764</v>
       </c>
       <c r="N136" t="n">
-        <v>0.0919134018288395</v>
+        <v>0.1193701994764321</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1166504704484468</v>
+        <v>0.05974579153505868</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01578265543654891</v>
+        <v>0.01612676749582496</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1172810149778882</v>
+        <v>0.0358250804783608</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02671591598645658</v>
+        <v>0.03521487438419083</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1179872940363921</v>
+        <v>0.06199800628981757</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05843809963519553</v>
+        <v>0.07734253693031146</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1182469088658586</v>
+        <v>0.06099330957350972</v>
       </c>
       <c r="N137" t="n">
-        <v>0.09042311958324328</v>
+        <v>0.1192701994764321</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1182934348209601</v>
+        <v>0.06058728155667923</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01458729449717605</v>
+        <v>0.01617129225783083</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1189099179636922</v>
+        <v>0.03632265104056026</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0262868456462502</v>
+        <v>0.03521487438419083</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1196260064535642</v>
+        <v>0.06285908971050948</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05780346348227322</v>
+        <v>0.07724253693031147</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1198892270445511</v>
+        <v>0.06184043887314179</v>
       </c>
       <c r="N138" t="n">
-        <v>0.08958560788225717</v>
+        <v>0.1186701994764321</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1199363991934735</v>
+        <v>0.06142877157829977</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01441048910176464</v>
+        <v>0.01621409103069171</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1205388209494962</v>
+        <v>0.03682022160275972</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0260823624860016</v>
+        <v>0.03501487438419083</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1212647188707364</v>
+        <v>0.06372017313120139</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05721875844078303</v>
+        <v>0.07704253693031146</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1215315452232436</v>
+        <v>0.06268756817277388</v>
       </c>
       <c r="N139" t="n">
-        <v>0.08772407043190172</v>
+        <v>0.1192701994764321</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1215793635659868</v>
+        <v>0.06227026159992031</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01425646585284428</v>
+        <v>0.01625516740774852</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1221677239353002</v>
+        <v>0.03731779216495917</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02590927800783856</v>
+        <v>0.03511487438419082</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1229034312879085</v>
+        <v>0.0645812565518933</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0568990009619845</v>
+        <v>0.07714253693031145</v>
       </c>
       <c r="M140" t="n">
-        <v>0.123173863401936</v>
+        <v>0.06353469747240595</v>
       </c>
       <c r="N140" t="n">
-        <v>0.08676171093819757</v>
+        <v>0.1182701994764321</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1232223279385001</v>
+        <v>0.06311175162154087</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01512945135294468</v>
+        <v>0.01629452498234215</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1237966269211042</v>
+        <v>0.03781536272715862</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02567440371388877</v>
+        <v>0.03521487438419083</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1245421437050806</v>
+        <v>0.06544233997258521</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05575920749713728</v>
+        <v>0.07694253693031144</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1248161815806285</v>
+        <v>0.06438182677203803</v>
       </c>
       <c r="N141" t="n">
-        <v>0.08702173310716532</v>
+        <v>0.1184701994764321</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1248652923110135</v>
+        <v>0.06395324164316141</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01503367220459547</v>
+        <v>0.01633216734781351</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1254255299069082</v>
+        <v>0.03831293328935808</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02518455110628</v>
+        <v>0.03521487438419083</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1261808561222527</v>
+        <v>0.06630342339327712</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05521439449750101</v>
+        <v>0.07674253693031147</v>
       </c>
       <c r="M142" t="n">
-        <v>0.126458499759321</v>
+        <v>0.06522895607167012</v>
       </c>
       <c r="N142" t="n">
-        <v>0.08562734064482552</v>
+        <v>0.1193701994764321</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1265082566835268</v>
+        <v>0.06479473166478195</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01397335501032629</v>
+        <v>0.0163680980975035</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1270544328927122</v>
+        <v>0.03881050385155754</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02514653168714</v>
+        <v>0.03521487438419083</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1278195685394248</v>
+        <v>0.06716450681396903</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05507957841433542</v>
+        <v>0.07714253693031145</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1281008179380135</v>
+        <v>0.06607608537130219</v>
       </c>
       <c r="N143" t="n">
-        <v>0.08580173725719881</v>
+        <v>0.1187701994764321</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1281512210560401</v>
+        <v>0.0656362216864025</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01395272257750143</v>
+        <v>0.01640232082475304</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1286833358785162</v>
+        <v>0.03930807441375699</v>
       </c>
       <c r="J144" t="n">
-        <v>0.0251671569585965</v>
+        <v>0.03511487438419082</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1294582809565969</v>
+        <v>0.06802559023466094</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05506977569890004</v>
+        <v>0.07684253693031146</v>
       </c>
       <c r="M144" t="n">
-        <v>0.129743136116706</v>
+        <v>0.06692321467093428</v>
       </c>
       <c r="N144" t="n">
-        <v>0.08446812665030584</v>
+        <v>0.1187701994764321</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1297941854285535</v>
+        <v>0.06647771170802304</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01395595703404105</v>
+        <v>0.01643483912290303</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1303122388643202</v>
+        <v>0.03980564497595645</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02525058125238218</v>
+        <v>0.03501487438419083</v>
       </c>
       <c r="K145" t="n">
-        <v>0.131096993373769</v>
+        <v>0.06888667365535285</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05469992684674016</v>
+        <v>0.07704253693031146</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1313854542953984</v>
+        <v>0.06777034397056635</v>
       </c>
       <c r="N145" t="n">
-        <v>0.08524971253016717</v>
+        <v>0.1183701994764321</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1314371498010668</v>
+        <v>0.06731920172964359</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01596527141438241</v>
+        <v>0.01646565658529438</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1319411418501242</v>
+        <v>0.04030321553815591</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02525855443563033</v>
+        <v>0.03531487438419083</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1327357057909412</v>
+        <v>0.06974775707604476</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05521175480113302</v>
+        <v>0.07734253693031146</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1330277724740909</v>
+        <v>0.06861747327019843</v>
       </c>
       <c r="N146" t="n">
-        <v>0.08516637617742379</v>
+        <v>0.1187701994764321</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1330801141735801</v>
+        <v>0.06816069175126413</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01598035514931124</v>
+        <v>0.01649477680526799</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1335700448359282</v>
+        <v>0.04080078610035535</v>
       </c>
       <c r="J147" t="n">
-        <v>0.0251761232656493</v>
+        <v>0.03501487438419083</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1343744182081133</v>
+        <v>0.07060884049673667</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05524497647269516</v>
+        <v>0.07664253693031145</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1346700906527834</v>
+        <v>0.0694646025698305</v>
       </c>
       <c r="N147" t="n">
-        <v>0.08431618093142013</v>
+        <v>0.1188701994764321</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1347230785460935</v>
+        <v>0.06900218177288467</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01600089766961329</v>
+        <v>0.01652220337616478</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1351989478217322</v>
+        <v>0.04129835666255481</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02520278723574397</v>
+        <v>0.03521487438419083</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1360131306252854</v>
+        <v>0.07146992391742858</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05469848845805805</v>
+        <v>0.07674253693031147</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1363124088314759</v>
+        <v>0.07031173186946259</v>
       </c>
       <c r="N148" t="n">
-        <v>0.08519740479206517</v>
+        <v>0.1187681393924216</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1363660429186068</v>
+        <v>0.06984367179450522</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01602658840607429</v>
+        <v>0.01654793989132565</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1368278508075362</v>
+        <v>0.04179592722475427</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02523804583921921</v>
+        <v>0.03501487438419083</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1376518430424575</v>
+        <v>0.07233100733812049</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05517118735385315</v>
+        <v>0.07664024188857629</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1379547270101684</v>
+        <v>0.07115886116909467</v>
       </c>
       <c r="N149" t="n">
-        <v>0.08520834275949291</v>
+        <v>0.1185588160168979</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1380090072911201</v>
+        <v>0.07068516181612576</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01605711678947999</v>
+        <v>0.01657198994409149</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1384567537933402</v>
+        <v>0.04229349778695372</v>
       </c>
       <c r="J150" t="n">
-        <v>0.0250813985693799</v>
+        <v>0.03501486743230409</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1392905554596296</v>
+        <v>0.0731920907588124</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05496196975671191</v>
+        <v>0.0770330431493331</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1395970451888608</v>
+        <v>0.07200599046872674</v>
       </c>
       <c r="N150" t="n">
-        <v>0.08574728983383717</v>
+        <v>0.1191422400311978</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1396519716636335</v>
+        <v>0.07152665183774631</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0150921722506161</v>
+        <v>0.01659435712780324</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1400856567791442</v>
+        <v>0.04279106834915318</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02533234491953085</v>
+        <v>0.03531350261513101</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1409292678768017</v>
+        <v>0.07405317417950431</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05546973226326574</v>
+        <v>0.07682112695703033</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1412393633675533</v>
+        <v>0.07285311976835883</v>
       </c>
       <c r="N151" t="n">
-        <v>0.08591254101523199</v>
+        <v>0.1188187009132781</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1412949360361468</v>
+        <v>0.07236814185936687</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01413144422026839</v>
+        <v>0.01661504503580178</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1417145597649483</v>
+        <v>0.04328863891135264</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02549038438297697</v>
+        <v>0.03510983448508703</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1425679802939738</v>
+        <v>0.07491425760019622</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05559337147014615</v>
+        <v>0.07680468466683354</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1428816815462458</v>
+        <v>0.0737002490679909</v>
       </c>
       <c r="N152" t="n">
-        <v>0.08560239130381142</v>
+        <v>0.1181884881410958</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1429379004086602</v>
+        <v>0.07320963188098741</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01617462212922258</v>
+        <v>0.01663405726142803</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1433434627507522</v>
+        <v>0.04378620947355209</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02535501645302313</v>
+        <v>0.03520395480483672</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1442066927111459</v>
+        <v>0.07577534102088813</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05543178397398457</v>
+        <v>0.0770839076339081</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1445239997249383</v>
+        <v>0.07454737836762299</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08601513569970937</v>
+        <v>0.1186518911926083</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1445808647811735</v>
+        <v>0.07405112190260794</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01422139540826439</v>
+        <v>0.01665139739802288</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1449723657365563</v>
+        <v>0.04428378003575154</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02552574062297419</v>
+        <v>0.03519595533704462</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1458454051283181</v>
+        <v>0.07663642444158004</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05568386637141248</v>
+        <v>0.07725898721341956</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1461663179036308</v>
+        <v>0.07539450766725506</v>
       </c>
       <c r="N154" t="n">
-        <v>0.0862490692030598</v>
+        <v>0.1184091995457724</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1462238291536868</v>
+        <v>0.07489261192422848</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.0162714534881796</v>
+        <v>0.01666706903892726</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1466012687223603</v>
+        <v>0.044781350597951</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02540205638613501</v>
+        <v>0.03518592784437531</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1474841175454902</v>
+        <v>0.07749750786227196</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05554851525906132</v>
+        <v>0.07703011476053331</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1478086360823233</v>
+        <v>0.07624163696688714</v>
       </c>
       <c r="N155" t="n">
-        <v>0.0865024868139968</v>
+        <v>0.1188607026785453</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1478667935262002</v>
+        <v>0.07573410194584902</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01432448579975392</v>
+        <v>0.01668107577748207</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1482301717081642</v>
+        <v>0.04527892116015046</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02568346323581044</v>
+        <v>0.03497396408949338</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1491228299626623</v>
+        <v>0.07835859128296387</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05642462723356254</v>
+        <v>0.07699748163041487</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1494509542610157</v>
+        <v>0.07708876626651923</v>
       </c>
       <c r="N156" t="n">
-        <v>0.08707368353265416</v>
+        <v>0.118206690068884</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1495097578987135</v>
+        <v>0.07657559196746959</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01640369879716094</v>
+        <v>0.01669342120702821</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1498590746939683</v>
+        <v>0.04577649172234991</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02587334327722716</v>
+        <v>0.03516015583506335</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1507615423798344</v>
+        <v>0.07921967470365578</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05601147391655426</v>
+        <v>0.07676127917822961</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1510932724397082</v>
+        <v>0.0779358955661513</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08666101387868214</v>
+        <v>0.1184474511947455</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1511527222712268</v>
+        <v>0.07741708198909013</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01453229001867693</v>
+        <v>0.01670410892090658</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1514879776797723</v>
+        <v>0.04627406228454937</v>
       </c>
       <c r="J158" t="n">
-        <v>0.0258292956776553</v>
+        <v>0.03524459484374984</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1524002547970065</v>
+        <v>0.08008075812434769</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05661100730229468</v>
+        <v>0.0766216987591431</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1527355906184007</v>
+        <v>0.07878302486578338</v>
       </c>
       <c r="N158" t="n">
-        <v>0.08761136367850264</v>
+        <v>0.118783275534087</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1527956866437402</v>
+        <v>0.07825857201071067</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01670097270983854</v>
+        <v>0.0167131425124581</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1531168806655763</v>
+        <v>0.04677163284674882</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02605905892475115</v>
+        <v>0.03522737287821739</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1540389672141786</v>
+        <v>0.0809418415450396</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05718065670333783</v>
+        <v>0.07677893172832073</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1543779087970932</v>
+        <v>0.07963015416541545</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08782662241180067</v>
+        <v>0.1178144525648654</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1544386510162535</v>
+        <v>0.07910006203233122</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01490037153565266</v>
+        <v>0.01672052557502367</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1547457836513803</v>
+        <v>0.04726920340894828</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02624752392940463</v>
+        <v>0.03500858170113058</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1556776796313507</v>
+        <v>0.08180292496573151</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05738711303514629</v>
+        <v>0.07673316944092798</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1560202269757857</v>
+        <v>0.08047728346504754</v>
       </c>
       <c r="N160" t="n">
-        <v>0.08855532024778479</v>
+        <v>0.1182412717650379</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1560816153887668</v>
+        <v>0.07994155205395176</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01612111116112626</v>
+        <v>0.01672626170194421</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1563746866371843</v>
+        <v>0.04776677397114773</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02657958160250561</v>
+        <v>0.03508831307515399</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1573163920485229</v>
+        <v>0.08266400838642343</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05799706721318268</v>
+        <v>0.07628460325213032</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1576625451544781</v>
+        <v>0.08132441276467962</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08994598735566373</v>
+        <v>0.1187640226125615</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1577245797612802</v>
+        <v>0.0807830420755723</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01735381625126629</v>
+        <v>0.01673035448656061</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1580035896229883</v>
+        <v>0.04826434453334719</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02704012285494398</v>
+        <v>0.0348666587629522</v>
       </c>
       <c r="K162" t="n">
-        <v>0.158955104465695</v>
+        <v>0.08352509180711534</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05907721015290965</v>
+        <v>0.0764334245170932</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1593048633331706</v>
+        <v>0.0821715420643117</v>
       </c>
       <c r="N162" t="n">
-        <v>0.09064715390464601</v>
+        <v>0.1177829945853933</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1593675441337935</v>
+        <v>0.08162453209719285</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01558911147107966</v>
+        <v>0.0167328075222138</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1596324926087923</v>
+        <v>0.04876191509554664</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02751403859760965</v>
+        <v>0.03494371052718971</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1605938168828671</v>
+        <v>0.08438617522780725</v>
       </c>
       <c r="L163" t="n">
-        <v>0.0601942327697898</v>
+        <v>0.07637982459098205</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1609471815118631</v>
+        <v>0.08301867136394378</v>
       </c>
       <c r="N163" t="n">
-        <v>0.09220735006394015</v>
+        <v>0.1180984771614903</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1610105085063069</v>
+        <v>0.08246602211881339</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01681762148557334</v>
+        <v>0.01673362440224465</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1612613955945963</v>
+        <v>0.0492594856577461</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02798621974139252</v>
+        <v>0.03511956013053116</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1622325293000392</v>
+        <v>0.08524725864849916</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06111482597928572</v>
+        <v>0.07672399482896239</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1625894996905556</v>
+        <v>0.08386580066357585</v>
       </c>
       <c r="N164" t="n">
-        <v>0.09417510600275503</v>
+        <v>0.1180107598188097</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1626534728788202</v>
+        <v>0.08330751214043394</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01802997095975428</v>
+        <v>0.01673362440224464</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1628902985804003</v>
+        <v>0.0492594856577461</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02834155719718247</v>
+        <v>0.03509429933564111</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1638712417172113</v>
+        <v>0.08610834206919107</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06150568069686008</v>
+        <v>0.07676612658619966</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1642318178692481</v>
+        <v>0.08471292996320794</v>
       </c>
       <c r="N165" t="n">
-        <v>0.09449895189029917</v>
+        <v>0.1176201320353082</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1642964372513335</v>
+        <v>0.08414900216205448</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01821678455862939</v>
+        <v>0.01631759337004438</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1645192015662043</v>
+        <v>0.04925921712928209</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0283649418758694</v>
+        <v>0.03486801990518409</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1655099541343834</v>
+        <v>0.08696942548988298</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06213348783797545</v>
+        <v>0.0761064112178593</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1658741360479405</v>
+        <v>0.08556005926284001</v>
       </c>
       <c r="N166" t="n">
-        <v>0.09612741789578111</v>
+        <v>0.1177268832889433</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1659394016238468</v>
+        <v>0.08499049218367502</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01638235136056345</v>
+        <v>0.01590623097034313</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1661481045520083</v>
+        <v>0.04925894860081807</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02874369063510387</v>
+        <v>0.03474081360182474</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1671486665515555</v>
+        <v>0.08783050891057489</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06286540784383512</v>
+        <v>0.07644504007910677</v>
       </c>
       <c r="M167" t="n">
-        <v>0.167516454226633</v>
+        <v>0.08640718856247209</v>
       </c>
       <c r="N167" t="n">
-        <v>0.0971092793770395</v>
+        <v>0.1180313030576719</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1675823659963602</v>
+        <v>0.08583198220529557</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01754360933478858</v>
+        <v>0.01550012054946504</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1677770075378123</v>
+        <v>0.04925868007235405</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02920422721935385</v>
+        <v>0.03471277218822756</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1687873789687276</v>
+        <v>0.08869159233126681</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06324038109889099</v>
+        <v>0.07608220452510756</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1691587724053255</v>
+        <v>0.08725431786210418</v>
       </c>
       <c r="N168" t="n">
-        <v>0.09809791150501301</v>
+        <v>0.117433680819451</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1692253303688735</v>
+        <v>0.08667347222691613</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01670104084244892</v>
+        <v>0.01509984545369864</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1694059105236163</v>
+        <v>0.04925841154389003</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02935835862725818</v>
+        <v>0.03468398742705713</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1704260913858998</v>
+        <v>0.08955267575195872</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06420104196552867</v>
+        <v>0.07641809591102708</v>
       </c>
       <c r="M169" t="n">
-        <v>0.170801090584018</v>
+        <v>0.08810144716173625</v>
       </c>
       <c r="N169" t="n">
-        <v>0.09846437490661442</v>
+        <v>0.1179343060522376</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1708682947413868</v>
+        <v>0.08751496224853667</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01685494329738815</v>
+        <v>0.01470598902936759</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1710348135094203</v>
+        <v>0.04925814301542602</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02970656416459855</v>
+        <v>0.03465455108097805</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1720648038030718</v>
+        <v>0.09041375917265063</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06484844710816293</v>
+        <v>0.07605290559203084</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1724434087627105</v>
+        <v>0.08894857646136833</v>
       </c>
       <c r="N170" t="n">
-        <v>0.09971030235978962</v>
+        <v>0.117333468233989</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1725112591139002</v>
+        <v>0.0883564522701572</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01700561411345004</v>
+        <v>0.01431913462276098</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1726637164952243</v>
+        <v>0.049257874486962</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02984932313715656</v>
+        <v>0.03482455491265486</v>
       </c>
       <c r="K171" t="n">
-        <v>0.173703516220244</v>
+        <v>0.09127484259334254</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06538365319120831</v>
+        <v>0.07618682492328427</v>
       </c>
       <c r="M171" t="n">
-        <v>0.174085726941403</v>
+        <v>0.08979570576100042</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1001373266424841</v>
+        <v>0.1176314568426621</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1741542234864135</v>
+        <v>0.08919794229177774</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01715335070447824</v>
+        <v>0.01393986558020185</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1742926194810283</v>
+        <v>0.04925760595849799</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03018711485071396</v>
+        <v>0.03489409068475216</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1753422286374161</v>
+        <v>0.09213592601403445</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06550771687907955</v>
+        <v>0.07562004525995289</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1757280451200954</v>
+        <v>0.09064283506063249</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1008470805326439</v>
+        <v>0.1167285613562139</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1757971878589269</v>
+        <v>0.0900394323133983</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01729845048431648</v>
+        <v>0.01356876524797995</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1759215224668323</v>
+        <v>0.04925733743003397</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03022041861105235</v>
+        <v>0.03476325015993451</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1769809410545882</v>
+        <v>0.09299700943472636</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06622169483619131</v>
+        <v>0.07555275795720207</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1773703632987879</v>
+        <v>0.09148996436026458</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1020411968082144</v>
+        <v>0.1166250712526016</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1774401522314402</v>
+        <v>0.09088092233501883</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01744121086680847</v>
+        <v>0.01320641697241764</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1775504254526363</v>
+        <v>0.04925706890156994</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03054971372395343</v>
+        <v>0.03463212510086645</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1786196534717603</v>
+        <v>0.09385809285541827</v>
       </c>
       <c r="L174" t="n">
-        <v>0.0669266437269582</v>
+        <v>0.07578515437019734</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1790126814774804</v>
+        <v>0.09233709365989666</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1029213082471417</v>
+        <v>0.1168168326926606</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1790831166039535</v>
+        <v>0.09172241235663939</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01758192926579794</v>
+        <v>0.01285340409980537</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1791793284384403</v>
+        <v>0.04925680037310592</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03077547949519883</v>
+        <v>0.03460080727021259</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1802583658889324</v>
+        <v>0.09471917627611018</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06752362021579494</v>
+        <v>0.07540904051435743</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1806549996561729</v>
+        <v>0.09318422295952873</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1030890476273715</v>
+        <v>0.1164842610030515</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1807260809764669</v>
+        <v>0.09256390237825994</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01772090309512857</v>
+        <v>0.01251030997646474</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1808082314242443</v>
+        <v>0.04925653184464191</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03099819523057021</v>
+        <v>0.03476829137326436</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1818970783061045</v>
+        <v>0.09558025969680209</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0679136809671162</v>
+        <v>0.07581593527958069</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1822973178348654</v>
+        <v>0.09403135225916082</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1040460477268494</v>
+        <v>0.1169275850447619</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1823690453489802</v>
+        <v>0.09340539239988048</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01985842976864408</v>
+        <v>0.01217771794868704</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1824371344100483</v>
+        <v>0.04925626331617789</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03131834023584927</v>
+        <v>0.03442844982458081</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1835357907232767</v>
+        <v>0.096441343117494</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06789788264533658</v>
+        <v>0.07550781351010644</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1839396360135578</v>
+        <v>0.0948784815587929</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1047939413235213</v>
+        <v>0.1162498159060615</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1840120097214935</v>
+        <v>0.09424688242150102</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01999679483892601</v>
+        <v>0.01185621136279297</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1840660373958523</v>
+        <v>0.04925599478771388</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03143642010164889</v>
+        <v>0.03448111724648661</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1851745031404488</v>
+        <v>0.09730242653818591</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06857728191487078</v>
+        <v>0.07548666564175222</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1855819541922503</v>
+        <v>0.09572561085842497</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1060343611953329</v>
+        <v>0.1167539646752205</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1856549740940069</v>
+        <v>0.09508837244312156</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02014326884041175</v>
+        <v>0.01154637356507478</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1856949403816563</v>
+        <v>0.04925572625924986</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03176293919811927</v>
+        <v>0.03452724813474277</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1868132155576209</v>
+        <v>0.09816350995887782</v>
       </c>
       <c r="L179" t="n">
-        <v>0.0693683238864824</v>
+        <v>0.07525448211033556</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1872242723709428</v>
+        <v>0.09657274015805706</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1066909940698471</v>
+        <v>0.1162430424405088</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1872979384665202</v>
+        <v>0.09592986246474211</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01829406147034583</v>
+        <v>0.01124878790185214</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1873238433674603</v>
+        <v>0.04925545773078584</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03180056583633631</v>
+        <v>0.03456779698511026</v>
       </c>
       <c r="K180" t="n">
-        <v>0.188451927974793</v>
+        <v>0.09902459337956973</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06928672266493782</v>
+        <v>0.07531325335167402</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1888665905496353</v>
+        <v>0.09741986945768913</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1069904250392302</v>
+        <v>0.1163200602901965</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1889409028390335</v>
+        <v>0.09677135248636266</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01844406368345054</v>
+        <v>0.01096403771941837</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1889527463532643</v>
+        <v>0.04925518920232182</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0319410663883362</v>
+        <v>0.03420371829335006</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1900906403919651</v>
+        <v>0.09988567680026164</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07021479089308535</v>
+        <v>0.07536496980158519</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1905089087283278</v>
+        <v>0.09826699875732121</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1078057182078745</v>
+        <v>0.1154880293125536</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1905838672115469</v>
+        <v>0.0976128425079832</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01858816643444815</v>
+        <v>0.01069270636409207</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1905816493390683</v>
+        <v>0.04925492067385781</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03217620722615515</v>
+        <v>0.03443596655522313</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1917293528091372</v>
+        <v>0.1007467602209536</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07033437693994996</v>
+        <v>0.07511162189588663</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1921512269070202</v>
+        <v>0.0991141280569533</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1089088253304487</v>
+        <v>0.1148499605958502</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1922268315840602</v>
+        <v>0.09845433252960374</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02072126067806095</v>
+        <v>0.0104353771821731</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1922105523248723</v>
+        <v>0.0492546521453938</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03259775472182938</v>
+        <v>0.03426549626649049</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1933680652263093</v>
+        <v>0.1016078436416455</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07132732917455673</v>
+        <v>0.07445520007039583</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1937935450857127</v>
+        <v>0.09996125735658537</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1096716981616213</v>
+        <v>0.1155088652283563</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1938697959565736</v>
+        <v>0.09929582255122429</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01883823736901122</v>
+        <v>0.01019263351996254</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1938394553106763</v>
+        <v>0.04925438361692978</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03289747524739514</v>
+        <v>0.03409326192291307</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1950067776434815</v>
+        <v>0.1024689270623374</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07167549596593062</v>
+        <v>0.07469769476093036</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1954358632644052</v>
+        <v>0.1008083866562175</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1105662884560608</v>
+        <v>0.1148677542983418</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1955127603290869</v>
+        <v>0.1001373125728448</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02093398746202122</v>
+        <v>0.009965058723777197</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1954683582964803</v>
+        <v>0.04925411508846576</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03306713517488863</v>
+        <v>0.03412021802025188</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1966454900606535</v>
+        <v>0.1033300104830293</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07186072568309662</v>
+        <v>0.07424109640330778</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1970781814430977</v>
+        <v>0.1016555159558495</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1114645479684358</v>
+        <v>0.1142296388940769</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1971557247016002</v>
+        <v>0.1009788025944654</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02100341448873214</v>
+        <v>0.009753236139913385</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1970972612822843</v>
+        <v>0.04925384656000174</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03319850087634606</v>
+        <v>0.03414731905426788</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1982842024778257</v>
+        <v>0.1041910939037212</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07216486669507977</v>
+        <v>0.07438739543334572</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1987204996217902</v>
+        <v>0.1025026452554816</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1111384284534148</v>
+        <v>0.1144975301038316</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1987986890741135</v>
+        <v>0.1018202926160859</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02105824418547048</v>
+        <v>0.009557749114686542</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1987261642680883</v>
+        <v>0.04925357803153772</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03299119810187594</v>
+        <v>0.03387551952072204</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1999229148949978</v>
+        <v>0.1050521773244131</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07287808523940706</v>
+        <v>0.07403858228686155</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2003628178004827</v>
+        <v>0.1033497745551137</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1124707909646325</v>
+        <v>0.1137744390158758</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2004416534466269</v>
+        <v>0.1026617826377065</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02111188949197681</v>
+        <v>0.009379180994394401</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2003550672538923</v>
+        <v>0.0492533095030737</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03317749234089704</v>
+        <v>0.03380577391537537</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2015616273121699</v>
+        <v>0.105913260745105</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07246819318056683</v>
+        <v>0.074096647399673</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2020051359791751</v>
+        <v>0.1041969038547458</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1126645118543024</v>
+        <v>0.1135633767184798</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2020846178191402</v>
+        <v>0.103503272659327</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02116433160627317</v>
+        <v>0.009218115125350944</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2019839702396963</v>
+        <v>0.04925304097460969</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03316187293341431</v>
+        <v>0.03373903673398883</v>
       </c>
       <c r="K189" t="n">
-        <v>0.203200339729342</v>
+        <v>0.1067743441657969</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07305410275779323</v>
+        <v>0.07386358120759753</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2036474541578676</v>
+        <v>0.1050440331543779</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1125517509891904</v>
+        <v>0.1136673542999133</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2037275821916535</v>
+        <v>0.1043447626809476</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01921555172638158</v>
+        <v>0.009072907230826231</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2036128732255004</v>
+        <v>0.04925277244614567</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03354430957856272</v>
+        <v>0.03377626247232339</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2048390521465141</v>
+        <v>0.1076354275864888</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07323574717062811</v>
+        <v>0.07364137414645275</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2052897723365601</v>
+        <v>0.1058911624540099</v>
       </c>
       <c r="N190" t="n">
-        <v>0.112332405147958</v>
+        <v>0.1134893828484465</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2053705465641669</v>
+        <v>0.1051862527025681</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02126553105032412</v>
+        <v>0.008930717028563337</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2052417762113043</v>
+        <v>0.04925250391768166</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03332477197547722</v>
+        <v>0.03351840562614006</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2064777645636862</v>
+        <v>0.1084965110071807</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07351305961861326</v>
+        <v>0.07383201665205613</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2069320905152525</v>
+        <v>0.106738291753642</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1129063711092671</v>
+        <v>0.1135324734523494</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2070135109366802</v>
+        <v>0.1060277427241886</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01931425077612278</v>
+        <v>0.008789752299711427</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2068706791971084</v>
+        <v>0.04925223538921764</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0336032298232927</v>
+        <v>0.03366642069119977</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2081164769808584</v>
+        <v>0.1093575944278726</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07318597330129048</v>
+        <v>0.07323749916022532</v>
       </c>
       <c r="M192" t="n">
-        <v>0.208574408693945</v>
+        <v>0.1075854210532741</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1127735456517795</v>
+        <v>0.113599637199892</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2086564753091935</v>
+        <v>0.1068692327458092</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0193616921017996</v>
+        <v>0.008650442016194804</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2084995821829124</v>
+        <v>0.04925196686075362</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03347965282114415</v>
+        <v>0.03342126216326353</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2097551893980305</v>
+        <v>0.1102186778485646</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07325442141820149</v>
+        <v>0.07335981210677775</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2102167268726375</v>
+        <v>0.1084325503529062</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1141338255541568</v>
+        <v>0.1126929319262304</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2102994396817069</v>
+        <v>0.1077107227674297</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01940783622537667</v>
+        <v>0.008513215149925563</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2101284851687164</v>
+        <v>0.0492516983322896</v>
       </c>
       <c r="J194" t="n">
-        <v>0.0337540106681665</v>
+        <v>0.03338388453809231</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2113939018152026</v>
+        <v>0.1110797612692565</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07411833716888816</v>
+        <v>0.07339536708156563</v>
       </c>
       <c r="M194" t="n">
-        <v>0.21185904505133</v>
+        <v>0.1092796796525383</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1133871075950609</v>
+        <v>0.1129961634095971</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2119424040542202</v>
+        <v>0.1085522127890503</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02145266434487598</v>
+        <v>0.008378500672827832</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2117573881545204</v>
+        <v>0.04925142980382559</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03382627306349469</v>
+        <v>0.03355350484468034</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2130326142323747</v>
+        <v>0.1119408446899484</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07427765375289222</v>
+        <v>0.07313332534792805</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2135013632300225</v>
+        <v>0.1101268089521703</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1139332885531537</v>
+        <v>0.113502462797925</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2135853684267336</v>
+        <v>0.1093937028106708</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02149615765831956</v>
+        <v>0.008246727556813924</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2133862911403244</v>
+        <v>0.04925116127536157</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03389640970626367</v>
+        <v>0.03362458957872985</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2146713266495468</v>
+        <v>0.1128019281106403</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07393230436975551</v>
+        <v>0.07307326404756054</v>
       </c>
       <c r="M196" t="n">
-        <v>0.215143681408715</v>
+        <v>0.1109739382518024</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1148722652070967</v>
+        <v>0.1129117336042254</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2152283327992469</v>
+        <v>0.1102351928322914</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02153829736372947</v>
+        <v>0.008118324773807722</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2150151941261284</v>
+        <v>0.04925089274689756</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03376439029560839</v>
+        <v>0.03339661223594413</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2163100390667189</v>
+        <v>0.1136630115313322</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07428222221901976</v>
+        <v>0.07321511939915162</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2167859995874074</v>
+        <v>0.1118210675514345</v>
       </c>
       <c r="N197" t="n">
-        <v>0.114403934335552</v>
+        <v>0.1124238793415093</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2168712971717603</v>
+        <v>0.1110766828539119</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02057906465912775</v>
+        <v>0.007993721295724468</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2166440971119324</v>
+        <v>0.04925062421843353</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03393018453066377</v>
+        <v>0.03326954223056365</v>
       </c>
       <c r="K198" t="n">
-        <v>0.217948751483891</v>
+        <v>0.1145240949520241</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07472734050022675</v>
+        <v>0.07325882762138999</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2184283177660999</v>
+        <v>0.1126681968510666</v>
       </c>
       <c r="N198" t="n">
-        <v>0.114628192717181</v>
+        <v>0.1128388035227879</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2185142615442736</v>
+        <v>0.1119181728755325</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01961844074253643</v>
+        <v>0.007873346094479754</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2182730000977363</v>
+        <v>0.04925035568996951</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03419376211056478</v>
+        <v>0.03344334897682882</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2195874639010632</v>
+        <v>0.115385178372716</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07416759241291832</v>
+        <v>0.07330432493296424</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2200706359447924</v>
+        <v>0.1135153261506986</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1149449371306458</v>
+        <v>0.1127564096610724</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2201572259167869</v>
+        <v>0.112759662897153</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02165640681197752</v>
+        <v>0.007757628141996958</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2199019030835404</v>
+        <v>0.0492500871615055</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03425509273444635</v>
+        <v>0.03351800188898012</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2212261763182353</v>
+        <v>0.116246261793408</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07470291115663624</v>
+        <v>0.07295154755256297</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2217129541234849</v>
+        <v>0.1143624554503307</v>
       </c>
       <c r="N200" t="n">
-        <v>0.115654064354608</v>
+        <v>0.1120766012693739</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2218001902893002</v>
+        <v>0.1136011529187735</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01969294406547312</v>
+        <v>0.007646996410189219</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2215308060693444</v>
+        <v>0.04924981863304148</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03401414610144342</v>
+        <v>0.03349347038125794</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2228648887354074</v>
+        <v>0.1171073452140999</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07453322993092232</v>
+        <v>0.07270043169887488</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2233552723021774</v>
+        <v>0.1152095847499628</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1149554711677294</v>
+        <v>0.1119992818607035</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2234431546618136</v>
+        <v>0.1144426429403941</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02172803370104521</v>
+        <v>0.007541879870979512</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2231597090551484</v>
+        <v>0.04924955010457747</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03417089191069092</v>
+        <v>0.03336972386790277</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2245036011525795</v>
+        <v>0.1179684286347918</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07515848193531832</v>
+        <v>0.07255091359058854</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2249975904808698</v>
+        <v>0.1160567140495949</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1160490543486718</v>
+        <v>0.1119243549480725</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2250861190343269</v>
+        <v>0.1152841329620146</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02176165691671587</v>
+        <v>0.007442707496281419</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2247886120409524</v>
+        <v>0.04924928157611345</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03442529986132384</v>
+        <v>0.03344673176315502</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2261423135697516</v>
+        <v>0.1188295120554837</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07497860036936599</v>
+        <v>0.07320292944639262</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2266399086595624</v>
+        <v>0.116903843349227</v>
       </c>
       <c r="N203" t="n">
-        <v>0.115334710676097</v>
+        <v>0.112751724044492</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2267290834068402</v>
+        <v>0.1161256229836352</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02079379491050707</v>
+        <v>0.007349908258017408</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2264175150267564</v>
+        <v>0.04924901304764943</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03417733965247707</v>
+        <v>0.03342446348125513</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2277810259869237</v>
+        <v>0.1196905954761756</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07509351843260714</v>
+        <v>0.07245641548497569</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2282822268382548</v>
+        <v>0.117750972648859</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1154123369286667</v>
+        <v>0.1125812926629731</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2283720477793536</v>
+        <v>0.1169671130052557</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02082442888044093</v>
+        <v>0.007263911128101624</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2280464180125604</v>
+        <v>0.04924874451918541</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03442698098328557</v>
+        <v>0.03330288843644356</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2294197384040958</v>
+        <v>0.1205516788968675</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07500316932458365</v>
+        <v>0.07311130792502646</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2299245450169473</v>
+        <v>0.1185981019484911</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1157818298850427</v>
+        <v>0.1120129643165271</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2300150121518669</v>
+        <v>0.1178086030268763</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02185354002453942</v>
+        <v>0.007185145078455954</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2296753209983644</v>
+        <v>0.0492484759907214</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03457419355288432</v>
+        <v>0.03318197604296072</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2310584508212679</v>
+        <v>0.1214127623175594</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07540748624483717</v>
+        <v>0.07266754298523345</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2315668631956398</v>
+        <v>0.1194452312481232</v>
       </c>
       <c r="N206" t="n">
-        <v>0.115843086323887</v>
+        <v>0.112646642518165</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2316579765243803</v>
+        <v>0.1186500930484968</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02088110954082465</v>
+        <v>0.00711403908099513</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2313042239841684</v>
+        <v>0.04924820746225738</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03431894706040822</v>
+        <v>0.03326169571504708</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2326971632384401</v>
+        <v>0.1222738457382513</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07550640239290954</v>
+        <v>0.07262505688428536</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2332091813743322</v>
+        <v>0.1202923605477553</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1161960030238609</v>
+        <v>0.112082230780898</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2333009408968936</v>
+        <v>0.1194915830701174</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01990711862731858</v>
+        <v>0.007051022107640428</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2329331269699724</v>
+        <v>0.04924793893379337</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03436121120499222</v>
+        <v>0.03314201686694307</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2343358756556121</v>
+        <v>0.1231349291589432</v>
       </c>
       <c r="L208" t="n">
-        <v>0.0755998509683426</v>
+        <v>0.07238378584087085</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2348514995530247</v>
+        <v>0.1211394898473874</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1169404767636266</v>
+        <v>0.1125196326177375</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2349439052694069</v>
+        <v>0.1203330730917379</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0219315484820433</v>
+        <v>0.006996523130307242</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2345620299557764</v>
+        <v>0.04924767040532935</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03440095568577128</v>
+        <v>0.03312290891288913</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2359745880727843</v>
+        <v>0.1239960125796351</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07558776517067803</v>
+        <v>0.07244366607367847</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2364938177317172</v>
+        <v>0.1219866191470194</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1168764043218458</v>
+        <v>0.1123587515416941</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2365868696419203</v>
+        <v>0.1211745631133585</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0199543803030208</v>
+        <v>0.006950971120916118</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2361909329415804</v>
+        <v>0.04924740187686533</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03463815020188031</v>
+        <v>0.03300434126712572</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2376133004899564</v>
+        <v>0.1248570960003271</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07547007819945775</v>
+        <v>0.07220463380139686</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2381361359104097</v>
+        <v>0.1228337484466515</v>
       </c>
       <c r="N210" t="n">
-        <v>0.11740368247718</v>
+        <v>0.1116994910657795</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2382298340144336</v>
+        <v>0.122016053134979</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02097559528827318</v>
+        <v>0.006914795051383225</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2378198359273844</v>
+        <v>0.04924713334840131</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03467276445245429</v>
+        <v>0.03318628334389323</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2392520129071285</v>
+        <v>0.125718179421019</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07614672325422345</v>
+        <v>0.07276662524271471</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2397784540891022</v>
+        <v>0.1236808777462836</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1169222080082913</v>
+        <v>0.1115417547030046</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2398727983869469</v>
+        <v>0.1228575431565995</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02199517463582242</v>
+        <v>0.006888423893628322</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2394487389131884</v>
+        <v>0.04924686481993729</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03480476813662815</v>
+        <v>0.03326870455743214</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2408907253243006</v>
+        <v>0.1265792628417109</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07601763353451696</v>
+        <v>0.07242957661632055</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2414207722677947</v>
+        <v>0.1245280070459157</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1170318776938413</v>
+        <v>0.1113854459663806</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2415157627594603</v>
+        <v>0.1236990331782201</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02101309954369058</v>
+        <v>0.006872286619568395</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2410776418989924</v>
+        <v>0.04924659629147327</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03463413095353683</v>
+        <v>0.03295157432198287</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2425294377414727</v>
+        <v>0.1274403462624028</v>
       </c>
       <c r="L213" t="n">
-        <v>0.07568274223988003</v>
+        <v>0.07229342414090309</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2430630904464871</v>
+        <v>0.1253751363455478</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1177325883124919</v>
+        <v>0.1114304683689187</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2431587271319736</v>
+        <v>0.1245405231998406</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02002935120989969</v>
+        <v>0.00686681220112232</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2427065448847964</v>
+        <v>0.04924632776300926</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03486082260231528</v>
+        <v>0.03313486205178585</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2441681501586448</v>
+        <v>0.1283014296830947</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07604198256985445</v>
+        <v>0.07255810403515095</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2447054086251796</v>
+        <v>0.1262222656451798</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1171242366429047</v>
+        <v>0.1112767254236299</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2448016915044869</v>
+        <v>0.1253820132214612</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02204391083247182</v>
+        <v>0.00686681220112232</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2443354478706004</v>
+        <v>0.04924632776300926</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03488481278209844</v>
+        <v>0.03311853716108158</v>
       </c>
       <c r="K215" t="n">
-        <v>0.245806862575817</v>
+        <v>0.1291625131037866</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07639528772398207</v>
+        <v>0.07212355251775274</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2463477268038721</v>
+        <v>0.1270693949448119</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1172067194637416</v>
+        <v>0.1120241206435257</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2464446558770002</v>
+        <v>0.1262235032430817</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02205675960942897</v>
+        <v>0.006638297164591814</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2459643508564044</v>
+        <v>0.04922379532594619</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03460607119202126</v>
+        <v>0.03320256906411045</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2474455749929891</v>
+        <v>0.1300235965244785</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07604259090180457</v>
+        <v>0.07268970580739706</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2479900449825646</v>
+        <v>0.127916524244444</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1179799335536644</v>
+        <v>0.1115725575416168</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2480876202495136</v>
+        <v>0.1270649932647022</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02006787873879317</v>
+        <v>0.006414924779905906</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2475932538422084</v>
+        <v>0.04920126288888312</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03492456753121864</v>
+        <v>0.03288692717511292</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2490842874101612</v>
+        <v>0.1308846799451704</v>
       </c>
       <c r="L217" t="n">
-        <v>0.07608382530286387</v>
+        <v>0.07215650012277255</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2496323631612571</v>
+        <v>0.1287636535440761</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1170437756913348</v>
+        <v>0.1113219396309147</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2497305846220269</v>
+        <v>0.1279064832863228</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.0210772494185865</v>
+        <v>0.006197075870470026</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2492221568280124</v>
+        <v>0.04917873045182004</v>
       </c>
       <c r="J218" t="n">
-        <v>0.0348402714988256</v>
+        <v>0.0330715809083294</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2507229998273333</v>
+        <v>0.1317457633658623</v>
       </c>
       <c r="L218" t="n">
-        <v>0.07601892412670166</v>
+        <v>0.07202387168256788</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2512746813399495</v>
+        <v>0.1296107828437082</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1178981426554145</v>
+        <v>0.1118721704244305</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2513735489945403</v>
+        <v>0.1287479733079434</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02108485284683096</v>
+        <v>0.005985131259689573</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2508510598138164</v>
+        <v>0.04915619801475696</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03475315279397702</v>
+        <v>0.03305649967800038</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2523617122445054</v>
+        <v>0.1326068467865542</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07584782057285974</v>
+        <v>0.07249175670547162</v>
       </c>
       <c r="M219" t="n">
-        <v>0.252916999518642</v>
+        <v>0.1304579121433402</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1175429312245655</v>
+        <v>0.1111231534351752</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2530165133670536</v>
+        <v>0.1295894633295639</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02109067022154861</v>
+        <v>0.005779471770970088</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2524799627996204</v>
+        <v>0.04913366557769389</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03466318111580786</v>
+        <v>0.03304165289836626</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2540004246616775</v>
+        <v>0.1334679302072461</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07607044784087996</v>
+        <v>0.07206009141017242</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2545593176973345</v>
+        <v>0.1313050414429723</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1178780381774494</v>
+        <v>0.1111747921761601</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2546594777395669</v>
+        <v>0.1304309533511845</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02209468274076146</v>
+        <v>0.005580478227716977</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2541088657854244</v>
+        <v>0.04911113314063082</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03497032616345309</v>
+        <v>0.03302700998366749</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2556391370788496</v>
+        <v>0.1343290136279381</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07648673913030404</v>
+        <v>0.0718288120153589</v>
       </c>
       <c r="M221" t="n">
-        <v>0.256201635876027</v>
+        <v>0.1321521707426044</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1175033602927281</v>
+        <v>0.1119269901603964</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2563024421120803</v>
+        <v>0.131272443372805</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02109687160249157</v>
+        <v>0.005388531453335663</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2557377687712284</v>
+        <v>0.04908860070356775</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03467455763604763</v>
+        <v>0.03311254034814452</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2572778494960217</v>
+        <v>0.13519009704863</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07609662764067374</v>
+        <v>0.07189785473971974</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2578439540547195</v>
+        <v>0.1329993000422365</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1172187943490632</v>
+        <v>0.111179650900895</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2579454064845936</v>
+        <v>0.1321139333944255</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02009446818514362</v>
+        <v>0.005204012271231601</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2573666717570324</v>
+        <v>0.04906606826650468</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03497565089774915</v>
+        <v>0.03309821340603777</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2589165619131938</v>
+        <v>0.1360511804693219</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07620004657153093</v>
+        <v>0.0723671558019435</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2594862722334119</v>
+        <v>0.1338464293418686</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1174242371251166</v>
+        <v>0.1114326779106674</v>
       </c>
       <c r="O223" t="n">
-        <v>0.259588370857107</v>
+        <v>0.1329554234160461</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0210489320530487</v>
+        <v>0.005027301504810219</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2589955747428365</v>
+        <v>0.0490435358294416</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03482437618176869</v>
+        <v>0.03298399857158771</v>
       </c>
       <c r="K224" t="n">
-        <v>0.260555274330366</v>
+        <v>0.1369122638900138</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07590488039231405</v>
+        <v>0.07223665142071881</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2611285904121045</v>
+        <v>0.1346935586415006</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1177819882779663</v>
+        <v>0.1113859747027245</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2612313352296203</v>
+        <v>0.1337969134376666</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02195237711104443</v>
+        <v>0.004858779977476989</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2606244777286404</v>
+        <v>0.04902100339237853</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03478911102748221</v>
+        <v>0.03306986525903474</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2621939867475381</v>
+        <v>0.1377733473107057</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07602319035659297</v>
+        <v>0.07190627781473438</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2627709085907969</v>
+        <v>0.1355406879411327</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1173512903088161</v>
+        <v>0.1114394447900776</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2628742996021336</v>
+        <v>0.1346384034592872</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01981066475133875</v>
+        <v>0.004698828512637317</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2622533807144444</v>
+        <v>0.04899847095531546</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03437930152905538</v>
+        <v>0.03285578288261935</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2638326991647102</v>
+        <v>0.1386344307313976</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07577573958744735</v>
+        <v>0.07167597120267874</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2644132267694894</v>
+        <v>0.1363878172407648</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1163640628539127</v>
+        <v>0.1107929916857378</v>
       </c>
       <c r="O226" t="n">
-        <v>0.264517263974647</v>
+        <v>0.1354798934809077</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02062965636613964</v>
+        <v>0.00454782793369668</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2638822837002485</v>
+        <v>0.04897593851825239</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03420439378065396</v>
+        <v>0.03294172085658195</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2654714115818823</v>
+        <v>0.1394955141520895</v>
       </c>
       <c r="L227" t="n">
-        <v>0.07458335268567337</v>
+        <v>0.07214566780324058</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2660555449481818</v>
+        <v>0.1372349465403969</v>
       </c>
       <c r="N227" t="n">
-        <v>0.115752484482381</v>
+        <v>0.1113465189027162</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2661602283471603</v>
+        <v>0.1363213835025283</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02141521334765504</v>
+        <v>0.004406159064060458</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2655111866860524</v>
+        <v>0.04895340608118931</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03377383387644355</v>
+        <v>0.03292764859516296</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2671101239990544</v>
+        <v>0.1403565975727814</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07436685425206735</v>
+        <v>0.07211530383510847</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2676978631268743</v>
+        <v>0.138082075840029</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1145487337633464</v>
+        <v>0.1109999299540241</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2678031927196736</v>
+        <v>0.1371628735241488</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02117319708809292</v>
+        <v>0.004274202727134177</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2671400896718565</v>
+        <v>0.04893087364412624</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03359706791058989</v>
+        <v>0.03281353551260287</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2687488364162265</v>
+        <v>0.1412176809934733</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07364706888742548</v>
+        <v>0.07228481551697111</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2693401813055669</v>
+        <v>0.138929205139661</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1128849892659338</v>
+        <v>0.1104531283526726</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2694461570921869</v>
+        <v>0.1380043635457693</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01890946897966121</v>
+        <v>0.004152339746323244</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2687689926576605</v>
+        <v>0.04890834120706317</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03308354197725864</v>
+        <v>0.03299935102314211</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2703875488333987</v>
+        <v>0.1420787644141653</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07244482119254408</v>
+        <v>0.07225413906751704</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2709824994842593</v>
+        <v>0.1397763344392931</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1115934295592685</v>
+        <v>0.1109060176116727</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2710891214647003</v>
+        <v>0.1388458535673899</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01962989041456789</v>
+        <v>0.004040950945033102</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2703978956434644</v>
+        <v>0.04888580877000009</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03274270217061552</v>
+        <v>0.03298506454102107</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2720262612505707</v>
+        <v>0.1429398478348572</v>
       </c>
       <c r="L231" t="n">
-        <v>0.07128093576821931</v>
+        <v>0.07182321070543499</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2726248176629518</v>
+        <v>0.1406234637389252</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1105062332124755</v>
+        <v>0.1109585012440358</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2727320858372136</v>
+        <v>0.1396873435890104</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01834032278502092</v>
+        <v>0.003940417146669199</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2720267986292685</v>
+        <v>0.04886327633293702</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03208399458482619</v>
+        <v>0.03287064548048024</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2736649736677428</v>
+        <v>0.1438009312555491</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07047623721524748</v>
+        <v>0.07149196664941349</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2742671358416442</v>
+        <v>0.1414705930385573</v>
       </c>
       <c r="N232" t="n">
-        <v>0.10825557879468</v>
+        <v>0.1106104827627729</v>
       </c>
       <c r="O232" t="n">
-        <v>0.274375050209727</v>
+        <v>0.140528833610631</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02004662748322823</v>
+        <v>0.003851119174636972</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2736557016150725</v>
+        <v>0.04884074389587395</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03171686531405633</v>
+        <v>0.03275607132692636</v>
       </c>
       <c r="K233" t="n">
-        <v>0.275303686084915</v>
+        <v>0.144662014676241</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06965155013442484</v>
+        <v>0.07206053013858679</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2759094540203368</v>
+        <v>0.1423177223381893</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1075736448750071</v>
+        <v>0.1112623410089002</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2760180145822403</v>
+        <v>0.1413703236322515</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01975466590139778</v>
+        <v>0.003773437852341854</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2752846046008765</v>
+        <v>0.04881821145881088</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03135076045247168</v>
+        <v>0.03294153341083578</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2769423985020871</v>
+        <v>0.1455230980969329</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06812769912654765</v>
+        <v>0.07162934501284285</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2775517721990292</v>
+        <v>0.1431648516378214</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1057926100225819</v>
+        <v>0.110714616612245</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2776609789547536</v>
+        <v>0.1422118136538721</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01747029943173755</v>
+        <v>0.003707754003189297</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2769135075866805</v>
+        <v>0.04879567902174781</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03059512609423787</v>
+        <v>0.03282712591362069</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2785811109192592</v>
+        <v>0.1463841815176248</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0674255087924121</v>
+        <v>0.07159843906821667</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2791940903777217</v>
+        <v>0.1440119809374535</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1037446528065296</v>
+        <v>0.1107673190684785</v>
       </c>
       <c r="O235" t="n">
-        <v>0.279303943327267</v>
+        <v>0.1430533036754926</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01919938946645547</v>
+        <v>0.003654448450584734</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2785424105724845</v>
+        <v>0.04877314658468473</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03045940833352059</v>
+        <v>0.03281285148954455</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2802198233364313</v>
+        <v>0.1472452649383167</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06666580373281447</v>
+        <v>0.07206781783971553</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2808364085564142</v>
+        <v>0.1448591102370856</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1021619517959752</v>
+        <v>0.1108204567508402</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2809469076997803</v>
+        <v>0.1438947936971132</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01694779739775951</v>
+        <v>0.003613902017933636</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2801713135582884</v>
+        <v>0.04875061414762166</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03005305326448555</v>
+        <v>0.03289871279287081</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2818585357536034</v>
+        <v>0.1481063483590086</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06516940854855105</v>
+        <v>0.07183748686234678</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2824787267351067</v>
+        <v>0.1457062395367177</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1016766855600441</v>
+        <v>0.1103740380325693</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2825898720722936</v>
+        <v>0.1447362837187337</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01671560981939007</v>
+        <v>0.003586495528641424</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2818002165440925</v>
+        <v>0.04872808171055859</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02938041940539673</v>
+        <v>0.03268471247786289</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2834972481707755</v>
+        <v>0.1489674317797005</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06474860232075247</v>
+        <v>0.07200745167111777</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2841210449137992</v>
+        <v>0.1465533688363498</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09930850421462117</v>
+        <v>0.1103280712869055</v>
       </c>
       <c r="O238" t="n">
-        <v>0.284232836444807</v>
+        <v>0.1455777737403542</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01648447958022557</v>
+        <v>0.003572609806113541</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2834291195298965</v>
+        <v>0.04870554927349552</v>
       </c>
       <c r="J239" t="n">
-        <v>0.029012593410512</v>
+        <v>0.03287085319878429</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2851359605879477</v>
+        <v>0.1498285152003924</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06364143112621967</v>
+        <v>0.07157771780103581</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2857633630924916</v>
+        <v>0.1474004981359818</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09916227618702461</v>
+        <v>0.1107825648870879</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2858758008173203</v>
+        <v>0.1464192637619748</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01625247239592498</v>
+        <v>0.003571070644849871</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2850580225157005</v>
+        <v>0.04868301683643245</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02884336595844401</v>
+        <v>0.03285713760989839</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2867746730051198</v>
+        <v>0.1506895986210844</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06323117980873633</v>
+        <v>0.07184829078710822</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2874056812711842</v>
+        <v>0.1482476274356139</v>
       </c>
       <c r="N240" t="n">
-        <v>0.0974112913163927</v>
+        <v>0.1099375272063562</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2875187651898337</v>
+        <v>0.1472607537835953</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01801957438063281</v>
+        <v>0.003572928694822522</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2866869255015045</v>
+        <v>0.04866048439936937</v>
       </c>
       <c r="J241" t="n">
-        <v>0.0282727146710454</v>
+        <v>0.03264356836546868</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2884133854222919</v>
+        <v>0.1515506820417763</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06251779903405108</v>
+        <v>0.07151917616434234</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2890479994498766</v>
+        <v>0.149094756735246</v>
       </c>
       <c r="N241" t="n">
-        <v>0.09615547337050179</v>
+        <v>0.1108929666179497</v>
       </c>
       <c r="O241" t="n">
-        <v>0.289161729562347</v>
+        <v>0.1481022438052159</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01778577164849356</v>
+        <v>0.003577009750531365</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2883158284873085</v>
+        <v>0.0486379519623063</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02800061717016877</v>
+        <v>0.0328301481197586</v>
       </c>
       <c r="K242" t="n">
-        <v>0.290052097839464</v>
+        <v>0.1524117654624682</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06160123946791232</v>
+        <v>0.07189037946774549</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2906903176285691</v>
+        <v>0.1499418860348781</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0942947461171284</v>
+        <v>0.1104488914951078</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2908046939348603</v>
+        <v>0.1489437338268365</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01555105031365171</v>
+        <v>0.00358369463538185</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2899447314731125</v>
+        <v>0.04861541952524323</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02772705107766675</v>
+        <v>0.0325168795270316</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2916908102566361</v>
+        <v>0.1532728488831601</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0607814517760685</v>
+        <v>0.07116190623232499</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2923326358072615</v>
+        <v>0.1507890153345101</v>
       </c>
       <c r="N243" t="n">
-        <v>0.09372903332404886</v>
+        <v>0.1109053102110699</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2924476583073736</v>
+        <v>0.149785223848457</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01731539649025177</v>
+        <v>0.003593364172779417</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2915736344589165</v>
+        <v>0.04859288708818015</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02725199401539198</v>
+        <v>0.03260376524155108</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2933295226738082</v>
+        <v>0.154133932303852</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06005838662426816</v>
+        <v>0.07163376199308816</v>
       </c>
       <c r="M244" t="n">
-        <v>0.293974953985954</v>
+        <v>0.1516361446341422</v>
       </c>
       <c r="N244" t="n">
-        <v>0.09285825875903975</v>
+        <v>0.1101622311390754</v>
       </c>
       <c r="O244" t="n">
-        <v>0.294090622679887</v>
+        <v>0.1506267138700775</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01707879629243823</v>
+        <v>0.003606399186129518</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2932025374447205</v>
+        <v>0.04857035465111708</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02677542360519709</v>
+        <v>0.03269080791758057</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2949682350909803</v>
+        <v>0.1549950157245439</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05913199467825964</v>
+        <v>0.0712059522850424</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2956172721646466</v>
+        <v>0.1524832739337743</v>
       </c>
       <c r="N245" t="n">
-        <v>0.09138234618987739</v>
+        <v>0.1108196626523639</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2957335870524003</v>
+        <v>0.151468203891698</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0148412358343556</v>
+        <v>0.003623180498837579</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2948314404305245</v>
+        <v>0.04854782221405401</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02659731746893469</v>
+        <v>0.03267801020938342</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2966069475081524</v>
+        <v>0.1558560991452358</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05820222660379154</v>
+        <v>0.07117848264319493</v>
       </c>
       <c r="M246" t="n">
-        <v>0.297259590343339</v>
+        <v>0.1533304032334064</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08980121938433844</v>
+        <v>0.1100776131241745</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2973765514249136</v>
+        <v>0.1523096939133186</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01660270123014838</v>
+        <v>0.003644088934309044</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2964603434163285</v>
+        <v>0.04852528977699094</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02601765322845744</v>
+        <v>0.03246537477122316</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2982456599253245</v>
+        <v>0.1567171825659277</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05696903306661219</v>
+        <v>0.07105135860255318</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2989019085220315</v>
+        <v>0.1541775325330385</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08891480211019909</v>
+        <v>0.1098360909277469</v>
       </c>
       <c r="O247" t="n">
-        <v>0.299019515797427</v>
+        <v>0.1531511839349392</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01436317859396105</v>
+        <v>0.003669505315949367</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2980892464021325</v>
+        <v>0.04850275733992786</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02563640850561791</v>
+        <v>0.03275290425736317</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2998843723424967</v>
+        <v>0.1575782659866196</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05613236473247016</v>
+        <v>0.0714245856981244</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3005442267007239</v>
+        <v>0.1550246618326705</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08762301813523599</v>
+        <v>0.1102951044363203</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3006624801699403</v>
+        <v>0.1539926739565597</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01512265403993813</v>
+        <v>0.003699810467164</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2997181493879365</v>
+        <v>0.04848022490286479</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02545356092226879</v>
+        <v>0.03254060132206693</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3015230847596688</v>
+        <v>0.1584393494073116</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0556921722671139</v>
+        <v>0.07159816946491593</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3021865448794164</v>
+        <v>0.1558717911323026</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08632579122722539</v>
+        <v>0.1102546620231343</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3023054445424537</v>
+        <v>0.1548341639781803</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01388111368222411</v>
+        <v>0.003735385211358348</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3013470523737405</v>
+        <v>0.04845769246580172</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02506908810026266</v>
+        <v>0.0327284686195979</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3031617971768409</v>
+        <v>0.1593004328280035</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05464840633629181</v>
+        <v>0.07137211543793517</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3038288630581089</v>
+        <v>0.1567189204319347</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08492304515394394</v>
+        <v>0.1102147720614282</v>
       </c>
       <c r="O250" t="n">
-        <v>0.303948408914967</v>
+        <v>0.1556756539998008</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01363854363496347</v>
+        <v>0.003776610371937897</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3029759553595445</v>
+        <v>0.04843516002873865</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02458296766145217</v>
+        <v>0.03261650880421949</v>
       </c>
       <c r="K251" t="n">
-        <v>0.304800509594013</v>
+        <v>0.1601615162486954</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05390101760575244</v>
+        <v>0.07164642915218938</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3054711812368014</v>
+        <v>0.1575660497315668</v>
       </c>
       <c r="N251" t="n">
-        <v>0.08301470368316805</v>
+        <v>0.1102754429244415</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3055913732874803</v>
+        <v>0.1565171440214213</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01339493001230075</v>
+        <v>0.003823866772308081</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3046048583453485</v>
+        <v>0.04841262759167557</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02439517722768995</v>
+        <v>0.03250472453019516</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3064392220111851</v>
+        <v>0.1610225996693873</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05324995674124422</v>
+        <v>0.0716211161426859</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3071134994154939</v>
+        <v>0.1584131790311989</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08190069058267413</v>
+        <v>0.1104366829854136</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3072343376599937</v>
+        <v>0.1573586340430419</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01415025892838041</v>
+        <v>0.003877535235874321</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3062337613311525</v>
+        <v>0.0483900951546125</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02390569442082863</v>
+        <v>0.03259311845178837</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3080779344283572</v>
+        <v>0.1618836830900792</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05229517440851558</v>
+        <v>0.07119618194443206</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3087558175941864</v>
+        <v>0.1592603083308309</v>
       </c>
       <c r="N253" t="n">
-        <v>0.08108092962023855</v>
+        <v>0.1096985006175837</v>
       </c>
       <c r="O253" t="n">
-        <v>0.308877302032507</v>
+        <v>0.1582001240646624</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01290451649734697</v>
+        <v>0.003937996586042061</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3078626643169565</v>
+        <v>0.04836756271754943</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02341449686272082</v>
+        <v>0.03268169322326256</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3097166468455294</v>
+        <v>0.1627447665107711</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05163662127331506</v>
+        <v>0.07097163209243523</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3103981357728788</v>
+        <v>0.160107437630463</v>
       </c>
       <c r="N254" t="n">
-        <v>0.07895534456363779</v>
+        <v>0.1096609041941916</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3105202664050203</v>
+        <v>0.159041614086283</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01465768883334492</v>
+        <v>0.004005631646216756</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3094915673027606</v>
+        <v>0.04834503028048635</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02312156217521916</v>
+        <v>0.03257045149888114</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3113553592627015</v>
+        <v>0.163605849931463</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05087424800139101</v>
+        <v>0.07084747212170264</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3120404539515713</v>
+        <v>0.1609545669300951</v>
       </c>
       <c r="N255" t="n">
-        <v>0.07852385918064853</v>
+        <v>0.1101239020884763</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3121632307775337</v>
+        <v>0.1598831041079035</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01240976205051876</v>
+        <v>0.004080821239803849</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3111204702885645</v>
+        <v>0.04832249784342328</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02262686798017625</v>
+        <v>0.03235939593290763</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3129940716798736</v>
+        <v>0.1644669333521549</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04930800525849202</v>
+        <v>0.07112370756724171</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3136827721302638</v>
+        <v>0.1618016962297272</v>
       </c>
       <c r="N256" t="n">
-        <v>0.07698639723904688</v>
+        <v>0.1099875026736776</v>
       </c>
       <c r="O256" t="n">
-        <v>0.313806195150047</v>
+        <v>0.1607245941295241</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01416072226301299</v>
+        <v>0.004163946190208788</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3127493732743685</v>
+        <v>0.04829996540636021</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02213039189944478</v>
+        <v>0.03254852917960542</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3146327840970457</v>
+        <v>0.1653280167728469</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04903784371036649</v>
+        <v>0.07150034396405974</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3153250903089563</v>
+        <v>0.1626488255293592</v>
       </c>
       <c r="N257" t="n">
-        <v>0.07524288250660949</v>
+        <v>0.1094517143230347</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3154491595225604</v>
+        <v>0.1615660841511446</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.0119105555849721</v>
+        <v>0.004255387320836988</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3143782762601726</v>
+        <v>0.04827743296929714</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02193211155487731</v>
+        <v>0.03243785389323793</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3162714965142178</v>
+        <v>0.1661891001935387</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04766371402276287</v>
+        <v>0.07127738684716406</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3169674084876488</v>
+        <v>0.1634959548289913</v>
       </c>
       <c r="N258" t="n">
-        <v>0.07439323875111276</v>
+        <v>0.110216545409787</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3170921238950737</v>
+        <v>0.1624075741727652</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01165924813054061</v>
+        <v>0.004355525455093934</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3160071792459765</v>
+        <v>0.04825490053223407</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02133200456832653</v>
+        <v>0.03262737272806868</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3179102089313899</v>
+        <v>0.1670501836142307</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04728556686142965</v>
+        <v>0.07075484175156199</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3186097266663412</v>
+        <v>0.1643430841286234</v>
       </c>
       <c r="N259" t="n">
-        <v>0.07243738974033315</v>
+        <v>0.110082004307174</v>
       </c>
       <c r="O259" t="n">
-        <v>0.318735088267587</v>
+        <v>0.1632490641943857</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.011406786013863</v>
+        <v>0.004464741416385067</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3176360822317806</v>
+        <v>0.04823236809517099</v>
       </c>
       <c r="J260" t="n">
-        <v>0.021030048561645</v>
+        <v>0.03251708833836106</v>
       </c>
       <c r="K260" t="n">
-        <v>0.319548921348562</v>
+        <v>0.1679112670349226</v>
       </c>
       <c r="L260" t="n">
-        <v>0.0465033528921153</v>
+        <v>0.07143271421226088</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3202520448450337</v>
+        <v>0.1651902134282555</v>
       </c>
       <c r="N260" t="n">
-        <v>0.07077525924204703</v>
+        <v>0.1093480993884351</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3203780526401003</v>
+        <v>0.1640905542160062</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01115315534908376</v>
+        <v>0.004583416028115767</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3192649852175846</v>
+        <v>0.04820983565810791</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0206262211566854</v>
+        <v>0.03250700337837856</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3211876337657341</v>
+        <v>0.1687723504556145</v>
       </c>
       <c r="L261" t="n">
-        <v>0.0452170227805683</v>
+        <v>0.070711009764268</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3218943630237262</v>
+        <v>0.1660373427278876</v>
       </c>
       <c r="N261" t="n">
-        <v>0.06980677102403104</v>
+        <v>0.1092148390268097</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3220210170126137</v>
+        <v>0.1649320442376268</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01289834225034741</v>
+        <v>0.004711930113691545</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3208938882033885</v>
+        <v>0.04818730322104484</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02012049997530033</v>
+        <v>0.03249712050238458</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3228263461829062</v>
+        <v>0.1696334338763064</v>
       </c>
       <c r="L262" t="n">
-        <v>0.0446265271925371</v>
+        <v>0.07068973394259073</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3235366812024187</v>
+        <v>0.1668844720275196</v>
       </c>
       <c r="N262" t="n">
-        <v>0.06833184885406141</v>
+        <v>0.1090822315955371</v>
       </c>
       <c r="O262" t="n">
-        <v>0.323663981385127</v>
+        <v>0.1657735342592473</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01264233283179845</v>
+        <v>0.004850664496517797</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3225227911891925</v>
+        <v>0.04816477078398177</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01991286263934242</v>
+        <v>0.03228744236464261</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3244650586000784</v>
+        <v>0.1704945172969983</v>
       </c>
       <c r="L263" t="n">
-        <v>0.04383181679377013</v>
+        <v>0.07136889228223642</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3251789993811112</v>
+        <v>0.1677316013271517</v>
       </c>
       <c r="N263" t="n">
-        <v>0.06695041649991473</v>
+        <v>0.110050285467857</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3253069457576404</v>
+        <v>0.1666150242808679</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01238511320758135</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3241516941749966</v>
+        <v>0.0481422383469187</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01950328677066432</v>
+        <v>0.03257797161941606</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3261037710172505</v>
+        <v>0.1713556007176902</v>
       </c>
       <c r="L264" t="n">
-        <v>0.04223284225001586</v>
+        <v>0.07114849031821233</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3268213175598036</v>
+        <v>0.1685787306267838</v>
       </c>
       <c r="N264" t="n">
-        <v>0.06576239772936743</v>
+        <v>0.1093190090170085</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3269499101301537</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1674565143024884</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04812908045218186</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005283671276675353</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04812934898064587</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005564549956305349</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04812961750910989</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005842549148684678</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04812988603757391</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006117581963632351</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04813015456603793</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006389561510943303</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04813042309450194</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006658400900436311</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04813069162296596</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.006924013241906564</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04813096015142998</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007186311645172548</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.048131228679894</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007445209220029753</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04813149720835801</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007700619076296371</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04813176573682203</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.007952454323768191</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04813203426528605</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008200628072263093</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04813230279375007</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008445053431577185</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04813257132221408</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008685643511528021</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.0481328398506781</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.008922311421912049</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04813310837914211</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009154970272546477</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04813337690760613</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009383533173228091</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04813364543607015</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009607913233768924</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04813391396453417</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.009828023563980631</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04813418249299819</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01004377727366055</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.0481344510214622</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01025508747262498</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04813471954992622</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01046186727067164</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04813498807839024</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01066402977761644</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04813525660685426</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.0108614881032575</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04813552513531827</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01105451015903212</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04813579366378229</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01124513786446937</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.0481360621922463</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01143363913100625</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04813633072071032</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01161992706844146</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04813659924917434</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01180391478659001</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04813686777763836</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.0119855153952508</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04813713630610237</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01216464200423868</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04813740483456639</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01234120772335274</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04813767336303041</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01251512566240383</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04813794189149442</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01268630893120256</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04813821041995844</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01285467063954841</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04813847894842246</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.0130201238972556</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04813874747688648</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01318258181412385</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04813901600535049</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01334195749996716</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04813928453381451</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01349816406458548</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04813955306227852</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01365111461779255</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04813982159074254</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0138007222693886</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04814009011920656</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01394690012918709</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04814035864767058</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01408956130698855</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.0481406271761346</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01422861891260609</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04814089570459862</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.0143639860558406</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04814116423306263</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01449557584650486</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04814143276152665</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01462330139440009</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04814170128999067</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01474707580933873</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04814196981845469</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01486681220112233</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.0481422383469187</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01486681220112233</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04812908045218186</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01497574558314813</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04815214994617296</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01508217327513623</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04817521944016407</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01518591845031523</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04819828893415518</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01528680428191374</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04822135842814629</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01538465394316037</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04824442792213739</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01547929060728376</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.0482674974161285</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01557053744751249</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.0482905669101196</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01565821763707518</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04831363640411071</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01574215434920048</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04833670589810182</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01582217075711695</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04835977539209293</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01589809003405322</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04838284488608404</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.0159697353532379</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04840591438007515</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01603692988789961</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04842898387406625</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01609949681126698</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04845205336805736</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01615725929656857</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04847512286204846</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01621004051703305</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04849819235603957</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01625766364588901</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04852126185003067</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01629995185636506</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04854433134402179</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01633672832168982</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04856740083801289</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.0163678162150919</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.048590470332004</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01639303870979991</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.0486135398259951</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01641221897904245</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04863660931998621</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01642518019604816</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04865967881397731</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01643174553404564</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04868274830796843</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01643246020891333</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04870581780195954</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01643147964977883</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04872888729595064</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01642934907252059</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04875195678994175</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01642589165036722</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04877502628393286</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01642093055654734</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04879809577792396</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01641428896428954</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04882116527191507</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01640579004682246</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04884423476590618</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.0163952569773747</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04886730425989728</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01638251292917486</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04889037375388839</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01636738107545158</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.0489134432478795</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01634968458943346</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.0489365127418706</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01632924664434911</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04895958223586171</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01630589041342715</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04898265172985281</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01627943906989619</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04900572122384392</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01624971578698483</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04902879071783503</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0162165437379217</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04905186021182614</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01617974609593539</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04907492970581725</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01613914603425454</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04909799919980835</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01609456672610775</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04912106869379946</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01604583134472364</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04914413818779056</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01599276306333082</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04916720768178168</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.0159351850551579</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04919027717577278</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01587292049343348</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04921334666976389</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.0158057925513862</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04923641616375499</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01573362440224465</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.0492594856577461</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01573362440224465</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.0492594856577461</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01605547930915491</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05084183015898371</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01637093757067599</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.0524241746602213</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01667986139715484</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.0540065191614589</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01698211299893838</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.0555888636626965</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.0172775545863736</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.0571712081639341</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01756604836980741</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.0587535526651717</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01784745655958678</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.0603358971664093</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01812164136605864</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.0619182416676469</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.01838846499956993</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.0635005861688845</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01864778967046762</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06508293067012211</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.01889947758909864</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06666527517135971</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.01914339096580994</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06824761967259729</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.01937939201094847</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.0698299641738349</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.01960734293486116</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07141230867507251</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.01982710594789498</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07299465317631011</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02003854326039686</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.0745769976775477</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02024151708271375</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.0761593421787853</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02043588962519259</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.0777416866800229</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02062152309818033</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.07932403118126051</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02079827971202395</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.0809063756824981</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02096602167707035</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08248872018373571</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02112461120366647</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.0840710646849733</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02127391050215931</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08565340918621091</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02141378178289576</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08723575368744851</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.0215440872562228</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.08881809818868609</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02166468913248738</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09040044268992371</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02177544962203642</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09198278719116131</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02187623093521687</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09356513169239891</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02196689528237569</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.0951474761936365</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02204730487385983</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.0967298206948741</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02211732192001623</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.0983121651961117</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02217680863119182</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.09989450969734931</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02222562721773356</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1014768541985869</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02226363988998841</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1030591986998245</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02229070885830329</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1046415432010621</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02231149920299288</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1062238877022997</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.0223114835736779</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1078062322035373</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.0223085957492132</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1093885767047749</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02230097112189506</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1109709212060125</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02228896944482587</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1125532657072501</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02227295047110799</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1141356102084877</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02225327395384385</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1157179547097253</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.0222302996461358</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1173002992109629</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02220438730108622</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1188826437122005</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02217589667179754</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1204649882134381</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02214518751137213</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1220473327146757</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02211261957291234</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1236296772159133</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.0220785526095206</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1252120217171509</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02204334637429926</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1267943662183885</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02200736062035074</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1283767107196261</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.0219707124799606</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1299590552208637</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02192262115888276</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1315413997221013</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02185983474995067</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1331237442233389</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02178609532858067</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1347060887245765</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02170514497018918</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1362884332258141</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02162072575019255</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1378707777270517</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02153657974400713</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1394531222282893</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02145644902704932</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1410354667295269</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02138407567473544</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1426178112307645</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02132320176248193</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1442001557320021</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02127756936570514</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1457825002332397</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02124345373616286</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1473648447344773</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02121142291600946</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1489471892357149</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02118127267365273</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02115288309843028</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1521118782381901</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02112613427967971</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1536942227394277</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02110090630673867</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1552765672406653</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02107707926894477</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1568589117419029</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02105453325563562</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1584412562431405</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02103314835614883</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1600236007443781</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02101280465982203</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1616059452456157</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02099338225599284</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1631882897468533</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02097476123399886</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1647706342480909</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02095682168317774</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1663529787493285</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02093944369286707</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1679353232505661</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02092250735240449</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1695176677518037</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.0209058927511276</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1711000122530413</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02088947997837402</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1726823567542789</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02087314912348139</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1742647012555165</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.0208567802757873</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1758470457567541</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02084025352462938</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1774293902579917</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02082344895934526</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1790117347592293</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02080659788550952</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1805940792604669</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02079002842206901</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1821764237617045</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02077375099363899</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1837587682629421</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02075777600618913</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1853411127641797</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02074211386568917</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1869234572654173</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02072677497810884</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1885058017666549</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02071176974941784</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1900881462678925</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02069710858558591</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1916704907691301</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02068280189258279</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1932528352703677</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02066886007637817</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1948351797716053</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02065529354294178</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1964175242728429</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02064211269824336</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1979998687740805</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02062932794825262</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.1995822132753181</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02061694969893928</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2011645577765557</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02060498835627307</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2027469022777933</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02059345432622371</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2043292467790309</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02058235801476093</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2059115912802685</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
